--- a/data/episodes/season_numbering.xlsx
+++ b/data/episodes/season_numbering.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>S.</t>
   </si>
@@ -69,16 +69,7 @@
     <t xml:space="preserve">BW: Rival Destinies</t>
   </si>
   <si>
-    <t xml:space="preserve">16 a</t>
-  </si>
-  <si>
     <t xml:space="preserve">BW: Adventures in Unova</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16 b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adventures in Unova and Beyond</t>
   </si>
   <si>
     <t>XY</t>
@@ -4039,11 +4030,11 @@
       <c r="CG16" s="1"/>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
@@ -4120,27 +4111,69 @@
       <c r="AA17" s="11">
         <v>25</v>
       </c>
-      <c r="AB17" s="1"/>
-      <c r="AC17" s="13"/>
-      <c r="AD17" s="13"/>
-      <c r="AE17" s="13"/>
-      <c r="AF17" s="13"/>
-      <c r="AG17" s="13"/>
-      <c r="AH17" s="13"/>
-      <c r="AI17" s="13"/>
-      <c r="AJ17" s="13"/>
-      <c r="AK17" s="13"/>
-      <c r="AL17" s="13"/>
-      <c r="AM17" s="13"/>
-      <c r="AN17" s="13"/>
-      <c r="AO17" s="13"/>
-      <c r="AP17" s="13"/>
-      <c r="AQ17" s="13"/>
-      <c r="AR17" s="13"/>
-      <c r="AS17" s="13"/>
-      <c r="AT17" s="13"/>
-      <c r="AU17" s="13"/>
-      <c r="AV17" s="13"/>
+      <c r="AB17" s="11">
+        <v>26</v>
+      </c>
+      <c r="AC17" s="1">
+        <v>27</v>
+      </c>
+      <c r="AD17" s="10">
+        <v>28</v>
+      </c>
+      <c r="AE17" s="1">
+        <v>29</v>
+      </c>
+      <c r="AF17" s="1">
+        <v>30</v>
+      </c>
+      <c r="AG17" s="7">
+        <v>31</v>
+      </c>
+      <c r="AH17" s="1">
+        <v>32</v>
+      </c>
+      <c r="AI17" s="1">
+        <v>33</v>
+      </c>
+      <c r="AJ17" s="1">
+        <v>34</v>
+      </c>
+      <c r="AK17" s="1">
+        <v>35</v>
+      </c>
+      <c r="AL17" s="1">
+        <v>36</v>
+      </c>
+      <c r="AM17" s="9">
+        <v>16</v>
+      </c>
+      <c r="AN17" s="6">
+        <v>37</v>
+      </c>
+      <c r="AO17" s="1">
+        <v>38</v>
+      </c>
+      <c r="AP17" s="1">
+        <v>39</v>
+      </c>
+      <c r="AQ17" s="1">
+        <v>40</v>
+      </c>
+      <c r="AR17" s="1">
+        <v>41</v>
+      </c>
+      <c r="AS17" s="1">
+        <v>42</v>
+      </c>
+      <c r="AT17" s="1">
+        <v>43</v>
+      </c>
+      <c r="AU17" s="6">
+        <v>44</v>
+      </c>
+      <c r="AV17" s="11">
+        <v>45</v>
+      </c>
       <c r="AW17" s="13"/>
       <c r="AX17" s="13"/>
       <c r="AY17" s="13"/>
@@ -4180,31 +4213,31 @@
       <c r="CG17" s="1"/>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="s">
-        <v>19</v>
+      <c r="A18" s="1">
+        <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="11">
+        <v>18</v>
+      </c>
+      <c r="C18" s="6">
         <v>1</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="5">
         <v>2</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="5">
         <v>3</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="7">
         <v>4</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="8">
         <v>5</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="8">
         <v>6</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18" s="6">
         <v>7</v>
       </c>
       <c r="J18" s="1">
@@ -4213,70 +4246,126 @@
       <c r="K18" s="1">
         <v>9</v>
       </c>
-      <c r="L18" s="1">
+      <c r="L18" s="7">
         <v>10</v>
       </c>
-      <c r="M18" s="1">
+      <c r="M18" s="7">
         <v>11</v>
       </c>
-      <c r="N18" s="9">
+      <c r="N18" s="1">
+        <v>12</v>
+      </c>
+      <c r="O18" s="1">
+        <v>13</v>
+      </c>
+      <c r="P18" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>15</v>
+      </c>
+      <c r="R18" s="1">
         <v>16</v>
       </c>
-      <c r="O18" s="6">
-        <v>12</v>
-      </c>
-      <c r="P18" s="1">
-        <v>13</v>
-      </c>
-      <c r="Q18" s="1">
-        <v>14</v>
-      </c>
-      <c r="R18" s="1">
-        <v>15</v>
-      </c>
       <c r="S18" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="T18" s="1">
+        <v>18</v>
+      </c>
+      <c r="U18" s="1">
+        <v>19</v>
+      </c>
+      <c r="V18" s="8">
+        <v>20</v>
+      </c>
+      <c r="W18" s="1">
+        <v>21</v>
+      </c>
+      <c r="X18" s="1">
+        <v>22</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>23</v>
+      </c>
+      <c r="Z18" s="8">
+        <v>24</v>
+      </c>
+      <c r="AA18" s="1">
+        <v>25</v>
+      </c>
+      <c r="AB18" s="1">
+        <v>26</v>
+      </c>
+      <c r="AC18" s="11">
+        <v>27</v>
+      </c>
+      <c r="AD18" s="1">
+        <v>28</v>
+      </c>
+      <c r="AE18" s="11">
+        <v>29</v>
+      </c>
+      <c r="AF18" s="11">
+        <v>30</v>
+      </c>
+      <c r="AG18" s="11">
+        <v>31</v>
+      </c>
+      <c r="AH18" s="1">
+        <v>32</v>
+      </c>
+      <c r="AI18" s="11">
+        <v>33</v>
+      </c>
+      <c r="AJ18" s="6">
+        <v>34</v>
+      </c>
+      <c r="AK18" s="5">
+        <v>35</v>
+      </c>
+      <c r="AL18" s="1">
+        <v>36</v>
+      </c>
+      <c r="AM18" s="1">
+        <v>37</v>
+      </c>
+      <c r="AN18" s="12">
         <v>17</v>
       </c>
-      <c r="U18" s="1">
-        <v>18</v>
-      </c>
-      <c r="V18" s="6">
-        <v>19</v>
-      </c>
-      <c r="W18" s="11">
-        <v>20</v>
-      </c>
-      <c r="X18" s="13"/>
-      <c r="Y18" s="13"/>
-      <c r="Z18" s="13"/>
-      <c r="AA18" s="13"/>
-      <c r="AB18" s="13"/>
-      <c r="AC18" s="13"/>
-      <c r="AD18" s="13"/>
-      <c r="AE18" s="13"/>
-      <c r="AF18" s="13"/>
-      <c r="AG18" s="13"/>
-      <c r="AH18" s="13"/>
-      <c r="AI18" s="13"/>
-      <c r="AJ18" s="13"/>
-      <c r="AK18" s="13"/>
-      <c r="AL18" s="13"/>
-      <c r="AM18" s="13"/>
-      <c r="AN18" s="13"/>
-      <c r="AO18" s="13"/>
-      <c r="AP18" s="13"/>
-      <c r="AQ18" s="13"/>
-      <c r="AR18" s="13"/>
-      <c r="AS18" s="13"/>
-      <c r="AT18" s="13"/>
-      <c r="AU18" s="13"/>
-      <c r="AV18" s="13"/>
-      <c r="AW18" s="13"/>
-      <c r="AX18" s="13"/>
-      <c r="AY18" s="13"/>
+      <c r="AO18" s="1">
+        <v>38</v>
+      </c>
+      <c r="AP18" s="1">
+        <v>39</v>
+      </c>
+      <c r="AQ18" s="1">
+        <v>40</v>
+      </c>
+      <c r="AR18" s="1">
+        <v>41</v>
+      </c>
+      <c r="AS18" s="1">
+        <v>42</v>
+      </c>
+      <c r="AT18" s="8">
+        <v>43</v>
+      </c>
+      <c r="AU18" s="1">
+        <v>44</v>
+      </c>
+      <c r="AV18" s="1">
+        <v>45</v>
+      </c>
+      <c r="AW18" s="1">
+        <v>46</v>
+      </c>
+      <c r="AX18" s="7">
+        <v>47</v>
+      </c>
+      <c r="AY18" s="1">
+        <v>48</v>
+      </c>
       <c r="AZ18" s="13"/>
       <c r="BA18" s="13"/>
       <c r="BB18" s="13"/>
@@ -4314,30 +4403,30 @@
     </row>
     <row r="19">
       <c r="A19" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="6">
+        <v>19</v>
+      </c>
+      <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="1">
         <v>2</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="1">
         <v>3</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="5">
         <v>4</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="1">
         <v>5</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H19" s="1">
         <v>6</v>
       </c>
-      <c r="I19" s="6">
+      <c r="I19" s="5">
         <v>7</v>
       </c>
       <c r="J19" s="1">
@@ -4346,94 +4435,94 @@
       <c r="K19" s="1">
         <v>9</v>
       </c>
-      <c r="L19" s="7">
+      <c r="L19" s="8">
         <v>10</v>
       </c>
-      <c r="M19" s="7">
+      <c r="M19" s="1">
         <v>11</v>
       </c>
       <c r="N19" s="1">
         <v>12</v>
       </c>
-      <c r="O19" s="1">
+      <c r="O19" s="5">
         <v>13</v>
       </c>
-      <c r="P19" s="1">
+      <c r="P19" s="7">
         <v>14</v>
       </c>
       <c r="Q19" s="1">
         <v>15</v>
       </c>
-      <c r="R19" s="1">
+      <c r="R19" s="7">
         <v>16</v>
       </c>
-      <c r="S19" s="1">
+      <c r="S19" s="5">
         <v>17</v>
       </c>
       <c r="T19" s="1">
         <v>18</v>
       </c>
-      <c r="U19" s="1">
+      <c r="U19" s="8">
         <v>19</v>
       </c>
-      <c r="V19" s="8">
+      <c r="V19" s="1">
         <v>20</v>
       </c>
       <c r="W19" s="1">
         <v>21</v>
       </c>
-      <c r="X19" s="1">
+      <c r="X19" s="11">
         <v>22</v>
       </c>
       <c r="Y19" s="1">
         <v>23</v>
       </c>
-      <c r="Z19" s="8">
+      <c r="Z19" s="1">
         <v>24</v>
       </c>
       <c r="AA19" s="1">
         <v>25</v>
       </c>
-      <c r="AB19" s="1">
+      <c r="AB19" s="8">
         <v>26</v>
       </c>
-      <c r="AC19" s="11">
+      <c r="AC19" s="7">
         <v>27</v>
       </c>
-      <c r="AD19" s="1">
+      <c r="AD19" s="5">
         <v>28</v>
       </c>
-      <c r="AE19" s="11">
+      <c r="AE19" s="1">
         <v>29</v>
       </c>
-      <c r="AF19" s="11">
+      <c r="AF19" s="1">
         <v>30</v>
       </c>
-      <c r="AG19" s="11">
+      <c r="AG19" s="1">
         <v>31</v>
       </c>
-      <c r="AH19" s="1">
+      <c r="AH19" s="8">
         <v>32</v>
       </c>
-      <c r="AI19" s="11">
+      <c r="AI19" s="1">
         <v>33</v>
       </c>
-      <c r="AJ19" s="6">
+      <c r="AJ19" s="7">
         <v>34</v>
       </c>
-      <c r="AK19" s="5">
+      <c r="AK19" s="12">
+        <v>18</v>
+      </c>
+      <c r="AL19" s="1">
         <v>35</v>
       </c>
-      <c r="AL19" s="1">
+      <c r="AM19" s="1">
         <v>36</v>
       </c>
-      <c r="AM19" s="1">
+      <c r="AN19" s="1">
         <v>37</v>
       </c>
-      <c r="AN19" s="12">
-        <v>17</v>
-      </c>
-      <c r="AO19" s="1">
+      <c r="AO19" s="5">
         <v>38</v>
       </c>
       <c r="AP19" s="1">
@@ -4442,7 +4531,7 @@
       <c r="AQ19" s="1">
         <v>40</v>
       </c>
-      <c r="AR19" s="1">
+      <c r="AR19" s="7">
         <v>41</v>
       </c>
       <c r="AS19" s="1">
@@ -4454,18 +4543,12 @@
       <c r="AU19" s="1">
         <v>44</v>
       </c>
-      <c r="AV19" s="1">
+      <c r="AV19" s="8">
         <v>45</v>
       </c>
-      <c r="AW19" s="1">
-        <v>46</v>
-      </c>
-      <c r="AX19" s="7">
-        <v>47</v>
-      </c>
-      <c r="AY19" s="1">
-        <v>48</v>
-      </c>
+      <c r="AW19" s="13"/>
+      <c r="AX19" s="13"/>
+      <c r="AY19" s="13"/>
       <c r="AZ19" s="13"/>
       <c r="BA19" s="13"/>
       <c r="BB19" s="13"/>
@@ -4503,21 +4586,21 @@
     </row>
     <row r="20">
       <c r="A20" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="1">
+        <v>20</v>
+      </c>
+      <c r="C20" s="11">
         <v>1</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="11">
         <v>2</v>
       </c>
       <c r="E20" s="1">
         <v>3</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="1">
         <v>4</v>
       </c>
       <c r="G20" s="1">
@@ -4529,31 +4612,31 @@
       <c r="I20" s="5">
         <v>7</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J20" s="8">
         <v>8</v>
       </c>
       <c r="K20" s="1">
         <v>9</v>
       </c>
-      <c r="L20" s="8">
+      <c r="L20" s="1">
         <v>10</v>
       </c>
       <c r="M20" s="1">
         <v>11</v>
       </c>
-      <c r="N20" s="1">
+      <c r="N20" s="7">
         <v>12</v>
       </c>
-      <c r="O20" s="5">
+      <c r="O20" s="11">
         <v>13</v>
       </c>
-      <c r="P20" s="7">
+      <c r="P20" s="1">
         <v>14</v>
       </c>
       <c r="Q20" s="1">
         <v>15</v>
       </c>
-      <c r="R20" s="7">
+      <c r="R20" s="8">
         <v>16</v>
       </c>
       <c r="S20" s="5">
@@ -4565,13 +4648,13 @@
       <c r="U20" s="8">
         <v>19</v>
       </c>
-      <c r="V20" s="1">
+      <c r="V20" s="8">
         <v>20</v>
       </c>
       <c r="W20" s="1">
         <v>21</v>
       </c>
-      <c r="X20" s="11">
+      <c r="X20" s="1">
         <v>22</v>
       </c>
       <c r="Y20" s="1">
@@ -4580,22 +4663,22 @@
       <c r="Z20" s="1">
         <v>24</v>
       </c>
-      <c r="AA20" s="1">
+      <c r="AA20" s="11">
         <v>25</v>
       </c>
-      <c r="AB20" s="8">
+      <c r="AB20" s="1">
         <v>26</v>
       </c>
-      <c r="AC20" s="7">
+      <c r="AC20" s="8">
         <v>27</v>
       </c>
-      <c r="AD20" s="5">
+      <c r="AD20" s="1">
         <v>28</v>
       </c>
-      <c r="AE20" s="1">
+      <c r="AE20" s="8">
         <v>29</v>
       </c>
-      <c r="AF20" s="1">
+      <c r="AF20" s="8">
         <v>30</v>
       </c>
       <c r="AG20" s="1">
@@ -4604,50 +4687,54 @@
       <c r="AH20" s="8">
         <v>32</v>
       </c>
-      <c r="AI20" s="1">
+      <c r="AI20" s="8">
         <v>33</v>
       </c>
-      <c r="AJ20" s="7">
+      <c r="AJ20" s="8">
         <v>34</v>
       </c>
-      <c r="AK20" s="12">
-        <v>18</v>
-      </c>
-      <c r="AL20" s="1">
+      <c r="AK20" s="8">
         <v>35</v>
       </c>
-      <c r="AM20" s="1">
+      <c r="AL20" s="8">
         <v>36</v>
       </c>
-      <c r="AN20" s="1">
+      <c r="AM20" s="8">
         <v>37</v>
       </c>
-      <c r="AO20" s="5">
+      <c r="AN20" s="8">
         <v>38</v>
       </c>
-      <c r="AP20" s="1">
+      <c r="AO20" s="11">
         <v>39</v>
       </c>
-      <c r="AQ20" s="1">
+      <c r="AP20" s="11">
         <v>40</v>
       </c>
-      <c r="AR20" s="7">
+      <c r="AQ20" s="11">
         <v>41</v>
       </c>
-      <c r="AS20" s="1">
+      <c r="AR20" s="11">
         <v>42</v>
       </c>
-      <c r="AT20" s="8">
+      <c r="AS20" s="11">
         <v>43</v>
       </c>
+      <c r="AT20" s="1">
+        <v>44</v>
+      </c>
       <c r="AU20" s="1">
-        <v>44</v>
-      </c>
-      <c r="AV20" s="8">
         <v>45</v>
       </c>
-      <c r="AW20" s="13"/>
-      <c r="AX20" s="13"/>
+      <c r="AV20" s="11">
+        <v>46</v>
+      </c>
+      <c r="AW20" s="6">
+        <v>47</v>
+      </c>
+      <c r="AX20" s="12">
+        <v>19</v>
+      </c>
       <c r="AY20" s="13"/>
       <c r="AZ20" s="13"/>
       <c r="BA20" s="13"/>
@@ -4686,10 +4773,10 @@
     </row>
     <row r="21">
       <c r="A21" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C21" s="11">
         <v>1</v>
@@ -4697,10 +4784,10 @@
       <c r="D21" s="11">
         <v>2</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="11">
         <v>3</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="5">
         <v>4</v>
       </c>
       <c r="G21" s="1">
@@ -4709,16 +4796,16 @@
       <c r="H21" s="1">
         <v>6</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I21" s="1">
         <v>7</v>
       </c>
-      <c r="J21" s="8">
+      <c r="J21" s="1">
         <v>8</v>
       </c>
-      <c r="K21" s="1">
+      <c r="K21" s="8">
         <v>9</v>
       </c>
-      <c r="L21" s="1">
+      <c r="L21" s="8">
         <v>10</v>
       </c>
       <c r="M21" s="1">
@@ -4727,31 +4814,31 @@
       <c r="N21" s="7">
         <v>12</v>
       </c>
-      <c r="O21" s="11">
+      <c r="O21" s="7">
         <v>13</v>
       </c>
-      <c r="P21" s="1">
+      <c r="P21" s="7">
         <v>14</v>
       </c>
-      <c r="Q21" s="1">
+      <c r="Q21" s="5">
         <v>15</v>
       </c>
-      <c r="R21" s="8">
+      <c r="R21" s="1">
         <v>16</v>
       </c>
-      <c r="S21" s="5">
+      <c r="S21" s="1">
         <v>17</v>
       </c>
-      <c r="T21" s="1">
+      <c r="T21" s="7">
         <v>18</v>
       </c>
-      <c r="U21" s="8">
+      <c r="U21" s="1">
         <v>19</v>
       </c>
-      <c r="V21" s="8">
+      <c r="V21" s="1">
         <v>20</v>
       </c>
-      <c r="W21" s="1">
+      <c r="W21" s="5">
         <v>21</v>
       </c>
       <c r="X21" s="1">
@@ -4763,34 +4850,34 @@
       <c r="Z21" s="1">
         <v>24</v>
       </c>
-      <c r="AA21" s="11">
+      <c r="AA21" s="1">
         <v>25</v>
       </c>
-      <c r="AB21" s="1">
+      <c r="AB21" s="7">
         <v>26</v>
       </c>
-      <c r="AC21" s="8">
+      <c r="AC21" s="1">
         <v>27</v>
       </c>
       <c r="AD21" s="1">
         <v>28</v>
       </c>
-      <c r="AE21" s="8">
+      <c r="AE21" s="1">
         <v>29</v>
       </c>
-      <c r="AF21" s="8">
+      <c r="AF21" s="1">
         <v>30</v>
       </c>
       <c r="AG21" s="1">
         <v>31</v>
       </c>
-      <c r="AH21" s="8">
+      <c r="AH21" s="1">
         <v>32</v>
       </c>
       <c r="AI21" s="8">
         <v>33</v>
       </c>
-      <c r="AJ21" s="8">
+      <c r="AJ21" s="7">
         <v>34</v>
       </c>
       <c r="AK21" s="8">
@@ -4799,42 +4886,34 @@
       <c r="AL21" s="8">
         <v>36</v>
       </c>
-      <c r="AM21" s="8">
+      <c r="AM21" s="5">
         <v>37</v>
       </c>
-      <c r="AN21" s="8">
+      <c r="AN21" s="1">
         <v>38</v>
       </c>
-      <c r="AO21" s="11">
+      <c r="AO21" s="1">
         <v>39</v>
       </c>
-      <c r="AP21" s="11">
+      <c r="AP21" s="1">
         <v>40</v>
       </c>
-      <c r="AQ21" s="11">
+      <c r="AQ21" s="1">
         <v>41</v>
       </c>
       <c r="AR21" s="11">
         <v>42</v>
       </c>
-      <c r="AS21" s="11">
+      <c r="AS21" s="8">
         <v>43</v>
       </c>
-      <c r="AT21" s="1">
-        <v>44</v>
-      </c>
-      <c r="AU21" s="1">
-        <v>45</v>
-      </c>
-      <c r="AV21" s="11">
-        <v>46</v>
-      </c>
-      <c r="AW21" s="6">
-        <v>47</v>
-      </c>
-      <c r="AX21" s="12">
-        <v>19</v>
-      </c>
+      <c r="AT21" s="12">
+        <v>20</v>
+      </c>
+      <c r="AU21" s="13"/>
+      <c r="AV21" s="13"/>
+      <c r="AW21" s="13"/>
+      <c r="AX21" s="13"/>
       <c r="AY21" s="13"/>
       <c r="AZ21" s="13"/>
       <c r="BA21" s="13"/>
@@ -4873,72 +4952,72 @@
     </row>
     <row r="22">
       <c r="A22" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C22" s="11">
         <v>1</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="1">
         <v>2</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="1">
         <v>3</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="11">
         <v>4</v>
       </c>
       <c r="G22" s="1">
         <v>5</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H22" s="7">
         <v>6</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I22" s="5">
         <v>7</v>
       </c>
       <c r="J22" s="1">
         <v>8</v>
       </c>
-      <c r="K22" s="8">
+      <c r="K22" s="5">
         <v>9</v>
       </c>
-      <c r="L22" s="8">
+      <c r="L22" s="1">
         <v>10</v>
       </c>
       <c r="M22" s="1">
         <v>11</v>
       </c>
-      <c r="N22" s="7">
+      <c r="N22" s="11">
         <v>12</v>
       </c>
-      <c r="O22" s="7">
+      <c r="O22" s="1">
         <v>13</v>
       </c>
-      <c r="P22" s="7">
+      <c r="P22" s="1">
         <v>14</v>
       </c>
-      <c r="Q22" s="5">
+      <c r="Q22" s="1">
         <v>15</v>
       </c>
       <c r="R22" s="1">
         <v>16</v>
       </c>
-      <c r="S22" s="1">
+      <c r="S22" s="7">
         <v>17</v>
       </c>
-      <c r="T22" s="7">
+      <c r="T22" s="1">
         <v>18</v>
       </c>
       <c r="U22" s="1">
         <v>19</v>
       </c>
-      <c r="V22" s="1">
+      <c r="V22" s="5">
         <v>20</v>
       </c>
-      <c r="W22" s="5">
+      <c r="W22" s="1">
         <v>21</v>
       </c>
       <c r="X22" s="1">
@@ -4953,7 +5032,7 @@
       <c r="AA22" s="1">
         <v>25</v>
       </c>
-      <c r="AB22" s="7">
+      <c r="AB22" s="1">
         <v>26</v>
       </c>
       <c r="AC22" s="1">
@@ -4968,31 +5047,31 @@
       <c r="AF22" s="1">
         <v>30</v>
       </c>
-      <c r="AG22" s="1">
+      <c r="AG22" s="8">
         <v>31</v>
       </c>
       <c r="AH22" s="1">
         <v>32</v>
       </c>
-      <c r="AI22" s="8">
+      <c r="AI22" s="1">
         <v>33</v>
       </c>
-      <c r="AJ22" s="7">
+      <c r="AJ22" s="8">
         <v>34</v>
       </c>
-      <c r="AK22" s="8">
+      <c r="AK22" s="1">
         <v>35</v>
       </c>
-      <c r="AL22" s="8">
+      <c r="AL22" s="1">
         <v>36</v>
       </c>
-      <c r="AM22" s="5">
+      <c r="AM22" s="1">
         <v>37</v>
       </c>
       <c r="AN22" s="1">
         <v>38</v>
       </c>
-      <c r="AO22" s="1">
+      <c r="AO22" s="7">
         <v>39</v>
       </c>
       <c r="AP22" s="1">
@@ -5001,20 +5080,30 @@
       <c r="AQ22" s="1">
         <v>41</v>
       </c>
-      <c r="AR22" s="11">
+      <c r="AR22" s="1">
         <v>42</v>
       </c>
-      <c r="AS22" s="8">
+      <c r="AS22" s="1">
         <v>43</v>
       </c>
-      <c r="AT22" s="12">
-        <v>20</v>
-      </c>
-      <c r="AU22" s="13"/>
-      <c r="AV22" s="13"/>
-      <c r="AW22" s="13"/>
-      <c r="AX22" s="13"/>
-      <c r="AY22" s="13"/>
+      <c r="AT22" s="1">
+        <v>44</v>
+      </c>
+      <c r="AU22" s="1">
+        <v>45</v>
+      </c>
+      <c r="AV22" s="1">
+        <v>46</v>
+      </c>
+      <c r="AW22" s="11">
+        <v>47</v>
+      </c>
+      <c r="AX22" s="1">
+        <v>48</v>
+      </c>
+      <c r="AY22" s="1">
+        <v>49</v>
+      </c>
       <c r="AZ22" s="13"/>
       <c r="BA22" s="13"/>
       <c r="BB22" s="13"/>
@@ -5051,13 +5140,13 @@
       <c r="CG22" s="1"/>
     </row>
     <row r="23">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="11">
+      <c r="A23" s="17">
+        <v>22</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="1">
         <v>1</v>
       </c>
       <c r="D23" s="1">
@@ -5066,46 +5155,46 @@
       <c r="E23" s="1">
         <v>3</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F23" s="1">
         <v>4</v>
       </c>
       <c r="G23" s="1">
         <v>5</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H23" s="1">
         <v>6</v>
       </c>
-      <c r="I23" s="5">
+      <c r="I23" s="7">
         <v>7</v>
       </c>
       <c r="J23" s="1">
         <v>8</v>
       </c>
-      <c r="K23" s="5">
+      <c r="K23" s="1">
         <v>9</v>
       </c>
-      <c r="L23" s="1">
+      <c r="L23" s="6">
         <v>10</v>
       </c>
-      <c r="M23" s="1">
+      <c r="M23" s="6">
         <v>11</v>
       </c>
-      <c r="N23" s="11">
+      <c r="N23" s="1">
         <v>12</v>
       </c>
       <c r="O23" s="1">
         <v>13</v>
       </c>
-      <c r="P23" s="1">
+      <c r="P23" s="11">
         <v>14</v>
       </c>
       <c r="Q23" s="1">
         <v>15</v>
       </c>
-      <c r="R23" s="1">
+      <c r="R23" s="11">
         <v>16</v>
       </c>
-      <c r="S23" s="7">
+      <c r="S23" s="8">
         <v>17</v>
       </c>
       <c r="T23" s="1">
@@ -5138,7 +5227,7 @@
       <c r="AC23" s="1">
         <v>27</v>
       </c>
-      <c r="AD23" s="1">
+      <c r="AD23" s="7">
         <v>28</v>
       </c>
       <c r="AE23" s="1">
@@ -5147,7 +5236,7 @@
       <c r="AF23" s="1">
         <v>30</v>
       </c>
-      <c r="AG23" s="8">
+      <c r="AG23" s="1">
         <v>31</v>
       </c>
       <c r="AH23" s="1">
@@ -5156,71 +5245,85 @@
       <c r="AI23" s="1">
         <v>33</v>
       </c>
-      <c r="AJ23" s="8">
+      <c r="AJ23" s="1">
         <v>34</v>
       </c>
-      <c r="AK23" s="1">
+      <c r="AK23" s="7">
         <v>35</v>
       </c>
-      <c r="AL23" s="1">
+      <c r="AL23" s="8">
         <v>36</v>
       </c>
-      <c r="AM23" s="1">
+      <c r="AM23" s="8">
         <v>37</v>
       </c>
-      <c r="AN23" s="1">
+      <c r="AN23" s="8">
         <v>38</v>
       </c>
-      <c r="AO23" s="7">
+      <c r="AO23" s="8">
         <v>39</v>
       </c>
-      <c r="AP23" s="1">
+      <c r="AP23" s="8">
         <v>40</v>
       </c>
-      <c r="AQ23" s="1">
+      <c r="AQ23" s="8">
         <v>41</v>
       </c>
-      <c r="AR23" s="1">
+      <c r="AR23" s="8">
         <v>42</v>
       </c>
-      <c r="AS23" s="1">
+      <c r="AS23" s="8">
         <v>43</v>
       </c>
-      <c r="AT23" s="1">
+      <c r="AT23" s="8">
         <v>44</v>
       </c>
-      <c r="AU23" s="1">
+      <c r="AU23" s="8">
         <v>45</v>
       </c>
-      <c r="AV23" s="1">
+      <c r="AV23" s="8">
         <v>46</v>
       </c>
-      <c r="AW23" s="11">
+      <c r="AW23" s="8">
         <v>47</v>
       </c>
-      <c r="AX23" s="1">
+      <c r="AX23" s="5">
         <v>48</v>
       </c>
-      <c r="AY23" s="1">
+      <c r="AY23" s="8">
         <v>49</v>
       </c>
-      <c r="AZ23" s="13"/>
-      <c r="BA23" s="13"/>
-      <c r="BB23" s="13"/>
-      <c r="BC23" s="13"/>
-      <c r="BD23" s="13"/>
-      <c r="BE23" s="13"/>
-      <c r="BF23" s="13"/>
-      <c r="BG23" s="13"/>
-      <c r="BH23" s="13"/>
-      <c r="BI23" s="13"/>
-      <c r="BJ23" s="13"/>
-      <c r="BK23" s="13"/>
-      <c r="BL23" s="13"/>
-      <c r="BM23" s="13"/>
-      <c r="BN23" s="13"/>
-      <c r="BO23" s="13"/>
-      <c r="BP23" s="13"/>
+      <c r="AZ23" s="8">
+        <v>50</v>
+      </c>
+      <c r="BA23" s="8">
+        <v>51</v>
+      </c>
+      <c r="BB23" s="8">
+        <v>52</v>
+      </c>
+      <c r="BC23" s="15">
+        <v>53</v>
+      </c>
+      <c r="BD23" s="6">
+        <v>54</v>
+      </c>
+      <c r="BE23" s="12">
+        <v>21</v>
+      </c>
+      <c r="BF23" s="12">
+        <v>22</v>
+      </c>
+      <c r="BG23" s="1"/>
+      <c r="BH23" s="1"/>
+      <c r="BI23" s="1"/>
+      <c r="BJ23" s="1"/>
+      <c r="BK23" s="1"/>
+      <c r="BL23" s="1"/>
+      <c r="BM23" s="1"/>
+      <c r="BN23" s="1"/>
+      <c r="BO23" s="1"/>
+      <c r="BP23" s="1"/>
       <c r="BQ23" s="1"/>
       <c r="BR23" s="1"/>
       <c r="BS23" s="1"/>
@@ -5240,189 +5343,175 @@
       <c r="CG23" s="1"/>
     </row>
     <row r="24">
-      <c r="A24" s="17">
+      <c r="A24" s="19">
+        <v>23</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="15">
+        <v>1</v>
+      </c>
+      <c r="D24" s="21">
+        <v>2</v>
+      </c>
+      <c r="E24" s="22">
+        <v>3</v>
+      </c>
+      <c r="F24" s="15">
+        <v>4</v>
+      </c>
+      <c r="G24" s="23">
+        <v>5</v>
+      </c>
+      <c r="H24" s="24">
+        <v>6</v>
+      </c>
+      <c r="I24" s="16">
+        <v>7</v>
+      </c>
+      <c r="J24" s="24">
+        <v>8</v>
+      </c>
+      <c r="K24" s="24">
+        <v>9</v>
+      </c>
+      <c r="L24" s="25">
+        <v>10</v>
+      </c>
+      <c r="M24" s="24">
+        <v>11</v>
+      </c>
+      <c r="N24" s="15">
+        <v>12</v>
+      </c>
+      <c r="O24" s="15">
+        <v>13</v>
+      </c>
+      <c r="P24" s="23">
+        <v>14</v>
+      </c>
+      <c r="Q24" s="24">
+        <v>15</v>
+      </c>
+      <c r="R24" s="25">
+        <v>16</v>
+      </c>
+      <c r="S24" s="23">
+        <v>17</v>
+      </c>
+      <c r="T24" s="16">
+        <v>18</v>
+      </c>
+      <c r="U24" s="24">
+        <v>19</v>
+      </c>
+      <c r="V24" s="16">
+        <v>20</v>
+      </c>
+      <c r="W24" s="25">
+        <v>21</v>
+      </c>
+      <c r="X24" s="22">
         <v>22</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="Y24" s="24">
+        <v>23</v>
+      </c>
+      <c r="Z24" s="24">
+        <v>24</v>
+      </c>
+      <c r="AA24" s="16">
+        <v>25</v>
+      </c>
+      <c r="AB24" s="22">
         <v>26</v>
       </c>
-      <c r="C24" s="1">
-        <v>1</v>
-      </c>
-      <c r="D24" s="1">
-        <v>2</v>
-      </c>
-      <c r="E24" s="1">
-        <v>3</v>
-      </c>
-      <c r="F24" s="1">
-        <v>4</v>
-      </c>
-      <c r="G24" s="1">
-        <v>5</v>
-      </c>
-      <c r="H24" s="1">
-        <v>6</v>
-      </c>
-      <c r="I24" s="7">
-        <v>7</v>
-      </c>
-      <c r="J24" s="1">
-        <v>8</v>
-      </c>
-      <c r="K24" s="1">
-        <v>9</v>
-      </c>
-      <c r="L24" s="6">
-        <v>10</v>
-      </c>
-      <c r="M24" s="6">
-        <v>11</v>
-      </c>
-      <c r="N24" s="1">
-        <v>12</v>
-      </c>
-      <c r="O24" s="1">
-        <v>13</v>
-      </c>
-      <c r="P24" s="11">
-        <v>14</v>
-      </c>
-      <c r="Q24" s="1">
-        <v>15</v>
-      </c>
-      <c r="R24" s="11">
-        <v>16</v>
-      </c>
-      <c r="S24" s="8">
-        <v>17</v>
-      </c>
-      <c r="T24" s="1">
-        <v>18</v>
-      </c>
-      <c r="U24" s="1">
-        <v>19</v>
-      </c>
-      <c r="V24" s="5">
-        <v>20</v>
-      </c>
-      <c r="W24" s="1">
-        <v>21</v>
-      </c>
-      <c r="X24" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y24" s="1">
+      <c r="AC24" s="25">
+        <v>27</v>
+      </c>
+      <c r="AD24" s="23">
+        <v>28</v>
+      </c>
+      <c r="AE24" s="22">
+        <v>29</v>
+      </c>
+      <c r="AF24" s="16">
+        <v>30</v>
+      </c>
+      <c r="AG24" s="24">
+        <v>31</v>
+      </c>
+      <c r="AH24" s="24">
+        <v>32</v>
+      </c>
+      <c r="AI24" s="16">
+        <v>33</v>
+      </c>
+      <c r="AJ24" s="16">
+        <v>34</v>
+      </c>
+      <c r="AK24" s="23">
+        <v>35</v>
+      </c>
+      <c r="AL24" s="16">
+        <v>36</v>
+      </c>
+      <c r="AM24" s="15">
+        <v>37</v>
+      </c>
+      <c r="AN24" s="23">
+        <v>38</v>
+      </c>
+      <c r="AO24" s="16">
+        <v>39</v>
+      </c>
+      <c r="AP24" s="22">
+        <v>40</v>
+      </c>
+      <c r="AQ24" s="22">
+        <v>41</v>
+      </c>
+      <c r="AR24" s="15">
+        <v>42</v>
+      </c>
+      <c r="AS24" s="15">
+        <v>43</v>
+      </c>
+      <c r="AT24" s="15">
+        <v>44</v>
+      </c>
+      <c r="AU24" s="15">
+        <v>45</v>
+      </c>
+      <c r="AV24" s="15">
+        <v>46</v>
+      </c>
+      <c r="AW24" s="24">
+        <v>47</v>
+      </c>
+      <c r="AX24" s="22">
+        <v>48</v>
+      </c>
+      <c r="AY24" s="12">
         <v>23</v>
       </c>
-      <c r="Z24" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA24" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB24" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC24" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD24" s="7">
-        <v>28</v>
-      </c>
-      <c r="AE24" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF24" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG24" s="1">
-        <v>31</v>
-      </c>
-      <c r="AH24" s="1">
-        <v>32</v>
-      </c>
-      <c r="AI24" s="1">
-        <v>33</v>
-      </c>
-      <c r="AJ24" s="1">
-        <v>34</v>
-      </c>
-      <c r="AK24" s="7">
-        <v>35</v>
-      </c>
-      <c r="AL24" s="8">
-        <v>36</v>
-      </c>
-      <c r="AM24" s="8">
-        <v>37</v>
-      </c>
-      <c r="AN24" s="8">
-        <v>38</v>
-      </c>
-      <c r="AO24" s="8">
-        <v>39</v>
-      </c>
-      <c r="AP24" s="8">
-        <v>40</v>
-      </c>
-      <c r="AQ24" s="8">
-        <v>41</v>
-      </c>
-      <c r="AR24" s="8">
-        <v>42</v>
-      </c>
-      <c r="AS24" s="8">
-        <v>43</v>
-      </c>
-      <c r="AT24" s="8">
-        <v>44</v>
-      </c>
-      <c r="AU24" s="8">
-        <v>45</v>
-      </c>
-      <c r="AV24" s="8">
-        <v>46</v>
-      </c>
-      <c r="AW24" s="8">
-        <v>47</v>
-      </c>
-      <c r="AX24" s="5">
-        <v>48</v>
-      </c>
-      <c r="AY24" s="8">
-        <v>49</v>
-      </c>
-      <c r="AZ24" s="8">
-        <v>50</v>
-      </c>
-      <c r="BA24" s="8">
-        <v>51</v>
-      </c>
-      <c r="BB24" s="8">
-        <v>52</v>
-      </c>
-      <c r="BC24" s="15">
-        <v>53</v>
-      </c>
-      <c r="BD24" s="6">
-        <v>54</v>
-      </c>
-      <c r="BE24" s="12">
-        <v>21</v>
-      </c>
-      <c r="BF24" s="12">
-        <v>22</v>
-      </c>
-      <c r="BG24" s="1"/>
-      <c r="BH24" s="1"/>
-      <c r="BI24" s="1"/>
-      <c r="BJ24" s="1"/>
-      <c r="BK24" s="1"/>
-      <c r="BL24" s="1"/>
-      <c r="BM24" s="1"/>
-      <c r="BN24" s="1"/>
-      <c r="BO24" s="1"/>
+      <c r="AZ24" s="13"/>
+      <c r="BA24" s="13"/>
+      <c r="BB24" s="13"/>
+      <c r="BC24" s="13"/>
+      <c r="BD24" s="13"/>
+      <c r="BE24" s="13"/>
+      <c r="BF24" s="13"/>
+      <c r="BG24" s="13"/>
+      <c r="BH24" s="13"/>
+      <c r="BI24" s="13"/>
+      <c r="BJ24" s="13"/>
+      <c r="BK24" s="13"/>
+      <c r="BL24" s="13"/>
+      <c r="BM24" s="13"/>
+      <c r="BN24" s="13"/>
+      <c r="BO24" s="13"/>
       <c r="BP24" s="1"/>
       <c r="BQ24" s="1"/>
       <c r="BR24" s="1"/>
@@ -5444,158 +5533,144 @@
     </row>
     <row r="25">
       <c r="A25" s="19">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="15">
+        <v>25</v>
+      </c>
+      <c r="C25" s="24">
         <v>1</v>
       </c>
-      <c r="D25" s="21">
+      <c r="D25" s="25">
         <v>2</v>
       </c>
-      <c r="E25" s="22">
+      <c r="E25" s="16">
         <v>3</v>
       </c>
-      <c r="F25" s="15">
+      <c r="F25" s="24">
         <v>4</v>
       </c>
       <c r="G25" s="23">
         <v>5</v>
       </c>
-      <c r="H25" s="24">
+      <c r="H25" s="22">
         <v>6</v>
       </c>
-      <c r="I25" s="16">
+      <c r="I25" s="23">
         <v>7</v>
       </c>
-      <c r="J25" s="24">
+      <c r="J25" s="15">
         <v>8</v>
       </c>
-      <c r="K25" s="24">
+      <c r="K25" s="22">
         <v>9</v>
       </c>
-      <c r="L25" s="25">
+      <c r="L25" s="22">
         <v>10</v>
       </c>
-      <c r="M25" s="24">
+      <c r="M25" s="23">
         <v>11</v>
       </c>
-      <c r="N25" s="15">
+      <c r="N25" s="16">
         <v>12</v>
       </c>
-      <c r="O25" s="15">
+      <c r="O25" s="22">
         <v>13</v>
       </c>
-      <c r="P25" s="23">
+      <c r="P25" s="25">
         <v>14</v>
       </c>
-      <c r="Q25" s="24">
+      <c r="Q25" s="22">
         <v>15</v>
       </c>
-      <c r="R25" s="25">
+      <c r="R25" s="23">
         <v>16</v>
       </c>
-      <c r="S25" s="23">
+      <c r="S25" s="16">
         <v>17</v>
       </c>
-      <c r="T25" s="16">
+      <c r="T25" s="24">
         <v>18</v>
       </c>
-      <c r="U25" s="24">
+      <c r="U25" s="22">
         <v>19</v>
       </c>
-      <c r="V25" s="16">
+      <c r="V25" s="15">
         <v>20</v>
       </c>
-      <c r="W25" s="25">
+      <c r="W25" s="22">
         <v>21</v>
       </c>
-      <c r="X25" s="22">
+      <c r="X25" s="24">
         <v>22</v>
       </c>
-      <c r="Y25" s="24">
+      <c r="Y25" s="23">
         <v>23</v>
       </c>
       <c r="Z25" s="24">
         <v>24</v>
       </c>
-      <c r="AA25" s="16">
+      <c r="AA25" s="24">
         <v>25</v>
       </c>
       <c r="AB25" s="22">
         <v>26</v>
       </c>
-      <c r="AC25" s="25">
+      <c r="AC25" s="22">
         <v>27</v>
       </c>
-      <c r="AD25" s="23">
+      <c r="AD25" s="24">
         <v>28</v>
       </c>
-      <c r="AE25" s="22">
+      <c r="AE25" s="16">
         <v>29</v>
       </c>
-      <c r="AF25" s="16">
+      <c r="AF25" s="23">
         <v>30</v>
       </c>
-      <c r="AG25" s="24">
+      <c r="AG25" s="22">
         <v>31</v>
       </c>
       <c r="AH25" s="24">
         <v>32</v>
       </c>
-      <c r="AI25" s="16">
+      <c r="AI25" s="24">
         <v>33</v>
       </c>
-      <c r="AJ25" s="16">
+      <c r="AJ25" s="24">
         <v>34</v>
       </c>
-      <c r="AK25" s="23">
+      <c r="AK25" s="24">
         <v>35</v>
       </c>
-      <c r="AL25" s="16">
+      <c r="AL25" s="15">
         <v>36</v>
       </c>
-      <c r="AM25" s="15">
+      <c r="AM25" s="16">
         <v>37</v>
       </c>
-      <c r="AN25" s="23">
+      <c r="AN25" s="16">
         <v>38</v>
       </c>
-      <c r="AO25" s="16">
+      <c r="AO25" s="22">
         <v>39</v>
       </c>
-      <c r="AP25" s="22">
+      <c r="AP25" s="24">
         <v>40</v>
       </c>
-      <c r="AQ25" s="22">
+      <c r="AQ25" s="15">
         <v>41</v>
       </c>
       <c r="AR25" s="15">
         <v>42</v>
       </c>
-      <c r="AS25" s="15">
-        <v>43</v>
-      </c>
-      <c r="AT25" s="15">
-        <v>44</v>
-      </c>
-      <c r="AU25" s="15">
-        <v>45</v>
-      </c>
-      <c r="AV25" s="15">
-        <v>46</v>
-      </c>
-      <c r="AW25" s="24">
-        <v>47</v>
-      </c>
-      <c r="AX25" s="22">
-        <v>48</v>
-      </c>
-      <c r="AY25" s="12">
-        <v>23</v>
-      </c>
+      <c r="AS25" s="13"/>
+      <c r="AT25" s="13"/>
+      <c r="AU25" s="13"/>
+      <c r="AV25" s="13"/>
+      <c r="AW25" s="13"/>
+      <c r="AX25" s="13"/>
+      <c r="AY25" s="13"/>
       <c r="AZ25" s="13"/>
       <c r="BA25" s="13"/>
       <c r="BB25" s="13"/>
@@ -5633,10 +5708,10 @@
     </row>
     <row r="26">
       <c r="A26" s="19">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C26" s="24">
         <v>1</v>
@@ -5644,106 +5719,106 @@
       <c r="D26" s="25">
         <v>2</v>
       </c>
-      <c r="E26" s="16">
+      <c r="E26" s="1">
         <v>3</v>
       </c>
       <c r="F26" s="24">
         <v>4</v>
       </c>
-      <c r="G26" s="23">
+      <c r="G26" s="15">
         <v>5</v>
       </c>
-      <c r="H26" s="22">
+      <c r="H26" s="26">
         <v>6</v>
       </c>
-      <c r="I26" s="23">
+      <c r="I26" s="24">
         <v>7</v>
       </c>
-      <c r="J26" s="15">
+      <c r="J26" s="26">
         <v>8</v>
       </c>
-      <c r="K26" s="22">
+      <c r="K26" s="16">
         <v>9</v>
       </c>
-      <c r="L26" s="22">
+      <c r="L26" s="24">
         <v>10</v>
       </c>
-      <c r="M26" s="23">
+      <c r="M26" s="26">
         <v>11</v>
       </c>
-      <c r="N26" s="16">
+      <c r="N26" s="24">
         <v>12</v>
       </c>
-      <c r="O26" s="22">
+      <c r="O26" s="15">
         <v>13</v>
       </c>
-      <c r="P26" s="25">
+      <c r="P26" s="16">
         <v>14</v>
       </c>
-      <c r="Q26" s="22">
+      <c r="Q26" s="16">
         <v>15</v>
       </c>
-      <c r="R26" s="23">
+      <c r="R26" s="26">
         <v>16</v>
       </c>
-      <c r="S26" s="16">
+      <c r="S26" s="26">
         <v>17</v>
       </c>
-      <c r="T26" s="24">
+      <c r="T26" s="23">
         <v>18</v>
       </c>
-      <c r="U26" s="22">
+      <c r="U26" s="16">
         <v>19</v>
       </c>
-      <c r="V26" s="15">
+      <c r="V26" s="26">
         <v>20</v>
       </c>
-      <c r="W26" s="22">
+      <c r="W26" s="26">
         <v>21</v>
       </c>
-      <c r="X26" s="24">
+      <c r="X26" s="26">
         <v>22</v>
       </c>
       <c r="Y26" s="23">
         <v>23</v>
       </c>
-      <c r="Z26" s="24">
+      <c r="Z26" s="15">
         <v>24</v>
       </c>
-      <c r="AA26" s="24">
+      <c r="AA26" s="16">
         <v>25</v>
       </c>
-      <c r="AB26" s="22">
+      <c r="AB26" s="16">
         <v>26</v>
       </c>
-      <c r="AC26" s="22">
+      <c r="AC26" s="16">
         <v>27</v>
       </c>
-      <c r="AD26" s="24">
+      <c r="AD26" s="16">
         <v>28</v>
       </c>
-      <c r="AE26" s="16">
+      <c r="AE26" s="26">
         <v>29</v>
       </c>
-      <c r="AF26" s="23">
+      <c r="AF26" s="26">
         <v>30</v>
       </c>
-      <c r="AG26" s="22">
+      <c r="AG26" s="16">
         <v>31</v>
       </c>
-      <c r="AH26" s="24">
+      <c r="AH26" s="16">
         <v>32</v>
       </c>
-      <c r="AI26" s="24">
+      <c r="AI26" s="16">
         <v>33</v>
       </c>
-      <c r="AJ26" s="24">
+      <c r="AJ26" s="16">
         <v>34</v>
       </c>
-      <c r="AK26" s="24">
+      <c r="AK26" s="16">
         <v>35</v>
       </c>
-      <c r="AL26" s="15">
+      <c r="AL26" s="16">
         <v>36</v>
       </c>
       <c r="AM26" s="16">
@@ -5752,22 +5827,30 @@
       <c r="AN26" s="16">
         <v>38</v>
       </c>
-      <c r="AO26" s="22">
+      <c r="AO26" s="8">
         <v>39</v>
       </c>
-      <c r="AP26" s="24">
+      <c r="AP26" s="8">
         <v>40</v>
       </c>
-      <c r="AQ26" s="15">
+      <c r="AQ26" s="8">
         <v>41</v>
       </c>
-      <c r="AR26" s="15">
+      <c r="AR26" s="8">
         <v>42</v>
       </c>
-      <c r="AS26" s="13"/>
-      <c r="AT26" s="13"/>
-      <c r="AU26" s="13"/>
-      <c r="AV26" s="13"/>
+      <c r="AS26" s="15">
+        <v>43</v>
+      </c>
+      <c r="AT26" s="15">
+        <v>44</v>
+      </c>
+      <c r="AU26" s="6">
+        <v>45</v>
+      </c>
+      <c r="AV26" s="6">
+        <v>46</v>
+      </c>
       <c r="AW26" s="13"/>
       <c r="AX26" s="13"/>
       <c r="AY26" s="13"/>
@@ -5806,270 +5889,87 @@
       <c r="CF26" s="1"/>
       <c r="CG26" s="1"/>
     </row>
-    <row r="27">
-      <c r="A27" s="19">
-        <v>25</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="24">
-        <v>1</v>
-      </c>
-      <c r="D27" s="25">
-        <v>2</v>
-      </c>
-      <c r="E27" s="1">
-        <v>3</v>
-      </c>
-      <c r="F27" s="24">
-        <v>4</v>
-      </c>
-      <c r="G27" s="15">
-        <v>5</v>
-      </c>
-      <c r="H27" s="26">
-        <v>6</v>
-      </c>
-      <c r="I27" s="24">
-        <v>7</v>
-      </c>
-      <c r="J27" s="26">
-        <v>8</v>
-      </c>
-      <c r="K27" s="16">
-        <v>9</v>
-      </c>
-      <c r="L27" s="24">
-        <v>10</v>
-      </c>
-      <c r="M27" s="26">
-        <v>11</v>
-      </c>
-      <c r="N27" s="24">
-        <v>12</v>
-      </c>
-      <c r="O27" s="15">
-        <v>13</v>
-      </c>
-      <c r="P27" s="16">
-        <v>14</v>
-      </c>
-      <c r="Q27" s="16">
-        <v>15</v>
-      </c>
-      <c r="R27" s="26">
-        <v>16</v>
-      </c>
-      <c r="S27" s="26">
-        <v>17</v>
-      </c>
-      <c r="T27" s="23">
-        <v>18</v>
-      </c>
-      <c r="U27" s="16">
-        <v>19</v>
-      </c>
-      <c r="V27" s="26">
-        <v>20</v>
-      </c>
-      <c r="W27" s="26">
-        <v>21</v>
-      </c>
-      <c r="X27" s="26">
-        <v>22</v>
-      </c>
-      <c r="Y27" s="23">
-        <v>23</v>
-      </c>
-      <c r="Z27" s="15">
-        <v>24</v>
-      </c>
-      <c r="AA27" s="16">
-        <v>25</v>
-      </c>
-      <c r="AB27" s="16">
-        <v>26</v>
-      </c>
-      <c r="AC27" s="16">
+    <row r="28">
+      <c r="B28" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="AD27" s="16">
+      <c r="D28" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="AE27" s="26">
-        <v>29</v>
-      </c>
-      <c r="AF27" s="26">
-        <v>30</v>
-      </c>
-      <c r="AG27" s="16">
-        <v>31</v>
-      </c>
-      <c r="AH27" s="16">
-        <v>32</v>
-      </c>
-      <c r="AI27" s="16">
-        <v>33</v>
-      </c>
-      <c r="AJ27" s="16">
-        <v>34</v>
-      </c>
-      <c r="AK27" s="16">
-        <v>35</v>
-      </c>
-      <c r="AL27" s="16">
-        <v>36</v>
-      </c>
-      <c r="AM27" s="16">
-        <v>37</v>
-      </c>
-      <c r="AN27" s="16">
-        <v>38</v>
-      </c>
-      <c r="AO27" s="8">
-        <v>39</v>
-      </c>
-      <c r="AP27" s="8">
-        <v>40</v>
-      </c>
-      <c r="AQ27" s="8">
-        <v>41</v>
-      </c>
-      <c r="AR27" s="8">
-        <v>42</v>
-      </c>
-      <c r="AS27" s="15">
-        <v>43</v>
-      </c>
-      <c r="AT27" s="15">
-        <v>44</v>
-      </c>
-      <c r="AU27" s="6">
-        <v>45</v>
-      </c>
-      <c r="AV27" s="6">
-        <v>46</v>
-      </c>
-      <c r="AW27" s="13"/>
-      <c r="AX27" s="13"/>
-      <c r="AY27" s="13"/>
-      <c r="AZ27" s="13"/>
-      <c r="BA27" s="13"/>
-      <c r="BB27" s="13"/>
-      <c r="BC27" s="13"/>
-      <c r="BD27" s="13"/>
-      <c r="BE27" s="13"/>
-      <c r="BF27" s="13"/>
-      <c r="BG27" s="13"/>
-      <c r="BH27" s="13"/>
-      <c r="BI27" s="13"/>
-      <c r="BJ27" s="13"/>
-      <c r="BK27" s="13"/>
-      <c r="BL27" s="13"/>
-      <c r="BM27" s="13"/>
-      <c r="BN27" s="13"/>
-      <c r="BO27" s="13"/>
-      <c r="BP27" s="1"/>
-      <c r="BQ27" s="1"/>
-      <c r="BR27" s="1"/>
-      <c r="BS27" s="1"/>
-      <c r="BT27" s="1"/>
-      <c r="BU27" s="1"/>
-      <c r="BV27" s="1"/>
-      <c r="BW27" s="1"/>
-      <c r="BX27" s="1"/>
-      <c r="BY27" s="1"/>
-      <c r="BZ27" s="1"/>
-      <c r="CA27" s="1"/>
-      <c r="CB27" s="1"/>
-      <c r="CC27" s="1"/>
-      <c r="CD27" s="1"/>
-      <c r="CE27" s="1"/>
-      <c r="CF27" s="1"/>
-      <c r="CG27" s="1"/>
     </row>
     <row r="29">
       <c r="B29" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>31</v>
+        <v>29</v>
+      </c>
+      <c r="C29" s="28"/>
+      <c r="D29" s="29">
+        <v>88</v>
       </c>
     </row>
     <row r="30">
-      <c r="B30" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="28"/>
-      <c r="D30" s="29">
-        <v>88</v>
+      <c r="B30" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="31"/>
+      <c r="D30" s="14">
+        <v>103</v>
       </c>
     </row>
     <row r="31">
-      <c r="B31" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="C31" s="31"/>
+      <c r="B31" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="33"/>
       <c r="D31" s="14">
-        <v>103</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32">
-      <c r="B32" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" s="33"/>
+      <c r="B32" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="34"/>
       <c r="D32" s="14">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33">
       <c r="B33" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="C33" s="34"/>
+        <v>33</v>
+      </c>
+      <c r="C33" s="35"/>
       <c r="D33" s="14">
-        <v>31</v>
+        <v>220</v>
       </c>
     </row>
     <row r="34">
       <c r="B34" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="C34" s="35"/>
+        <v>34</v>
+      </c>
+      <c r="C34" s="36"/>
       <c r="D34" s="14">
-        <v>220</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35">
       <c r="B35" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="C35" s="36"/>
-      <c r="D35" s="14">
-        <v>94</v>
+        <v>35</v>
+      </c>
+      <c r="C35" s="9"/>
+      <c r="D35" s="29">
+        <v>19</v>
       </c>
     </row>
     <row r="36">
-      <c r="B36" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="C36" s="9"/>
-      <c r="D36" s="29">
-        <v>19</v>
+      <c r="C36" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D36" s="37">
+        <f>SUM(D29:D35)</f>
+        <v>569</v>
       </c>
     </row>
-    <row r="37">
-      <c r="C37" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="D37" s="37">
-        <f>SUM(D30:D36)</f>
-        <v>569</v>
-      </c>
-    </row>
-    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
   </sheetData>
   <printOptions headings="0" gridLines="1" horizontalCentered="1"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/data/episodes/season_numbering.xlsx
+++ b/data/episodes/season_numbering.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>S.</t>
   </si>
@@ -102,9 +102,6 @@
     <t>Legend:</t>
   </si>
   <si>
-    <t>#</t>
-  </si>
-  <si>
     <t xml:space="preserve">Pkmn Caught/Evolved by Ash</t>
   </si>
   <si>
@@ -124,9 +121,6 @@
   </si>
   <si>
     <t>Movie</t>
-  </si>
-  <si>
-    <t>tot</t>
   </si>
 </sst>
 </file>
@@ -377,12 +371,12 @@
     <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
+    <xf fontId="1" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf fontId="4" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf fontId="1" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="2" fillId="10" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="2" fillId="10" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf fontId="1" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf fontId="1" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf fontId="1" fillId="8" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -890,7 +884,7 @@
     <pageSetUpPr autoPageBreaks="1" fitToPage="1"/>
   </sheetPr>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -5893,81 +5887,60 @@
       <c r="B28" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="14" t="s">
-        <v>28</v>
-      </c>
+      <c r="D28" s="14"/>
     </row>
     <row r="29">
+      <c r="A29" s="28"/>
       <c r="B29" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" s="28"/>
-      <c r="D29" s="29">
-        <v>88</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="D29" s="29"/>
     </row>
     <row r="30">
-      <c r="B30" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" s="31"/>
-      <c r="D30" s="14">
-        <v>103</v>
-      </c>
+      <c r="A30" s="30"/>
+      <c r="B30" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="14"/>
     </row>
     <row r="31">
-      <c r="B31" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31" s="33"/>
-      <c r="D31" s="14">
-        <v>14</v>
-      </c>
+      <c r="A31" s="32"/>
+      <c r="B31" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="14"/>
     </row>
     <row r="32">
+      <c r="A32" s="34"/>
       <c r="B32" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" s="34"/>
-      <c r="D32" s="14">
         <v>31</v>
       </c>
+      <c r="D32" s="14"/>
     </row>
     <row r="33">
+      <c r="A33" s="35"/>
       <c r="B33" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33" s="35"/>
-      <c r="D33" s="14">
-        <v>220</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="D33" s="14"/>
     </row>
     <row r="34">
+      <c r="A34" s="36"/>
       <c r="B34" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" s="36"/>
-      <c r="D34" s="14">
-        <v>94</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="D34" s="14"/>
     </row>
     <row r="35">
+      <c r="A35" s="9"/>
       <c r="B35" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="29">
-        <v>19</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="D35" s="29"/>
     </row>
     <row r="36">
-      <c r="C36" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="D36" s="37">
-        <f>SUM(D29:D35)</f>
-        <v>569</v>
-      </c>
+      <c r="C36" s="27"/>
+      <c r="D36" s="37"/>
     </row>
     <row r="37" ht="15.75" customHeight="1"/>
   </sheetData>

--- a/data/episodes/season_numbering.xlsx
+++ b/data/episodes/season_numbering.xlsx
@@ -24,16 +24,16 @@
     <t>Title</t>
   </si>
   <si>
-    <t xml:space="preserve">Indigo League</t>
+    <t xml:space="preserve">Indigo Liga</t>
   </si>
   <si>
-    <t xml:space="preserve">Adventures on the Orange Islands</t>
+    <t xml:space="preserve">Orange Liga</t>
   </si>
   <si>
-    <t xml:space="preserve">The Johto Journeys</t>
+    <t xml:space="preserve">Die Johto Reisen</t>
   </si>
   <si>
-    <t xml:space="preserve">Johto League Champions</t>
+    <t xml:space="preserve">Die Johto Liga Champions</t>
   </si>
   <si>
     <t xml:space="preserve">Master Quest</t>
@@ -60,43 +60,43 @@
     <t xml:space="preserve">DP: Galactic Battles</t>
   </si>
   <si>
-    <t xml:space="preserve">DP: Sinnoh League Victors</t>
+    <t xml:space="preserve">DP: Sieger der Sinnoh-Liga</t>
   </si>
   <si>
-    <t xml:space="preserve">Black &amp; White</t>
+    <t xml:space="preserve">Schwarz &amp; Weiß</t>
   </si>
   <si>
-    <t xml:space="preserve">BW: Rival Destinies</t>
+    <t xml:space="preserve">SW: Rivalen des Schicksals</t>
   </si>
   <si>
-    <t xml:space="preserve">BW: Adventures in Unova</t>
+    <t xml:space="preserve">SW: Abenteuer in Einall</t>
   </si>
   <si>
     <t>XY</t>
   </si>
   <si>
-    <t xml:space="preserve">XY: Kalos Quest</t>
+    <t xml:space="preserve">XY: Erkundungen in Kalos</t>
   </si>
   <si>
     <t>XYZ</t>
   </si>
   <si>
-    <t xml:space="preserve">Sun and Moon</t>
+    <t xml:space="preserve">Sonne &amp; Mond</t>
   </si>
   <si>
-    <t xml:space="preserve">Sun and Moon Ultra Adventures</t>
+    <t xml:space="preserve">SM: Ultra-Abenteuer</t>
   </si>
   <si>
-    <t xml:space="preserve">Sun and Moon Ultra Legends</t>
+    <t xml:space="preserve">SM: Ultra-Legenden</t>
   </si>
   <si>
-    <t xml:space="preserve">2019 - Journeys</t>
+    <t>Reisen</t>
   </si>
   <si>
-    <t xml:space="preserve">2019 - Master Journeys</t>
+    <t xml:space="preserve">Pokemon Meister-Reisen</t>
   </si>
   <si>
-    <t xml:space="preserve">2019 - Ultimate Journeys</t>
+    <t xml:space="preserve">Pokemon Ultimative Reisen</t>
   </si>
   <si>
     <t>Legend:</t>
@@ -884,7 +884,7 @@
     <pageSetUpPr autoPageBreaks="1" fitToPage="1"/>
   </sheetPr>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="100" workbookViewId="0">
+    <sheetView zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>

--- a/data/episodes/season_numbering.xlsx
+++ b/data/episodes/season_numbering.xlsx
@@ -24,79 +24,79 @@
     <t>Title</t>
   </si>
   <si>
-    <t xml:space="preserve">Indigo Liga</t>
+    <t xml:space="preserve">RB #1</t>
   </si>
   <si>
-    <t xml:space="preserve">Orange Liga</t>
+    <t xml:space="preserve">RB #2</t>
   </si>
   <si>
-    <t xml:space="preserve">Die Johto Reisen</t>
+    <t xml:space="preserve">GS #1</t>
   </si>
   <si>
-    <t xml:space="preserve">Die Johto Liga Champions</t>
+    <t xml:space="preserve">GS #2</t>
   </si>
   <si>
-    <t xml:space="preserve">Master Quest</t>
+    <t xml:space="preserve">GS #3</t>
   </si>
   <si>
-    <t>Advanced</t>
+    <t xml:space="preserve">RS #1</t>
   </si>
   <si>
-    <t xml:space="preserve">Advanced Challenge</t>
+    <t xml:space="preserve">RS #2</t>
   </si>
   <si>
-    <t xml:space="preserve">Advanced Battle</t>
+    <t xml:space="preserve">RS #3</t>
   </si>
   <si>
-    <t xml:space="preserve">Battle Frontier</t>
+    <t xml:space="preserve">RS #4</t>
   </si>
   <si>
-    <t xml:space="preserve">Diamond and Pearl</t>
+    <t xml:space="preserve">DP #1</t>
   </si>
   <si>
-    <t xml:space="preserve">DP: Battle Dimension</t>
+    <t xml:space="preserve">DP #2</t>
   </si>
   <si>
-    <t xml:space="preserve">DP: Galactic Battles</t>
+    <t xml:space="preserve">DP #3</t>
   </si>
   <si>
-    <t xml:space="preserve">DP: Sieger der Sinnoh-Liga</t>
+    <t xml:space="preserve">DP #4</t>
   </si>
   <si>
-    <t xml:space="preserve">Schwarz &amp; Weiß</t>
+    <t xml:space="preserve">BW #1</t>
   </si>
   <si>
-    <t xml:space="preserve">SW: Rivalen des Schicksals</t>
+    <t xml:space="preserve">BW #2</t>
   </si>
   <si>
-    <t xml:space="preserve">SW: Abenteuer in Einall</t>
+    <t xml:space="preserve">BW #3</t>
   </si>
   <si>
-    <t>XY</t>
+    <t xml:space="preserve">XY #1</t>
   </si>
   <si>
-    <t xml:space="preserve">XY: Erkundungen in Kalos</t>
+    <t xml:space="preserve">XY #2</t>
   </si>
   <si>
-    <t>XYZ</t>
+    <t xml:space="preserve">XY #3</t>
   </si>
   <si>
-    <t xml:space="preserve">Sonne &amp; Mond</t>
+    <t xml:space="preserve">SM #1</t>
   </si>
   <si>
-    <t xml:space="preserve">SM: Ultra-Abenteuer</t>
+    <t xml:space="preserve">SM #2</t>
   </si>
   <si>
-    <t xml:space="preserve">SM: Ultra-Legenden</t>
+    <t xml:space="preserve">SM #3</t>
   </si>
   <si>
-    <t>Reisen</t>
+    <t xml:space="preserve">SS #1</t>
   </si>
   <si>
-    <t xml:space="preserve">Pokemon Meister-Reisen</t>
+    <t xml:space="preserve">SS #2</t>
   </si>
   <si>
-    <t xml:space="preserve">Pokemon Ultimative Reisen</t>
+    <t xml:space="preserve">SS #3</t>
   </si>
   <si>
     <t>Legend:</t>
@@ -213,7 +213,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left style="none"/>
       <right style="none"/>
@@ -251,19 +251,6 @@
         <color auto="1"/>
       </right>
       <top style="none"/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -323,6 +310,9 @@
     <xf fontId="1" fillId="8" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
+    <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf fontId="1" fillId="6" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
@@ -341,8 +331,7 @@
     <xf fontId="2" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf fontId="2" fillId="0" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf fontId="2" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1378,7 +1367,7 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="12" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="5">
@@ -1456,7 +1445,7 @@
       <c r="AA3" s="11">
         <v>25</v>
       </c>
-      <c r="AB3" s="12">
+      <c r="AB3" s="13">
         <v>2</v>
       </c>
       <c r="AC3" s="1">
@@ -1494,33 +1483,33 @@
       </c>
       <c r="AN3" s="1"/>
       <c r="AO3" s="1"/>
-      <c r="AP3" s="13"/>
-      <c r="AQ3" s="13"/>
-      <c r="AR3" s="13"/>
-      <c r="AS3" s="13"/>
-      <c r="AT3" s="13"/>
-      <c r="AU3" s="13"/>
-      <c r="AV3" s="13"/>
-      <c r="AW3" s="13"/>
-      <c r="AX3" s="13"/>
-      <c r="AY3" s="13"/>
-      <c r="AZ3" s="13"/>
-      <c r="BA3" s="13"/>
-      <c r="BB3" s="13"/>
-      <c r="BC3" s="13"/>
-      <c r="BD3" s="13"/>
-      <c r="BE3" s="13"/>
-      <c r="BF3" s="13"/>
-      <c r="BG3" s="13"/>
-      <c r="BH3" s="13"/>
-      <c r="BI3" s="13"/>
-      <c r="BJ3" s="13"/>
-      <c r="BK3" s="13"/>
-      <c r="BL3" s="13"/>
-      <c r="BM3" s="13"/>
-      <c r="BN3" s="13"/>
-      <c r="BO3" s="13"/>
-      <c r="BP3" s="13"/>
+      <c r="AP3" s="14"/>
+      <c r="AQ3" s="14"/>
+      <c r="AR3" s="14"/>
+      <c r="AS3" s="14"/>
+      <c r="AT3" s="14"/>
+      <c r="AU3" s="14"/>
+      <c r="AV3" s="14"/>
+      <c r="AW3" s="14"/>
+      <c r="AX3" s="14"/>
+      <c r="AY3" s="14"/>
+      <c r="AZ3" s="14"/>
+      <c r="BA3" s="14"/>
+      <c r="BB3" s="14"/>
+      <c r="BC3" s="14"/>
+      <c r="BD3" s="14"/>
+      <c r="BE3" s="14"/>
+      <c r="BF3" s="14"/>
+      <c r="BG3" s="14"/>
+      <c r="BH3" s="14"/>
+      <c r="BI3" s="14"/>
+      <c r="BJ3" s="14"/>
+      <c r="BK3" s="14"/>
+      <c r="BL3" s="14"/>
+      <c r="BM3" s="14"/>
+      <c r="BN3" s="14"/>
+      <c r="BO3" s="14"/>
+      <c r="BP3" s="14"/>
       <c r="BQ3" s="1"/>
       <c r="BR3" s="1"/>
       <c r="BS3" s="1"/>
@@ -1672,30 +1661,30 @@
       <c r="AR4" s="1">
         <v>41</v>
       </c>
-      <c r="AS4" s="13"/>
-      <c r="AT4" s="13"/>
-      <c r="AU4" s="13"/>
-      <c r="AV4" s="13"/>
-      <c r="AW4" s="13"/>
-      <c r="AX4" s="13"/>
-      <c r="AY4" s="13"/>
-      <c r="AZ4" s="13"/>
-      <c r="BA4" s="13"/>
-      <c r="BB4" s="13"/>
-      <c r="BC4" s="13"/>
-      <c r="BD4" s="13"/>
-      <c r="BE4" s="13"/>
-      <c r="BF4" s="13"/>
-      <c r="BG4" s="13"/>
-      <c r="BH4" s="13"/>
-      <c r="BI4" s="13"/>
-      <c r="BJ4" s="13"/>
-      <c r="BK4" s="13"/>
-      <c r="BL4" s="13"/>
-      <c r="BM4" s="13"/>
-      <c r="BN4" s="13"/>
-      <c r="BO4" s="13"/>
-      <c r="BP4" s="13"/>
+      <c r="AS4" s="14"/>
+      <c r="AT4" s="14"/>
+      <c r="AU4" s="14"/>
+      <c r="AV4" s="14"/>
+      <c r="AW4" s="14"/>
+      <c r="AX4" s="14"/>
+      <c r="AY4" s="14"/>
+      <c r="AZ4" s="14"/>
+      <c r="BA4" s="14"/>
+      <c r="BB4" s="14"/>
+      <c r="BC4" s="14"/>
+      <c r="BD4" s="14"/>
+      <c r="BE4" s="14"/>
+      <c r="BF4" s="14"/>
+      <c r="BG4" s="14"/>
+      <c r="BH4" s="14"/>
+      <c r="BI4" s="14"/>
+      <c r="BJ4" s="14"/>
+      <c r="BK4" s="14"/>
+      <c r="BL4" s="14"/>
+      <c r="BM4" s="14"/>
+      <c r="BN4" s="14"/>
+      <c r="BO4" s="14"/>
+      <c r="BP4" s="14"/>
       <c r="BQ4" s="1"/>
       <c r="BR4" s="1"/>
       <c r="BS4" s="1"/>
@@ -1718,7 +1707,7 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="12" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="8">
@@ -1880,19 +1869,19 @@
       <c r="BC5" s="8">
         <v>52</v>
       </c>
-      <c r="BD5" s="13"/>
-      <c r="BE5" s="13"/>
-      <c r="BF5" s="13"/>
-      <c r="BG5" s="13"/>
-      <c r="BH5" s="13"/>
-      <c r="BI5" s="13"/>
-      <c r="BJ5" s="13"/>
-      <c r="BK5" s="13"/>
-      <c r="BL5" s="13"/>
-      <c r="BM5" s="13"/>
-      <c r="BN5" s="13"/>
-      <c r="BO5" s="13"/>
-      <c r="BP5" s="13"/>
+      <c r="BD5" s="14"/>
+      <c r="BE5" s="14"/>
+      <c r="BF5" s="14"/>
+      <c r="BG5" s="14"/>
+      <c r="BH5" s="14"/>
+      <c r="BI5" s="14"/>
+      <c r="BJ5" s="14"/>
+      <c r="BK5" s="14"/>
+      <c r="BL5" s="14"/>
+      <c r="BM5" s="14"/>
+      <c r="BN5" s="14"/>
+      <c r="BO5" s="14"/>
+      <c r="BP5" s="14"/>
       <c r="BQ5" s="1"/>
       <c r="BR5" s="1"/>
       <c r="BS5" s="1"/>
@@ -1915,7 +1904,7 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="11">
@@ -2119,7 +2108,7 @@
       <c r="BQ6" s="1"/>
       <c r="BR6" s="1"/>
       <c r="BS6" s="1"/>
-      <c r="BT6" s="14"/>
+      <c r="BT6" s="15"/>
       <c r="BU6" s="1"/>
       <c r="BV6" s="1"/>
       <c r="BW6" s="1"/>
@@ -2264,31 +2253,31 @@
       <c r="AQ7" s="8">
         <v>40</v>
       </c>
-      <c r="AR7" s="13"/>
-      <c r="AS7" s="13"/>
-      <c r="AT7" s="13"/>
-      <c r="AU7" s="13"/>
-      <c r="AV7" s="13"/>
-      <c r="AW7" s="13"/>
-      <c r="AX7" s="13"/>
-      <c r="AY7" s="13"/>
-      <c r="AZ7" s="13"/>
-      <c r="BA7" s="13"/>
-      <c r="BB7" s="13"/>
-      <c r="BC7" s="13"/>
-      <c r="BD7" s="13"/>
-      <c r="BE7" s="13"/>
-      <c r="BF7" s="13"/>
-      <c r="BG7" s="13"/>
-      <c r="BH7" s="13"/>
-      <c r="BI7" s="13"/>
-      <c r="BJ7" s="13"/>
-      <c r="BK7" s="13"/>
-      <c r="BL7" s="13"/>
-      <c r="BM7" s="13"/>
-      <c r="BN7" s="13"/>
-      <c r="BO7" s="13"/>
-      <c r="BP7" s="13"/>
+      <c r="AR7" s="14"/>
+      <c r="AS7" s="14"/>
+      <c r="AT7" s="14"/>
+      <c r="AU7" s="14"/>
+      <c r="AV7" s="14"/>
+      <c r="AW7" s="14"/>
+      <c r="AX7" s="14"/>
+      <c r="AY7" s="14"/>
+      <c r="AZ7" s="14"/>
+      <c r="BA7" s="14"/>
+      <c r="BB7" s="14"/>
+      <c r="BC7" s="14"/>
+      <c r="BD7" s="14"/>
+      <c r="BE7" s="14"/>
+      <c r="BF7" s="14"/>
+      <c r="BG7" s="14"/>
+      <c r="BH7" s="14"/>
+      <c r="BI7" s="14"/>
+      <c r="BJ7" s="14"/>
+      <c r="BK7" s="14"/>
+      <c r="BL7" s="14"/>
+      <c r="BM7" s="14"/>
+      <c r="BN7" s="14"/>
+      <c r="BO7" s="14"/>
+      <c r="BP7" s="14"/>
       <c r="BQ7" s="1"/>
       <c r="BR7" s="1"/>
       <c r="BS7" s="1"/>
@@ -2311,7 +2300,7 @@
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="1">
@@ -2473,19 +2462,19 @@
       <c r="BC8" s="1">
         <v>52</v>
       </c>
-      <c r="BD8" s="13"/>
-      <c r="BE8" s="13"/>
-      <c r="BF8" s="13"/>
-      <c r="BG8" s="13"/>
-      <c r="BH8" s="13"/>
-      <c r="BI8" s="13"/>
-      <c r="BJ8" s="13"/>
-      <c r="BK8" s="13"/>
-      <c r="BL8" s="13"/>
-      <c r="BM8" s="13"/>
-      <c r="BN8" s="13"/>
-      <c r="BO8" s="13"/>
-      <c r="BP8" s="13"/>
+      <c r="BD8" s="14"/>
+      <c r="BE8" s="14"/>
+      <c r="BF8" s="14"/>
+      <c r="BG8" s="14"/>
+      <c r="BH8" s="14"/>
+      <c r="BI8" s="14"/>
+      <c r="BJ8" s="14"/>
+      <c r="BK8" s="14"/>
+      <c r="BL8" s="14"/>
+      <c r="BM8" s="14"/>
+      <c r="BN8" s="14"/>
+      <c r="BO8" s="14"/>
+      <c r="BP8" s="14"/>
       <c r="BQ8" s="1"/>
       <c r="BR8" s="1"/>
       <c r="BS8" s="1"/>
@@ -2508,7 +2497,7 @@
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="1">
@@ -2646,7 +2635,7 @@
       <c r="AU9" s="9">
         <v>8</v>
       </c>
-      <c r="AV9" s="15">
+      <c r="AV9" s="16">
         <v>45</v>
       </c>
       <c r="AW9" s="1">
@@ -2674,17 +2663,17 @@
         <v>53</v>
       </c>
       <c r="BE9" s="1"/>
-      <c r="BF9" s="13"/>
-      <c r="BG9" s="13"/>
-      <c r="BH9" s="13"/>
-      <c r="BI9" s="13"/>
-      <c r="BJ9" s="13"/>
-      <c r="BK9" s="13"/>
-      <c r="BL9" s="13"/>
-      <c r="BM9" s="13"/>
-      <c r="BN9" s="13"/>
-      <c r="BO9" s="13"/>
-      <c r="BP9" s="13"/>
+      <c r="BF9" s="14"/>
+      <c r="BG9" s="14"/>
+      <c r="BH9" s="14"/>
+      <c r="BI9" s="14"/>
+      <c r="BJ9" s="14"/>
+      <c r="BK9" s="14"/>
+      <c r="BL9" s="14"/>
+      <c r="BM9" s="14"/>
+      <c r="BN9" s="14"/>
+      <c r="BO9" s="14"/>
+      <c r="BP9" s="14"/>
       <c r="BQ9" s="1"/>
       <c r="BR9" s="1"/>
       <c r="BS9" s="1"/>
@@ -2707,7 +2696,7 @@
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="1">
@@ -2719,7 +2708,7 @@
       <c r="E10" s="7">
         <v>3</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="17">
         <v>4</v>
       </c>
       <c r="G10" s="1">
@@ -2854,24 +2843,24 @@
       <c r="AX10" s="6">
         <v>47</v>
       </c>
-      <c r="AY10" s="13"/>
-      <c r="AZ10" s="13"/>
-      <c r="BA10" s="13"/>
-      <c r="BB10" s="13"/>
-      <c r="BC10" s="13"/>
-      <c r="BD10" s="13"/>
-      <c r="BE10" s="13"/>
-      <c r="BF10" s="13"/>
-      <c r="BG10" s="13"/>
-      <c r="BH10" s="13"/>
-      <c r="BI10" s="13"/>
-      <c r="BJ10" s="13"/>
-      <c r="BK10" s="13"/>
-      <c r="BL10" s="13"/>
-      <c r="BM10" s="13"/>
-      <c r="BN10" s="13"/>
-      <c r="BO10" s="13"/>
-      <c r="BP10" s="13"/>
+      <c r="AY10" s="14"/>
+      <c r="AZ10" s="14"/>
+      <c r="BA10" s="14"/>
+      <c r="BB10" s="14"/>
+      <c r="BC10" s="14"/>
+      <c r="BD10" s="14"/>
+      <c r="BE10" s="14"/>
+      <c r="BF10" s="14"/>
+      <c r="BG10" s="14"/>
+      <c r="BH10" s="14"/>
+      <c r="BI10" s="14"/>
+      <c r="BJ10" s="14"/>
+      <c r="BK10" s="14"/>
+      <c r="BL10" s="14"/>
+      <c r="BM10" s="14"/>
+      <c r="BN10" s="14"/>
+      <c r="BO10" s="14"/>
+      <c r="BP10" s="14"/>
       <c r="BQ10" s="1"/>
       <c r="BR10" s="1"/>
       <c r="BS10" s="1"/>
@@ -3056,19 +3045,19 @@
       <c r="BC11" s="5">
         <v>52</v>
       </c>
-      <c r="BD11" s="13"/>
-      <c r="BE11" s="13"/>
-      <c r="BF11" s="13"/>
-      <c r="BG11" s="13"/>
-      <c r="BH11" s="13"/>
-      <c r="BI11" s="13"/>
-      <c r="BJ11" s="13"/>
-      <c r="BK11" s="13"/>
-      <c r="BL11" s="13"/>
-      <c r="BM11" s="13"/>
-      <c r="BN11" s="13"/>
-      <c r="BO11" s="13"/>
-      <c r="BP11" s="13"/>
+      <c r="BD11" s="14"/>
+      <c r="BE11" s="14"/>
+      <c r="BF11" s="14"/>
+      <c r="BG11" s="14"/>
+      <c r="BH11" s="14"/>
+      <c r="BI11" s="14"/>
+      <c r="BJ11" s="14"/>
+      <c r="BK11" s="14"/>
+      <c r="BL11" s="14"/>
+      <c r="BM11" s="14"/>
+      <c r="BN11" s="14"/>
+      <c r="BO11" s="14"/>
+      <c r="BP11" s="14"/>
       <c r="BQ11" s="1"/>
       <c r="BR11" s="1"/>
       <c r="BS11" s="1"/>
@@ -3091,7 +3080,7 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="1">
@@ -3253,19 +3242,19 @@
       <c r="BC12" s="7">
         <v>52</v>
       </c>
-      <c r="BD12" s="13"/>
-      <c r="BE12" s="13"/>
-      <c r="BF12" s="13"/>
-      <c r="BG12" s="13"/>
-      <c r="BH12" s="13"/>
-      <c r="BI12" s="13"/>
-      <c r="BJ12" s="13"/>
-      <c r="BK12" s="13"/>
-      <c r="BL12" s="13"/>
-      <c r="BM12" s="13"/>
-      <c r="BN12" s="13"/>
-      <c r="BO12" s="13"/>
-      <c r="BP12" s="13"/>
+      <c r="BD12" s="14"/>
+      <c r="BE12" s="14"/>
+      <c r="BF12" s="14"/>
+      <c r="BG12" s="14"/>
+      <c r="BH12" s="14"/>
+      <c r="BI12" s="14"/>
+      <c r="BJ12" s="14"/>
+      <c r="BK12" s="14"/>
+      <c r="BL12" s="14"/>
+      <c r="BM12" s="14"/>
+      <c r="BN12" s="14"/>
+      <c r="BO12" s="14"/>
+      <c r="BP12" s="14"/>
       <c r="BQ12" s="1"/>
       <c r="BR12" s="1"/>
       <c r="BS12" s="1"/>
@@ -3288,7 +3277,7 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="1">
@@ -3453,18 +3442,18 @@
       <c r="BD13" s="5">
         <v>53</v>
       </c>
-      <c r="BE13" s="13"/>
-      <c r="BF13" s="13"/>
-      <c r="BG13" s="13"/>
-      <c r="BH13" s="13"/>
-      <c r="BI13" s="13"/>
-      <c r="BJ13" s="13"/>
-      <c r="BK13" s="13"/>
-      <c r="BL13" s="13"/>
-      <c r="BM13" s="13"/>
-      <c r="BN13" s="13"/>
-      <c r="BO13" s="13"/>
-      <c r="BP13" s="13"/>
+      <c r="BE13" s="14"/>
+      <c r="BF13" s="14"/>
+      <c r="BG13" s="14"/>
+      <c r="BH13" s="14"/>
+      <c r="BI13" s="14"/>
+      <c r="BJ13" s="14"/>
+      <c r="BK13" s="14"/>
+      <c r="BL13" s="14"/>
+      <c r="BM13" s="14"/>
+      <c r="BN13" s="14"/>
+      <c r="BO13" s="14"/>
+      <c r="BP13" s="14"/>
       <c r="BQ13" s="1"/>
       <c r="BR13" s="1"/>
       <c r="BS13" s="1"/>
@@ -3487,7 +3476,7 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="1">
@@ -3595,37 +3584,37 @@
       <c r="AK14" s="6">
         <v>34</v>
       </c>
-      <c r="AL14" s="13"/>
-      <c r="AM14" s="13"/>
-      <c r="AN14" s="13"/>
-      <c r="AO14" s="13"/>
-      <c r="AP14" s="13"/>
-      <c r="AQ14" s="13"/>
-      <c r="AR14" s="13"/>
-      <c r="AS14" s="13"/>
-      <c r="AT14" s="13"/>
-      <c r="AU14" s="13"/>
-      <c r="AV14" s="13"/>
-      <c r="AW14" s="13"/>
-      <c r="AX14" s="13"/>
-      <c r="AY14" s="13"/>
-      <c r="AZ14" s="13"/>
-      <c r="BA14" s="13"/>
-      <c r="BB14" s="13"/>
-      <c r="BC14" s="13"/>
-      <c r="BD14" s="13"/>
-      <c r="BE14" s="13"/>
-      <c r="BF14" s="13"/>
-      <c r="BG14" s="13"/>
-      <c r="BH14" s="13"/>
-      <c r="BI14" s="13"/>
-      <c r="BJ14" s="13"/>
-      <c r="BK14" s="13"/>
-      <c r="BL14" s="13"/>
-      <c r="BM14" s="13"/>
-      <c r="BN14" s="13"/>
-      <c r="BO14" s="13"/>
-      <c r="BP14" s="13"/>
+      <c r="AL14" s="14"/>
+      <c r="AM14" s="14"/>
+      <c r="AN14" s="14"/>
+      <c r="AO14" s="14"/>
+      <c r="AP14" s="14"/>
+      <c r="AQ14" s="14"/>
+      <c r="AR14" s="14"/>
+      <c r="AS14" s="14"/>
+      <c r="AT14" s="14"/>
+      <c r="AU14" s="14"/>
+      <c r="AV14" s="14"/>
+      <c r="AW14" s="14"/>
+      <c r="AX14" s="14"/>
+      <c r="AY14" s="14"/>
+      <c r="AZ14" s="14"/>
+      <c r="BA14" s="14"/>
+      <c r="BB14" s="14"/>
+      <c r="BC14" s="14"/>
+      <c r="BD14" s="14"/>
+      <c r="BE14" s="14"/>
+      <c r="BF14" s="14"/>
+      <c r="BG14" s="14"/>
+      <c r="BH14" s="14"/>
+      <c r="BI14" s="14"/>
+      <c r="BJ14" s="14"/>
+      <c r="BK14" s="14"/>
+      <c r="BL14" s="14"/>
+      <c r="BM14" s="14"/>
+      <c r="BN14" s="14"/>
+      <c r="BO14" s="14"/>
+      <c r="BP14" s="14"/>
       <c r="BQ14" s="1"/>
       <c r="BR14" s="1"/>
       <c r="BS14" s="1"/>
@@ -3768,7 +3757,7 @@
       <c r="AO15" s="1">
         <v>39</v>
       </c>
-      <c r="AP15" s="12">
+      <c r="AP15" s="13">
         <v>14</v>
       </c>
       <c r="AQ15" s="1">
@@ -3798,23 +3787,23 @@
       <c r="AY15" s="1">
         <v>48</v>
       </c>
-      <c r="AZ15" s="13"/>
-      <c r="BA15" s="13"/>
-      <c r="BB15" s="13"/>
-      <c r="BC15" s="13"/>
-      <c r="BD15" s="13"/>
-      <c r="BE15" s="13"/>
-      <c r="BF15" s="13"/>
-      <c r="BG15" s="13"/>
-      <c r="BH15" s="13"/>
-      <c r="BI15" s="13"/>
-      <c r="BJ15" s="13"/>
-      <c r="BK15" s="13"/>
-      <c r="BL15" s="13"/>
-      <c r="BM15" s="13"/>
-      <c r="BN15" s="13"/>
-      <c r="BO15" s="13"/>
-      <c r="BP15" s="13"/>
+      <c r="AZ15" s="14"/>
+      <c r="BA15" s="14"/>
+      <c r="BB15" s="14"/>
+      <c r="BC15" s="14"/>
+      <c r="BD15" s="14"/>
+      <c r="BE15" s="14"/>
+      <c r="BF15" s="14"/>
+      <c r="BG15" s="14"/>
+      <c r="BH15" s="14"/>
+      <c r="BI15" s="14"/>
+      <c r="BJ15" s="14"/>
+      <c r="BK15" s="14"/>
+      <c r="BL15" s="14"/>
+      <c r="BM15" s="14"/>
+      <c r="BN15" s="14"/>
+      <c r="BO15" s="14"/>
+      <c r="BP15" s="14"/>
       <c r="BQ15" s="1"/>
       <c r="BR15" s="1"/>
       <c r="BS15" s="1"/>
@@ -3987,24 +3976,24 @@
       <c r="AY16" s="11">
         <v>49</v>
       </c>
-      <c r="AZ16" s="12">
+      <c r="AZ16" s="13">
         <v>15</v>
       </c>
-      <c r="BB16" s="13"/>
-      <c r="BC16" s="13"/>
-      <c r="BD16" s="13"/>
-      <c r="BE16" s="13"/>
-      <c r="BF16" s="13"/>
-      <c r="BG16" s="13"/>
-      <c r="BH16" s="13"/>
-      <c r="BI16" s="13"/>
-      <c r="BJ16" s="13"/>
-      <c r="BK16" s="13"/>
-      <c r="BL16" s="13"/>
-      <c r="BM16" s="13"/>
-      <c r="BN16" s="13"/>
-      <c r="BO16" s="13"/>
-      <c r="BP16" s="13"/>
+      <c r="BB16" s="14"/>
+      <c r="BC16" s="14"/>
+      <c r="BD16" s="14"/>
+      <c r="BE16" s="14"/>
+      <c r="BF16" s="14"/>
+      <c r="BG16" s="14"/>
+      <c r="BH16" s="14"/>
+      <c r="BI16" s="14"/>
+      <c r="BJ16" s="14"/>
+      <c r="BK16" s="14"/>
+      <c r="BL16" s="14"/>
+      <c r="BM16" s="14"/>
+      <c r="BN16" s="14"/>
+      <c r="BO16" s="14"/>
+      <c r="BP16" s="14"/>
       <c r="BQ16" s="1"/>
       <c r="BR16" s="1"/>
       <c r="BS16" s="1"/>
@@ -4027,7 +4016,7 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="1">
@@ -4168,26 +4157,26 @@
       <c r="AV17" s="11">
         <v>45</v>
       </c>
-      <c r="AW17" s="13"/>
-      <c r="AX17" s="13"/>
-      <c r="AY17" s="13"/>
-      <c r="AZ17" s="13"/>
-      <c r="BA17" s="13"/>
-      <c r="BB17" s="13"/>
-      <c r="BC17" s="13"/>
-      <c r="BD17" s="13"/>
-      <c r="BE17" s="13"/>
-      <c r="BF17" s="13"/>
-      <c r="BG17" s="13"/>
-      <c r="BH17" s="13"/>
-      <c r="BI17" s="13"/>
-      <c r="BJ17" s="13"/>
-      <c r="BK17" s="13"/>
-      <c r="BL17" s="13"/>
-      <c r="BM17" s="13"/>
-      <c r="BN17" s="13"/>
-      <c r="BO17" s="13"/>
-      <c r="BP17" s="13"/>
+      <c r="AW17" s="14"/>
+      <c r="AX17" s="14"/>
+      <c r="AY17" s="14"/>
+      <c r="AZ17" s="14"/>
+      <c r="BA17" s="14"/>
+      <c r="BB17" s="14"/>
+      <c r="BC17" s="14"/>
+      <c r="BD17" s="14"/>
+      <c r="BE17" s="14"/>
+      <c r="BF17" s="14"/>
+      <c r="BG17" s="14"/>
+      <c r="BH17" s="14"/>
+      <c r="BI17" s="14"/>
+      <c r="BJ17" s="14"/>
+      <c r="BK17" s="14"/>
+      <c r="BL17" s="14"/>
+      <c r="BM17" s="14"/>
+      <c r="BN17" s="14"/>
+      <c r="BO17" s="14"/>
+      <c r="BP17" s="14"/>
       <c r="BQ17" s="1"/>
       <c r="BR17" s="1"/>
       <c r="BS17" s="1"/>
@@ -4324,7 +4313,7 @@
       <c r="AM18" s="1">
         <v>37</v>
       </c>
-      <c r="AN18" s="12">
+      <c r="AN18" s="13">
         <v>17</v>
       </c>
       <c r="AO18" s="1">
@@ -4360,23 +4349,23 @@
       <c r="AY18" s="1">
         <v>48</v>
       </c>
-      <c r="AZ18" s="13"/>
-      <c r="BA18" s="13"/>
-      <c r="BB18" s="13"/>
-      <c r="BC18" s="13"/>
-      <c r="BD18" s="13"/>
-      <c r="BE18" s="13"/>
-      <c r="BF18" s="13"/>
-      <c r="BG18" s="13"/>
-      <c r="BH18" s="13"/>
-      <c r="BI18" s="13"/>
-      <c r="BJ18" s="13"/>
-      <c r="BK18" s="13"/>
-      <c r="BL18" s="13"/>
-      <c r="BM18" s="13"/>
-      <c r="BN18" s="13"/>
-      <c r="BO18" s="13"/>
-      <c r="BP18" s="13"/>
+      <c r="AZ18" s="14"/>
+      <c r="BA18" s="14"/>
+      <c r="BB18" s="14"/>
+      <c r="BC18" s="14"/>
+      <c r="BD18" s="14"/>
+      <c r="BE18" s="14"/>
+      <c r="BF18" s="14"/>
+      <c r="BG18" s="14"/>
+      <c r="BH18" s="14"/>
+      <c r="BI18" s="14"/>
+      <c r="BJ18" s="14"/>
+      <c r="BK18" s="14"/>
+      <c r="BL18" s="14"/>
+      <c r="BM18" s="14"/>
+      <c r="BN18" s="14"/>
+      <c r="BO18" s="14"/>
+      <c r="BP18" s="14"/>
       <c r="BQ18" s="1"/>
       <c r="BR18" s="1"/>
       <c r="BS18" s="1"/>
@@ -4399,7 +4388,7 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="12" t="s">
         <v>19</v>
       </c>
       <c r="C19" s="1">
@@ -4504,7 +4493,7 @@
       <c r="AJ19" s="7">
         <v>34</v>
       </c>
-      <c r="AK19" s="12">
+      <c r="AK19" s="13">
         <v>18</v>
       </c>
       <c r="AL19" s="1">
@@ -4540,26 +4529,26 @@
       <c r="AV19" s="8">
         <v>45</v>
       </c>
-      <c r="AW19" s="13"/>
-      <c r="AX19" s="13"/>
-      <c r="AY19" s="13"/>
-      <c r="AZ19" s="13"/>
-      <c r="BA19" s="13"/>
-      <c r="BB19" s="13"/>
-      <c r="BC19" s="13"/>
-      <c r="BD19" s="13"/>
-      <c r="BE19" s="13"/>
-      <c r="BF19" s="13"/>
-      <c r="BG19" s="13"/>
-      <c r="BH19" s="13"/>
-      <c r="BI19" s="13"/>
-      <c r="BJ19" s="13"/>
-      <c r="BK19" s="13"/>
-      <c r="BL19" s="13"/>
-      <c r="BM19" s="13"/>
-      <c r="BN19" s="13"/>
-      <c r="BO19" s="13"/>
-      <c r="BP19" s="13"/>
+      <c r="AW19" s="14"/>
+      <c r="AX19" s="14"/>
+      <c r="AY19" s="14"/>
+      <c r="AZ19" s="14"/>
+      <c r="BA19" s="14"/>
+      <c r="BB19" s="14"/>
+      <c r="BC19" s="14"/>
+      <c r="BD19" s="14"/>
+      <c r="BE19" s="14"/>
+      <c r="BF19" s="14"/>
+      <c r="BG19" s="14"/>
+      <c r="BH19" s="14"/>
+      <c r="BI19" s="14"/>
+      <c r="BJ19" s="14"/>
+      <c r="BK19" s="14"/>
+      <c r="BL19" s="14"/>
+      <c r="BM19" s="14"/>
+      <c r="BN19" s="14"/>
+      <c r="BO19" s="14"/>
+      <c r="BP19" s="14"/>
       <c r="BQ19" s="1"/>
       <c r="BR19" s="1"/>
       <c r="BS19" s="1"/>
@@ -4582,7 +4571,7 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C20" s="11">
@@ -4726,27 +4715,27 @@
       <c r="AW20" s="6">
         <v>47</v>
       </c>
-      <c r="AX20" s="12">
+      <c r="AX20" s="13">
         <v>19</v>
       </c>
-      <c r="AY20" s="13"/>
-      <c r="AZ20" s="13"/>
-      <c r="BA20" s="13"/>
-      <c r="BB20" s="13"/>
-      <c r="BC20" s="13"/>
-      <c r="BD20" s="13"/>
-      <c r="BE20" s="13"/>
-      <c r="BF20" s="13"/>
-      <c r="BG20" s="13"/>
-      <c r="BH20" s="13"/>
-      <c r="BI20" s="13"/>
-      <c r="BJ20" s="13"/>
-      <c r="BK20" s="13"/>
-      <c r="BL20" s="13"/>
-      <c r="BM20" s="13"/>
-      <c r="BN20" s="13"/>
-      <c r="BO20" s="13"/>
-      <c r="BP20" s="13"/>
+      <c r="AY20" s="14"/>
+      <c r="AZ20" s="14"/>
+      <c r="BA20" s="14"/>
+      <c r="BB20" s="14"/>
+      <c r="BC20" s="14"/>
+      <c r="BD20" s="14"/>
+      <c r="BE20" s="14"/>
+      <c r="BF20" s="14"/>
+      <c r="BG20" s="14"/>
+      <c r="BH20" s="14"/>
+      <c r="BI20" s="14"/>
+      <c r="BJ20" s="14"/>
+      <c r="BK20" s="14"/>
+      <c r="BL20" s="14"/>
+      <c r="BM20" s="14"/>
+      <c r="BN20" s="14"/>
+      <c r="BO20" s="14"/>
+      <c r="BP20" s="14"/>
       <c r="BQ20" s="1"/>
       <c r="BR20" s="1"/>
       <c r="BS20" s="1"/>
@@ -4901,31 +4890,31 @@
       <c r="AS21" s="8">
         <v>43</v>
       </c>
-      <c r="AT21" s="12">
+      <c r="AT21" s="13">
         <v>20</v>
       </c>
-      <c r="AU21" s="13"/>
-      <c r="AV21" s="13"/>
-      <c r="AW21" s="13"/>
-      <c r="AX21" s="13"/>
-      <c r="AY21" s="13"/>
-      <c r="AZ21" s="13"/>
-      <c r="BA21" s="13"/>
-      <c r="BB21" s="13"/>
-      <c r="BC21" s="13"/>
-      <c r="BD21" s="13"/>
-      <c r="BE21" s="13"/>
-      <c r="BF21" s="13"/>
-      <c r="BG21" s="13"/>
-      <c r="BH21" s="13"/>
-      <c r="BI21" s="13"/>
-      <c r="BJ21" s="13"/>
-      <c r="BK21" s="13"/>
-      <c r="BL21" s="13"/>
-      <c r="BM21" s="13"/>
-      <c r="BN21" s="13"/>
-      <c r="BO21" s="13"/>
-      <c r="BP21" s="13"/>
+      <c r="AU21" s="14"/>
+      <c r="AV21" s="14"/>
+      <c r="AW21" s="14"/>
+      <c r="AX21" s="14"/>
+      <c r="AY21" s="14"/>
+      <c r="AZ21" s="14"/>
+      <c r="BA21" s="14"/>
+      <c r="BB21" s="14"/>
+      <c r="BC21" s="14"/>
+      <c r="BD21" s="14"/>
+      <c r="BE21" s="14"/>
+      <c r="BF21" s="14"/>
+      <c r="BG21" s="14"/>
+      <c r="BH21" s="14"/>
+      <c r="BI21" s="14"/>
+      <c r="BJ21" s="14"/>
+      <c r="BK21" s="14"/>
+      <c r="BL21" s="14"/>
+      <c r="BM21" s="14"/>
+      <c r="BN21" s="14"/>
+      <c r="BO21" s="14"/>
+      <c r="BP21" s="14"/>
       <c r="BQ21" s="1"/>
       <c r="BR21" s="1"/>
       <c r="BS21" s="1"/>
@@ -4948,7 +4937,7 @@
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C22" s="11">
@@ -5098,23 +5087,23 @@
       <c r="AY22" s="1">
         <v>49</v>
       </c>
-      <c r="AZ22" s="13"/>
-      <c r="BA22" s="13"/>
-      <c r="BB22" s="13"/>
-      <c r="BC22" s="13"/>
-      <c r="BD22" s="13"/>
-      <c r="BE22" s="13"/>
-      <c r="BF22" s="13"/>
-      <c r="BG22" s="13"/>
-      <c r="BH22" s="13"/>
-      <c r="BI22" s="13"/>
-      <c r="BJ22" s="13"/>
-      <c r="BK22" s="13"/>
-      <c r="BL22" s="13"/>
-      <c r="BM22" s="13"/>
-      <c r="BN22" s="13"/>
-      <c r="BO22" s="13"/>
-      <c r="BP22" s="13"/>
+      <c r="AZ22" s="14"/>
+      <c r="BA22" s="14"/>
+      <c r="BB22" s="14"/>
+      <c r="BC22" s="14"/>
+      <c r="BD22" s="14"/>
+      <c r="BE22" s="14"/>
+      <c r="BF22" s="14"/>
+      <c r="BG22" s="14"/>
+      <c r="BH22" s="14"/>
+      <c r="BI22" s="14"/>
+      <c r="BJ22" s="14"/>
+      <c r="BK22" s="14"/>
+      <c r="BL22" s="14"/>
+      <c r="BM22" s="14"/>
+      <c r="BN22" s="14"/>
+      <c r="BO22" s="14"/>
+      <c r="BP22" s="14"/>
       <c r="BQ22" s="1"/>
       <c r="BR22" s="1"/>
       <c r="BS22" s="1"/>
@@ -5134,10 +5123,10 @@
       <c r="CG22" s="1"/>
     </row>
     <row r="23">
-      <c r="A23" s="17">
+      <c r="A23" s="18">
         <v>22</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="12" t="s">
         <v>23</v>
       </c>
       <c r="C23" s="1">
@@ -5296,16 +5285,16 @@
       <c r="BB23" s="8">
         <v>52</v>
       </c>
-      <c r="BC23" s="15">
+      <c r="BC23" s="16">
         <v>53</v>
       </c>
       <c r="BD23" s="6">
         <v>54</v>
       </c>
-      <c r="BE23" s="12">
+      <c r="BE23" s="13">
         <v>21</v>
       </c>
-      <c r="BF23" s="12">
+      <c r="BF23" s="13">
         <v>22</v>
       </c>
       <c r="BG23" s="1"/>
@@ -5343,7 +5332,7 @@
       <c r="B24" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="15">
+      <c r="C24" s="16">
         <v>1</v>
       </c>
       <c r="D24" s="21">
@@ -5352,7 +5341,7 @@
       <c r="E24" s="22">
         <v>3</v>
       </c>
-      <c r="F24" s="15">
+      <c r="F24" s="16">
         <v>4</v>
       </c>
       <c r="G24" s="23">
@@ -5361,7 +5350,7 @@
       <c r="H24" s="24">
         <v>6</v>
       </c>
-      <c r="I24" s="16">
+      <c r="I24" s="17">
         <v>7</v>
       </c>
       <c r="J24" s="24">
@@ -5376,10 +5365,10 @@
       <c r="M24" s="24">
         <v>11</v>
       </c>
-      <c r="N24" s="15">
+      <c r="N24" s="16">
         <v>12</v>
       </c>
-      <c r="O24" s="15">
+      <c r="O24" s="16">
         <v>13</v>
       </c>
       <c r="P24" s="23">
@@ -5394,13 +5383,13 @@
       <c r="S24" s="23">
         <v>17</v>
       </c>
-      <c r="T24" s="16">
+      <c r="T24" s="17">
         <v>18</v>
       </c>
       <c r="U24" s="24">
         <v>19</v>
       </c>
-      <c r="V24" s="16">
+      <c r="V24" s="17">
         <v>20</v>
       </c>
       <c r="W24" s="25">
@@ -5415,7 +5404,7 @@
       <c r="Z24" s="24">
         <v>24</v>
       </c>
-      <c r="AA24" s="16">
+      <c r="AA24" s="17">
         <v>25</v>
       </c>
       <c r="AB24" s="22">
@@ -5430,7 +5419,7 @@
       <c r="AE24" s="22">
         <v>29</v>
       </c>
-      <c r="AF24" s="16">
+      <c r="AF24" s="17">
         <v>30</v>
       </c>
       <c r="AG24" s="24">
@@ -5439,25 +5428,25 @@
       <c r="AH24" s="24">
         <v>32</v>
       </c>
-      <c r="AI24" s="16">
+      <c r="AI24" s="17">
         <v>33</v>
       </c>
-      <c r="AJ24" s="16">
+      <c r="AJ24" s="17">
         <v>34</v>
       </c>
       <c r="AK24" s="23">
         <v>35</v>
       </c>
-      <c r="AL24" s="16">
+      <c r="AL24" s="17">
         <v>36</v>
       </c>
-      <c r="AM24" s="15">
+      <c r="AM24" s="16">
         <v>37</v>
       </c>
       <c r="AN24" s="23">
         <v>38</v>
       </c>
-      <c r="AO24" s="16">
+      <c r="AO24" s="17">
         <v>39</v>
       </c>
       <c r="AP24" s="22">
@@ -5466,19 +5455,19 @@
       <c r="AQ24" s="22">
         <v>41</v>
       </c>
-      <c r="AR24" s="15">
+      <c r="AR24" s="16">
         <v>42</v>
       </c>
-      <c r="AS24" s="15">
+      <c r="AS24" s="16">
         <v>43</v>
       </c>
-      <c r="AT24" s="15">
+      <c r="AT24" s="16">
         <v>44</v>
       </c>
-      <c r="AU24" s="15">
+      <c r="AU24" s="16">
         <v>45</v>
       </c>
-      <c r="AV24" s="15">
+      <c r="AV24" s="16">
         <v>46</v>
       </c>
       <c r="AW24" s="24">
@@ -5487,25 +5476,25 @@
       <c r="AX24" s="22">
         <v>48</v>
       </c>
-      <c r="AY24" s="12">
+      <c r="AY24" s="13">
         <v>23</v>
       </c>
-      <c r="AZ24" s="13"/>
-      <c r="BA24" s="13"/>
-      <c r="BB24" s="13"/>
-      <c r="BC24" s="13"/>
-      <c r="BD24" s="13"/>
-      <c r="BE24" s="13"/>
-      <c r="BF24" s="13"/>
-      <c r="BG24" s="13"/>
-      <c r="BH24" s="13"/>
-      <c r="BI24" s="13"/>
-      <c r="BJ24" s="13"/>
-      <c r="BK24" s="13"/>
-      <c r="BL24" s="13"/>
-      <c r="BM24" s="13"/>
-      <c r="BN24" s="13"/>
-      <c r="BO24" s="13"/>
+      <c r="AZ24" s="14"/>
+      <c r="BA24" s="14"/>
+      <c r="BB24" s="14"/>
+      <c r="BC24" s="14"/>
+      <c r="BD24" s="14"/>
+      <c r="BE24" s="14"/>
+      <c r="BF24" s="14"/>
+      <c r="BG24" s="14"/>
+      <c r="BH24" s="14"/>
+      <c r="BI24" s="14"/>
+      <c r="BJ24" s="14"/>
+      <c r="BK24" s="14"/>
+      <c r="BL24" s="14"/>
+      <c r="BM24" s="14"/>
+      <c r="BN24" s="14"/>
+      <c r="BO24" s="14"/>
       <c r="BP24" s="1"/>
       <c r="BQ24" s="1"/>
       <c r="BR24" s="1"/>
@@ -5538,7 +5527,7 @@
       <c r="D25" s="25">
         <v>2</v>
       </c>
-      <c r="E25" s="16">
+      <c r="E25" s="17">
         <v>3</v>
       </c>
       <c r="F25" s="24">
@@ -5553,7 +5542,7 @@
       <c r="I25" s="23">
         <v>7</v>
       </c>
-      <c r="J25" s="15">
+      <c r="J25" s="16">
         <v>8</v>
       </c>
       <c r="K25" s="22">
@@ -5565,7 +5554,7 @@
       <c r="M25" s="23">
         <v>11</v>
       </c>
-      <c r="N25" s="16">
+      <c r="N25" s="17">
         <v>12</v>
       </c>
       <c r="O25" s="22">
@@ -5580,7 +5569,7 @@
       <c r="R25" s="23">
         <v>16</v>
       </c>
-      <c r="S25" s="16">
+      <c r="S25" s="17">
         <v>17</v>
       </c>
       <c r="T25" s="24">
@@ -5589,7 +5578,7 @@
       <c r="U25" s="22">
         <v>19</v>
       </c>
-      <c r="V25" s="15">
+      <c r="V25" s="16">
         <v>20</v>
       </c>
       <c r="W25" s="22">
@@ -5616,7 +5605,7 @@
       <c r="AD25" s="24">
         <v>28</v>
       </c>
-      <c r="AE25" s="16">
+      <c r="AE25" s="17">
         <v>29</v>
       </c>
       <c r="AF25" s="23">
@@ -5637,13 +5626,13 @@
       <c r="AK25" s="24">
         <v>35</v>
       </c>
-      <c r="AL25" s="15">
+      <c r="AL25" s="16">
         <v>36</v>
       </c>
-      <c r="AM25" s="16">
+      <c r="AM25" s="17">
         <v>37</v>
       </c>
-      <c r="AN25" s="16">
+      <c r="AN25" s="17">
         <v>38</v>
       </c>
       <c r="AO25" s="22">
@@ -5652,35 +5641,35 @@
       <c r="AP25" s="24">
         <v>40</v>
       </c>
-      <c r="AQ25" s="15">
+      <c r="AQ25" s="16">
         <v>41</v>
       </c>
-      <c r="AR25" s="15">
+      <c r="AR25" s="16">
         <v>42</v>
       </c>
-      <c r="AS25" s="13"/>
-      <c r="AT25" s="13"/>
-      <c r="AU25" s="13"/>
-      <c r="AV25" s="13"/>
-      <c r="AW25" s="13"/>
-      <c r="AX25" s="13"/>
-      <c r="AY25" s="13"/>
-      <c r="AZ25" s="13"/>
-      <c r="BA25" s="13"/>
-      <c r="BB25" s="13"/>
-      <c r="BC25" s="13"/>
-      <c r="BD25" s="13"/>
-      <c r="BE25" s="13"/>
-      <c r="BF25" s="13"/>
-      <c r="BG25" s="13"/>
-      <c r="BH25" s="13"/>
-      <c r="BI25" s="13"/>
-      <c r="BJ25" s="13"/>
-      <c r="BK25" s="13"/>
-      <c r="BL25" s="13"/>
-      <c r="BM25" s="13"/>
-      <c r="BN25" s="13"/>
-      <c r="BO25" s="13"/>
+      <c r="AS25" s="14"/>
+      <c r="AT25" s="14"/>
+      <c r="AU25" s="14"/>
+      <c r="AV25" s="14"/>
+      <c r="AW25" s="14"/>
+      <c r="AX25" s="14"/>
+      <c r="AY25" s="14"/>
+      <c r="AZ25" s="14"/>
+      <c r="BA25" s="14"/>
+      <c r="BB25" s="14"/>
+      <c r="BC25" s="14"/>
+      <c r="BD25" s="14"/>
+      <c r="BE25" s="14"/>
+      <c r="BF25" s="14"/>
+      <c r="BG25" s="14"/>
+      <c r="BH25" s="14"/>
+      <c r="BI25" s="14"/>
+      <c r="BJ25" s="14"/>
+      <c r="BK25" s="14"/>
+      <c r="BL25" s="14"/>
+      <c r="BM25" s="14"/>
+      <c r="BN25" s="14"/>
+      <c r="BO25" s="14"/>
       <c r="BP25" s="1"/>
       <c r="BQ25" s="1"/>
       <c r="BR25" s="1"/>
@@ -5719,7 +5708,7 @@
       <c r="F26" s="24">
         <v>4</v>
       </c>
-      <c r="G26" s="15">
+      <c r="G26" s="16">
         <v>5</v>
       </c>
       <c r="H26" s="26">
@@ -5731,7 +5720,7 @@
       <c r="J26" s="26">
         <v>8</v>
       </c>
-      <c r="K26" s="16">
+      <c r="K26" s="17">
         <v>9</v>
       </c>
       <c r="L26" s="24">
@@ -5743,13 +5732,13 @@
       <c r="N26" s="24">
         <v>12</v>
       </c>
-      <c r="O26" s="15">
+      <c r="O26" s="16">
         <v>13</v>
       </c>
-      <c r="P26" s="16">
+      <c r="P26" s="17">
         <v>14</v>
       </c>
-      <c r="Q26" s="16">
+      <c r="Q26" s="17">
         <v>15</v>
       </c>
       <c r="R26" s="26">
@@ -5761,7 +5750,7 @@
       <c r="T26" s="23">
         <v>18</v>
       </c>
-      <c r="U26" s="16">
+      <c r="U26" s="17">
         <v>19</v>
       </c>
       <c r="V26" s="26">
@@ -5776,19 +5765,19 @@
       <c r="Y26" s="23">
         <v>23</v>
       </c>
-      <c r="Z26" s="15">
+      <c r="Z26" s="16">
         <v>24</v>
       </c>
-      <c r="AA26" s="16">
+      <c r="AA26" s="17">
         <v>25</v>
       </c>
-      <c r="AB26" s="16">
+      <c r="AB26" s="17">
         <v>26</v>
       </c>
-      <c r="AC26" s="16">
+      <c r="AC26" s="17">
         <v>27</v>
       </c>
-      <c r="AD26" s="16">
+      <c r="AD26" s="17">
         <v>28</v>
       </c>
       <c r="AE26" s="26">
@@ -5797,28 +5786,28 @@
       <c r="AF26" s="26">
         <v>30</v>
       </c>
-      <c r="AG26" s="16">
+      <c r="AG26" s="17">
         <v>31</v>
       </c>
-      <c r="AH26" s="16">
+      <c r="AH26" s="17">
         <v>32</v>
       </c>
-      <c r="AI26" s="16">
+      <c r="AI26" s="17">
         <v>33</v>
       </c>
-      <c r="AJ26" s="16">
+      <c r="AJ26" s="17">
         <v>34</v>
       </c>
-      <c r="AK26" s="16">
+      <c r="AK26" s="17">
         <v>35</v>
       </c>
-      <c r="AL26" s="16">
+      <c r="AL26" s="17">
         <v>36</v>
       </c>
-      <c r="AM26" s="16">
+      <c r="AM26" s="17">
         <v>37</v>
       </c>
-      <c r="AN26" s="16">
+      <c r="AN26" s="17">
         <v>38</v>
       </c>
       <c r="AO26" s="8">
@@ -5833,10 +5822,10 @@
       <c r="AR26" s="8">
         <v>42</v>
       </c>
-      <c r="AS26" s="15">
+      <c r="AS26" s="16">
         <v>43</v>
       </c>
-      <c r="AT26" s="15">
+      <c r="AT26" s="16">
         <v>44</v>
       </c>
       <c r="AU26" s="6">
@@ -5845,25 +5834,25 @@
       <c r="AV26" s="6">
         <v>46</v>
       </c>
-      <c r="AW26" s="13"/>
-      <c r="AX26" s="13"/>
-      <c r="AY26" s="13"/>
-      <c r="AZ26" s="13"/>
-      <c r="BA26" s="13"/>
-      <c r="BB26" s="13"/>
-      <c r="BC26" s="13"/>
-      <c r="BD26" s="13"/>
-      <c r="BE26" s="13"/>
-      <c r="BF26" s="13"/>
-      <c r="BG26" s="13"/>
-      <c r="BH26" s="13"/>
-      <c r="BI26" s="13"/>
-      <c r="BJ26" s="13"/>
-      <c r="BK26" s="13"/>
-      <c r="BL26" s="13"/>
-      <c r="BM26" s="13"/>
-      <c r="BN26" s="13"/>
-      <c r="BO26" s="13"/>
+      <c r="AW26" s="14"/>
+      <c r="AX26" s="14"/>
+      <c r="AY26" s="14"/>
+      <c r="AZ26" s="14"/>
+      <c r="BA26" s="14"/>
+      <c r="BB26" s="14"/>
+      <c r="BC26" s="14"/>
+      <c r="BD26" s="14"/>
+      <c r="BE26" s="14"/>
+      <c r="BF26" s="14"/>
+      <c r="BG26" s="14"/>
+      <c r="BH26" s="14"/>
+      <c r="BI26" s="14"/>
+      <c r="BJ26" s="14"/>
+      <c r="BK26" s="14"/>
+      <c r="BL26" s="14"/>
+      <c r="BM26" s="14"/>
+      <c r="BN26" s="14"/>
+      <c r="BO26" s="14"/>
       <c r="BP26" s="1"/>
       <c r="BQ26" s="1"/>
       <c r="BR26" s="1"/>
@@ -5887,7 +5876,7 @@
       <c r="B28" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="14"/>
+      <c r="D28" s="15"/>
     </row>
     <row r="29">
       <c r="A29" s="28"/>
@@ -5901,35 +5890,35 @@
       <c r="B30" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="D30" s="14"/>
+      <c r="D30" s="15"/>
     </row>
     <row r="31">
       <c r="A31" s="32"/>
       <c r="B31" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D31" s="14"/>
+      <c r="D31" s="15"/>
     </row>
     <row r="32">
       <c r="A32" s="34"/>
       <c r="B32" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D32" s="14"/>
+      <c r="D32" s="15"/>
     </row>
     <row r="33">
       <c r="A33" s="35"/>
       <c r="B33" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D33" s="14"/>
+      <c r="D33" s="15"/>
     </row>
     <row r="34">
       <c r="A34" s="36"/>
       <c r="B34" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="D34" s="14"/>
+      <c r="D34" s="15"/>
     </row>
     <row r="35">
       <c r="A35" s="9"/>

--- a/data/episodes/season_numbering.xlsx
+++ b/data/episodes/season_numbering.xlsx
@@ -6,9 +6,9 @@
     <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Season Numbering" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Season Numbering" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr/>
+  <calcPr fullCalcOnLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{D0CA8CA8-9F24-4464-BF8E-62219DCF47F9}"/>
   </extLst>
@@ -24,79 +24,79 @@
     <t>Title</t>
   </si>
   <si>
-    <t xml:space="preserve">RB #1</t>
+    <t xml:space="preserve">Kanto #1</t>
   </si>
   <si>
-    <t xml:space="preserve">RB #2</t>
+    <t xml:space="preserve">Kanto #2</t>
   </si>
   <si>
-    <t xml:space="preserve">GS #1</t>
+    <t xml:space="preserve">Johto #1</t>
   </si>
   <si>
-    <t xml:space="preserve">GS #2</t>
+    <t xml:space="preserve">Johto #2</t>
   </si>
   <si>
-    <t xml:space="preserve">GS #3</t>
+    <t xml:space="preserve">Johto #3</t>
   </si>
   <si>
-    <t xml:space="preserve">RS #1</t>
+    <t xml:space="preserve">Hoenn #1</t>
   </si>
   <si>
-    <t xml:space="preserve">RS #2</t>
+    <t xml:space="preserve">Hoenn #2</t>
   </si>
   <si>
-    <t xml:space="preserve">RS #3</t>
+    <t xml:space="preserve">Hoenn #3</t>
   </si>
   <si>
-    <t xml:space="preserve">RS #4</t>
+    <t xml:space="preserve">Hoenn #4</t>
   </si>
   <si>
-    <t xml:space="preserve">DP #1</t>
+    <t xml:space="preserve">Sinnoh #1</t>
   </si>
   <si>
-    <t xml:space="preserve">DP #2</t>
+    <t xml:space="preserve">Sinnoh #2</t>
   </si>
   <si>
-    <t xml:space="preserve">DP #3</t>
+    <t xml:space="preserve">Sinnoh #3</t>
   </si>
   <si>
-    <t xml:space="preserve">DP #4</t>
+    <t xml:space="preserve">Sinnoh #4</t>
   </si>
   <si>
-    <t xml:space="preserve">BW #1</t>
+    <t xml:space="preserve">Einall #1</t>
   </si>
   <si>
-    <t xml:space="preserve">BW #2</t>
+    <t xml:space="preserve">Einall #2</t>
   </si>
   <si>
-    <t xml:space="preserve">BW #3</t>
+    <t xml:space="preserve">Einall #3</t>
   </si>
   <si>
-    <t xml:space="preserve">XY #1</t>
+    <t xml:space="preserve">Kalos #1</t>
   </si>
   <si>
-    <t xml:space="preserve">XY #2</t>
+    <t xml:space="preserve">Kalos #2</t>
   </si>
   <si>
-    <t xml:space="preserve">XY #3</t>
+    <t xml:space="preserve">Kalos #3</t>
   </si>
   <si>
-    <t xml:space="preserve">SM #1</t>
+    <t xml:space="preserve">Alola #1</t>
   </si>
   <si>
-    <t xml:space="preserve">SM #2</t>
+    <t xml:space="preserve">Alola #2</t>
   </si>
   <si>
-    <t xml:space="preserve">SM #3</t>
+    <t xml:space="preserve">Alola #3</t>
   </si>
   <si>
-    <t xml:space="preserve">SS #1</t>
+    <t xml:space="preserve">Galar #1</t>
   </si>
   <si>
-    <t xml:space="preserve">SS #2</t>
+    <t xml:space="preserve">Galar #2</t>
   </si>
   <si>
-    <t xml:space="preserve">SS #3</t>
+    <t xml:space="preserve">Galar #3</t>
   </si>
   <si>
     <t>Legend:</t>
@@ -108,7 +108,7 @@
     <t xml:space="preserve">Pkmn Caught/Evolved by Others</t>
   </si>
   <si>
-    <t xml:space="preserve">Important Goh's Pkmn</t>
+    <t xml:space="preserve">Important Goh&amp;apos;s Pkmn</t>
   </si>
   <si>
     <t xml:space="preserve">Character joins / leaves group</t>
@@ -127,31 +127,25 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+  <fonts count="3">
     <font>
-      <sz val="10.000000"/>
+      <sz val="11.000000"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <color theme="1"/>
+      <sz val="11.000000"/>
+      <color indexed="64"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11.000000"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-    </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -161,59 +155,45 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF8DFC4F"/>
-        <bgColor rgb="FF8DFC4F"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor theme="5"/>
+        <fgColor rgb="FFEA4335"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF3FB33B"/>
-        <bgColor rgb="FF3FB33B"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="52"/>
-        <bgColor indexed="52"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="6"/>
-        <bgColor indexed="6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="65"/>
-        <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF58DBFF"/>
-        <bgColor rgb="FF58DBFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEA4335"/>
-        <bgColor rgb="FFEA4335"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFB7B7B7"/>
-        <bgColor rgb="FFB7B7B7"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left style="none"/>
       <right style="none"/>
@@ -223,49 +203,121 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="none"/>
-      <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FFC6C6C6"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FFC6C6C6"/>
       </right>
-      <top style="none"/>
+      <top style="thin">
+        <color rgb="FFC6C6C6"/>
+      </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FFC6C6C6"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF58DBFF"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="52"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFEA4335"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB7B7B7"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3FB33B"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF8DFC4F"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal style="none"/>
     </border>
@@ -273,106 +325,93 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="38">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf fontId="1" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf fontId="1" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf fontId="1" fillId="4" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf fontId="1" fillId="5" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf fontId="1" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf fontId="1" fillId="7" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf fontId="1" fillId="8" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="0"/>
+  <cellXfs count="31">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="3" xfId="0" applyNumberFormat="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="1" fillId="0" borderId="1" numFmtId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="1" fillId="6" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf fontId="1" fillId="0" borderId="1" numFmtId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="2" borderId="1" numFmtId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="1" fillId="3" borderId="1" numFmtId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="1" fillId="4" borderId="1" numFmtId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="1" fillId="5" borderId="1" numFmtId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="1" fillId="6" borderId="2" numFmtId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="1" fillId="7" borderId="1" numFmtId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="1" fillId="8" borderId="1" numFmtId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="1" fillId="6" borderId="1" numFmtId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="1" fillId="8" borderId="3" numFmtId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="1" fillId="5" borderId="4" numFmtId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="1" fillId="3" borderId="5" numFmtId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="1" fillId="9" borderId="6" numFmtId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="1" fillId="4" borderId="7" numFmtId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="1" fillId="2" borderId="8" numFmtId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf fontId="2" fillId="8" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="2" borderId="2" numFmtId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="2" fillId="5" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="4" borderId="2" numFmtId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf fontId="2" fillId="7" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf fontId="1" fillId="9" borderId="2" numFmtId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf fontId="1" fillId="3" borderId="2" numFmtId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf fontId="1" fillId="5" borderId="2" numFmtId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf fontId="1" fillId="8" borderId="2" numFmtId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="2" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="2" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf fontId="2" fillId="9" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="2" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="2" fillId="10" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="2" fillId="4" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="2" fillId="2" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="2" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf fontId="1" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf fontId="1" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="4" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf fontId="2" fillId="10" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="1" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="1" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="1" fillId="8" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -672,14 +711,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Sheets">
+    <a:clrScheme name="Office">
       <a:dk1>
-        <a:srgbClr val="000000"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
@@ -706,20 +745,20 @@
         <a:srgbClr val="46BDC6"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Sheets">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface="Arial"/>
         <a:cs typeface="Arial"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface="Arial"/>
         <a:cs typeface="Arial"/>
       </a:minorFont>
@@ -733,131 +772,154 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle"/>
+        </a:gradFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -869,4426 +931,4427 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetPr>
-    <outlinePr applyStyles="0" summaryBelow="0" summaryRight="0" showOutlineSymbols="1"/>
-    <pageSetUpPr autoPageBreaks="1" fitToPage="1"/>
+    <outlinePr applyStyles="0" summaryBelow="0" summaryRight="1" showOutlineSymbols="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
     <sheetView zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.630000000000001" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="4.1299999999999999"/>
-    <col customWidth="1" min="2" max="2" width="25.629999999999999"/>
-    <col customWidth="1" min="3" max="68" width="2.75"/>
-    <col customWidth="1" min="69" max="85" width="3.140625"/>
+    <col bestFit="1" customWidth="1" min="1" max="1" style="1" width="4.1478571428571431"/>
+    <col bestFit="1" customWidth="1" min="2" max="2" style="2" width="25.576428571428572"/>
+    <col bestFit="1" customWidth="1" min="3" max="68" style="1" width="2.7192857142857143"/>
+    <col bestFit="1" customWidth="1" min="69" max="85" style="1" width="3.1478571428571427"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="19.5" customHeight="1">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="5">
         <v>1</v>
       </c>
-      <c r="D1" s="3">
+      <c r="D1" s="5">
         <v>2</v>
       </c>
-      <c r="E1" s="3">
+      <c r="E1" s="5">
         <v>3</v>
       </c>
-      <c r="F1" s="3">
+      <c r="F1" s="5">
         <v>4</v>
       </c>
-      <c r="G1" s="3">
+      <c r="G1" s="5">
         <v>5</v>
       </c>
-      <c r="H1" s="3">
+      <c r="H1" s="5">
         <v>6</v>
       </c>
-      <c r="I1" s="3">
+      <c r="I1" s="5">
         <v>7</v>
       </c>
-      <c r="J1" s="3">
+      <c r="J1" s="5">
         <v>8</v>
       </c>
-      <c r="K1" s="3">
+      <c r="K1" s="5">
         <v>9</v>
       </c>
-      <c r="L1" s="3">
+      <c r="L1" s="5">
         <v>10</v>
       </c>
-      <c r="M1" s="3">
+      <c r="M1" s="5">
         <v>11</v>
       </c>
-      <c r="N1" s="3">
+      <c r="N1" s="5">
         <v>12</v>
       </c>
-      <c r="O1" s="3">
+      <c r="O1" s="5">
         <v>13</v>
       </c>
-      <c r="P1" s="3">
+      <c r="P1" s="5">
         <v>14</v>
       </c>
-      <c r="Q1" s="3">
+      <c r="Q1" s="5">
         <v>15</v>
       </c>
-      <c r="R1" s="3">
+      <c r="R1" s="5">
         <v>16</v>
       </c>
-      <c r="S1" s="3">
+      <c r="S1" s="5">
         <v>17</v>
       </c>
-      <c r="T1" s="3">
+      <c r="T1" s="5">
         <v>18</v>
       </c>
-      <c r="U1" s="3">
+      <c r="U1" s="5">
         <v>19</v>
       </c>
-      <c r="V1" s="3">
+      <c r="V1" s="5">
         <v>20</v>
       </c>
-      <c r="W1" s="3">
+      <c r="W1" s="5">
         <v>21</v>
       </c>
-      <c r="X1" s="3">
+      <c r="X1" s="5">
         <v>22</v>
       </c>
-      <c r="Y1" s="3">
+      <c r="Y1" s="5">
         <v>23</v>
       </c>
-      <c r="Z1" s="3">
+      <c r="Z1" s="5">
         <v>24</v>
       </c>
-      <c r="AA1" s="3">
+      <c r="AA1" s="5">
         <v>25</v>
       </c>
-      <c r="AB1" s="3">
+      <c r="AB1" s="5">
         <v>26</v>
       </c>
-      <c r="AC1" s="3">
+      <c r="AC1" s="5">
         <v>27</v>
       </c>
-      <c r="AD1" s="3">
+      <c r="AD1" s="5">
         <v>28</v>
       </c>
-      <c r="AE1" s="3">
+      <c r="AE1" s="5">
         <v>29</v>
       </c>
-      <c r="AF1" s="3">
+      <c r="AF1" s="5">
         <v>30</v>
       </c>
-      <c r="AG1" s="3">
+      <c r="AG1" s="5">
         <v>31</v>
       </c>
-      <c r="AH1" s="3">
+      <c r="AH1" s="5">
         <v>32</v>
       </c>
-      <c r="AI1" s="3">
+      <c r="AI1" s="5">
         <v>33</v>
       </c>
-      <c r="AJ1" s="3">
+      <c r="AJ1" s="5">
         <v>34</v>
       </c>
-      <c r="AK1" s="3">
+      <c r="AK1" s="5">
         <v>35</v>
       </c>
-      <c r="AL1" s="3">
+      <c r="AL1" s="5">
         <v>36</v>
       </c>
-      <c r="AM1" s="3">
+      <c r="AM1" s="5">
         <v>37</v>
       </c>
-      <c r="AN1" s="3">
+      <c r="AN1" s="5">
         <v>38</v>
       </c>
-      <c r="AO1" s="3">
+      <c r="AO1" s="5">
         <v>39</v>
       </c>
-      <c r="AP1" s="3">
+      <c r="AP1" s="5">
         <v>40</v>
       </c>
-      <c r="AQ1" s="3">
+      <c r="AQ1" s="5">
         <v>41</v>
       </c>
-      <c r="AR1" s="3">
+      <c r="AR1" s="5">
         <v>42</v>
       </c>
-      <c r="AS1" s="3">
+      <c r="AS1" s="5">
         <v>43</v>
       </c>
-      <c r="AT1" s="3">
+      <c r="AT1" s="5">
         <v>44</v>
       </c>
-      <c r="AU1" s="3">
+      <c r="AU1" s="5">
         <v>45</v>
       </c>
-      <c r="AV1" s="3">
+      <c r="AV1" s="5">
         <v>46</v>
       </c>
-      <c r="AW1" s="3">
+      <c r="AW1" s="5">
         <v>47</v>
       </c>
-      <c r="AX1" s="3">
+      <c r="AX1" s="5">
         <v>48</v>
       </c>
-      <c r="AY1" s="3">
+      <c r="AY1" s="5">
         <v>49</v>
       </c>
-      <c r="AZ1" s="3">
+      <c r="AZ1" s="5">
         <v>50</v>
       </c>
-      <c r="BA1" s="3">
+      <c r="BA1" s="5">
         <v>51</v>
       </c>
-      <c r="BB1" s="3">
+      <c r="BB1" s="5">
         <v>52</v>
       </c>
-      <c r="BC1" s="3">
+      <c r="BC1" s="5">
         <v>53</v>
       </c>
-      <c r="BD1" s="3">
+      <c r="BD1" s="5">
         <v>54</v>
       </c>
-      <c r="BE1" s="3">
+      <c r="BE1" s="5">
         <v>55</v>
       </c>
-      <c r="BF1" s="3">
+      <c r="BF1" s="5">
         <v>56</v>
       </c>
-      <c r="BG1" s="3">
+      <c r="BG1" s="5">
         <v>57</v>
       </c>
-      <c r="BH1" s="3">
+      <c r="BH1" s="5">
         <v>58</v>
       </c>
-      <c r="BI1" s="3">
+      <c r="BI1" s="5">
         <v>59</v>
       </c>
-      <c r="BJ1" s="3">
+      <c r="BJ1" s="5">
         <v>60</v>
       </c>
-      <c r="BK1" s="3">
+      <c r="BK1" s="5">
         <v>61</v>
       </c>
-      <c r="BL1" s="3">
+      <c r="BL1" s="5">
         <v>62</v>
       </c>
-      <c r="BM1" s="3">
+      <c r="BM1" s="5">
         <v>63</v>
       </c>
-      <c r="BN1" s="3">
+      <c r="BN1" s="5">
         <v>64</v>
       </c>
-      <c r="BO1" s="4">
+      <c r="BO1" s="5">
         <v>65</v>
       </c>
-      <c r="BP1" s="1"/>
-      <c r="BQ1" s="1"/>
-      <c r="BR1" s="1"/>
-      <c r="BS1" s="1"/>
-      <c r="BT1" s="1"/>
-      <c r="BU1" s="1"/>
-      <c r="BV1" s="1"/>
-      <c r="BW1" s="1"/>
-      <c r="BX1" s="1"/>
-      <c r="BY1" s="1"/>
-      <c r="BZ1" s="1"/>
-      <c r="CA1" s="1"/>
-      <c r="CB1" s="1"/>
-      <c r="CC1" s="1"/>
-      <c r="CD1" s="1"/>
-      <c r="CE1" s="1"/>
-      <c r="CF1" s="1"/>
-      <c r="CG1" s="1"/>
+      <c r="BP1" s="3"/>
+      <c r="BQ1" s="3"/>
+      <c r="BR1" s="3"/>
+      <c r="BS1" s="3"/>
+      <c r="BT1" s="3"/>
+      <c r="BU1" s="3"/>
+      <c r="BV1" s="3"/>
+      <c r="BW1" s="3"/>
+      <c r="BX1" s="3"/>
+      <c r="BY1" s="3"/>
+      <c r="BZ1" s="3"/>
+      <c r="CA1" s="3"/>
+      <c r="CB1" s="3"/>
+      <c r="CC1" s="3"/>
+      <c r="CD1" s="3"/>
+      <c r="CE1" s="3"/>
+      <c r="CF1" s="3"/>
+      <c r="CG1" s="3"/>
     </row>
-    <row r="2">
-      <c r="A2" s="1">
+    <row r="2" ht="19.5" customHeight="1">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="6">
         <v>1</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="7">
         <v>2</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="6">
         <v>3</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="6">
         <v>4</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="7">
         <v>5</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="8">
         <v>6</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="9">
         <v>7</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="3">
         <v>8</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="3">
         <v>9</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="6">
         <v>10</v>
       </c>
-      <c r="M2" s="5">
+      <c r="M2" s="6">
         <v>11</v>
       </c>
-      <c r="N2" s="5">
+      <c r="N2" s="6">
         <v>12</v>
       </c>
-      <c r="O2" s="5">
+      <c r="O2" s="6">
         <v>13</v>
       </c>
-      <c r="P2" s="8">
+      <c r="P2" s="9">
         <v>14</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="Q2" s="3">
         <v>15</v>
       </c>
-      <c r="R2" s="1">
+      <c r="R2" s="3">
         <v>16</v>
       </c>
-      <c r="S2" s="1">
+      <c r="S2" s="3">
         <v>17</v>
       </c>
-      <c r="T2" s="1">
+      <c r="T2" s="3">
         <v>18</v>
       </c>
-      <c r="U2" s="7">
+      <c r="U2" s="8">
         <v>19</v>
       </c>
-      <c r="V2" s="1">
+      <c r="V2" s="3">
         <v>20</v>
       </c>
-      <c r="W2" s="6">
+      <c r="W2" s="7">
         <v>21</v>
       </c>
-      <c r="X2" s="1">
+      <c r="X2" s="3">
         <v>22</v>
       </c>
-      <c r="Y2" s="1">
+      <c r="Y2" s="3">
         <v>23</v>
       </c>
-      <c r="Z2" s="8">
+      <c r="Z2" s="9">
         <v>24</v>
       </c>
-      <c r="AA2" s="5">
+      <c r="AA2" s="6">
         <v>25</v>
       </c>
-      <c r="AB2" s="8">
+      <c r="AB2" s="9">
         <v>26</v>
       </c>
-      <c r="AC2" s="7">
+      <c r="AC2" s="8">
         <v>27</v>
       </c>
-      <c r="AD2" s="7">
+      <c r="AD2" s="8">
         <v>28</v>
       </c>
-      <c r="AE2" s="1">
+      <c r="AE2" s="3">
         <v>29</v>
       </c>
-      <c r="AF2" s="5">
+      <c r="AF2" s="6">
         <v>30</v>
       </c>
-      <c r="AG2" s="1">
+      <c r="AG2" s="3">
         <v>31</v>
       </c>
-      <c r="AH2" s="8">
+      <c r="AH2" s="9">
         <v>32</v>
       </c>
-      <c r="AI2" s="1">
+      <c r="AI2" s="3">
         <v>33</v>
       </c>
-      <c r="AJ2" s="1">
+      <c r="AJ2" s="3">
         <v>34</v>
       </c>
-      <c r="AK2" s="1">
+      <c r="AK2" s="3">
         <v>35</v>
       </c>
-      <c r="AL2" s="1">
+      <c r="AL2" s="3">
         <v>36</v>
       </c>
-      <c r="AM2" s="1">
+      <c r="AM2" s="3">
         <v>37</v>
       </c>
-      <c r="AN2" s="1">
+      <c r="AN2" s="3">
         <v>38</v>
       </c>
-      <c r="AO2" s="1">
+      <c r="AO2" s="3">
         <v>39</v>
       </c>
-      <c r="AP2" s="1">
+      <c r="AP2" s="3">
         <v>40</v>
       </c>
-      <c r="AQ2" s="1">
+      <c r="AQ2" s="3">
         <v>41</v>
       </c>
-      <c r="AR2" s="1">
+      <c r="AR2" s="3">
         <v>42</v>
       </c>
-      <c r="AS2" s="5">
+      <c r="AS2" s="6">
         <v>43</v>
       </c>
-      <c r="AT2" s="1">
+      <c r="AT2" s="3">
         <v>44</v>
       </c>
-      <c r="AU2" s="1">
+      <c r="AU2" s="3">
         <v>45</v>
       </c>
-      <c r="AV2" s="5">
+      <c r="AV2" s="6">
         <v>46</v>
       </c>
-      <c r="AW2" s="1">
+      <c r="AW2" s="3">
         <v>47</v>
       </c>
-      <c r="AX2" s="1">
+      <c r="AX2" s="3">
         <v>48</v>
       </c>
-      <c r="AY2" s="1">
+      <c r="AY2" s="3">
         <v>49</v>
       </c>
-      <c r="AZ2" s="7">
+      <c r="AZ2" s="8">
         <v>50</v>
       </c>
-      <c r="BA2" s="1">
+      <c r="BA2" s="3">
         <v>51</v>
       </c>
-      <c r="BB2" s="1">
+      <c r="BB2" s="3">
         <v>52</v>
       </c>
-      <c r="BC2" s="1">
+      <c r="BC2" s="3">
         <v>53</v>
       </c>
-      <c r="BD2" s="1">
+      <c r="BD2" s="3">
         <v>54</v>
       </c>
-      <c r="BE2" s="1">
+      <c r="BE2" s="3">
         <v>55</v>
       </c>
-      <c r="BF2" s="1">
+      <c r="BF2" s="3">
         <v>56</v>
       </c>
-      <c r="BG2" s="1">
+      <c r="BG2" s="3">
         <v>57</v>
       </c>
-      <c r="BH2" s="8">
+      <c r="BH2" s="9">
         <v>58</v>
       </c>
-      <c r="BI2" s="8">
+      <c r="BI2" s="9">
         <v>59</v>
       </c>
-      <c r="BJ2" s="1">
+      <c r="BJ2" s="3">
         <v>60</v>
       </c>
-      <c r="BK2" s="1">
+      <c r="BK2" s="3">
         <v>61</v>
       </c>
-      <c r="BL2" s="1">
+      <c r="BL2" s="3">
         <v>62</v>
       </c>
-      <c r="BM2" s="8">
+      <c r="BM2" s="9">
         <v>63</v>
       </c>
-      <c r="BN2" s="1">
+      <c r="BN2" s="3">
         <v>64</v>
       </c>
-      <c r="BO2" s="1">
+      <c r="BO2" s="3">
         <v>65</v>
       </c>
-      <c r="BP2" s="1">
+      <c r="BP2" s="3">
         <v>66</v>
       </c>
-      <c r="BQ2" s="1">
+      <c r="BQ2" s="3">
         <v>67</v>
       </c>
-      <c r="BR2" s="1">
+      <c r="BR2" s="3">
         <v>68</v>
       </c>
-      <c r="BS2" s="1">
+      <c r="BS2" s="3">
         <v>69</v>
       </c>
-      <c r="BT2" s="9">
+      <c r="BT2" s="10">
         <v>1</v>
       </c>
-      <c r="BU2" s="1">
+      <c r="BU2" s="3">
         <v>70</v>
       </c>
-      <c r="BV2" s="1">
+      <c r="BV2" s="3">
         <v>71</v>
       </c>
-      <c r="BW2" s="10">
+      <c r="BW2" s="11">
         <v>72</v>
       </c>
-      <c r="BX2" s="10">
+      <c r="BX2" s="11">
         <v>73</v>
       </c>
-      <c r="BY2" s="10">
+      <c r="BY2" s="11">
         <v>74</v>
       </c>
-      <c r="BZ2" s="10">
+      <c r="BZ2" s="11">
         <v>75</v>
       </c>
-      <c r="CA2" s="11">
+      <c r="CA2" s="12">
         <v>76</v>
       </c>
-      <c r="CB2" s="5">
+      <c r="CB2" s="6">
         <v>77</v>
       </c>
-      <c r="CC2" s="8">
+      <c r="CC2" s="9">
         <v>78</v>
       </c>
-      <c r="CD2" s="8">
+      <c r="CD2" s="9">
         <v>79</v>
       </c>
-      <c r="CE2" s="8">
+      <c r="CE2" s="9">
         <v>80</v>
       </c>
-      <c r="CF2" s="8">
+      <c r="CF2" s="9">
         <v>81</v>
       </c>
-      <c r="CG2" s="8">
+      <c r="CG2" s="9">
         <v>82</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1">
+    <row r="3" ht="19.5" customHeight="1">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="6">
         <v>1</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="3">
         <v>2</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="12">
         <v>3</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="6">
         <v>4</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="9">
         <v>5</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="3">
         <v>6</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="3">
         <v>7</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="3">
         <v>8</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="3">
         <v>9</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3" s="3">
         <v>10</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M3" s="3">
         <v>11</v>
       </c>
-      <c r="N3" s="1">
+      <c r="N3" s="3">
         <v>12</v>
       </c>
-      <c r="O3" s="8">
+      <c r="O3" s="9">
         <v>13</v>
       </c>
-      <c r="P3" s="5">
+      <c r="P3" s="6">
         <v>14</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="Q3" s="3">
         <v>15</v>
       </c>
-      <c r="R3" s="1">
+      <c r="R3" s="3">
         <v>16</v>
       </c>
-      <c r="S3" s="7">
+      <c r="S3" s="8">
         <v>17</v>
       </c>
-      <c r="T3" s="1">
+      <c r="T3" s="3">
         <v>18</v>
       </c>
-      <c r="U3" s="1">
+      <c r="U3" s="3">
         <v>19</v>
       </c>
-      <c r="V3" s="1">
+      <c r="V3" s="3">
         <v>20</v>
       </c>
-      <c r="W3" s="1">
+      <c r="W3" s="3">
         <v>21</v>
       </c>
-      <c r="X3" s="1">
+      <c r="X3" s="3">
         <v>22</v>
       </c>
-      <c r="Y3" s="8">
+      <c r="Y3" s="9">
         <v>23</v>
       </c>
-      <c r="Z3" s="1">
+      <c r="Z3" s="3">
         <v>24</v>
       </c>
-      <c r="AA3" s="11">
+      <c r="AA3" s="12">
         <v>25</v>
       </c>
       <c r="AB3" s="13">
         <v>2</v>
       </c>
-      <c r="AC3" s="1">
+      <c r="AC3" s="3">
         <v>26</v>
       </c>
-      <c r="AD3" s="1">
+      <c r="AD3" s="3">
         <v>27</v>
       </c>
-      <c r="AE3" s="8">
+      <c r="AE3" s="9">
         <v>28</v>
       </c>
-      <c r="AF3" s="1">
+      <c r="AF3" s="3">
         <v>29</v>
       </c>
-      <c r="AG3" s="7">
+      <c r="AG3" s="8">
         <v>30</v>
       </c>
-      <c r="AH3" s="8">
+      <c r="AH3" s="9">
         <v>31</v>
       </c>
-      <c r="AI3" s="8">
+      <c r="AI3" s="9">
         <v>32</v>
       </c>
-      <c r="AJ3" s="8">
+      <c r="AJ3" s="9">
         <v>33</v>
       </c>
-      <c r="AK3" s="1">
+      <c r="AK3" s="3">
         <v>34</v>
       </c>
-      <c r="AL3" s="6">
+      <c r="AL3" s="7">
         <v>35</v>
       </c>
-      <c r="AM3" s="11">
+      <c r="AM3" s="12">
         <v>36</v>
       </c>
-      <c r="AN3" s="1"/>
-      <c r="AO3" s="1"/>
-      <c r="AP3" s="14"/>
-      <c r="AQ3" s="14"/>
-      <c r="AR3" s="14"/>
-      <c r="AS3" s="14"/>
-      <c r="AT3" s="14"/>
-      <c r="AU3" s="14"/>
-      <c r="AV3" s="14"/>
-      <c r="AW3" s="14"/>
-      <c r="AX3" s="14"/>
-      <c r="AY3" s="14"/>
-      <c r="AZ3" s="14"/>
-      <c r="BA3" s="14"/>
-      <c r="BB3" s="14"/>
-      <c r="BC3" s="14"/>
-      <c r="BD3" s="14"/>
-      <c r="BE3" s="14"/>
-      <c r="BF3" s="14"/>
-      <c r="BG3" s="14"/>
-      <c r="BH3" s="14"/>
-      <c r="BI3" s="14"/>
-      <c r="BJ3" s="14"/>
-      <c r="BK3" s="14"/>
-      <c r="BL3" s="14"/>
-      <c r="BM3" s="14"/>
-      <c r="BN3" s="14"/>
-      <c r="BO3" s="14"/>
-      <c r="BP3" s="14"/>
-      <c r="BQ3" s="1"/>
-      <c r="BR3" s="1"/>
-      <c r="BS3" s="1"/>
-      <c r="BT3" s="1"/>
-      <c r="BU3" s="1"/>
-      <c r="BV3" s="1"/>
-      <c r="BW3" s="1"/>
-      <c r="BX3" s="1"/>
-      <c r="BY3" s="1"/>
-      <c r="BZ3" s="1"/>
-      <c r="CA3" s="1"/>
-      <c r="CB3" s="1"/>
-      <c r="CC3" s="1"/>
-      <c r="CD3" s="1"/>
-      <c r="CE3" s="1"/>
-      <c r="CF3" s="1"/>
-      <c r="CG3" s="1"/>
+      <c r="AN3" s="3"/>
+      <c r="AO3" s="3"/>
+      <c r="AP3" s="3"/>
+      <c r="AQ3" s="3"/>
+      <c r="AR3" s="3"/>
+      <c r="AS3" s="3"/>
+      <c r="AT3" s="3"/>
+      <c r="AU3" s="3"/>
+      <c r="AV3" s="3"/>
+      <c r="AW3" s="3"/>
+      <c r="AX3" s="3"/>
+      <c r="AY3" s="3"/>
+      <c r="AZ3" s="3"/>
+      <c r="BA3" s="3"/>
+      <c r="BB3" s="3"/>
+      <c r="BC3" s="3"/>
+      <c r="BD3" s="3"/>
+      <c r="BE3" s="3"/>
+      <c r="BF3" s="3"/>
+      <c r="BG3" s="3"/>
+      <c r="BH3" s="3"/>
+      <c r="BI3" s="3"/>
+      <c r="BJ3" s="3"/>
+      <c r="BK3" s="3"/>
+      <c r="BL3" s="3"/>
+      <c r="BM3" s="3"/>
+      <c r="BN3" s="3"/>
+      <c r="BO3" s="3"/>
+      <c r="BP3" s="3"/>
+      <c r="BQ3" s="3"/>
+      <c r="BR3" s="3"/>
+      <c r="BS3" s="3"/>
+      <c r="BT3" s="3"/>
+      <c r="BU3" s="3"/>
+      <c r="BV3" s="3"/>
+      <c r="BW3" s="3"/>
+      <c r="BX3" s="3"/>
+      <c r="BY3" s="3"/>
+      <c r="BZ3" s="3"/>
+      <c r="CA3" s="3"/>
+      <c r="CB3" s="3"/>
+      <c r="CC3" s="3"/>
+      <c r="CD3" s="3"/>
+      <c r="CE3" s="3"/>
+      <c r="CF3" s="3"/>
+      <c r="CG3" s="3"/>
     </row>
-    <row r="4">
-      <c r="A4" s="1">
+    <row r="4" ht="19.5" customHeight="1">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="12">
         <v>1</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="12">
         <v>2</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="6">
         <v>3</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="3">
         <v>4</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="3">
         <v>5</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="3">
         <v>6</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="3">
         <v>7</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="3">
         <v>8</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="3">
         <v>9</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="6">
         <v>10</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M4" s="3">
         <v>11</v>
       </c>
-      <c r="N4" s="1">
+      <c r="N4" s="3">
         <v>12</v>
       </c>
-      <c r="O4" s="1">
+      <c r="O4" s="3">
         <v>13</v>
       </c>
-      <c r="P4" s="1">
+      <c r="P4" s="3">
         <v>14</v>
       </c>
-      <c r="Q4" s="8">
+      <c r="Q4" s="9">
         <v>15</v>
       </c>
-      <c r="R4" s="1">
+      <c r="R4" s="3">
         <v>16</v>
       </c>
-      <c r="S4" s="1">
+      <c r="S4" s="3">
         <v>17</v>
       </c>
-      <c r="T4" s="11">
+      <c r="T4" s="12">
         <v>18</v>
       </c>
-      <c r="U4" s="1">
+      <c r="U4" s="3">
         <v>19</v>
       </c>
-      <c r="V4" s="1">
+      <c r="V4" s="3">
         <v>20</v>
       </c>
-      <c r="W4" s="1">
+      <c r="W4" s="3">
         <v>21</v>
       </c>
-      <c r="X4" s="1">
+      <c r="X4" s="3">
         <v>22</v>
       </c>
-      <c r="Y4" s="1">
+      <c r="Y4" s="3">
         <v>23</v>
       </c>
-      <c r="Z4" s="1">
+      <c r="Z4" s="3">
         <v>24</v>
       </c>
-      <c r="AA4" s="5">
+      <c r="AA4" s="6">
         <v>25</v>
       </c>
-      <c r="AB4" s="1">
+      <c r="AB4" s="3">
         <v>26</v>
       </c>
-      <c r="AC4" s="7">
+      <c r="AC4" s="8">
         <v>27</v>
       </c>
-      <c r="AD4" s="8">
+      <c r="AD4" s="9">
         <v>28</v>
       </c>
-      <c r="AE4" s="1">
+      <c r="AE4" s="3">
         <v>29</v>
       </c>
-      <c r="AF4" s="1">
+      <c r="AF4" s="3">
         <v>30</v>
       </c>
-      <c r="AG4" s="11">
+      <c r="AG4" s="12">
         <v>31</v>
       </c>
-      <c r="AH4" s="1">
+      <c r="AH4" s="3">
         <v>32</v>
       </c>
-      <c r="AI4" s="1">
+      <c r="AI4" s="3">
         <v>33</v>
       </c>
-      <c r="AJ4" s="1">
+      <c r="AJ4" s="3">
         <v>34</v>
       </c>
-      <c r="AK4" s="5">
+      <c r="AK4" s="6">
         <v>35</v>
       </c>
-      <c r="AL4" s="1">
+      <c r="AL4" s="3">
         <v>36</v>
       </c>
-      <c r="AM4" s="1">
+      <c r="AM4" s="3">
         <v>37</v>
       </c>
-      <c r="AN4" s="5">
+      <c r="AN4" s="6">
         <v>38</v>
       </c>
-      <c r="AO4" s="9">
+      <c r="AO4" s="10">
         <v>3</v>
       </c>
-      <c r="AP4" s="1">
+      <c r="AP4" s="3">
         <v>39</v>
       </c>
-      <c r="AQ4" s="1">
+      <c r="AQ4" s="3">
         <v>40</v>
       </c>
-      <c r="AR4" s="1">
+      <c r="AR4" s="3">
         <v>41</v>
       </c>
-      <c r="AS4" s="14"/>
-      <c r="AT4" s="14"/>
-      <c r="AU4" s="14"/>
-      <c r="AV4" s="14"/>
-      <c r="AW4" s="14"/>
-      <c r="AX4" s="14"/>
-      <c r="AY4" s="14"/>
-      <c r="AZ4" s="14"/>
-      <c r="BA4" s="14"/>
-      <c r="BB4" s="14"/>
-      <c r="BC4" s="14"/>
-      <c r="BD4" s="14"/>
-      <c r="BE4" s="14"/>
-      <c r="BF4" s="14"/>
-      <c r="BG4" s="14"/>
-      <c r="BH4" s="14"/>
-      <c r="BI4" s="14"/>
-      <c r="BJ4" s="14"/>
-      <c r="BK4" s="14"/>
-      <c r="BL4" s="14"/>
-      <c r="BM4" s="14"/>
-      <c r="BN4" s="14"/>
-      <c r="BO4" s="14"/>
-      <c r="BP4" s="14"/>
-      <c r="BQ4" s="1"/>
-      <c r="BR4" s="1"/>
-      <c r="BS4" s="1"/>
-      <c r="BT4" s="1"/>
-      <c r="BU4" s="1"/>
-      <c r="BV4" s="1"/>
-      <c r="BW4" s="1"/>
-      <c r="BX4" s="1"/>
-      <c r="BY4" s="1"/>
-      <c r="BZ4" s="1"/>
-      <c r="CA4" s="1"/>
-      <c r="CB4" s="1"/>
-      <c r="CC4" s="1"/>
-      <c r="CD4" s="1"/>
-      <c r="CE4" s="1"/>
-      <c r="CF4" s="1"/>
-      <c r="CG4" s="1"/>
+      <c r="AS4" s="3"/>
+      <c r="AT4" s="3"/>
+      <c r="AU4" s="3"/>
+      <c r="AV4" s="3"/>
+      <c r="AW4" s="3"/>
+      <c r="AX4" s="3"/>
+      <c r="AY4" s="3"/>
+      <c r="AZ4" s="3"/>
+      <c r="BA4" s="3"/>
+      <c r="BB4" s="3"/>
+      <c r="BC4" s="3"/>
+      <c r="BD4" s="3"/>
+      <c r="BE4" s="3"/>
+      <c r="BF4" s="3"/>
+      <c r="BG4" s="3"/>
+      <c r="BH4" s="3"/>
+      <c r="BI4" s="3"/>
+      <c r="BJ4" s="3"/>
+      <c r="BK4" s="3"/>
+      <c r="BL4" s="3"/>
+      <c r="BM4" s="3"/>
+      <c r="BN4" s="3"/>
+      <c r="BO4" s="3"/>
+      <c r="BP4" s="3"/>
+      <c r="BQ4" s="3"/>
+      <c r="BR4" s="3"/>
+      <c r="BS4" s="3"/>
+      <c r="BT4" s="3"/>
+      <c r="BU4" s="3"/>
+      <c r="BV4" s="3"/>
+      <c r="BW4" s="3"/>
+      <c r="BX4" s="3"/>
+      <c r="BY4" s="3"/>
+      <c r="BZ4" s="3"/>
+      <c r="CA4" s="3"/>
+      <c r="CB4" s="3"/>
+      <c r="CC4" s="3"/>
+      <c r="CD4" s="3"/>
+      <c r="CE4" s="3"/>
+      <c r="CF4" s="3"/>
+      <c r="CG4" s="3"/>
     </row>
-    <row r="5">
-      <c r="A5" s="1">
+    <row r="5" ht="19.5" customHeight="1">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="9">
         <v>1</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="9">
         <v>2</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="3">
         <v>3</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="8">
         <v>4</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="3">
         <v>5</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="3">
         <v>6</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="3">
         <v>7</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="8">
         <v>8</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="3">
         <v>9</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="3">
         <v>10</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5" s="3">
         <v>11</v>
       </c>
-      <c r="N5" s="11">
+      <c r="N5" s="12">
         <v>12</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O5" s="3">
         <v>13</v>
       </c>
-      <c r="P5" s="1">
+      <c r="P5" s="3">
         <v>14</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="Q5" s="3">
         <v>15</v>
       </c>
-      <c r="R5" s="1">
+      <c r="R5" s="3">
         <v>16</v>
       </c>
-      <c r="S5" s="1">
+      <c r="S5" s="3">
         <v>17</v>
       </c>
-      <c r="T5" s="1">
+      <c r="T5" s="3">
         <v>18</v>
       </c>
-      <c r="U5" s="1">
+      <c r="U5" s="3">
         <v>19</v>
       </c>
-      <c r="V5" s="1">
+      <c r="V5" s="3">
         <v>20</v>
       </c>
-      <c r="W5" s="1">
+      <c r="W5" s="3">
         <v>21</v>
       </c>
-      <c r="X5" s="1">
+      <c r="X5" s="3">
         <v>22</v>
       </c>
-      <c r="Y5" s="1">
+      <c r="Y5" s="3">
         <v>23</v>
       </c>
-      <c r="Z5" s="1">
+      <c r="Z5" s="3">
         <v>24</v>
       </c>
-      <c r="AA5" s="8">
+      <c r="AA5" s="9">
         <v>25</v>
       </c>
-      <c r="AB5" s="1">
+      <c r="AB5" s="3">
         <v>26</v>
       </c>
-      <c r="AC5" s="1">
+      <c r="AC5" s="3">
         <v>27</v>
       </c>
-      <c r="AD5" s="1">
+      <c r="AD5" s="3">
         <v>28</v>
       </c>
-      <c r="AE5" s="1">
+      <c r="AE5" s="3">
         <v>29</v>
       </c>
-      <c r="AF5" s="1">
+      <c r="AF5" s="3">
         <v>30</v>
       </c>
-      <c r="AG5" s="1">
+      <c r="AG5" s="3">
         <v>31</v>
       </c>
-      <c r="AH5" s="1">
+      <c r="AH5" s="3">
         <v>32</v>
       </c>
-      <c r="AI5" s="1">
+      <c r="AI5" s="3">
         <v>33</v>
       </c>
-      <c r="AJ5" s="1">
+      <c r="AJ5" s="3">
         <v>34</v>
       </c>
-      <c r="AK5" s="1">
+      <c r="AK5" s="3">
         <v>35</v>
       </c>
-      <c r="AL5" s="1">
+      <c r="AL5" s="3">
         <v>36</v>
       </c>
-      <c r="AM5" s="1">
+      <c r="AM5" s="3">
         <v>37</v>
       </c>
-      <c r="AN5" s="1">
+      <c r="AN5" s="3">
         <v>38</v>
       </c>
-      <c r="AO5" s="7">
+      <c r="AO5" s="8">
         <v>39</v>
       </c>
-      <c r="AP5" s="1">
+      <c r="AP5" s="3">
         <v>40</v>
       </c>
-      <c r="AQ5" s="1">
+      <c r="AQ5" s="3">
         <v>41</v>
       </c>
-      <c r="AR5" s="5">
+      <c r="AR5" s="6">
         <v>42</v>
       </c>
-      <c r="AS5" s="1">
+      <c r="AS5" s="3">
         <v>43</v>
       </c>
-      <c r="AT5" s="1">
+      <c r="AT5" s="3">
         <v>44</v>
       </c>
-      <c r="AU5" s="1">
+      <c r="AU5" s="3">
         <v>45</v>
       </c>
-      <c r="AV5" s="1">
+      <c r="AV5" s="3">
         <v>46</v>
       </c>
-      <c r="AW5" s="1">
+      <c r="AW5" s="3">
         <v>47</v>
       </c>
-      <c r="AX5" s="1">
+      <c r="AX5" s="3">
         <v>48</v>
       </c>
-      <c r="AY5" s="9">
+      <c r="AY5" s="10">
         <v>4</v>
       </c>
-      <c r="AZ5" s="1">
+      <c r="AZ5" s="3">
         <v>49</v>
       </c>
-      <c r="BA5" s="1">
+      <c r="BA5" s="3">
         <v>50</v>
       </c>
-      <c r="BB5" s="8">
+      <c r="BB5" s="9">
         <v>51</v>
       </c>
-      <c r="BC5" s="8">
+      <c r="BC5" s="9">
         <v>52</v>
       </c>
-      <c r="BD5" s="14"/>
-      <c r="BE5" s="14"/>
-      <c r="BF5" s="14"/>
-      <c r="BG5" s="14"/>
-      <c r="BH5" s="14"/>
-      <c r="BI5" s="14"/>
-      <c r="BJ5" s="14"/>
-      <c r="BK5" s="14"/>
-      <c r="BL5" s="14"/>
-      <c r="BM5" s="14"/>
-      <c r="BN5" s="14"/>
-      <c r="BO5" s="14"/>
-      <c r="BP5" s="14"/>
-      <c r="BQ5" s="1"/>
-      <c r="BR5" s="1"/>
-      <c r="BS5" s="1"/>
-      <c r="BT5" s="1"/>
-      <c r="BU5" s="1"/>
-      <c r="BV5" s="1"/>
-      <c r="BW5" s="1"/>
-      <c r="BX5" s="1"/>
-      <c r="BY5" s="1"/>
-      <c r="BZ5" s="1"/>
-      <c r="CA5" s="1"/>
-      <c r="CB5" s="1"/>
-      <c r="CC5" s="1"/>
-      <c r="CD5" s="1"/>
-      <c r="CE5" s="1"/>
-      <c r="CF5" s="1"/>
-      <c r="CG5" s="1"/>
+      <c r="BD5" s="3"/>
+      <c r="BE5" s="3"/>
+      <c r="BF5" s="3"/>
+      <c r="BG5" s="3"/>
+      <c r="BH5" s="3"/>
+      <c r="BI5" s="3"/>
+      <c r="BJ5" s="3"/>
+      <c r="BK5" s="3"/>
+      <c r="BL5" s="3"/>
+      <c r="BM5" s="3"/>
+      <c r="BN5" s="3"/>
+      <c r="BO5" s="3"/>
+      <c r="BP5" s="3"/>
+      <c r="BQ5" s="3"/>
+      <c r="BR5" s="3"/>
+      <c r="BS5" s="3"/>
+      <c r="BT5" s="3"/>
+      <c r="BU5" s="3"/>
+      <c r="BV5" s="3"/>
+      <c r="BW5" s="3"/>
+      <c r="BX5" s="3"/>
+      <c r="BY5" s="3"/>
+      <c r="BZ5" s="3"/>
+      <c r="CA5" s="3"/>
+      <c r="CB5" s="3"/>
+      <c r="CC5" s="3"/>
+      <c r="CD5" s="3"/>
+      <c r="CE5" s="3"/>
+      <c r="CF5" s="3"/>
+      <c r="CG5" s="3"/>
     </row>
-    <row r="6">
-      <c r="A6" s="1">
+    <row r="6" ht="19.5" customHeight="1">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="12">
         <v>1</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="3">
         <v>2</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="3">
         <v>3</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="8">
         <v>4</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="3">
         <v>5</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="9">
         <v>6</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="9">
         <v>7</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="9">
         <v>8</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K6" s="12">
         <v>9</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="3">
         <v>10</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6" s="3">
         <v>11</v>
       </c>
-      <c r="N6" s="1">
+      <c r="N6" s="3">
         <v>12</v>
       </c>
-      <c r="O6" s="1">
+      <c r="O6" s="3">
         <v>13</v>
       </c>
-      <c r="P6" s="8">
+      <c r="P6" s="9">
         <v>14</v>
       </c>
-      <c r="Q6" s="8">
+      <c r="Q6" s="9">
         <v>15</v>
       </c>
-      <c r="R6" s="1">
+      <c r="R6" s="3">
         <v>16</v>
       </c>
-      <c r="S6" s="11">
+      <c r="S6" s="12">
         <v>17</v>
       </c>
-      <c r="T6" s="1">
+      <c r="T6" s="3">
         <v>18</v>
       </c>
-      <c r="U6" s="5">
+      <c r="U6" s="6">
         <v>19</v>
       </c>
-      <c r="V6" s="1">
+      <c r="V6" s="3">
         <v>20</v>
       </c>
-      <c r="W6" s="5">
+      <c r="W6" s="6">
         <v>21</v>
       </c>
-      <c r="X6" s="1">
+      <c r="X6" s="3">
         <v>22</v>
       </c>
-      <c r="Y6" s="1">
+      <c r="Y6" s="3">
         <v>23</v>
       </c>
-      <c r="Z6" s="1">
+      <c r="Z6" s="3">
         <v>24</v>
       </c>
-      <c r="AA6" s="1">
+      <c r="AA6" s="3">
         <v>25</v>
       </c>
-      <c r="AB6" s="11">
+      <c r="AB6" s="12">
         <v>26</v>
       </c>
-      <c r="AC6" s="11">
+      <c r="AC6" s="12">
         <v>27</v>
       </c>
-      <c r="AD6" s="1">
+      <c r="AD6" s="3">
         <v>28</v>
       </c>
-      <c r="AE6" s="8">
+      <c r="AE6" s="9">
         <v>29</v>
       </c>
-      <c r="AF6" s="1">
+      <c r="AF6" s="3">
         <v>30</v>
       </c>
-      <c r="AG6" s="1">
+      <c r="AG6" s="3">
         <v>31</v>
       </c>
-      <c r="AH6" s="1">
+      <c r="AH6" s="3">
         <v>32</v>
       </c>
-      <c r="AI6" s="1">
+      <c r="AI6" s="3">
         <v>33</v>
       </c>
-      <c r="AJ6" s="1">
+      <c r="AJ6" s="3">
         <v>34</v>
       </c>
-      <c r="AK6" s="1">
+      <c r="AK6" s="3">
         <v>35</v>
       </c>
-      <c r="AL6" s="1">
+      <c r="AL6" s="3">
         <v>36</v>
       </c>
-      <c r="AM6" s="1">
+      <c r="AM6" s="3">
         <v>37</v>
       </c>
-      <c r="AN6" s="7">
+      <c r="AN6" s="8">
         <v>38</v>
       </c>
-      <c r="AO6" s="1">
+      <c r="AO6" s="3">
         <v>39</v>
       </c>
-      <c r="AP6" s="1">
+      <c r="AP6" s="3">
         <v>40</v>
       </c>
-      <c r="AQ6" s="1">
+      <c r="AQ6" s="3">
         <v>41</v>
       </c>
-      <c r="AR6" s="1">
+      <c r="AR6" s="3">
         <v>42</v>
       </c>
-      <c r="AS6" s="8">
+      <c r="AS6" s="9">
         <v>43</v>
       </c>
-      <c r="AT6" s="5">
+      <c r="AT6" s="6">
         <v>44</v>
       </c>
-      <c r="AU6" s="8">
+      <c r="AU6" s="9">
         <v>45</v>
       </c>
-      <c r="AV6" s="8">
+      <c r="AV6" s="9">
         <v>46</v>
       </c>
-      <c r="AW6" s="8">
+      <c r="AW6" s="9">
         <v>47</v>
       </c>
-      <c r="AX6" s="9">
+      <c r="AX6" s="10">
         <v>5</v>
       </c>
-      <c r="AY6" s="1">
+      <c r="AY6" s="3">
         <v>48</v>
       </c>
-      <c r="AZ6" s="5">
+      <c r="AZ6" s="6">
         <v>49</v>
       </c>
-      <c r="BA6" s="7">
+      <c r="BA6" s="8">
         <v>50</v>
       </c>
-      <c r="BB6" s="1">
+      <c r="BB6" s="3">
         <v>51</v>
       </c>
-      <c r="BC6" s="1">
+      <c r="BC6" s="3">
         <v>52</v>
       </c>
-      <c r="BD6" s="1">
+      <c r="BD6" s="3">
         <v>53</v>
       </c>
-      <c r="BE6" s="1">
+      <c r="BE6" s="3">
         <v>54</v>
       </c>
-      <c r="BF6" s="1">
+      <c r="BF6" s="3">
         <v>55</v>
       </c>
-      <c r="BG6" s="1">
+      <c r="BG6" s="3">
         <v>56</v>
       </c>
-      <c r="BH6" s="8">
+      <c r="BH6" s="9">
         <v>57</v>
       </c>
-      <c r="BI6" s="8">
+      <c r="BI6" s="9">
         <v>58</v>
       </c>
-      <c r="BJ6" s="8">
+      <c r="BJ6" s="9">
         <v>59</v>
       </c>
-      <c r="BK6" s="8">
+      <c r="BK6" s="9">
         <v>60</v>
       </c>
-      <c r="BL6" s="8">
+      <c r="BL6" s="9">
         <v>61</v>
       </c>
-      <c r="BM6" s="8">
+      <c r="BM6" s="9">
         <v>62</v>
       </c>
-      <c r="BN6" s="8">
+      <c r="BN6" s="9">
         <v>63</v>
       </c>
-      <c r="BO6" s="6">
+      <c r="BO6" s="7">
         <v>64</v>
       </c>
-      <c r="BP6" s="11">
+      <c r="BP6" s="12">
         <v>65</v>
       </c>
-      <c r="BQ6" s="1"/>
-      <c r="BR6" s="1"/>
-      <c r="BS6" s="1"/>
-      <c r="BT6" s="15"/>
-      <c r="BU6" s="1"/>
-      <c r="BV6" s="1"/>
-      <c r="BW6" s="1"/>
-      <c r="BX6" s="1"/>
-      <c r="BY6" s="1"/>
-      <c r="BZ6" s="1"/>
-      <c r="CA6" s="1"/>
-      <c r="CB6" s="1"/>
-      <c r="CC6" s="1"/>
-      <c r="CD6" s="1"/>
-      <c r="CE6" s="1"/>
-      <c r="CF6" s="1"/>
-      <c r="CG6" s="1"/>
+      <c r="BQ6" s="3"/>
+      <c r="BR6" s="3"/>
+      <c r="BS6" s="3"/>
+      <c r="BT6" s="14"/>
+      <c r="BU6" s="3"/>
+      <c r="BV6" s="3"/>
+      <c r="BW6" s="3"/>
+      <c r="BX6" s="3"/>
+      <c r="BY6" s="3"/>
+      <c r="BZ6" s="3"/>
+      <c r="CA6" s="3"/>
+      <c r="CB6" s="3"/>
+      <c r="CC6" s="3"/>
+      <c r="CD6" s="3"/>
+      <c r="CE6" s="3"/>
+      <c r="CF6" s="3"/>
+      <c r="CG6" s="3"/>
     </row>
-    <row r="7">
-      <c r="A7" s="1">
+    <row r="7" ht="19.5" customHeight="1">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="7">
         <v>1</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="12">
         <v>2</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="7">
         <v>3</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="7">
         <v>4</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="3">
         <v>5</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="3">
         <v>6</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="6">
         <v>7</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="3">
         <v>8</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="3">
         <v>9</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7" s="3">
         <v>10</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7" s="3">
         <v>11</v>
       </c>
-      <c r="N7" s="7">
+      <c r="N7" s="8">
         <v>12</v>
       </c>
-      <c r="O7" s="11">
+      <c r="O7" s="12">
         <v>13</v>
       </c>
-      <c r="P7" s="7">
+      <c r="P7" s="8">
         <v>14</v>
       </c>
-      <c r="Q7" s="8">
+      <c r="Q7" s="9">
         <v>15</v>
       </c>
-      <c r="R7" s="8">
+      <c r="R7" s="9">
         <v>16</v>
       </c>
-      <c r="S7" s="1">
+      <c r="S7" s="3">
         <v>17</v>
       </c>
-      <c r="T7" s="1">
+      <c r="T7" s="3">
         <v>18</v>
       </c>
-      <c r="U7" s="1">
+      <c r="U7" s="3">
         <v>19</v>
       </c>
-      <c r="V7" s="8">
+      <c r="V7" s="9">
         <v>20</v>
       </c>
-      <c r="W7" s="1">
+      <c r="W7" s="3">
         <v>21</v>
       </c>
-      <c r="X7" s="1">
+      <c r="X7" s="3">
         <v>22</v>
       </c>
-      <c r="Y7" s="5">
+      <c r="Y7" s="6">
         <v>23</v>
       </c>
-      <c r="Z7" s="1">
+      <c r="Z7" s="3">
         <v>24</v>
       </c>
-      <c r="AA7" s="7">
+      <c r="AA7" s="8">
         <v>25</v>
       </c>
-      <c r="AB7" s="1">
+      <c r="AB7" s="3">
         <v>26</v>
       </c>
-      <c r="AC7" s="1">
+      <c r="AC7" s="3">
         <v>27</v>
       </c>
-      <c r="AD7" s="1">
+      <c r="AD7" s="3">
         <v>28</v>
       </c>
-      <c r="AE7" s="1">
+      <c r="AE7" s="3">
         <v>29</v>
       </c>
-      <c r="AF7" s="1">
+      <c r="AF7" s="3">
         <v>30</v>
       </c>
-      <c r="AG7" s="8">
+      <c r="AG7" s="9">
         <v>31</v>
       </c>
-      <c r="AH7" s="1">
+      <c r="AH7" s="3">
         <v>32</v>
       </c>
-      <c r="AI7" s="1">
+      <c r="AI7" s="3">
         <v>33</v>
       </c>
-      <c r="AJ7" s="1">
+      <c r="AJ7" s="3">
         <v>34</v>
       </c>
-      <c r="AK7" s="9">
+      <c r="AK7" s="10">
         <v>6</v>
       </c>
-      <c r="AL7" s="1">
+      <c r="AL7" s="3">
         <v>35</v>
       </c>
-      <c r="AM7" s="1">
+      <c r="AM7" s="3">
         <v>36</v>
       </c>
-      <c r="AN7" s="1">
+      <c r="AN7" s="3">
         <v>37</v>
       </c>
-      <c r="AO7" s="1">
+      <c r="AO7" s="3">
         <v>38</v>
       </c>
-      <c r="AP7" s="1">
+      <c r="AP7" s="3">
         <v>39</v>
       </c>
-      <c r="AQ7" s="8">
+      <c r="AQ7" s="9">
         <v>40</v>
       </c>
-      <c r="AR7" s="14"/>
-      <c r="AS7" s="14"/>
-      <c r="AT7" s="14"/>
-      <c r="AU7" s="14"/>
-      <c r="AV7" s="14"/>
-      <c r="AW7" s="14"/>
-      <c r="AX7" s="14"/>
-      <c r="AY7" s="14"/>
-      <c r="AZ7" s="14"/>
-      <c r="BA7" s="14"/>
-      <c r="BB7" s="14"/>
-      <c r="BC7" s="14"/>
-      <c r="BD7" s="14"/>
-      <c r="BE7" s="14"/>
-      <c r="BF7" s="14"/>
-      <c r="BG7" s="14"/>
-      <c r="BH7" s="14"/>
-      <c r="BI7" s="14"/>
-      <c r="BJ7" s="14"/>
-      <c r="BK7" s="14"/>
-      <c r="BL7" s="14"/>
-      <c r="BM7" s="14"/>
-      <c r="BN7" s="14"/>
-      <c r="BO7" s="14"/>
-      <c r="BP7" s="14"/>
-      <c r="BQ7" s="1"/>
-      <c r="BR7" s="1"/>
-      <c r="BS7" s="1"/>
-      <c r="BT7" s="1"/>
-      <c r="BU7" s="1"/>
-      <c r="BV7" s="1"/>
-      <c r="BW7" s="1"/>
-      <c r="BX7" s="1"/>
-      <c r="BY7" s="1"/>
-      <c r="BZ7" s="1"/>
-      <c r="CA7" s="1"/>
-      <c r="CB7" s="1"/>
-      <c r="CC7" s="1"/>
-      <c r="CD7" s="1"/>
-      <c r="CE7" s="1"/>
-      <c r="CF7" s="1"/>
-      <c r="CG7" s="1"/>
+      <c r="AR7" s="3"/>
+      <c r="AS7" s="3"/>
+      <c r="AT7" s="3"/>
+      <c r="AU7" s="3"/>
+      <c r="AV7" s="3"/>
+      <c r="AW7" s="3"/>
+      <c r="AX7" s="3"/>
+      <c r="AY7" s="3"/>
+      <c r="AZ7" s="3"/>
+      <c r="BA7" s="3"/>
+      <c r="BB7" s="3"/>
+      <c r="BC7" s="3"/>
+      <c r="BD7" s="3"/>
+      <c r="BE7" s="3"/>
+      <c r="BF7" s="3"/>
+      <c r="BG7" s="3"/>
+      <c r="BH7" s="3"/>
+      <c r="BI7" s="3"/>
+      <c r="BJ7" s="3"/>
+      <c r="BK7" s="3"/>
+      <c r="BL7" s="3"/>
+      <c r="BM7" s="3"/>
+      <c r="BN7" s="3"/>
+      <c r="BO7" s="3"/>
+      <c r="BP7" s="3"/>
+      <c r="BQ7" s="3"/>
+      <c r="BR7" s="3"/>
+      <c r="BS7" s="3"/>
+      <c r="BT7" s="3"/>
+      <c r="BU7" s="3"/>
+      <c r="BV7" s="3"/>
+      <c r="BW7" s="3"/>
+      <c r="BX7" s="3"/>
+      <c r="BY7" s="3"/>
+      <c r="BZ7" s="3"/>
+      <c r="CA7" s="3"/>
+      <c r="CB7" s="3"/>
+      <c r="CC7" s="3"/>
+      <c r="CD7" s="3"/>
+      <c r="CE7" s="3"/>
+      <c r="CF7" s="3"/>
+      <c r="CG7" s="3"/>
     </row>
-    <row r="8">
-      <c r="A8" s="1">
+    <row r="8" ht="19.5" customHeight="1">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="3">
         <v>1</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="3">
         <v>2</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="3">
         <v>3</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="3">
         <v>4</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="8">
         <v>5</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="3">
         <v>6</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="8">
         <v>7</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="3">
         <v>8</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="3">
         <v>9</v>
       </c>
-      <c r="L8" s="8">
+      <c r="L8" s="9">
         <v>10</v>
       </c>
-      <c r="M8" s="8">
+      <c r="M8" s="9">
         <v>11</v>
       </c>
-      <c r="N8" s="1">
+      <c r="N8" s="3">
         <v>12</v>
       </c>
-      <c r="O8" s="1">
+      <c r="O8" s="3">
         <v>13</v>
       </c>
-      <c r="P8" s="1">
+      <c r="P8" s="3">
         <v>14</v>
       </c>
-      <c r="Q8" s="8">
+      <c r="Q8" s="9">
         <v>15</v>
       </c>
-      <c r="R8" s="8">
+      <c r="R8" s="9">
         <v>16</v>
       </c>
-      <c r="S8" s="1">
+      <c r="S8" s="3">
         <v>17</v>
       </c>
-      <c r="T8" s="5">
+      <c r="T8" s="6">
         <v>18</v>
       </c>
-      <c r="U8" s="8">
+      <c r="U8" s="9">
         <v>19</v>
       </c>
-      <c r="V8" s="1">
+      <c r="V8" s="3">
         <v>20</v>
       </c>
-      <c r="W8" s="8">
+      <c r="W8" s="9">
         <v>21</v>
       </c>
-      <c r="X8" s="8">
+      <c r="X8" s="9">
         <v>22</v>
       </c>
-      <c r="Y8" s="7">
+      <c r="Y8" s="8">
         <v>23</v>
       </c>
-      <c r="Z8" s="1">
+      <c r="Z8" s="3">
         <v>24</v>
       </c>
-      <c r="AA8" s="1">
+      <c r="AA8" s="3">
         <v>25</v>
       </c>
-      <c r="AB8" s="5">
+      <c r="AB8" s="6">
         <v>26</v>
       </c>
-      <c r="AC8" s="1">
+      <c r="AC8" s="3">
         <v>27</v>
       </c>
-      <c r="AD8" s="8">
+      <c r="AD8" s="9">
         <v>28</v>
       </c>
-      <c r="AE8" s="1">
+      <c r="AE8" s="3">
         <v>29</v>
       </c>
-      <c r="AF8" s="8">
+      <c r="AF8" s="9">
         <v>30</v>
       </c>
-      <c r="AG8" s="1">
+      <c r="AG8" s="3">
         <v>31</v>
       </c>
-      <c r="AH8" s="1">
+      <c r="AH8" s="3">
         <v>32</v>
       </c>
-      <c r="AI8" s="7">
+      <c r="AI8" s="8">
         <v>33</v>
       </c>
-      <c r="AJ8" s="1">
+      <c r="AJ8" s="3">
         <v>34</v>
       </c>
-      <c r="AK8" s="1">
+      <c r="AK8" s="3">
         <v>35</v>
       </c>
-      <c r="AL8" s="1">
+      <c r="AL8" s="3">
         <v>36</v>
       </c>
-      <c r="AM8" s="8">
+      <c r="AM8" s="9">
         <v>37</v>
       </c>
-      <c r="AN8" s="8">
+      <c r="AN8" s="9">
         <v>38</v>
       </c>
-      <c r="AO8" s="1">
+      <c r="AO8" s="3">
         <v>39</v>
       </c>
-      <c r="AP8" s="5">
+      <c r="AP8" s="6">
         <v>40</v>
       </c>
-      <c r="AQ8" s="1">
+      <c r="AQ8" s="3">
         <v>41</v>
       </c>
-      <c r="AR8" s="7">
+      <c r="AR8" s="8">
         <v>42</v>
       </c>
-      <c r="AS8" s="1">
+      <c r="AS8" s="3">
         <v>43</v>
       </c>
-      <c r="AT8" s="1">
+      <c r="AT8" s="3">
         <v>44</v>
       </c>
-      <c r="AU8" s="8">
+      <c r="AU8" s="9">
         <v>45</v>
       </c>
-      <c r="AV8" s="9">
+      <c r="AV8" s="10">
         <v>7</v>
       </c>
-      <c r="AW8" s="1">
+      <c r="AW8" s="3">
         <v>46</v>
       </c>
-      <c r="AX8" s="1">
+      <c r="AX8" s="3">
         <v>47</v>
       </c>
-      <c r="AY8" s="1">
+      <c r="AY8" s="3">
         <v>48</v>
       </c>
-      <c r="AZ8" s="1">
+      <c r="AZ8" s="3">
         <v>49</v>
       </c>
-      <c r="BA8" s="1">
+      <c r="BA8" s="3">
         <v>50</v>
       </c>
-      <c r="BB8" s="8">
+      <c r="BB8" s="9">
         <v>51</v>
       </c>
-      <c r="BC8" s="1">
+      <c r="BC8" s="3">
         <v>52</v>
       </c>
-      <c r="BD8" s="14"/>
-      <c r="BE8" s="14"/>
-      <c r="BF8" s="14"/>
-      <c r="BG8" s="14"/>
-      <c r="BH8" s="14"/>
-      <c r="BI8" s="14"/>
-      <c r="BJ8" s="14"/>
-      <c r="BK8" s="14"/>
-      <c r="BL8" s="14"/>
-      <c r="BM8" s="14"/>
-      <c r="BN8" s="14"/>
-      <c r="BO8" s="14"/>
-      <c r="BP8" s="14"/>
-      <c r="BQ8" s="1"/>
-      <c r="BR8" s="1"/>
-      <c r="BS8" s="1"/>
-      <c r="BT8" s="1"/>
-      <c r="BU8" s="1"/>
-      <c r="BV8" s="1"/>
-      <c r="BW8" s="1"/>
-      <c r="BX8" s="1"/>
-      <c r="BY8" s="1"/>
-      <c r="BZ8" s="1"/>
-      <c r="CA8" s="1"/>
-      <c r="CB8" s="1"/>
-      <c r="CC8" s="1"/>
-      <c r="CD8" s="1"/>
-      <c r="CE8" s="1"/>
-      <c r="CF8" s="1"/>
-      <c r="CG8" s="1"/>
+      <c r="BD8" s="3"/>
+      <c r="BE8" s="3"/>
+      <c r="BF8" s="3"/>
+      <c r="BG8" s="3"/>
+      <c r="BH8" s="3"/>
+      <c r="BI8" s="3"/>
+      <c r="BJ8" s="3"/>
+      <c r="BK8" s="3"/>
+      <c r="BL8" s="3"/>
+      <c r="BM8" s="3"/>
+      <c r="BN8" s="3"/>
+      <c r="BO8" s="3"/>
+      <c r="BP8" s="3"/>
+      <c r="BQ8" s="3"/>
+      <c r="BR8" s="3"/>
+      <c r="BS8" s="3"/>
+      <c r="BT8" s="3"/>
+      <c r="BU8" s="3"/>
+      <c r="BV8" s="3"/>
+      <c r="BW8" s="3"/>
+      <c r="BX8" s="3"/>
+      <c r="BY8" s="3"/>
+      <c r="BZ8" s="3"/>
+      <c r="CA8" s="3"/>
+      <c r="CB8" s="3"/>
+      <c r="CC8" s="3"/>
+      <c r="CD8" s="3"/>
+      <c r="CE8" s="3"/>
+      <c r="CF8" s="3"/>
+      <c r="CG8" s="3"/>
     </row>
-    <row r="9">
-      <c r="A9" s="1">
+    <row r="9" ht="19.5" customHeight="1">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="3">
         <v>2</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="3">
         <v>3</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="3">
         <v>4</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="3">
         <v>5</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="3">
         <v>6</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="3">
         <v>7</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="9">
         <v>8</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="3">
         <v>9</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L9" s="3">
         <v>10</v>
       </c>
-      <c r="M9" s="8">
+      <c r="M9" s="9">
         <v>11</v>
       </c>
-      <c r="N9" s="1">
+      <c r="N9" s="3">
         <v>12</v>
       </c>
-      <c r="O9" s="7">
+      <c r="O9" s="8">
         <v>13</v>
       </c>
-      <c r="P9" s="1">
+      <c r="P9" s="3">
         <v>14</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="Q9" s="3">
         <v>15</v>
       </c>
-      <c r="R9" s="5">
+      <c r="R9" s="6">
         <v>16</v>
       </c>
-      <c r="S9" s="1">
+      <c r="S9" s="3">
         <v>17</v>
       </c>
-      <c r="T9" s="8">
+      <c r="T9" s="9">
         <v>18</v>
       </c>
-      <c r="U9" s="8">
+      <c r="U9" s="9">
         <v>19</v>
       </c>
-      <c r="V9" s="1">
+      <c r="V9" s="3">
         <v>20</v>
       </c>
-      <c r="W9" s="1">
+      <c r="W9" s="3">
         <v>21</v>
       </c>
-      <c r="X9" s="1">
+      <c r="X9" s="3">
         <v>22</v>
       </c>
-      <c r="Y9" s="8">
+      <c r="Y9" s="9">
         <v>23</v>
       </c>
-      <c r="Z9" s="8">
+      <c r="Z9" s="9">
         <v>24</v>
       </c>
-      <c r="AA9" s="7">
+      <c r="AA9" s="8">
         <v>25</v>
       </c>
-      <c r="AB9" s="1">
+      <c r="AB9" s="3">
         <v>26</v>
       </c>
-      <c r="AC9" s="1">
+      <c r="AC9" s="3">
         <v>27</v>
       </c>
-      <c r="AD9" s="8">
+      <c r="AD9" s="9">
         <v>28</v>
       </c>
-      <c r="AE9" s="1">
+      <c r="AE9" s="3">
         <v>29</v>
       </c>
-      <c r="AF9" s="1">
+      <c r="AF9" s="3">
         <v>30</v>
       </c>
-      <c r="AG9" s="5">
+      <c r="AG9" s="6">
         <v>31</v>
       </c>
-      <c r="AH9" s="1">
+      <c r="AH9" s="3">
         <v>32</v>
       </c>
-      <c r="AI9" s="11">
+      <c r="AI9" s="12">
         <v>33</v>
       </c>
-      <c r="AJ9" s="8">
+      <c r="AJ9" s="9">
         <v>34</v>
       </c>
-      <c r="AK9" s="8">
+      <c r="AK9" s="9">
         <v>35</v>
       </c>
-      <c r="AL9" s="8">
+      <c r="AL9" s="9">
         <v>36</v>
       </c>
-      <c r="AM9" s="8">
+      <c r="AM9" s="9">
         <v>37</v>
       </c>
-      <c r="AN9" s="8">
+      <c r="AN9" s="9">
         <v>38</v>
       </c>
-      <c r="AO9" s="8">
+      <c r="AO9" s="9">
         <v>39</v>
       </c>
-      <c r="AP9" s="6">
+      <c r="AP9" s="7">
         <v>40</v>
       </c>
-      <c r="AQ9" s="11">
+      <c r="AQ9" s="12">
         <v>41</v>
       </c>
-      <c r="AR9" s="1">
+      <c r="AR9" s="3">
         <v>42</v>
       </c>
-      <c r="AS9" s="8">
+      <c r="AS9" s="9">
         <v>43</v>
       </c>
-      <c r="AT9" s="8">
+      <c r="AT9" s="9">
         <v>44</v>
       </c>
-      <c r="AU9" s="9">
+      <c r="AU9" s="10">
         <v>8</v>
       </c>
-      <c r="AV9" s="16">
+      <c r="AV9" s="15">
         <v>45</v>
       </c>
-      <c r="AW9" s="1">
+      <c r="AW9" s="3">
         <v>46</v>
       </c>
-      <c r="AX9" s="1">
+      <c r="AX9" s="3">
         <v>47</v>
       </c>
-      <c r="AY9" s="1">
+      <c r="AY9" s="3">
         <v>48</v>
       </c>
-      <c r="AZ9" s="1">
+      <c r="AZ9" s="3">
         <v>49</v>
       </c>
-      <c r="BA9" s="1">
+      <c r="BA9" s="3">
         <v>50</v>
       </c>
-      <c r="BB9" s="8">
+      <c r="BB9" s="9">
         <v>51</v>
       </c>
-      <c r="BC9" s="8">
+      <c r="BC9" s="9">
         <v>52</v>
       </c>
-      <c r="BD9" s="1">
+      <c r="BD9" s="3">
         <v>53</v>
       </c>
-      <c r="BE9" s="1"/>
-      <c r="BF9" s="14"/>
-      <c r="BG9" s="14"/>
-      <c r="BH9" s="14"/>
-      <c r="BI9" s="14"/>
-      <c r="BJ9" s="14"/>
-      <c r="BK9" s="14"/>
-      <c r="BL9" s="14"/>
-      <c r="BM9" s="14"/>
-      <c r="BN9" s="14"/>
-      <c r="BO9" s="14"/>
-      <c r="BP9" s="14"/>
-      <c r="BQ9" s="1"/>
-      <c r="BR9" s="1"/>
-      <c r="BS9" s="1"/>
-      <c r="BT9" s="1"/>
-      <c r="BU9" s="1"/>
-      <c r="BV9" s="1"/>
-      <c r="BW9" s="1"/>
-      <c r="BX9" s="1"/>
-      <c r="BY9" s="1"/>
-      <c r="BZ9" s="1"/>
-      <c r="CA9" s="1"/>
-      <c r="CB9" s="1"/>
-      <c r="CC9" s="1"/>
-      <c r="CD9" s="1"/>
-      <c r="CE9" s="1"/>
-      <c r="CF9" s="1"/>
-      <c r="CG9" s="1"/>
+      <c r="BE9" s="3"/>
+      <c r="BF9" s="3"/>
+      <c r="BG9" s="3"/>
+      <c r="BH9" s="3"/>
+      <c r="BI9" s="3"/>
+      <c r="BJ9" s="3"/>
+      <c r="BK9" s="3"/>
+      <c r="BL9" s="3"/>
+      <c r="BM9" s="3"/>
+      <c r="BN9" s="3"/>
+      <c r="BO9" s="3"/>
+      <c r="BP9" s="3"/>
+      <c r="BQ9" s="3"/>
+      <c r="BR9" s="3"/>
+      <c r="BS9" s="3"/>
+      <c r="BT9" s="3"/>
+      <c r="BU9" s="3"/>
+      <c r="BV9" s="3"/>
+      <c r="BW9" s="3"/>
+      <c r="BX9" s="3"/>
+      <c r="BY9" s="3"/>
+      <c r="BZ9" s="3"/>
+      <c r="CA9" s="3"/>
+      <c r="CB9" s="3"/>
+      <c r="CC9" s="3"/>
+      <c r="CD9" s="3"/>
+      <c r="CE9" s="3"/>
+      <c r="CF9" s="3"/>
+      <c r="CG9" s="3"/>
     </row>
-    <row r="10">
-      <c r="A10" s="1">
+    <row r="10" ht="19.5" customHeight="1">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="3">
         <v>1</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="8">
         <v>2</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="8">
         <v>3</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="16">
         <v>4</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="3">
         <v>5</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="9">
         <v>6</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="3">
         <v>7</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10" s="9">
         <v>8</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="6">
         <v>9</v>
       </c>
-      <c r="L10" s="7">
+      <c r="L10" s="8">
         <v>10</v>
       </c>
-      <c r="M10" s="8">
+      <c r="M10" s="9">
         <v>11</v>
       </c>
-      <c r="N10" s="1">
+      <c r="N10" s="3">
         <v>12</v>
       </c>
-      <c r="O10" s="1">
+      <c r="O10" s="3">
         <v>13</v>
       </c>
-      <c r="P10" s="5">
+      <c r="P10" s="6">
         <v>14</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="Q10" s="3">
         <v>15</v>
       </c>
-      <c r="R10" s="5">
+      <c r="R10" s="6">
         <v>16</v>
       </c>
-      <c r="S10" s="8">
+      <c r="S10" s="9">
         <v>17</v>
       </c>
-      <c r="T10" s="1">
+      <c r="T10" s="3">
         <v>18</v>
       </c>
-      <c r="U10" s="1">
+      <c r="U10" s="3">
         <v>19</v>
       </c>
-      <c r="V10" s="1">
+      <c r="V10" s="3">
         <v>20</v>
       </c>
-      <c r="W10" s="1">
+      <c r="W10" s="3">
         <v>21</v>
       </c>
-      <c r="X10" s="8">
+      <c r="X10" s="9">
         <v>22</v>
       </c>
-      <c r="Y10" s="8">
+      <c r="Y10" s="9">
         <v>23</v>
       </c>
-      <c r="Z10" s="11">
+      <c r="Z10" s="12">
         <v>24</v>
       </c>
-      <c r="AA10" s="11">
+      <c r="AA10" s="12">
         <v>25</v>
       </c>
-      <c r="AB10" s="1">
+      <c r="AB10" s="3">
         <v>26</v>
       </c>
-      <c r="AC10" s="1">
+      <c r="AC10" s="3">
         <v>27</v>
       </c>
-      <c r="AD10" s="1">
+      <c r="AD10" s="3">
         <v>28</v>
       </c>
-      <c r="AE10" s="8">
+      <c r="AE10" s="9">
         <v>29</v>
       </c>
-      <c r="AF10" s="8">
+      <c r="AF10" s="9">
         <v>30</v>
       </c>
-      <c r="AG10" s="1">
+      <c r="AG10" s="3">
         <v>31</v>
       </c>
-      <c r="AH10" s="8">
+      <c r="AH10" s="9">
         <v>32</v>
       </c>
-      <c r="AI10" s="1">
+      <c r="AI10" s="3">
         <v>33</v>
       </c>
-      <c r="AJ10" s="1">
+      <c r="AJ10" s="3">
         <v>34</v>
       </c>
-      <c r="AK10" s="8">
+      <c r="AK10" s="9">
         <v>35</v>
       </c>
-      <c r="AL10" s="8">
+      <c r="AL10" s="9">
         <v>36</v>
       </c>
-      <c r="AM10" s="8">
+      <c r="AM10" s="9">
         <v>37</v>
       </c>
-      <c r="AN10" s="1">
+      <c r="AN10" s="3">
         <v>38</v>
       </c>
-      <c r="AO10" s="9">
+      <c r="AO10" s="10">
         <v>9</v>
       </c>
-      <c r="AP10" s="1">
+      <c r="AP10" s="3">
         <v>39</v>
       </c>
-      <c r="AQ10" s="1">
+      <c r="AQ10" s="3">
         <v>40</v>
       </c>
-      <c r="AR10" s="8">
+      <c r="AR10" s="9">
         <v>41</v>
       </c>
-      <c r="AS10" s="8">
+      <c r="AS10" s="9">
         <v>42</v>
       </c>
-      <c r="AT10" s="8">
+      <c r="AT10" s="9">
         <v>43</v>
       </c>
-      <c r="AU10" s="8">
+      <c r="AU10" s="9">
         <v>44</v>
       </c>
-      <c r="AV10" s="8">
+      <c r="AV10" s="9">
         <v>45</v>
       </c>
-      <c r="AW10" s="7">
+      <c r="AW10" s="8">
         <v>46</v>
       </c>
-      <c r="AX10" s="6">
+      <c r="AX10" s="7">
         <v>47</v>
       </c>
-      <c r="AY10" s="14"/>
-      <c r="AZ10" s="14"/>
-      <c r="BA10" s="14"/>
-      <c r="BB10" s="14"/>
-      <c r="BC10" s="14"/>
-      <c r="BD10" s="14"/>
-      <c r="BE10" s="14"/>
-      <c r="BF10" s="14"/>
-      <c r="BG10" s="14"/>
-      <c r="BH10" s="14"/>
-      <c r="BI10" s="14"/>
-      <c r="BJ10" s="14"/>
-      <c r="BK10" s="14"/>
-      <c r="BL10" s="14"/>
-      <c r="BM10" s="14"/>
-      <c r="BN10" s="14"/>
-      <c r="BO10" s="14"/>
-      <c r="BP10" s="14"/>
-      <c r="BQ10" s="1"/>
-      <c r="BR10" s="1"/>
-      <c r="BS10" s="1"/>
-      <c r="BT10" s="1"/>
-      <c r="BU10" s="1"/>
-      <c r="BV10" s="1"/>
-      <c r="BW10" s="1"/>
-      <c r="BX10" s="1"/>
-      <c r="BY10" s="1"/>
-      <c r="BZ10" s="1"/>
-      <c r="CA10" s="1"/>
-      <c r="CB10" s="1"/>
-      <c r="CC10" s="1"/>
-      <c r="CD10" s="1"/>
-      <c r="CE10" s="1"/>
-      <c r="CF10" s="1"/>
-      <c r="CG10" s="1"/>
+      <c r="AY10" s="3"/>
+      <c r="AZ10" s="3"/>
+      <c r="BA10" s="3"/>
+      <c r="BB10" s="3"/>
+      <c r="BC10" s="3"/>
+      <c r="BD10" s="3"/>
+      <c r="BE10" s="3"/>
+      <c r="BF10" s="3"/>
+      <c r="BG10" s="3"/>
+      <c r="BH10" s="3"/>
+      <c r="BI10" s="3"/>
+      <c r="BJ10" s="3"/>
+      <c r="BK10" s="3"/>
+      <c r="BL10" s="3"/>
+      <c r="BM10" s="3"/>
+      <c r="BN10" s="3"/>
+      <c r="BO10" s="3"/>
+      <c r="BP10" s="3"/>
+      <c r="BQ10" s="3"/>
+      <c r="BR10" s="3"/>
+      <c r="BS10" s="3"/>
+      <c r="BT10" s="3"/>
+      <c r="BU10" s="3"/>
+      <c r="BV10" s="3"/>
+      <c r="BW10" s="3"/>
+      <c r="BX10" s="3"/>
+      <c r="BY10" s="3"/>
+      <c r="BZ10" s="3"/>
+      <c r="CA10" s="3"/>
+      <c r="CB10" s="3"/>
+      <c r="CC10" s="3"/>
+      <c r="CD10" s="3"/>
+      <c r="CE10" s="3"/>
+      <c r="CF10" s="3"/>
+      <c r="CG10" s="3"/>
     </row>
-    <row r="11">
-      <c r="A11" s="1">
+    <row r="11" ht="19.5" customHeight="1">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="7">
         <v>1</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="6">
         <v>2</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="7">
         <v>3</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="3">
         <v>4</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="6">
         <v>5</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="8">
         <v>6</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="3">
         <v>7</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="8">
         <v>8</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K11" s="8">
         <v>9</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L11" s="3">
         <v>10</v>
       </c>
-      <c r="M11" s="1">
+      <c r="M11" s="3">
         <v>11</v>
       </c>
-      <c r="N11" s="1">
+      <c r="N11" s="3">
         <v>12</v>
       </c>
-      <c r="O11" s="5">
+      <c r="O11" s="6">
         <v>13</v>
       </c>
-      <c r="P11" s="7">
+      <c r="P11" s="8">
         <v>14</v>
       </c>
-      <c r="Q11" s="11">
+      <c r="Q11" s="12">
         <v>15</v>
       </c>
-      <c r="R11" s="8">
+      <c r="R11" s="9">
         <v>16</v>
       </c>
-      <c r="S11" s="7">
+      <c r="S11" s="8">
         <v>17</v>
       </c>
-      <c r="T11" s="8">
+      <c r="T11" s="9">
         <v>18</v>
       </c>
-      <c r="U11" s="7">
+      <c r="U11" s="8">
         <v>19</v>
       </c>
-      <c r="V11" s="1">
+      <c r="V11" s="3">
         <v>20</v>
       </c>
-      <c r="W11" s="1">
+      <c r="W11" s="3">
         <v>21</v>
       </c>
-      <c r="X11" s="1">
+      <c r="X11" s="3">
         <v>22</v>
       </c>
-      <c r="Y11" s="1">
+      <c r="Y11" s="3">
         <v>23</v>
       </c>
-      <c r="Z11" s="1">
+      <c r="Z11" s="3">
         <v>24</v>
       </c>
-      <c r="AA11" s="1">
+      <c r="AA11" s="3">
         <v>25</v>
       </c>
-      <c r="AB11" s="1">
+      <c r="AB11" s="3">
         <v>26</v>
       </c>
-      <c r="AC11" s="8">
+      <c r="AC11" s="9">
         <v>27</v>
       </c>
-      <c r="AD11" s="1">
+      <c r="AD11" s="3">
         <v>28</v>
       </c>
-      <c r="AE11" s="1">
+      <c r="AE11" s="3">
         <v>29</v>
       </c>
-      <c r="AF11" s="1">
+      <c r="AF11" s="3">
         <v>30</v>
       </c>
-      <c r="AG11" s="11">
+      <c r="AG11" s="12">
         <v>31</v>
       </c>
-      <c r="AH11" s="1">
+      <c r="AH11" s="3">
         <v>32</v>
       </c>
-      <c r="AI11" s="1">
+      <c r="AI11" s="3">
         <v>33</v>
       </c>
-      <c r="AJ11" s="7">
+      <c r="AJ11" s="8">
         <v>34</v>
       </c>
-      <c r="AK11" s="1">
+      <c r="AK11" s="3">
         <v>35</v>
       </c>
-      <c r="AL11" s="11">
+      <c r="AL11" s="12">
         <v>36</v>
       </c>
-      <c r="AM11" s="8">
+      <c r="AM11" s="9">
         <v>37</v>
       </c>
-      <c r="AN11" s="7">
+      <c r="AN11" s="8">
         <v>38</v>
       </c>
-      <c r="AO11" s="1">
+      <c r="AO11" s="3">
         <v>39</v>
       </c>
-      <c r="AP11" s="9">
+      <c r="AP11" s="10">
         <v>10</v>
       </c>
-      <c r="AQ11" s="11">
+      <c r="AQ11" s="12">
         <v>40</v>
       </c>
-      <c r="AR11" s="1">
+      <c r="AR11" s="3">
         <v>41</v>
       </c>
-      <c r="AS11" s="1">
+      <c r="AS11" s="3">
         <v>42</v>
       </c>
-      <c r="AT11" s="1">
+      <c r="AT11" s="3">
         <v>43</v>
       </c>
-      <c r="AU11" s="1">
+      <c r="AU11" s="3">
         <v>44</v>
       </c>
-      <c r="AV11" s="1">
+      <c r="AV11" s="3">
         <v>45</v>
       </c>
-      <c r="AW11" s="1">
+      <c r="AW11" s="3">
         <v>46</v>
       </c>
-      <c r="AX11" s="1">
+      <c r="AX11" s="3">
         <v>47</v>
       </c>
-      <c r="AY11" s="1">
+      <c r="AY11" s="3">
         <v>48</v>
       </c>
-      <c r="AZ11" s="8">
+      <c r="AZ11" s="9">
         <v>49</v>
       </c>
-      <c r="BA11" s="8">
+      <c r="BA11" s="9">
         <v>50</v>
       </c>
-      <c r="BB11" s="11">
+      <c r="BB11" s="12">
         <v>51</v>
       </c>
-      <c r="BC11" s="5">
+      <c r="BC11" s="6">
         <v>52</v>
       </c>
-      <c r="BD11" s="14"/>
-      <c r="BE11" s="14"/>
-      <c r="BF11" s="14"/>
-      <c r="BG11" s="14"/>
-      <c r="BH11" s="14"/>
-      <c r="BI11" s="14"/>
-      <c r="BJ11" s="14"/>
-      <c r="BK11" s="14"/>
-      <c r="BL11" s="14"/>
-      <c r="BM11" s="14"/>
-      <c r="BN11" s="14"/>
-      <c r="BO11" s="14"/>
-      <c r="BP11" s="14"/>
-      <c r="BQ11" s="1"/>
-      <c r="BR11" s="1"/>
-      <c r="BS11" s="1"/>
-      <c r="BT11" s="1"/>
-      <c r="BU11" s="1"/>
-      <c r="BV11" s="1"/>
-      <c r="BW11" s="1"/>
-      <c r="BX11" s="1"/>
-      <c r="BY11" s="1"/>
-      <c r="BZ11" s="1"/>
-      <c r="CA11" s="1"/>
-      <c r="CB11" s="1"/>
-      <c r="CC11" s="1"/>
-      <c r="CD11" s="1"/>
-      <c r="CE11" s="1"/>
-      <c r="CF11" s="1"/>
-      <c r="CG11" s="1"/>
+      <c r="BD11" s="3"/>
+      <c r="BE11" s="3"/>
+      <c r="BF11" s="3"/>
+      <c r="BG11" s="3"/>
+      <c r="BH11" s="3"/>
+      <c r="BI11" s="3"/>
+      <c r="BJ11" s="3"/>
+      <c r="BK11" s="3"/>
+      <c r="BL11" s="3"/>
+      <c r="BM11" s="3"/>
+      <c r="BN11" s="3"/>
+      <c r="BO11" s="3"/>
+      <c r="BP11" s="3"/>
+      <c r="BQ11" s="3"/>
+      <c r="BR11" s="3"/>
+      <c r="BS11" s="3"/>
+      <c r="BT11" s="3"/>
+      <c r="BU11" s="3"/>
+      <c r="BV11" s="3"/>
+      <c r="BW11" s="3"/>
+      <c r="BX11" s="3"/>
+      <c r="BY11" s="3"/>
+      <c r="BZ11" s="3"/>
+      <c r="CA11" s="3"/>
+      <c r="CB11" s="3"/>
+      <c r="CC11" s="3"/>
+      <c r="CD11" s="3"/>
+      <c r="CE11" s="3"/>
+      <c r="CF11" s="3"/>
+      <c r="CG11" s="3"/>
     </row>
-    <row r="12">
-      <c r="A12" s="1">
+    <row r="12" ht="19.5" customHeight="1">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="3">
         <v>1</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="12">
         <v>2</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="6">
         <v>3</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="3">
         <v>4</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="3">
         <v>5</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="3">
         <v>6</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="3">
         <v>7</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="8">
         <v>8</v>
       </c>
-      <c r="K12" s="8">
+      <c r="K12" s="9">
         <v>9</v>
       </c>
-      <c r="L12" s="1">
+      <c r="L12" s="3">
         <v>10</v>
       </c>
-      <c r="M12" s="1">
+      <c r="M12" s="3">
         <v>11</v>
       </c>
-      <c r="N12" s="5">
+      <c r="N12" s="6">
         <v>12</v>
       </c>
-      <c r="O12" s="1">
+      <c r="O12" s="3">
         <v>13</v>
       </c>
-      <c r="P12" s="1">
+      <c r="P12" s="3">
         <v>14</v>
       </c>
-      <c r="Q12" s="8">
+      <c r="Q12" s="9">
         <v>15</v>
       </c>
-      <c r="R12" s="8">
+      <c r="R12" s="9">
         <v>16</v>
       </c>
-      <c r="S12" s="1">
+      <c r="S12" s="3">
         <v>17</v>
       </c>
-      <c r="T12" s="1">
+      <c r="T12" s="3">
         <v>18</v>
       </c>
-      <c r="U12" s="1">
+      <c r="U12" s="3">
         <v>19</v>
       </c>
-      <c r="V12" s="1">
+      <c r="V12" s="3">
         <v>20</v>
       </c>
-      <c r="W12" s="11">
+      <c r="W12" s="12">
         <v>21</v>
       </c>
-      <c r="X12" s="11">
+      <c r="X12" s="12">
         <v>22</v>
       </c>
-      <c r="Y12" s="1">
+      <c r="Y12" s="3">
         <v>23</v>
       </c>
-      <c r="Z12" s="6">
+      <c r="Z12" s="7">
         <v>24</v>
       </c>
-      <c r="AA12" s="7">
+      <c r="AA12" s="8">
         <v>25</v>
       </c>
-      <c r="AB12" s="7">
+      <c r="AB12" s="8">
         <v>26</v>
       </c>
-      <c r="AC12" s="8">
+      <c r="AC12" s="9">
         <v>27</v>
       </c>
-      <c r="AD12" s="7">
+      <c r="AD12" s="8">
         <v>28</v>
       </c>
-      <c r="AE12" s="11">
+      <c r="AE12" s="12">
         <v>29</v>
       </c>
-      <c r="AF12" s="1">
+      <c r="AF12" s="3">
         <v>30</v>
       </c>
-      <c r="AG12" s="8">
+      <c r="AG12" s="9">
         <v>31</v>
       </c>
-      <c r="AH12" s="7">
+      <c r="AH12" s="8">
         <v>32</v>
       </c>
-      <c r="AI12" s="5">
+      <c r="AI12" s="6">
         <v>33</v>
       </c>
-      <c r="AJ12" s="1">
+      <c r="AJ12" s="3">
         <v>34</v>
       </c>
-      <c r="AK12" s="9">
+      <c r="AK12" s="10">
         <v>11</v>
       </c>
-      <c r="AL12" s="1">
+      <c r="AL12" s="3">
         <v>35</v>
       </c>
-      <c r="AM12" s="1">
+      <c r="AM12" s="3">
         <v>36</v>
       </c>
-      <c r="AN12" s="1">
+      <c r="AN12" s="3">
         <v>37</v>
       </c>
-      <c r="AO12" s="1">
+      <c r="AO12" s="3">
         <v>38</v>
       </c>
-      <c r="AP12" s="1">
+      <c r="AP12" s="3">
         <v>39</v>
       </c>
-      <c r="AQ12" s="1">
+      <c r="AQ12" s="3">
         <v>40</v>
       </c>
-      <c r="AR12" s="8">
+      <c r="AR12" s="9">
         <v>41</v>
       </c>
-      <c r="AS12" s="1">
+      <c r="AS12" s="3">
         <v>42</v>
       </c>
-      <c r="AT12" s="8">
+      <c r="AT12" s="9">
         <v>43</v>
       </c>
-      <c r="AU12" s="1">
+      <c r="AU12" s="3">
         <v>44</v>
       </c>
-      <c r="AV12" s="1">
+      <c r="AV12" s="3">
         <v>45</v>
       </c>
-      <c r="AW12" s="1">
+      <c r="AW12" s="3">
         <v>46</v>
       </c>
-      <c r="AX12" s="1">
+      <c r="AX12" s="3">
         <v>47</v>
       </c>
-      <c r="AY12" s="5">
+      <c r="AY12" s="6">
         <v>48</v>
       </c>
-      <c r="AZ12" s="11">
+      <c r="AZ12" s="12">
         <v>49</v>
       </c>
-      <c r="BA12" s="8">
+      <c r="BA12" s="9">
         <v>50</v>
       </c>
-      <c r="BB12" s="1">
+      <c r="BB12" s="3">
         <v>51</v>
       </c>
-      <c r="BC12" s="7">
+      <c r="BC12" s="8">
         <v>52</v>
       </c>
-      <c r="BD12" s="14"/>
-      <c r="BE12" s="14"/>
-      <c r="BF12" s="14"/>
-      <c r="BG12" s="14"/>
-      <c r="BH12" s="14"/>
-      <c r="BI12" s="14"/>
-      <c r="BJ12" s="14"/>
-      <c r="BK12" s="14"/>
-      <c r="BL12" s="14"/>
-      <c r="BM12" s="14"/>
-      <c r="BN12" s="14"/>
-      <c r="BO12" s="14"/>
-      <c r="BP12" s="14"/>
-      <c r="BQ12" s="1"/>
-      <c r="BR12" s="1"/>
-      <c r="BS12" s="1"/>
-      <c r="BT12" s="1"/>
-      <c r="BU12" s="1"/>
-      <c r="BV12" s="1"/>
-      <c r="BW12" s="1"/>
-      <c r="BX12" s="1"/>
-      <c r="BY12" s="1"/>
-      <c r="BZ12" s="1"/>
-      <c r="CA12" s="1"/>
-      <c r="CB12" s="1"/>
-      <c r="CC12" s="1"/>
-      <c r="CD12" s="1"/>
-      <c r="CE12" s="1"/>
-      <c r="CF12" s="1"/>
-      <c r="CG12" s="1"/>
+      <c r="BD12" s="3"/>
+      <c r="BE12" s="3"/>
+      <c r="BF12" s="3"/>
+      <c r="BG12" s="3"/>
+      <c r="BH12" s="3"/>
+      <c r="BI12" s="3"/>
+      <c r="BJ12" s="3"/>
+      <c r="BK12" s="3"/>
+      <c r="BL12" s="3"/>
+      <c r="BM12" s="3"/>
+      <c r="BN12" s="3"/>
+      <c r="BO12" s="3"/>
+      <c r="BP12" s="3"/>
+      <c r="BQ12" s="3"/>
+      <c r="BR12" s="3"/>
+      <c r="BS12" s="3"/>
+      <c r="BT12" s="3"/>
+      <c r="BU12" s="3"/>
+      <c r="BV12" s="3"/>
+      <c r="BW12" s="3"/>
+      <c r="BX12" s="3"/>
+      <c r="BY12" s="3"/>
+      <c r="BZ12" s="3"/>
+      <c r="CA12" s="3"/>
+      <c r="CB12" s="3"/>
+      <c r="CC12" s="3"/>
+      <c r="CD12" s="3"/>
+      <c r="CE12" s="3"/>
+      <c r="CF12" s="3"/>
+      <c r="CG12" s="3"/>
     </row>
-    <row r="13">
-      <c r="A13" s="1">
+    <row r="13" ht="19.5" customHeight="1">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="8">
         <v>2</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="3">
         <v>3</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="9">
         <v>4</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="3">
         <v>5</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="3">
         <v>6</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I13" s="12">
         <v>7</v>
       </c>
-      <c r="J13" s="11">
+      <c r="J13" s="12">
         <v>8</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13" s="3">
         <v>9</v>
       </c>
-      <c r="L13" s="8">
+      <c r="L13" s="9">
         <v>10</v>
       </c>
-      <c r="M13" s="1">
+      <c r="M13" s="3">
         <v>11</v>
       </c>
-      <c r="N13" s="1">
+      <c r="N13" s="3">
         <v>12</v>
       </c>
-      <c r="O13" s="1">
+      <c r="O13" s="3">
         <v>13</v>
       </c>
-      <c r="P13" s="5">
+      <c r="P13" s="6">
         <v>14</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="Q13" s="3">
         <v>15</v>
       </c>
-      <c r="R13" s="1">
+      <c r="R13" s="3">
         <v>16</v>
       </c>
-      <c r="S13" s="1">
+      <c r="S13" s="3">
         <v>17</v>
       </c>
-      <c r="T13" s="11">
+      <c r="T13" s="12">
         <v>18</v>
       </c>
-      <c r="U13" s="8">
+      <c r="U13" s="9">
         <v>19</v>
       </c>
-      <c r="V13" s="11">
+      <c r="V13" s="12">
         <v>20</v>
       </c>
-      <c r="W13" s="1">
+      <c r="W13" s="3">
         <v>21</v>
       </c>
-      <c r="X13" s="1">
+      <c r="X13" s="3">
         <v>22</v>
       </c>
-      <c r="Y13" s="8">
+      <c r="Y13" s="9">
         <v>23</v>
       </c>
-      <c r="Z13" s="8">
+      <c r="Z13" s="9">
         <v>24</v>
       </c>
-      <c r="AA13" s="1">
+      <c r="AA13" s="3">
         <v>25</v>
       </c>
-      <c r="AB13" s="1">
+      <c r="AB13" s="3">
         <v>26</v>
       </c>
-      <c r="AC13" s="1">
+      <c r="AC13" s="3">
         <v>27</v>
       </c>
-      <c r="AD13" s="5">
+      <c r="AD13" s="6">
         <v>28</v>
       </c>
-      <c r="AE13" s="1">
+      <c r="AE13" s="3">
         <v>29</v>
       </c>
-      <c r="AF13" s="1">
+      <c r="AF13" s="3">
         <v>30</v>
       </c>
-      <c r="AG13" s="1">
+      <c r="AG13" s="3">
         <v>31</v>
       </c>
-      <c r="AH13" s="9">
+      <c r="AH13" s="10">
         <v>12</v>
       </c>
-      <c r="AI13" s="1">
+      <c r="AI13" s="3">
         <v>32</v>
       </c>
-      <c r="AJ13" s="1">
+      <c r="AJ13" s="3">
         <v>33</v>
       </c>
-      <c r="AK13" s="1">
+      <c r="AK13" s="3">
         <v>34</v>
       </c>
-      <c r="AL13" s="1">
+      <c r="AL13" s="3">
         <v>35</v>
       </c>
-      <c r="AM13" s="11">
+      <c r="AM13" s="12">
         <v>36</v>
       </c>
-      <c r="AN13" s="1">
+      <c r="AN13" s="3">
         <v>37</v>
       </c>
-      <c r="AO13" s="1">
+      <c r="AO13" s="3">
         <v>38</v>
       </c>
-      <c r="AP13" s="7">
+      <c r="AP13" s="8">
         <v>39</v>
       </c>
-      <c r="AQ13" s="1">
+      <c r="AQ13" s="3">
         <v>40</v>
       </c>
-      <c r="AR13" s="1">
+      <c r="AR13" s="3">
         <v>41</v>
       </c>
-      <c r="AS13" s="7">
+      <c r="AS13" s="8">
         <v>42</v>
       </c>
-      <c r="AT13" s="6">
+      <c r="AT13" s="7">
         <v>43</v>
       </c>
-      <c r="AU13" s="1">
+      <c r="AU13" s="3">
         <v>44</v>
       </c>
-      <c r="AV13" s="1">
+      <c r="AV13" s="3">
         <v>45</v>
       </c>
-      <c r="AW13" s="11">
+      <c r="AW13" s="12">
         <v>46</v>
       </c>
-      <c r="AX13" s="11">
+      <c r="AX13" s="12">
         <v>47</v>
       </c>
-      <c r="AY13" s="11">
+      <c r="AY13" s="12">
         <v>48</v>
       </c>
-      <c r="AZ13" s="1">
+      <c r="AZ13" s="3">
         <v>49</v>
       </c>
-      <c r="BA13" s="11">
+      <c r="BA13" s="12">
         <v>50</v>
       </c>
-      <c r="BB13" s="8">
+      <c r="BB13" s="9">
         <v>51</v>
       </c>
-      <c r="BC13" s="1">
+      <c r="BC13" s="3">
         <v>52</v>
       </c>
-      <c r="BD13" s="5">
+      <c r="BD13" s="6">
         <v>53</v>
       </c>
-      <c r="BE13" s="14"/>
-      <c r="BF13" s="14"/>
-      <c r="BG13" s="14"/>
-      <c r="BH13" s="14"/>
-      <c r="BI13" s="14"/>
-      <c r="BJ13" s="14"/>
-      <c r="BK13" s="14"/>
-      <c r="BL13" s="14"/>
-      <c r="BM13" s="14"/>
-      <c r="BN13" s="14"/>
-      <c r="BO13" s="14"/>
-      <c r="BP13" s="14"/>
-      <c r="BQ13" s="1"/>
-      <c r="BR13" s="1"/>
-      <c r="BS13" s="1"/>
-      <c r="BT13" s="1"/>
-      <c r="BU13" s="1"/>
-      <c r="BV13" s="1"/>
-      <c r="BW13" s="1"/>
-      <c r="BX13" s="1"/>
-      <c r="BY13" s="1"/>
-      <c r="BZ13" s="1"/>
-      <c r="CA13" s="1"/>
-      <c r="CB13" s="1"/>
-      <c r="CC13" s="1"/>
-      <c r="CD13" s="1"/>
-      <c r="CE13" s="1"/>
-      <c r="CF13" s="1"/>
-      <c r="CG13" s="1"/>
+      <c r="BE13" s="3"/>
+      <c r="BF13" s="3"/>
+      <c r="BG13" s="3"/>
+      <c r="BH13" s="3"/>
+      <c r="BI13" s="3"/>
+      <c r="BJ13" s="3"/>
+      <c r="BK13" s="3"/>
+      <c r="BL13" s="3"/>
+      <c r="BM13" s="3"/>
+      <c r="BN13" s="3"/>
+      <c r="BO13" s="3"/>
+      <c r="BP13" s="3"/>
+      <c r="BQ13" s="3"/>
+      <c r="BR13" s="3"/>
+      <c r="BS13" s="3"/>
+      <c r="BT13" s="3"/>
+      <c r="BU13" s="3"/>
+      <c r="BV13" s="3"/>
+      <c r="BW13" s="3"/>
+      <c r="BX13" s="3"/>
+      <c r="BY13" s="3"/>
+      <c r="BZ13" s="3"/>
+      <c r="CA13" s="3"/>
+      <c r="CB13" s="3"/>
+      <c r="CC13" s="3"/>
+      <c r="CD13" s="3"/>
+      <c r="CE13" s="3"/>
+      <c r="CF13" s="3"/>
+      <c r="CG13" s="3"/>
     </row>
-    <row r="14">
-      <c r="A14" s="1">
+    <row r="14" ht="19.5" customHeight="1">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="3">
         <v>1</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="3">
         <v>2</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="3">
         <v>3</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="9">
         <v>4</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="9">
         <v>5</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="6">
         <v>6</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="3">
         <v>7</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14" s="3">
         <v>8</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14" s="6">
         <v>9</v>
       </c>
-      <c r="L14" s="8">
+      <c r="L14" s="9">
         <v>10</v>
       </c>
-      <c r="M14" s="1">
+      <c r="M14" s="3">
         <v>11</v>
       </c>
-      <c r="N14" s="1">
+      <c r="N14" s="3">
         <v>12</v>
       </c>
-      <c r="O14" s="1">
+      <c r="O14" s="3">
         <v>13</v>
       </c>
-      <c r="P14" s="8">
+      <c r="P14" s="9">
         <v>14</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="Q14" s="3">
         <v>15</v>
       </c>
-      <c r="R14" s="1">
+      <c r="R14" s="3">
         <v>16</v>
       </c>
-      <c r="S14" s="8">
+      <c r="S14" s="9">
         <v>17</v>
       </c>
-      <c r="T14" s="8">
+      <c r="T14" s="9">
         <v>18</v>
       </c>
-      <c r="U14" s="8">
+      <c r="U14" s="9">
         <v>19</v>
       </c>
-      <c r="V14" s="8">
+      <c r="V14" s="9">
         <v>20</v>
       </c>
-      <c r="W14" s="1">
+      <c r="W14" s="3">
         <v>21</v>
       </c>
-      <c r="X14" s="9">
+      <c r="X14" s="10">
         <v>13</v>
       </c>
-      <c r="Y14" s="8">
+      <c r="Y14" s="9">
         <v>22</v>
       </c>
-      <c r="Z14" s="1">
+      <c r="Z14" s="3">
         <v>23</v>
       </c>
-      <c r="AA14" s="1">
+      <c r="AA14" s="3">
         <v>24</v>
       </c>
-      <c r="AB14" s="8">
+      <c r="AB14" s="9">
         <v>25</v>
       </c>
-      <c r="AC14" s="8">
+      <c r="AC14" s="9">
         <v>26</v>
       </c>
-      <c r="AD14" s="8">
+      <c r="AD14" s="9">
         <v>27</v>
       </c>
-      <c r="AE14" s="8">
+      <c r="AE14" s="9">
         <v>28</v>
       </c>
-      <c r="AF14" s="8">
+      <c r="AF14" s="9">
         <v>29</v>
       </c>
-      <c r="AG14" s="8">
+      <c r="AG14" s="9">
         <v>30</v>
       </c>
-      <c r="AH14" s="8">
+      <c r="AH14" s="9">
         <v>31</v>
       </c>
-      <c r="AI14" s="8">
+      <c r="AI14" s="9">
         <v>32</v>
       </c>
-      <c r="AJ14" s="7">
+      <c r="AJ14" s="8">
         <v>33</v>
       </c>
-      <c r="AK14" s="6">
+      <c r="AK14" s="7">
         <v>34</v>
       </c>
-      <c r="AL14" s="14"/>
-      <c r="AM14" s="14"/>
-      <c r="AN14" s="14"/>
-      <c r="AO14" s="14"/>
-      <c r="AP14" s="14"/>
-      <c r="AQ14" s="14"/>
-      <c r="AR14" s="14"/>
-      <c r="AS14" s="14"/>
-      <c r="AT14" s="14"/>
-      <c r="AU14" s="14"/>
-      <c r="AV14" s="14"/>
-      <c r="AW14" s="14"/>
-      <c r="AX14" s="14"/>
-      <c r="AY14" s="14"/>
-      <c r="AZ14" s="14"/>
-      <c r="BA14" s="14"/>
-      <c r="BB14" s="14"/>
-      <c r="BC14" s="14"/>
-      <c r="BD14" s="14"/>
-      <c r="BE14" s="14"/>
-      <c r="BF14" s="14"/>
-      <c r="BG14" s="14"/>
-      <c r="BH14" s="14"/>
-      <c r="BI14" s="14"/>
-      <c r="BJ14" s="14"/>
-      <c r="BK14" s="14"/>
-      <c r="BL14" s="14"/>
-      <c r="BM14" s="14"/>
-      <c r="BN14" s="14"/>
-      <c r="BO14" s="14"/>
-      <c r="BP14" s="14"/>
-      <c r="BQ14" s="1"/>
-      <c r="BR14" s="1"/>
-      <c r="BS14" s="1"/>
-      <c r="BT14" s="1"/>
-      <c r="BU14" s="1"/>
-      <c r="BV14" s="1"/>
-      <c r="BW14" s="1"/>
-      <c r="BX14" s="1"/>
-      <c r="BY14" s="1"/>
-      <c r="BZ14" s="1"/>
-      <c r="CA14" s="1"/>
-      <c r="CB14" s="1"/>
-      <c r="CC14" s="1"/>
-      <c r="CD14" s="1"/>
-      <c r="CE14" s="1"/>
-      <c r="CF14" s="1"/>
-      <c r="CG14" s="1"/>
+      <c r="AL14" s="3"/>
+      <c r="AM14" s="3"/>
+      <c r="AN14" s="3"/>
+      <c r="AO14" s="3"/>
+      <c r="AP14" s="3"/>
+      <c r="AQ14" s="3"/>
+      <c r="AR14" s="3"/>
+      <c r="AS14" s="3"/>
+      <c r="AT14" s="3"/>
+      <c r="AU14" s="3"/>
+      <c r="AV14" s="3"/>
+      <c r="AW14" s="3"/>
+      <c r="AX14" s="3"/>
+      <c r="AY14" s="3"/>
+      <c r="AZ14" s="3"/>
+      <c r="BA14" s="3"/>
+      <c r="BB14" s="3"/>
+      <c r="BC14" s="3"/>
+      <c r="BD14" s="3"/>
+      <c r="BE14" s="3"/>
+      <c r="BF14" s="3"/>
+      <c r="BG14" s="3"/>
+      <c r="BH14" s="3"/>
+      <c r="BI14" s="3"/>
+      <c r="BJ14" s="3"/>
+      <c r="BK14" s="3"/>
+      <c r="BL14" s="3"/>
+      <c r="BM14" s="3"/>
+      <c r="BN14" s="3"/>
+      <c r="BO14" s="3"/>
+      <c r="BP14" s="3"/>
+      <c r="BQ14" s="3"/>
+      <c r="BR14" s="3"/>
+      <c r="BS14" s="3"/>
+      <c r="BT14" s="3"/>
+      <c r="BU14" s="3"/>
+      <c r="BV14" s="3"/>
+      <c r="BW14" s="3"/>
+      <c r="BX14" s="3"/>
+      <c r="BY14" s="3"/>
+      <c r="BZ14" s="3"/>
+      <c r="CA14" s="3"/>
+      <c r="CB14" s="3"/>
+      <c r="CC14" s="3"/>
+      <c r="CD14" s="3"/>
+      <c r="CE14" s="3"/>
+      <c r="CF14" s="3"/>
+      <c r="CG14" s="3"/>
     </row>
-    <row r="15">
-      <c r="A15" s="1">
+    <row r="15" ht="19.5" customHeight="1">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="12">
         <v>1</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="7">
         <v>2</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="6">
         <v>3</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="6">
         <v>4</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="9">
         <v>5</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="7">
         <v>6</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="6">
         <v>7</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15" s="3">
         <v>8</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15" s="3">
         <v>9</v>
       </c>
-      <c r="L15" s="11">
+      <c r="L15" s="12">
         <v>10</v>
       </c>
-      <c r="M15" s="7">
+      <c r="M15" s="8">
         <v>11</v>
       </c>
-      <c r="N15" s="11">
+      <c r="N15" s="12">
         <v>12</v>
       </c>
-      <c r="O15" s="7">
+      <c r="O15" s="8">
         <v>13</v>
       </c>
-      <c r="P15" s="1">
+      <c r="P15" s="3">
         <v>14</v>
       </c>
-      <c r="Q15" s="8">
+      <c r="Q15" s="9">
         <v>15</v>
       </c>
-      <c r="R15" s="8">
+      <c r="R15" s="9">
         <v>16</v>
       </c>
-      <c r="S15" s="5">
+      <c r="S15" s="6">
         <v>17</v>
       </c>
-      <c r="T15" s="5">
+      <c r="T15" s="6">
         <v>18</v>
       </c>
-      <c r="U15" s="1">
+      <c r="U15" s="3">
         <v>19</v>
       </c>
-      <c r="V15" s="1">
+      <c r="V15" s="3">
         <v>20</v>
       </c>
-      <c r="W15" s="1">
+      <c r="W15" s="3">
         <v>21</v>
       </c>
-      <c r="X15" s="5">
+      <c r="X15" s="6">
         <v>22</v>
       </c>
-      <c r="Y15" s="8">
+      <c r="Y15" s="9">
         <v>23</v>
       </c>
-      <c r="Z15" s="7">
+      <c r="Z15" s="8">
         <v>24</v>
       </c>
-      <c r="AA15" s="1">
+      <c r="AA15" s="3">
         <v>25</v>
       </c>
-      <c r="AB15" s="1">
+      <c r="AB15" s="3">
         <v>26</v>
       </c>
-      <c r="AC15" s="1">
+      <c r="AC15" s="3">
         <v>27</v>
       </c>
-      <c r="AD15" s="1">
+      <c r="AD15" s="3">
         <v>28</v>
       </c>
-      <c r="AE15" s="1">
+      <c r="AE15" s="3">
         <v>29</v>
       </c>
-      <c r="AF15" s="1">
+      <c r="AF15" s="3">
         <v>30</v>
       </c>
-      <c r="AG15" s="11">
+      <c r="AG15" s="12">
         <v>31</v>
       </c>
-      <c r="AH15" s="5">
+      <c r="AH15" s="6">
         <v>32</v>
       </c>
-      <c r="AI15" s="1">
+      <c r="AI15" s="3">
         <v>33</v>
       </c>
-      <c r="AJ15" s="5">
+      <c r="AJ15" s="6">
         <v>34</v>
       </c>
-      <c r="AK15" s="1">
+      <c r="AK15" s="3">
         <v>35</v>
       </c>
-      <c r="AL15" s="1">
+      <c r="AL15" s="3">
         <v>36</v>
       </c>
-      <c r="AM15" s="1">
+      <c r="AM15" s="3">
         <v>37</v>
       </c>
-      <c r="AN15" s="1">
+      <c r="AN15" s="3">
         <v>38</v>
       </c>
-      <c r="AO15" s="1">
+      <c r="AO15" s="3">
         <v>39</v>
       </c>
       <c r="AP15" s="13">
         <v>14</v>
       </c>
-      <c r="AQ15" s="1">
+      <c r="AQ15" s="3">
         <v>40</v>
       </c>
-      <c r="AR15" s="1">
+      <c r="AR15" s="3">
         <v>41</v>
       </c>
-      <c r="AS15" s="1">
+      <c r="AS15" s="3">
         <v>42</v>
       </c>
-      <c r="AT15" s="6">
+      <c r="AT15" s="7">
         <v>43</v>
       </c>
-      <c r="AU15" s="1">
+      <c r="AU15" s="3">
         <v>44</v>
       </c>
-      <c r="AV15" s="1">
+      <c r="AV15" s="3">
         <v>45</v>
       </c>
-      <c r="AW15" s="1">
+      <c r="AW15" s="3">
         <v>46</v>
       </c>
-      <c r="AX15" s="6">
+      <c r="AX15" s="7">
         <v>47</v>
       </c>
-      <c r="AY15" s="1">
+      <c r="AY15" s="3">
         <v>48</v>
       </c>
-      <c r="AZ15" s="14"/>
-      <c r="BA15" s="14"/>
-      <c r="BB15" s="14"/>
-      <c r="BC15" s="14"/>
-      <c r="BD15" s="14"/>
-      <c r="BE15" s="14"/>
-      <c r="BF15" s="14"/>
-      <c r="BG15" s="14"/>
-      <c r="BH15" s="14"/>
-      <c r="BI15" s="14"/>
-      <c r="BJ15" s="14"/>
-      <c r="BK15" s="14"/>
-      <c r="BL15" s="14"/>
-      <c r="BM15" s="14"/>
-      <c r="BN15" s="14"/>
-      <c r="BO15" s="14"/>
-      <c r="BP15" s="14"/>
-      <c r="BQ15" s="1"/>
-      <c r="BR15" s="1"/>
-      <c r="BS15" s="1"/>
-      <c r="BT15" s="1"/>
-      <c r="BU15" s="1"/>
-      <c r="BV15" s="1"/>
-      <c r="BW15" s="1"/>
-      <c r="BX15" s="1"/>
-      <c r="BY15" s="1"/>
-      <c r="BZ15" s="1"/>
-      <c r="CA15" s="1"/>
-      <c r="CB15" s="1"/>
-      <c r="CC15" s="1"/>
-      <c r="CD15" s="1"/>
-      <c r="CE15" s="1"/>
-      <c r="CF15" s="1"/>
-      <c r="CG15" s="1"/>
+      <c r="AZ15" s="3"/>
+      <c r="BA15" s="3"/>
+      <c r="BB15" s="3"/>
+      <c r="BC15" s="3"/>
+      <c r="BD15" s="3"/>
+      <c r="BE15" s="3"/>
+      <c r="BF15" s="3"/>
+      <c r="BG15" s="3"/>
+      <c r="BH15" s="3"/>
+      <c r="BI15" s="3"/>
+      <c r="BJ15" s="3"/>
+      <c r="BK15" s="3"/>
+      <c r="BL15" s="3"/>
+      <c r="BM15" s="3"/>
+      <c r="BN15" s="3"/>
+      <c r="BO15" s="3"/>
+      <c r="BP15" s="3"/>
+      <c r="BQ15" s="3"/>
+      <c r="BR15" s="3"/>
+      <c r="BS15" s="3"/>
+      <c r="BT15" s="3"/>
+      <c r="BU15" s="3"/>
+      <c r="BV15" s="3"/>
+      <c r="BW15" s="3"/>
+      <c r="BX15" s="3"/>
+      <c r="BY15" s="3"/>
+      <c r="BZ15" s="3"/>
+      <c r="CA15" s="3"/>
+      <c r="CB15" s="3"/>
+      <c r="CC15" s="3"/>
+      <c r="CD15" s="3"/>
+      <c r="CE15" s="3"/>
+      <c r="CF15" s="3"/>
+      <c r="CG15" s="3"/>
     </row>
-    <row r="16">
-      <c r="A16" s="1">
+    <row r="16" ht="19.5" customHeight="1">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="3">
         <v>1</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="9">
         <v>2</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="3">
         <v>3</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="3">
         <v>4</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="3">
         <v>5</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16" s="3">
         <v>6</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16" s="3">
         <v>7</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16" s="3">
         <v>8</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K16" s="3">
         <v>9</v>
       </c>
-      <c r="L16" s="1">
+      <c r="L16" s="3">
         <v>10</v>
       </c>
-      <c r="M16" s="1">
+      <c r="M16" s="3">
         <v>11</v>
       </c>
-      <c r="N16" s="1">
+      <c r="N16" s="3">
         <v>12</v>
       </c>
-      <c r="O16" s="5">
+      <c r="O16" s="6">
         <v>13</v>
       </c>
-      <c r="P16" s="7">
+      <c r="P16" s="8">
         <v>14</v>
       </c>
-      <c r="Q16" s="7">
+      <c r="Q16" s="8">
         <v>15</v>
       </c>
-      <c r="R16" s="1">
+      <c r="R16" s="3">
         <v>16</v>
       </c>
-      <c r="S16" s="5">
+      <c r="S16" s="6">
         <v>17</v>
       </c>
-      <c r="T16" s="1">
+      <c r="T16" s="3">
         <v>18</v>
       </c>
-      <c r="U16" s="8">
+      <c r="U16" s="9">
         <v>19</v>
       </c>
-      <c r="V16" s="5">
+      <c r="V16" s="6">
         <v>20</v>
       </c>
-      <c r="W16" s="1">
+      <c r="W16" s="3">
         <v>21</v>
       </c>
-      <c r="X16" s="1">
+      <c r="X16" s="3">
         <v>22</v>
       </c>
-      <c r="Y16" s="1">
+      <c r="Y16" s="3">
         <v>23</v>
       </c>
-      <c r="Z16" s="1">
+      <c r="Z16" s="3">
         <v>24</v>
       </c>
-      <c r="AA16" s="1">
+      <c r="AA16" s="3">
         <v>25</v>
       </c>
-      <c r="AB16" s="5">
+      <c r="AB16" s="6">
         <v>26</v>
       </c>
-      <c r="AC16" s="1">
+      <c r="AC16" s="3">
         <v>27</v>
       </c>
-      <c r="AD16" s="1">
+      <c r="AD16" s="3">
         <v>28</v>
       </c>
-      <c r="AE16" s="5">
+      <c r="AE16" s="6">
         <v>29</v>
       </c>
-      <c r="AF16" s="1">
+      <c r="AF16" s="3">
         <v>30</v>
       </c>
-      <c r="AG16" s="8">
+      <c r="AG16" s="9">
         <v>31</v>
       </c>
-      <c r="AH16" s="1">
+      <c r="AH16" s="3">
         <v>32</v>
       </c>
-      <c r="AI16" s="1">
+      <c r="AI16" s="3">
         <v>33</v>
       </c>
-      <c r="AJ16" s="1">
+      <c r="AJ16" s="3">
         <v>34</v>
       </c>
-      <c r="AK16" s="8">
+      <c r="AK16" s="9">
         <v>35</v>
       </c>
-      <c r="AL16" s="8">
+      <c r="AL16" s="9">
         <v>36</v>
       </c>
-      <c r="AM16" s="1">
+      <c r="AM16" s="3">
         <v>37</v>
       </c>
-      <c r="AN16" s="6">
+      <c r="AN16" s="7">
         <v>38</v>
       </c>
-      <c r="AO16" s="1">
+      <c r="AO16" s="3">
         <v>39</v>
       </c>
-      <c r="AP16" s="1">
+      <c r="AP16" s="3">
         <v>40</v>
       </c>
-      <c r="AQ16" s="7">
+      <c r="AQ16" s="8">
         <v>41</v>
       </c>
-      <c r="AR16" s="8">
+      <c r="AR16" s="9">
         <v>42</v>
       </c>
-      <c r="AS16" s="8">
+      <c r="AS16" s="9">
         <v>43</v>
       </c>
-      <c r="AT16" s="8">
+      <c r="AT16" s="9">
         <v>44</v>
       </c>
-      <c r="AU16" s="8">
+      <c r="AU16" s="9">
         <v>45</v>
       </c>
-      <c r="AV16" s="6">
+      <c r="AV16" s="7">
         <v>46</v>
       </c>
-      <c r="AW16" s="1">
+      <c r="AW16" s="3">
         <v>47</v>
       </c>
-      <c r="AX16" s="11">
+      <c r="AX16" s="12">
         <v>48</v>
       </c>
-      <c r="AY16" s="11">
+      <c r="AY16" s="12">
         <v>49</v>
       </c>
       <c r="AZ16" s="13">
         <v>15</v>
       </c>
-      <c r="BB16" s="14"/>
-      <c r="BC16" s="14"/>
-      <c r="BD16" s="14"/>
-      <c r="BE16" s="14"/>
-      <c r="BF16" s="14"/>
-      <c r="BG16" s="14"/>
-      <c r="BH16" s="14"/>
-      <c r="BI16" s="14"/>
-      <c r="BJ16" s="14"/>
-      <c r="BK16" s="14"/>
-      <c r="BL16" s="14"/>
-      <c r="BM16" s="14"/>
-      <c r="BN16" s="14"/>
-      <c r="BO16" s="14"/>
-      <c r="BP16" s="14"/>
-      <c r="BQ16" s="1"/>
-      <c r="BR16" s="1"/>
-      <c r="BS16" s="1"/>
-      <c r="BT16" s="1"/>
-      <c r="BU16" s="1"/>
-      <c r="BV16" s="1"/>
-      <c r="BW16" s="1"/>
-      <c r="BX16" s="1"/>
-      <c r="BY16" s="1"/>
-      <c r="BZ16" s="1"/>
-      <c r="CA16" s="1"/>
-      <c r="CB16" s="1"/>
-      <c r="CC16" s="1"/>
-      <c r="CD16" s="1"/>
-      <c r="CE16" s="1"/>
-      <c r="CF16" s="1"/>
-      <c r="CG16" s="1"/>
+      <c r="BA16" s="1"/>
+      <c r="BB16" s="3"/>
+      <c r="BC16" s="3"/>
+      <c r="BD16" s="3"/>
+      <c r="BE16" s="3"/>
+      <c r="BF16" s="3"/>
+      <c r="BG16" s="3"/>
+      <c r="BH16" s="3"/>
+      <c r="BI16" s="3"/>
+      <c r="BJ16" s="3"/>
+      <c r="BK16" s="3"/>
+      <c r="BL16" s="3"/>
+      <c r="BM16" s="3"/>
+      <c r="BN16" s="3"/>
+      <c r="BO16" s="3"/>
+      <c r="BP16" s="3"/>
+      <c r="BQ16" s="3"/>
+      <c r="BR16" s="3"/>
+      <c r="BS16" s="3"/>
+      <c r="BT16" s="3"/>
+      <c r="BU16" s="3"/>
+      <c r="BV16" s="3"/>
+      <c r="BW16" s="3"/>
+      <c r="BX16" s="3"/>
+      <c r="BY16" s="3"/>
+      <c r="BZ16" s="3"/>
+      <c r="CA16" s="3"/>
+      <c r="CB16" s="3"/>
+      <c r="CC16" s="3"/>
+      <c r="CD16" s="3"/>
+      <c r="CE16" s="3"/>
+      <c r="CF16" s="3"/>
+      <c r="CG16" s="3"/>
     </row>
-    <row r="17">
-      <c r="A17" s="1">
+    <row r="17" ht="19.5" customHeight="1">
+      <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="3">
         <v>1</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="3">
         <v>2</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="3">
         <v>3</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="9">
         <v>4</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="3">
         <v>5</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H17" s="9">
         <v>6</v>
       </c>
-      <c r="I17" s="8">
+      <c r="I17" s="9">
         <v>7</v>
       </c>
-      <c r="J17" s="8">
+      <c r="J17" s="9">
         <v>8</v>
       </c>
-      <c r="K17" s="8">
+      <c r="K17" s="9">
         <v>9</v>
       </c>
-      <c r="L17" s="8">
+      <c r="L17" s="9">
         <v>10</v>
       </c>
-      <c r="M17" s="8">
+      <c r="M17" s="9">
         <v>11</v>
       </c>
-      <c r="N17" s="11">
+      <c r="N17" s="12">
         <v>12</v>
       </c>
-      <c r="O17" s="11">
+      <c r="O17" s="12">
         <v>13</v>
       </c>
-      <c r="P17" s="8">
+      <c r="P17" s="9">
         <v>14</v>
       </c>
-      <c r="Q17" s="1">
+      <c r="Q17" s="3">
         <v>15</v>
       </c>
-      <c r="R17" s="1">
+      <c r="R17" s="3">
         <v>16</v>
       </c>
-      <c r="S17" s="6">
+      <c r="S17" s="7">
         <v>17</v>
       </c>
-      <c r="T17" s="1">
+      <c r="T17" s="3">
         <v>18</v>
       </c>
-      <c r="U17" s="5">
+      <c r="U17" s="6">
         <v>19</v>
       </c>
-      <c r="V17" s="11">
+      <c r="V17" s="12">
         <v>20</v>
       </c>
-      <c r="W17" s="11">
+      <c r="W17" s="12">
         <v>21</v>
       </c>
-      <c r="X17" s="11">
+      <c r="X17" s="12">
         <v>22</v>
       </c>
-      <c r="Y17" s="11">
+      <c r="Y17" s="12">
         <v>23</v>
       </c>
-      <c r="Z17" s="11">
+      <c r="Z17" s="12">
         <v>24</v>
       </c>
-      <c r="AA17" s="11">
+      <c r="AA17" s="12">
         <v>25</v>
       </c>
-      <c r="AB17" s="11">
+      <c r="AB17" s="12">
         <v>26</v>
       </c>
-      <c r="AC17" s="1">
+      <c r="AC17" s="3">
         <v>27</v>
       </c>
-      <c r="AD17" s="10">
+      <c r="AD17" s="11">
         <v>28</v>
       </c>
-      <c r="AE17" s="1">
+      <c r="AE17" s="3">
         <v>29</v>
       </c>
-      <c r="AF17" s="1">
+      <c r="AF17" s="3">
         <v>30</v>
       </c>
-      <c r="AG17" s="7">
+      <c r="AG17" s="8">
         <v>31</v>
       </c>
-      <c r="AH17" s="1">
+      <c r="AH17" s="3">
         <v>32</v>
       </c>
-      <c r="AI17" s="1">
+      <c r="AI17" s="3">
         <v>33</v>
       </c>
-      <c r="AJ17" s="1">
+      <c r="AJ17" s="3">
         <v>34</v>
       </c>
-      <c r="AK17" s="1">
+      <c r="AK17" s="3">
         <v>35</v>
       </c>
-      <c r="AL17" s="1">
+      <c r="AL17" s="3">
         <v>36</v>
       </c>
-      <c r="AM17" s="9">
+      <c r="AM17" s="10">
         <v>16</v>
       </c>
-      <c r="AN17" s="6">
+      <c r="AN17" s="7">
         <v>37</v>
       </c>
-      <c r="AO17" s="1">
+      <c r="AO17" s="3">
         <v>38</v>
       </c>
-      <c r="AP17" s="1">
+      <c r="AP17" s="3">
         <v>39</v>
       </c>
-      <c r="AQ17" s="1">
+      <c r="AQ17" s="3">
         <v>40</v>
       </c>
-      <c r="AR17" s="1">
+      <c r="AR17" s="3">
         <v>41</v>
       </c>
-      <c r="AS17" s="1">
+      <c r="AS17" s="3">
         <v>42</v>
       </c>
-      <c r="AT17" s="1">
+      <c r="AT17" s="3">
         <v>43</v>
       </c>
-      <c r="AU17" s="6">
+      <c r="AU17" s="7">
         <v>44</v>
       </c>
-      <c r="AV17" s="11">
+      <c r="AV17" s="12">
         <v>45</v>
       </c>
-      <c r="AW17" s="14"/>
-      <c r="AX17" s="14"/>
-      <c r="AY17" s="14"/>
-      <c r="AZ17" s="14"/>
-      <c r="BA17" s="14"/>
-      <c r="BB17" s="14"/>
-      <c r="BC17" s="14"/>
-      <c r="BD17" s="14"/>
-      <c r="BE17" s="14"/>
-      <c r="BF17" s="14"/>
-      <c r="BG17" s="14"/>
-      <c r="BH17" s="14"/>
-      <c r="BI17" s="14"/>
-      <c r="BJ17" s="14"/>
-      <c r="BK17" s="14"/>
-      <c r="BL17" s="14"/>
-      <c r="BM17" s="14"/>
-      <c r="BN17" s="14"/>
-      <c r="BO17" s="14"/>
-      <c r="BP17" s="14"/>
-      <c r="BQ17" s="1"/>
-      <c r="BR17" s="1"/>
-      <c r="BS17" s="1"/>
-      <c r="BT17" s="1"/>
-      <c r="BU17" s="1"/>
-      <c r="BV17" s="1"/>
-      <c r="BW17" s="1"/>
-      <c r="BX17" s="1"/>
-      <c r="BY17" s="1"/>
-      <c r="BZ17" s="1"/>
-      <c r="CA17" s="1"/>
-      <c r="CB17" s="1"/>
-      <c r="CC17" s="1"/>
-      <c r="CD17" s="1"/>
-      <c r="CE17" s="1"/>
-      <c r="CF17" s="1"/>
-      <c r="CG17" s="1"/>
+      <c r="AW17" s="3"/>
+      <c r="AX17" s="3"/>
+      <c r="AY17" s="3"/>
+      <c r="AZ17" s="3"/>
+      <c r="BA17" s="3"/>
+      <c r="BB17" s="3"/>
+      <c r="BC17" s="3"/>
+      <c r="BD17" s="3"/>
+      <c r="BE17" s="3"/>
+      <c r="BF17" s="3"/>
+      <c r="BG17" s="3"/>
+      <c r="BH17" s="3"/>
+      <c r="BI17" s="3"/>
+      <c r="BJ17" s="3"/>
+      <c r="BK17" s="3"/>
+      <c r="BL17" s="3"/>
+      <c r="BM17" s="3"/>
+      <c r="BN17" s="3"/>
+      <c r="BO17" s="3"/>
+      <c r="BP17" s="3"/>
+      <c r="BQ17" s="3"/>
+      <c r="BR17" s="3"/>
+      <c r="BS17" s="3"/>
+      <c r="BT17" s="3"/>
+      <c r="BU17" s="3"/>
+      <c r="BV17" s="3"/>
+      <c r="BW17" s="3"/>
+      <c r="BX17" s="3"/>
+      <c r="BY17" s="3"/>
+      <c r="BZ17" s="3"/>
+      <c r="CA17" s="3"/>
+      <c r="CB17" s="3"/>
+      <c r="CC17" s="3"/>
+      <c r="CD17" s="3"/>
+      <c r="CE17" s="3"/>
+      <c r="CF17" s="3"/>
+      <c r="CG17" s="3"/>
     </row>
-    <row r="18">
-      <c r="A18" s="1">
+    <row r="18" ht="19.5" customHeight="1">
+      <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="7">
         <v>1</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="6">
         <v>2</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="6">
         <v>3</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="8">
         <v>4</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="9">
         <v>5</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H18" s="9">
         <v>6</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18" s="7">
         <v>7</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J18" s="3">
         <v>8</v>
       </c>
-      <c r="K18" s="1">
+      <c r="K18" s="3">
         <v>9</v>
       </c>
-      <c r="L18" s="7">
+      <c r="L18" s="8">
         <v>10</v>
       </c>
-      <c r="M18" s="7">
+      <c r="M18" s="8">
         <v>11</v>
       </c>
-      <c r="N18" s="1">
+      <c r="N18" s="3">
         <v>12</v>
       </c>
-      <c r="O18" s="1">
+      <c r="O18" s="3">
         <v>13</v>
       </c>
-      <c r="P18" s="1">
+      <c r="P18" s="3">
         <v>14</v>
       </c>
-      <c r="Q18" s="1">
+      <c r="Q18" s="3">
         <v>15</v>
       </c>
-      <c r="R18" s="1">
+      <c r="R18" s="3">
         <v>16</v>
       </c>
-      <c r="S18" s="1">
+      <c r="S18" s="3">
         <v>17</v>
       </c>
-      <c r="T18" s="1">
+      <c r="T18" s="3">
         <v>18</v>
       </c>
-      <c r="U18" s="1">
+      <c r="U18" s="3">
         <v>19</v>
       </c>
-      <c r="V18" s="8">
+      <c r="V18" s="9">
         <v>20</v>
       </c>
-      <c r="W18" s="1">
+      <c r="W18" s="3">
         <v>21</v>
       </c>
-      <c r="X18" s="1">
+      <c r="X18" s="3">
         <v>22</v>
       </c>
-      <c r="Y18" s="1">
+      <c r="Y18" s="3">
         <v>23</v>
       </c>
-      <c r="Z18" s="8">
+      <c r="Z18" s="9">
         <v>24</v>
       </c>
-      <c r="AA18" s="1">
+      <c r="AA18" s="3">
         <v>25</v>
       </c>
-      <c r="AB18" s="1">
+      <c r="AB18" s="3">
         <v>26</v>
       </c>
-      <c r="AC18" s="11">
+      <c r="AC18" s="12">
         <v>27</v>
       </c>
-      <c r="AD18" s="1">
+      <c r="AD18" s="3">
         <v>28</v>
       </c>
-      <c r="AE18" s="11">
+      <c r="AE18" s="12">
         <v>29</v>
       </c>
-      <c r="AF18" s="11">
+      <c r="AF18" s="12">
         <v>30</v>
       </c>
-      <c r="AG18" s="11">
+      <c r="AG18" s="12">
         <v>31</v>
       </c>
-      <c r="AH18" s="1">
+      <c r="AH18" s="3">
         <v>32</v>
       </c>
-      <c r="AI18" s="11">
+      <c r="AI18" s="12">
         <v>33</v>
       </c>
-      <c r="AJ18" s="6">
+      <c r="AJ18" s="7">
         <v>34</v>
       </c>
-      <c r="AK18" s="5">
+      <c r="AK18" s="6">
         <v>35</v>
       </c>
-      <c r="AL18" s="1">
+      <c r="AL18" s="3">
         <v>36</v>
       </c>
-      <c r="AM18" s="1">
+      <c r="AM18" s="3">
         <v>37</v>
       </c>
       <c r="AN18" s="13">
         <v>17</v>
       </c>
-      <c r="AO18" s="1">
+      <c r="AO18" s="3">
         <v>38</v>
       </c>
-      <c r="AP18" s="1">
+      <c r="AP18" s="3">
         <v>39</v>
       </c>
-      <c r="AQ18" s="1">
+      <c r="AQ18" s="3">
         <v>40</v>
       </c>
-      <c r="AR18" s="1">
+      <c r="AR18" s="3">
         <v>41</v>
       </c>
-      <c r="AS18" s="1">
+      <c r="AS18" s="3">
         <v>42</v>
       </c>
-      <c r="AT18" s="8">
+      <c r="AT18" s="9">
         <v>43</v>
       </c>
-      <c r="AU18" s="1">
+      <c r="AU18" s="3">
         <v>44</v>
       </c>
-      <c r="AV18" s="1">
+      <c r="AV18" s="3">
         <v>45</v>
       </c>
-      <c r="AW18" s="1">
+      <c r="AW18" s="3">
         <v>46</v>
       </c>
-      <c r="AX18" s="7">
+      <c r="AX18" s="8">
         <v>47</v>
       </c>
-      <c r="AY18" s="1">
+      <c r="AY18" s="3">
         <v>48</v>
       </c>
-      <c r="AZ18" s="14"/>
-      <c r="BA18" s="14"/>
-      <c r="BB18" s="14"/>
-      <c r="BC18" s="14"/>
-      <c r="BD18" s="14"/>
-      <c r="BE18" s="14"/>
-      <c r="BF18" s="14"/>
-      <c r="BG18" s="14"/>
-      <c r="BH18" s="14"/>
-      <c r="BI18" s="14"/>
-      <c r="BJ18" s="14"/>
-      <c r="BK18" s="14"/>
-      <c r="BL18" s="14"/>
-      <c r="BM18" s="14"/>
-      <c r="BN18" s="14"/>
-      <c r="BO18" s="14"/>
-      <c r="BP18" s="14"/>
-      <c r="BQ18" s="1"/>
-      <c r="BR18" s="1"/>
-      <c r="BS18" s="1"/>
-      <c r="BT18" s="1"/>
-      <c r="BU18" s="1"/>
-      <c r="BV18" s="1"/>
-      <c r="BW18" s="1"/>
-      <c r="BX18" s="1"/>
-      <c r="BY18" s="1"/>
-      <c r="BZ18" s="1"/>
-      <c r="CA18" s="1"/>
-      <c r="CB18" s="1"/>
-      <c r="CC18" s="1"/>
-      <c r="CD18" s="1"/>
-      <c r="CE18" s="1"/>
-      <c r="CF18" s="1"/>
-      <c r="CG18" s="1"/>
+      <c r="AZ18" s="3"/>
+      <c r="BA18" s="3"/>
+      <c r="BB18" s="3"/>
+      <c r="BC18" s="3"/>
+      <c r="BD18" s="3"/>
+      <c r="BE18" s="3"/>
+      <c r="BF18" s="3"/>
+      <c r="BG18" s="3"/>
+      <c r="BH18" s="3"/>
+      <c r="BI18" s="3"/>
+      <c r="BJ18" s="3"/>
+      <c r="BK18" s="3"/>
+      <c r="BL18" s="3"/>
+      <c r="BM18" s="3"/>
+      <c r="BN18" s="3"/>
+      <c r="BO18" s="3"/>
+      <c r="BP18" s="3"/>
+      <c r="BQ18" s="3"/>
+      <c r="BR18" s="3"/>
+      <c r="BS18" s="3"/>
+      <c r="BT18" s="3"/>
+      <c r="BU18" s="3"/>
+      <c r="BV18" s="3"/>
+      <c r="BW18" s="3"/>
+      <c r="BX18" s="3"/>
+      <c r="BY18" s="3"/>
+      <c r="BZ18" s="3"/>
+      <c r="CA18" s="3"/>
+      <c r="CB18" s="3"/>
+      <c r="CC18" s="3"/>
+      <c r="CD18" s="3"/>
+      <c r="CE18" s="3"/>
+      <c r="CF18" s="3"/>
+      <c r="CG18" s="3"/>
     </row>
-    <row r="19">
-      <c r="A19" s="1">
+    <row r="19" ht="19.5" customHeight="1">
+      <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="3">
         <v>1</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="3">
         <v>2</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="3">
         <v>3</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="6">
         <v>4</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19" s="3">
         <v>5</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H19" s="3">
         <v>6</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19" s="6">
         <v>7</v>
       </c>
-      <c r="J19" s="1">
+      <c r="J19" s="3">
         <v>8</v>
       </c>
-      <c r="K19" s="1">
+      <c r="K19" s="3">
         <v>9</v>
       </c>
-      <c r="L19" s="8">
+      <c r="L19" s="9">
         <v>10</v>
       </c>
-      <c r="M19" s="1">
+      <c r="M19" s="3">
         <v>11</v>
       </c>
-      <c r="N19" s="1">
+      <c r="N19" s="3">
         <v>12</v>
       </c>
-      <c r="O19" s="5">
+      <c r="O19" s="6">
         <v>13</v>
       </c>
-      <c r="P19" s="7">
+      <c r="P19" s="8">
         <v>14</v>
       </c>
-      <c r="Q19" s="1">
+      <c r="Q19" s="3">
         <v>15</v>
       </c>
-      <c r="R19" s="7">
+      <c r="R19" s="8">
         <v>16</v>
       </c>
-      <c r="S19" s="5">
+      <c r="S19" s="6">
         <v>17</v>
       </c>
-      <c r="T19" s="1">
+      <c r="T19" s="3">
         <v>18</v>
       </c>
-      <c r="U19" s="8">
+      <c r="U19" s="9">
         <v>19</v>
       </c>
-      <c r="V19" s="1">
+      <c r="V19" s="3">
         <v>20</v>
       </c>
-      <c r="W19" s="1">
+      <c r="W19" s="3">
         <v>21</v>
       </c>
-      <c r="X19" s="11">
+      <c r="X19" s="12">
         <v>22</v>
       </c>
-      <c r="Y19" s="1">
+      <c r="Y19" s="3">
         <v>23</v>
       </c>
-      <c r="Z19" s="1">
+      <c r="Z19" s="3">
         <v>24</v>
       </c>
-      <c r="AA19" s="1">
+      <c r="AA19" s="3">
         <v>25</v>
       </c>
-      <c r="AB19" s="8">
+      <c r="AB19" s="9">
         <v>26</v>
       </c>
-      <c r="AC19" s="7">
+      <c r="AC19" s="8">
         <v>27</v>
       </c>
-      <c r="AD19" s="5">
+      <c r="AD19" s="6">
         <v>28</v>
       </c>
-      <c r="AE19" s="1">
+      <c r="AE19" s="3">
         <v>29</v>
       </c>
-      <c r="AF19" s="1">
+      <c r="AF19" s="3">
         <v>30</v>
       </c>
-      <c r="AG19" s="1">
+      <c r="AG19" s="3">
         <v>31</v>
       </c>
-      <c r="AH19" s="8">
+      <c r="AH19" s="9">
         <v>32</v>
       </c>
-      <c r="AI19" s="1">
+      <c r="AI19" s="3">
         <v>33</v>
       </c>
-      <c r="AJ19" s="7">
+      <c r="AJ19" s="8">
         <v>34</v>
       </c>
       <c r="AK19" s="13">
         <v>18</v>
       </c>
-      <c r="AL19" s="1">
+      <c r="AL19" s="3">
         <v>35</v>
       </c>
-      <c r="AM19" s="1">
+      <c r="AM19" s="3">
         <v>36</v>
       </c>
-      <c r="AN19" s="1">
+      <c r="AN19" s="3">
         <v>37</v>
       </c>
-      <c r="AO19" s="5">
+      <c r="AO19" s="6">
         <v>38</v>
       </c>
-      <c r="AP19" s="1">
+      <c r="AP19" s="3">
         <v>39</v>
       </c>
-      <c r="AQ19" s="1">
+      <c r="AQ19" s="3">
         <v>40</v>
       </c>
-      <c r="AR19" s="7">
+      <c r="AR19" s="8">
         <v>41</v>
       </c>
-      <c r="AS19" s="1">
+      <c r="AS19" s="3">
         <v>42</v>
       </c>
-      <c r="AT19" s="8">
+      <c r="AT19" s="9">
         <v>43</v>
       </c>
-      <c r="AU19" s="1">
+      <c r="AU19" s="3">
         <v>44</v>
       </c>
-      <c r="AV19" s="8">
+      <c r="AV19" s="9">
         <v>45</v>
       </c>
-      <c r="AW19" s="14"/>
-      <c r="AX19" s="14"/>
-      <c r="AY19" s="14"/>
-      <c r="AZ19" s="14"/>
-      <c r="BA19" s="14"/>
-      <c r="BB19" s="14"/>
-      <c r="BC19" s="14"/>
-      <c r="BD19" s="14"/>
-      <c r="BE19" s="14"/>
-      <c r="BF19" s="14"/>
-      <c r="BG19" s="14"/>
-      <c r="BH19" s="14"/>
-      <c r="BI19" s="14"/>
-      <c r="BJ19" s="14"/>
-      <c r="BK19" s="14"/>
-      <c r="BL19" s="14"/>
-      <c r="BM19" s="14"/>
-      <c r="BN19" s="14"/>
-      <c r="BO19" s="14"/>
-      <c r="BP19" s="14"/>
-      <c r="BQ19" s="1"/>
-      <c r="BR19" s="1"/>
-      <c r="BS19" s="1"/>
-      <c r="BT19" s="1"/>
-      <c r="BU19" s="1"/>
-      <c r="BV19" s="1"/>
-      <c r="BW19" s="1"/>
-      <c r="BX19" s="1"/>
-      <c r="BY19" s="1"/>
-      <c r="BZ19" s="1"/>
-      <c r="CA19" s="1"/>
-      <c r="CB19" s="1"/>
-      <c r="CC19" s="1"/>
-      <c r="CD19" s="1"/>
-      <c r="CE19" s="1"/>
-      <c r="CF19" s="1"/>
-      <c r="CG19" s="1"/>
+      <c r="AW19" s="3"/>
+      <c r="AX19" s="3"/>
+      <c r="AY19" s="3"/>
+      <c r="AZ19" s="3"/>
+      <c r="BA19" s="3"/>
+      <c r="BB19" s="3"/>
+      <c r="BC19" s="3"/>
+      <c r="BD19" s="3"/>
+      <c r="BE19" s="3"/>
+      <c r="BF19" s="3"/>
+      <c r="BG19" s="3"/>
+      <c r="BH19" s="3"/>
+      <c r="BI19" s="3"/>
+      <c r="BJ19" s="3"/>
+      <c r="BK19" s="3"/>
+      <c r="BL19" s="3"/>
+      <c r="BM19" s="3"/>
+      <c r="BN19" s="3"/>
+      <c r="BO19" s="3"/>
+      <c r="BP19" s="3"/>
+      <c r="BQ19" s="3"/>
+      <c r="BR19" s="3"/>
+      <c r="BS19" s="3"/>
+      <c r="BT19" s="3"/>
+      <c r="BU19" s="3"/>
+      <c r="BV19" s="3"/>
+      <c r="BW19" s="3"/>
+      <c r="BX19" s="3"/>
+      <c r="BY19" s="3"/>
+      <c r="BZ19" s="3"/>
+      <c r="CA19" s="3"/>
+      <c r="CB19" s="3"/>
+      <c r="CC19" s="3"/>
+      <c r="CD19" s="3"/>
+      <c r="CE19" s="3"/>
+      <c r="CF19" s="3"/>
+      <c r="CG19" s="3"/>
     </row>
-    <row r="20">
-      <c r="A20" s="1">
+    <row r="20" ht="19.5" customHeight="1">
+      <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="12">
         <v>1</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="12">
         <v>2</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="3">
         <v>3</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="3">
         <v>4</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20" s="3">
         <v>5</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20" s="3">
         <v>6</v>
       </c>
-      <c r="I20" s="5">
+      <c r="I20" s="6">
         <v>7</v>
       </c>
-      <c r="J20" s="8">
+      <c r="J20" s="9">
         <v>8</v>
       </c>
-      <c r="K20" s="1">
+      <c r="K20" s="3">
         <v>9</v>
       </c>
-      <c r="L20" s="1">
+      <c r="L20" s="3">
         <v>10</v>
       </c>
-      <c r="M20" s="1">
+      <c r="M20" s="3">
         <v>11</v>
       </c>
-      <c r="N20" s="7">
+      <c r="N20" s="8">
         <v>12</v>
       </c>
-      <c r="O20" s="11">
+      <c r="O20" s="12">
         <v>13</v>
       </c>
-      <c r="P20" s="1">
+      <c r="P20" s="3">
         <v>14</v>
       </c>
-      <c r="Q20" s="1">
+      <c r="Q20" s="3">
         <v>15</v>
       </c>
-      <c r="R20" s="8">
+      <c r="R20" s="9">
         <v>16</v>
       </c>
-      <c r="S20" s="5">
+      <c r="S20" s="6">
         <v>17</v>
       </c>
-      <c r="T20" s="1">
+      <c r="T20" s="3">
         <v>18</v>
       </c>
-      <c r="U20" s="8">
+      <c r="U20" s="9">
         <v>19</v>
       </c>
-      <c r="V20" s="8">
+      <c r="V20" s="9">
         <v>20</v>
       </c>
-      <c r="W20" s="1">
+      <c r="W20" s="3">
         <v>21</v>
       </c>
-      <c r="X20" s="1">
+      <c r="X20" s="3">
         <v>22</v>
       </c>
-      <c r="Y20" s="1">
+      <c r="Y20" s="3">
         <v>23</v>
       </c>
-      <c r="Z20" s="1">
+      <c r="Z20" s="3">
         <v>24</v>
       </c>
-      <c r="AA20" s="11">
+      <c r="AA20" s="12">
         <v>25</v>
       </c>
-      <c r="AB20" s="1">
+      <c r="AB20" s="3">
         <v>26</v>
       </c>
-      <c r="AC20" s="8">
+      <c r="AC20" s="9">
         <v>27</v>
       </c>
-      <c r="AD20" s="1">
+      <c r="AD20" s="3">
         <v>28</v>
       </c>
-      <c r="AE20" s="8">
+      <c r="AE20" s="9">
         <v>29</v>
       </c>
-      <c r="AF20" s="8">
+      <c r="AF20" s="9">
         <v>30</v>
       </c>
-      <c r="AG20" s="1">
+      <c r="AG20" s="3">
         <v>31</v>
       </c>
-      <c r="AH20" s="8">
+      <c r="AH20" s="9">
         <v>32</v>
       </c>
-      <c r="AI20" s="8">
+      <c r="AI20" s="9">
         <v>33</v>
       </c>
-      <c r="AJ20" s="8">
+      <c r="AJ20" s="9">
         <v>34</v>
       </c>
-      <c r="AK20" s="8">
+      <c r="AK20" s="9">
         <v>35</v>
       </c>
-      <c r="AL20" s="8">
+      <c r="AL20" s="9">
         <v>36</v>
       </c>
-      <c r="AM20" s="8">
+      <c r="AM20" s="9">
         <v>37</v>
       </c>
-      <c r="AN20" s="8">
+      <c r="AN20" s="9">
         <v>38</v>
       </c>
-      <c r="AO20" s="11">
+      <c r="AO20" s="12">
         <v>39</v>
       </c>
-      <c r="AP20" s="11">
+      <c r="AP20" s="12">
         <v>40</v>
       </c>
-      <c r="AQ20" s="11">
+      <c r="AQ20" s="12">
         <v>41</v>
       </c>
-      <c r="AR20" s="11">
+      <c r="AR20" s="12">
         <v>42</v>
       </c>
-      <c r="AS20" s="11">
+      <c r="AS20" s="12">
         <v>43</v>
       </c>
-      <c r="AT20" s="1">
+      <c r="AT20" s="3">
         <v>44</v>
       </c>
-      <c r="AU20" s="1">
+      <c r="AU20" s="3">
         <v>45</v>
       </c>
-      <c r="AV20" s="11">
+      <c r="AV20" s="12">
         <v>46</v>
       </c>
-      <c r="AW20" s="6">
+      <c r="AW20" s="7">
         <v>47</v>
       </c>
       <c r="AX20" s="13">
         <v>19</v>
       </c>
-      <c r="AY20" s="14"/>
-      <c r="AZ20" s="14"/>
-      <c r="BA20" s="14"/>
-      <c r="BB20" s="14"/>
-      <c r="BC20" s="14"/>
-      <c r="BD20" s="14"/>
-      <c r="BE20" s="14"/>
-      <c r="BF20" s="14"/>
-      <c r="BG20" s="14"/>
-      <c r="BH20" s="14"/>
-      <c r="BI20" s="14"/>
-      <c r="BJ20" s="14"/>
-      <c r="BK20" s="14"/>
-      <c r="BL20" s="14"/>
-      <c r="BM20" s="14"/>
-      <c r="BN20" s="14"/>
-      <c r="BO20" s="14"/>
-      <c r="BP20" s="14"/>
-      <c r="BQ20" s="1"/>
-      <c r="BR20" s="1"/>
-      <c r="BS20" s="1"/>
-      <c r="BT20" s="1"/>
-      <c r="BU20" s="1"/>
-      <c r="BV20" s="1"/>
-      <c r="BW20" s="1"/>
-      <c r="BX20" s="1"/>
-      <c r="BY20" s="1"/>
-      <c r="BZ20" s="1"/>
-      <c r="CA20" s="1"/>
-      <c r="CB20" s="1"/>
-      <c r="CC20" s="1"/>
-      <c r="CD20" s="1"/>
-      <c r="CE20" s="1"/>
-      <c r="CF20" s="1"/>
-      <c r="CG20" s="1"/>
+      <c r="AY20" s="3"/>
+      <c r="AZ20" s="3"/>
+      <c r="BA20" s="3"/>
+      <c r="BB20" s="3"/>
+      <c r="BC20" s="3"/>
+      <c r="BD20" s="3"/>
+      <c r="BE20" s="3"/>
+      <c r="BF20" s="3"/>
+      <c r="BG20" s="3"/>
+      <c r="BH20" s="3"/>
+      <c r="BI20" s="3"/>
+      <c r="BJ20" s="3"/>
+      <c r="BK20" s="3"/>
+      <c r="BL20" s="3"/>
+      <c r="BM20" s="3"/>
+      <c r="BN20" s="3"/>
+      <c r="BO20" s="3"/>
+      <c r="BP20" s="3"/>
+      <c r="BQ20" s="3"/>
+      <c r="BR20" s="3"/>
+      <c r="BS20" s="3"/>
+      <c r="BT20" s="3"/>
+      <c r="BU20" s="3"/>
+      <c r="BV20" s="3"/>
+      <c r="BW20" s="3"/>
+      <c r="BX20" s="3"/>
+      <c r="BY20" s="3"/>
+      <c r="BZ20" s="3"/>
+      <c r="CA20" s="3"/>
+      <c r="CB20" s="3"/>
+      <c r="CC20" s="3"/>
+      <c r="CD20" s="3"/>
+      <c r="CE20" s="3"/>
+      <c r="CF20" s="3"/>
+      <c r="CG20" s="3"/>
     </row>
-    <row r="21">
-      <c r="A21" s="1">
+    <row r="21" ht="19.5" customHeight="1">
+      <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="12">
         <v>1</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="12">
         <v>2</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="12">
         <v>3</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="6">
         <v>4</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="3">
         <v>5</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H21" s="3">
         <v>6</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21" s="3">
         <v>7</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J21" s="3">
         <v>8</v>
       </c>
-      <c r="K21" s="8">
+      <c r="K21" s="9">
         <v>9</v>
       </c>
-      <c r="L21" s="8">
+      <c r="L21" s="9">
         <v>10</v>
       </c>
-      <c r="M21" s="1">
+      <c r="M21" s="3">
         <v>11</v>
       </c>
-      <c r="N21" s="7">
+      <c r="N21" s="8">
         <v>12</v>
       </c>
-      <c r="O21" s="7">
+      <c r="O21" s="8">
         <v>13</v>
       </c>
-      <c r="P21" s="7">
+      <c r="P21" s="8">
         <v>14</v>
       </c>
-      <c r="Q21" s="5">
+      <c r="Q21" s="6">
         <v>15</v>
       </c>
-      <c r="R21" s="1">
+      <c r="R21" s="3">
         <v>16</v>
       </c>
-      <c r="S21" s="1">
+      <c r="S21" s="3">
         <v>17</v>
       </c>
-      <c r="T21" s="7">
+      <c r="T21" s="8">
         <v>18</v>
       </c>
-      <c r="U21" s="1">
+      <c r="U21" s="3">
         <v>19</v>
       </c>
-      <c r="V21" s="1">
+      <c r="V21" s="3">
         <v>20</v>
       </c>
-      <c r="W21" s="5">
+      <c r="W21" s="6">
         <v>21</v>
       </c>
-      <c r="X21" s="1">
+      <c r="X21" s="3">
         <v>22</v>
       </c>
-      <c r="Y21" s="1">
+      <c r="Y21" s="3">
         <v>23</v>
       </c>
-      <c r="Z21" s="1">
+      <c r="Z21" s="3">
         <v>24</v>
       </c>
-      <c r="AA21" s="1">
+      <c r="AA21" s="3">
         <v>25</v>
       </c>
-      <c r="AB21" s="7">
+      <c r="AB21" s="8">
         <v>26</v>
       </c>
-      <c r="AC21" s="1">
+      <c r="AC21" s="3">
         <v>27</v>
       </c>
-      <c r="AD21" s="1">
+      <c r="AD21" s="3">
         <v>28</v>
       </c>
-      <c r="AE21" s="1">
+      <c r="AE21" s="3">
         <v>29</v>
       </c>
-      <c r="AF21" s="1">
+      <c r="AF21" s="3">
         <v>30</v>
       </c>
-      <c r="AG21" s="1">
+      <c r="AG21" s="3">
         <v>31</v>
       </c>
-      <c r="AH21" s="1">
+      <c r="AH21" s="3">
         <v>32</v>
       </c>
-      <c r="AI21" s="8">
+      <c r="AI21" s="9">
         <v>33</v>
       </c>
-      <c r="AJ21" s="7">
+      <c r="AJ21" s="8">
         <v>34</v>
       </c>
-      <c r="AK21" s="8">
+      <c r="AK21" s="9">
         <v>35</v>
       </c>
-      <c r="AL21" s="8">
+      <c r="AL21" s="9">
         <v>36</v>
       </c>
-      <c r="AM21" s="5">
+      <c r="AM21" s="6">
         <v>37</v>
       </c>
-      <c r="AN21" s="1">
+      <c r="AN21" s="3">
         <v>38</v>
       </c>
-      <c r="AO21" s="1">
+      <c r="AO21" s="3">
         <v>39</v>
       </c>
-      <c r="AP21" s="1">
+      <c r="AP21" s="3">
         <v>40</v>
       </c>
-      <c r="AQ21" s="1">
+      <c r="AQ21" s="3">
         <v>41</v>
       </c>
-      <c r="AR21" s="11">
+      <c r="AR21" s="12">
         <v>42</v>
       </c>
-      <c r="AS21" s="8">
+      <c r="AS21" s="9">
         <v>43</v>
       </c>
       <c r="AT21" s="13">
         <v>20</v>
       </c>
-      <c r="AU21" s="14"/>
-      <c r="AV21" s="14"/>
-      <c r="AW21" s="14"/>
-      <c r="AX21" s="14"/>
-      <c r="AY21" s="14"/>
-      <c r="AZ21" s="14"/>
-      <c r="BA21" s="14"/>
-      <c r="BB21" s="14"/>
-      <c r="BC21" s="14"/>
-      <c r="BD21" s="14"/>
-      <c r="BE21" s="14"/>
-      <c r="BF21" s="14"/>
-      <c r="BG21" s="14"/>
-      <c r="BH21" s="14"/>
-      <c r="BI21" s="14"/>
-      <c r="BJ21" s="14"/>
-      <c r="BK21" s="14"/>
-      <c r="BL21" s="14"/>
-      <c r="BM21" s="14"/>
-      <c r="BN21" s="14"/>
-      <c r="BO21" s="14"/>
-      <c r="BP21" s="14"/>
-      <c r="BQ21" s="1"/>
-      <c r="BR21" s="1"/>
-      <c r="BS21" s="1"/>
-      <c r="BT21" s="1"/>
-      <c r="BU21" s="1"/>
-      <c r="BV21" s="1"/>
-      <c r="BW21" s="1"/>
-      <c r="BX21" s="1"/>
-      <c r="BY21" s="1"/>
-      <c r="BZ21" s="1"/>
-      <c r="CA21" s="1"/>
-      <c r="CB21" s="1"/>
-      <c r="CC21" s="1"/>
-      <c r="CD21" s="1"/>
-      <c r="CE21" s="1"/>
-      <c r="CF21" s="1"/>
-      <c r="CG21" s="1"/>
+      <c r="AU21" s="3"/>
+      <c r="AV21" s="3"/>
+      <c r="AW21" s="3"/>
+      <c r="AX21" s="3"/>
+      <c r="AY21" s="3"/>
+      <c r="AZ21" s="3"/>
+      <c r="BA21" s="3"/>
+      <c r="BB21" s="3"/>
+      <c r="BC21" s="3"/>
+      <c r="BD21" s="3"/>
+      <c r="BE21" s="3"/>
+      <c r="BF21" s="3"/>
+      <c r="BG21" s="3"/>
+      <c r="BH21" s="3"/>
+      <c r="BI21" s="3"/>
+      <c r="BJ21" s="3"/>
+      <c r="BK21" s="3"/>
+      <c r="BL21" s="3"/>
+      <c r="BM21" s="3"/>
+      <c r="BN21" s="3"/>
+      <c r="BO21" s="3"/>
+      <c r="BP21" s="3"/>
+      <c r="BQ21" s="3"/>
+      <c r="BR21" s="3"/>
+      <c r="BS21" s="3"/>
+      <c r="BT21" s="3"/>
+      <c r="BU21" s="3"/>
+      <c r="BV21" s="3"/>
+      <c r="BW21" s="3"/>
+      <c r="BX21" s="3"/>
+      <c r="BY21" s="3"/>
+      <c r="BZ21" s="3"/>
+      <c r="CA21" s="3"/>
+      <c r="CB21" s="3"/>
+      <c r="CC21" s="3"/>
+      <c r="CD21" s="3"/>
+      <c r="CE21" s="3"/>
+      <c r="CF21" s="3"/>
+      <c r="CG21" s="3"/>
     </row>
-    <row r="22">
-      <c r="A22" s="1">
+    <row r="22" ht="19.5" customHeight="1">
+      <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="12">
         <v>1</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="3">
         <v>2</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="3">
         <v>3</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="12">
         <v>4</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="3">
         <v>5</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H22" s="8">
         <v>6</v>
       </c>
-      <c r="I22" s="5">
+      <c r="I22" s="6">
         <v>7</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J22" s="3">
         <v>8</v>
       </c>
-      <c r="K22" s="5">
+      <c r="K22" s="6">
         <v>9</v>
       </c>
-      <c r="L22" s="1">
+      <c r="L22" s="3">
         <v>10</v>
       </c>
-      <c r="M22" s="1">
+      <c r="M22" s="3">
         <v>11</v>
       </c>
-      <c r="N22" s="11">
+      <c r="N22" s="12">
         <v>12</v>
       </c>
-      <c r="O22" s="1">
+      <c r="O22" s="3">
         <v>13</v>
       </c>
-      <c r="P22" s="1">
+      <c r="P22" s="3">
         <v>14</v>
       </c>
-      <c r="Q22" s="1">
+      <c r="Q22" s="3">
         <v>15</v>
       </c>
-      <c r="R22" s="1">
+      <c r="R22" s="3">
         <v>16</v>
       </c>
-      <c r="S22" s="7">
+      <c r="S22" s="8">
         <v>17</v>
       </c>
-      <c r="T22" s="1">
+      <c r="T22" s="3">
         <v>18</v>
       </c>
-      <c r="U22" s="1">
+      <c r="U22" s="3">
         <v>19</v>
       </c>
-      <c r="V22" s="5">
+      <c r="V22" s="6">
         <v>20</v>
       </c>
-      <c r="W22" s="1">
+      <c r="W22" s="3">
         <v>21</v>
       </c>
-      <c r="X22" s="1">
+      <c r="X22" s="3">
         <v>22</v>
       </c>
-      <c r="Y22" s="1">
+      <c r="Y22" s="3">
         <v>23</v>
       </c>
-      <c r="Z22" s="1">
+      <c r="Z22" s="3">
         <v>24</v>
       </c>
-      <c r="AA22" s="1">
+      <c r="AA22" s="3">
         <v>25</v>
       </c>
-      <c r="AB22" s="1">
+      <c r="AB22" s="3">
         <v>26</v>
       </c>
-      <c r="AC22" s="1">
+      <c r="AC22" s="3">
         <v>27</v>
       </c>
-      <c r="AD22" s="1">
+      <c r="AD22" s="3">
         <v>28</v>
       </c>
-      <c r="AE22" s="1">
+      <c r="AE22" s="3">
         <v>29</v>
       </c>
-      <c r="AF22" s="1">
+      <c r="AF22" s="3">
         <v>30</v>
       </c>
-      <c r="AG22" s="8">
+      <c r="AG22" s="9">
         <v>31</v>
       </c>
-      <c r="AH22" s="1">
+      <c r="AH22" s="3">
         <v>32</v>
       </c>
-      <c r="AI22" s="1">
+      <c r="AI22" s="3">
         <v>33</v>
       </c>
-      <c r="AJ22" s="8">
+      <c r="AJ22" s="9">
         <v>34</v>
       </c>
-      <c r="AK22" s="1">
+      <c r="AK22" s="3">
         <v>35</v>
       </c>
-      <c r="AL22" s="1">
+      <c r="AL22" s="3">
         <v>36</v>
       </c>
-      <c r="AM22" s="1">
+      <c r="AM22" s="3">
         <v>37</v>
       </c>
-      <c r="AN22" s="1">
+      <c r="AN22" s="3">
         <v>38</v>
       </c>
-      <c r="AO22" s="7">
+      <c r="AO22" s="8">
         <v>39</v>
       </c>
-      <c r="AP22" s="1">
+      <c r="AP22" s="3">
         <v>40</v>
       </c>
-      <c r="AQ22" s="1">
+      <c r="AQ22" s="3">
         <v>41</v>
       </c>
-      <c r="AR22" s="1">
+      <c r="AR22" s="3">
         <v>42</v>
       </c>
-      <c r="AS22" s="1">
+      <c r="AS22" s="3">
         <v>43</v>
       </c>
-      <c r="AT22" s="1">
+      <c r="AT22" s="3">
         <v>44</v>
       </c>
-      <c r="AU22" s="1">
+      <c r="AU22" s="3">
         <v>45</v>
       </c>
-      <c r="AV22" s="1">
+      <c r="AV22" s="3">
         <v>46</v>
       </c>
-      <c r="AW22" s="11">
+      <c r="AW22" s="12">
         <v>47</v>
       </c>
-      <c r="AX22" s="1">
+      <c r="AX22" s="3">
         <v>48</v>
       </c>
-      <c r="AY22" s="1">
+      <c r="AY22" s="3">
         <v>49</v>
       </c>
-      <c r="AZ22" s="14"/>
-      <c r="BA22" s="14"/>
-      <c r="BB22" s="14"/>
-      <c r="BC22" s="14"/>
-      <c r="BD22" s="14"/>
-      <c r="BE22" s="14"/>
-      <c r="BF22" s="14"/>
-      <c r="BG22" s="14"/>
-      <c r="BH22" s="14"/>
-      <c r="BI22" s="14"/>
-      <c r="BJ22" s="14"/>
-      <c r="BK22" s="14"/>
-      <c r="BL22" s="14"/>
-      <c r="BM22" s="14"/>
-      <c r="BN22" s="14"/>
-      <c r="BO22" s="14"/>
-      <c r="BP22" s="14"/>
-      <c r="BQ22" s="1"/>
-      <c r="BR22" s="1"/>
-      <c r="BS22" s="1"/>
-      <c r="BT22" s="1"/>
-      <c r="BU22" s="1"/>
-      <c r="BV22" s="1"/>
-      <c r="BW22" s="1"/>
-      <c r="BX22" s="1"/>
-      <c r="BY22" s="1"/>
-      <c r="BZ22" s="1"/>
-      <c r="CA22" s="1"/>
-      <c r="CB22" s="1"/>
-      <c r="CC22" s="1"/>
-      <c r="CD22" s="1"/>
-      <c r="CE22" s="1"/>
-      <c r="CF22" s="1"/>
-      <c r="CG22" s="1"/>
+      <c r="AZ22" s="3"/>
+      <c r="BA22" s="3"/>
+      <c r="BB22" s="3"/>
+      <c r="BC22" s="3"/>
+      <c r="BD22" s="3"/>
+      <c r="BE22" s="3"/>
+      <c r="BF22" s="3"/>
+      <c r="BG22" s="3"/>
+      <c r="BH22" s="3"/>
+      <c r="BI22" s="3"/>
+      <c r="BJ22" s="3"/>
+      <c r="BK22" s="3"/>
+      <c r="BL22" s="3"/>
+      <c r="BM22" s="3"/>
+      <c r="BN22" s="3"/>
+      <c r="BO22" s="3"/>
+      <c r="BP22" s="3"/>
+      <c r="BQ22" s="3"/>
+      <c r="BR22" s="3"/>
+      <c r="BS22" s="3"/>
+      <c r="BT22" s="3"/>
+      <c r="BU22" s="3"/>
+      <c r="BV22" s="3"/>
+      <c r="BW22" s="3"/>
+      <c r="BX22" s="3"/>
+      <c r="BY22" s="3"/>
+      <c r="BZ22" s="3"/>
+      <c r="CA22" s="3"/>
+      <c r="CB22" s="3"/>
+      <c r="CC22" s="3"/>
+      <c r="CD22" s="3"/>
+      <c r="CE22" s="3"/>
+      <c r="CF22" s="3"/>
+      <c r="CG22" s="3"/>
     </row>
-    <row r="23">
-      <c r="A23" s="18">
+    <row r="23" ht="19.5" customHeight="1">
+      <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="3">
         <v>1</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="3">
         <v>2</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="3">
         <v>3</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="3">
         <v>4</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="3">
         <v>5</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H23" s="3">
         <v>6</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I23" s="8">
         <v>7</v>
       </c>
-      <c r="J23" s="1">
+      <c r="J23" s="3">
         <v>8</v>
       </c>
-      <c r="K23" s="1">
+      <c r="K23" s="3">
         <v>9</v>
       </c>
-      <c r="L23" s="6">
+      <c r="L23" s="7">
         <v>10</v>
       </c>
-      <c r="M23" s="6">
+      <c r="M23" s="7">
         <v>11</v>
       </c>
-      <c r="N23" s="1">
+      <c r="N23" s="3">
         <v>12</v>
       </c>
-      <c r="O23" s="1">
+      <c r="O23" s="3">
         <v>13</v>
       </c>
-      <c r="P23" s="11">
+      <c r="P23" s="12">
         <v>14</v>
       </c>
-      <c r="Q23" s="1">
+      <c r="Q23" s="3">
         <v>15</v>
       </c>
-      <c r="R23" s="11">
+      <c r="R23" s="12">
         <v>16</v>
       </c>
-      <c r="S23" s="8">
+      <c r="S23" s="9">
         <v>17</v>
       </c>
-      <c r="T23" s="1">
+      <c r="T23" s="3">
         <v>18</v>
       </c>
-      <c r="U23" s="1">
+      <c r="U23" s="3">
         <v>19</v>
       </c>
-      <c r="V23" s="5">
+      <c r="V23" s="6">
         <v>20</v>
       </c>
-      <c r="W23" s="1">
+      <c r="W23" s="3">
         <v>21</v>
       </c>
-      <c r="X23" s="1">
+      <c r="X23" s="3">
         <v>22</v>
       </c>
-      <c r="Y23" s="1">
+      <c r="Y23" s="3">
         <v>23</v>
       </c>
-      <c r="Z23" s="1">
+      <c r="Z23" s="3">
         <v>24</v>
       </c>
-      <c r="AA23" s="1">
+      <c r="AA23" s="3">
         <v>25</v>
       </c>
-      <c r="AB23" s="1">
+      <c r="AB23" s="3">
         <v>26</v>
       </c>
-      <c r="AC23" s="1">
+      <c r="AC23" s="3">
         <v>27</v>
       </c>
-      <c r="AD23" s="7">
+      <c r="AD23" s="8">
         <v>28</v>
       </c>
-      <c r="AE23" s="1">
+      <c r="AE23" s="3">
         <v>29</v>
       </c>
-      <c r="AF23" s="1">
+      <c r="AF23" s="3">
         <v>30</v>
       </c>
-      <c r="AG23" s="1">
+      <c r="AG23" s="3">
         <v>31</v>
       </c>
-      <c r="AH23" s="1">
+      <c r="AH23" s="3">
         <v>32</v>
       </c>
-      <c r="AI23" s="1">
+      <c r="AI23" s="3">
         <v>33</v>
       </c>
-      <c r="AJ23" s="1">
+      <c r="AJ23" s="3">
         <v>34</v>
       </c>
-      <c r="AK23" s="7">
+      <c r="AK23" s="8">
         <v>35</v>
       </c>
-      <c r="AL23" s="8">
+      <c r="AL23" s="9">
         <v>36</v>
       </c>
-      <c r="AM23" s="8">
+      <c r="AM23" s="9">
         <v>37</v>
       </c>
-      <c r="AN23" s="8">
+      <c r="AN23" s="9">
         <v>38</v>
       </c>
-      <c r="AO23" s="8">
+      <c r="AO23" s="9">
         <v>39</v>
       </c>
-      <c r="AP23" s="8">
+      <c r="AP23" s="9">
         <v>40</v>
       </c>
-      <c r="AQ23" s="8">
+      <c r="AQ23" s="9">
         <v>41</v>
       </c>
-      <c r="AR23" s="8">
+      <c r="AR23" s="9">
         <v>42</v>
       </c>
-      <c r="AS23" s="8">
+      <c r="AS23" s="9">
         <v>43</v>
       </c>
-      <c r="AT23" s="8">
+      <c r="AT23" s="9">
         <v>44</v>
       </c>
-      <c r="AU23" s="8">
+      <c r="AU23" s="9">
         <v>45</v>
       </c>
-      <c r="AV23" s="8">
+      <c r="AV23" s="9">
         <v>46</v>
       </c>
-      <c r="AW23" s="8">
+      <c r="AW23" s="9">
         <v>47</v>
       </c>
-      <c r="AX23" s="5">
+      <c r="AX23" s="6">
         <v>48</v>
       </c>
-      <c r="AY23" s="8">
+      <c r="AY23" s="9">
         <v>49</v>
       </c>
-      <c r="AZ23" s="8">
+      <c r="AZ23" s="9">
         <v>50</v>
       </c>
-      <c r="BA23" s="8">
+      <c r="BA23" s="9">
         <v>51</v>
       </c>
-      <c r="BB23" s="8">
+      <c r="BB23" s="9">
         <v>52</v>
       </c>
-      <c r="BC23" s="16">
+      <c r="BC23" s="15">
         <v>53</v>
       </c>
-      <c r="BD23" s="6">
+      <c r="BD23" s="7">
         <v>54</v>
       </c>
       <c r="BE23" s="13">
@@ -5297,645 +5360,1558 @@
       <c r="BF23" s="13">
         <v>22</v>
       </c>
-      <c r="BG23" s="1"/>
-      <c r="BH23" s="1"/>
-      <c r="BI23" s="1"/>
-      <c r="BJ23" s="1"/>
-      <c r="BK23" s="1"/>
-      <c r="BL23" s="1"/>
-      <c r="BM23" s="1"/>
-      <c r="BN23" s="1"/>
-      <c r="BO23" s="1"/>
-      <c r="BP23" s="1"/>
-      <c r="BQ23" s="1"/>
-      <c r="BR23" s="1"/>
-      <c r="BS23" s="1"/>
-      <c r="BT23" s="1"/>
-      <c r="BU23" s="1"/>
-      <c r="BV23" s="1"/>
-      <c r="BW23" s="1"/>
-      <c r="BX23" s="1"/>
-      <c r="BY23" s="1"/>
-      <c r="BZ23" s="1"/>
-      <c r="CA23" s="1"/>
-      <c r="CB23" s="1"/>
-      <c r="CC23" s="1"/>
-      <c r="CD23" s="1"/>
-      <c r="CE23" s="1"/>
-      <c r="CF23" s="1"/>
-      <c r="CG23" s="1"/>
+      <c r="BG23" s="3"/>
+      <c r="BH23" s="3"/>
+      <c r="BI23" s="3"/>
+      <c r="BJ23" s="3"/>
+      <c r="BK23" s="3"/>
+      <c r="BL23" s="3"/>
+      <c r="BM23" s="3"/>
+      <c r="BN23" s="3"/>
+      <c r="BO23" s="3"/>
+      <c r="BP23" s="3"/>
+      <c r="BQ23" s="3"/>
+      <c r="BR23" s="3"/>
+      <c r="BS23" s="3"/>
+      <c r="BT23" s="3"/>
+      <c r="BU23" s="3"/>
+      <c r="BV23" s="3"/>
+      <c r="BW23" s="3"/>
+      <c r="BX23" s="3"/>
+      <c r="BY23" s="3"/>
+      <c r="BZ23" s="3"/>
+      <c r="CA23" s="3"/>
+      <c r="CB23" s="3"/>
+      <c r="CC23" s="3"/>
+      <c r="CD23" s="3"/>
+      <c r="CE23" s="3"/>
+      <c r="CF23" s="3"/>
+      <c r="CG23" s="3"/>
     </row>
-    <row r="24">
-      <c r="A24" s="19">
+    <row r="24" ht="19.5" customHeight="1">
+      <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="16">
+      <c r="C24" s="15">
         <v>1</v>
       </c>
-      <c r="D24" s="21">
+      <c r="D24" s="17">
         <v>2</v>
       </c>
-      <c r="E24" s="22">
+      <c r="E24" s="3">
         <v>3</v>
       </c>
-      <c r="F24" s="16">
+      <c r="F24" s="15">
         <v>4</v>
       </c>
-      <c r="G24" s="23">
+      <c r="G24" s="18">
         <v>5</v>
       </c>
-      <c r="H24" s="24">
+      <c r="H24" s="19">
         <v>6</v>
       </c>
-      <c r="I24" s="17">
+      <c r="I24" s="16">
         <v>7</v>
       </c>
-      <c r="J24" s="24">
+      <c r="J24" s="19">
         <v>8</v>
       </c>
-      <c r="K24" s="24">
+      <c r="K24" s="19">
         <v>9</v>
       </c>
-      <c r="L24" s="25">
+      <c r="L24" s="20">
         <v>10</v>
       </c>
-      <c r="M24" s="24">
+      <c r="M24" s="19">
         <v>11</v>
       </c>
-      <c r="N24" s="16">
+      <c r="N24" s="15">
         <v>12</v>
       </c>
-      <c r="O24" s="16">
+      <c r="O24" s="15">
         <v>13</v>
       </c>
-      <c r="P24" s="23">
+      <c r="P24" s="18">
         <v>14</v>
       </c>
-      <c r="Q24" s="24">
+      <c r="Q24" s="19">
         <v>15</v>
       </c>
-      <c r="R24" s="25">
+      <c r="R24" s="20">
         <v>16</v>
       </c>
-      <c r="S24" s="23">
+      <c r="S24" s="18">
         <v>17</v>
       </c>
-      <c r="T24" s="17">
+      <c r="T24" s="16">
         <v>18</v>
       </c>
-      <c r="U24" s="24">
+      <c r="U24" s="19">
         <v>19</v>
       </c>
-      <c r="V24" s="17">
+      <c r="V24" s="16">
         <v>20</v>
       </c>
-      <c r="W24" s="25">
+      <c r="W24" s="20">
         <v>21</v>
       </c>
-      <c r="X24" s="22">
+      <c r="X24" s="3">
         <v>22</v>
       </c>
-      <c r="Y24" s="24">
+      <c r="Y24" s="19">
         <v>23</v>
       </c>
-      <c r="Z24" s="24">
+      <c r="Z24" s="19">
         <v>24</v>
       </c>
-      <c r="AA24" s="17">
+      <c r="AA24" s="16">
         <v>25</v>
       </c>
-      <c r="AB24" s="22">
+      <c r="AB24" s="3">
         <v>26</v>
       </c>
-      <c r="AC24" s="25">
+      <c r="AC24" s="20">
         <v>27</v>
       </c>
-      <c r="AD24" s="23">
+      <c r="AD24" s="18">
         <v>28</v>
       </c>
-      <c r="AE24" s="22">
+      <c r="AE24" s="3">
         <v>29</v>
       </c>
-      <c r="AF24" s="17">
+      <c r="AF24" s="16">
         <v>30</v>
       </c>
-      <c r="AG24" s="24">
+      <c r="AG24" s="19">
         <v>31</v>
       </c>
-      <c r="AH24" s="24">
+      <c r="AH24" s="19">
         <v>32</v>
       </c>
-      <c r="AI24" s="17">
+      <c r="AI24" s="16">
         <v>33</v>
       </c>
-      <c r="AJ24" s="17">
+      <c r="AJ24" s="16">
         <v>34</v>
       </c>
-      <c r="AK24" s="23">
+      <c r="AK24" s="18">
         <v>35</v>
       </c>
-      <c r="AL24" s="17">
+      <c r="AL24" s="16">
         <v>36</v>
       </c>
-      <c r="AM24" s="16">
+      <c r="AM24" s="15">
         <v>37</v>
       </c>
-      <c r="AN24" s="23">
+      <c r="AN24" s="18">
         <v>38</v>
       </c>
-      <c r="AO24" s="17">
+      <c r="AO24" s="16">
         <v>39</v>
       </c>
-      <c r="AP24" s="22">
+      <c r="AP24" s="3">
         <v>40</v>
       </c>
-      <c r="AQ24" s="22">
+      <c r="AQ24" s="3">
         <v>41</v>
       </c>
-      <c r="AR24" s="16">
+      <c r="AR24" s="15">
         <v>42</v>
       </c>
-      <c r="AS24" s="16">
+      <c r="AS24" s="15">
         <v>43</v>
       </c>
-      <c r="AT24" s="16">
+      <c r="AT24" s="15">
         <v>44</v>
       </c>
-      <c r="AU24" s="16">
+      <c r="AU24" s="15">
         <v>45</v>
       </c>
-      <c r="AV24" s="16">
+      <c r="AV24" s="15">
         <v>46</v>
       </c>
-      <c r="AW24" s="24">
+      <c r="AW24" s="19">
         <v>47</v>
       </c>
-      <c r="AX24" s="22">
+      <c r="AX24" s="3">
         <v>48</v>
       </c>
       <c r="AY24" s="13">
         <v>23</v>
       </c>
-      <c r="AZ24" s="14"/>
-      <c r="BA24" s="14"/>
-      <c r="BB24" s="14"/>
-      <c r="BC24" s="14"/>
-      <c r="BD24" s="14"/>
-      <c r="BE24" s="14"/>
-      <c r="BF24" s="14"/>
-      <c r="BG24" s="14"/>
-      <c r="BH24" s="14"/>
-      <c r="BI24" s="14"/>
-      <c r="BJ24" s="14"/>
-      <c r="BK24" s="14"/>
-      <c r="BL24" s="14"/>
-      <c r="BM24" s="14"/>
-      <c r="BN24" s="14"/>
-      <c r="BO24" s="14"/>
-      <c r="BP24" s="1"/>
-      <c r="BQ24" s="1"/>
-      <c r="BR24" s="1"/>
-      <c r="BS24" s="1"/>
-      <c r="BT24" s="1"/>
-      <c r="BU24" s="1"/>
-      <c r="BV24" s="1"/>
-      <c r="BW24" s="1"/>
-      <c r="BX24" s="1"/>
-      <c r="BY24" s="1"/>
-      <c r="BZ24" s="1"/>
-      <c r="CA24" s="1"/>
-      <c r="CB24" s="1"/>
-      <c r="CC24" s="1"/>
-      <c r="CD24" s="1"/>
-      <c r="CE24" s="1"/>
-      <c r="CF24" s="1"/>
-      <c r="CG24" s="1"/>
+      <c r="AZ24" s="3"/>
+      <c r="BA24" s="3"/>
+      <c r="BB24" s="3"/>
+      <c r="BC24" s="3"/>
+      <c r="BD24" s="3"/>
+      <c r="BE24" s="3"/>
+      <c r="BF24" s="3"/>
+      <c r="BG24" s="3"/>
+      <c r="BH24" s="3"/>
+      <c r="BI24" s="3"/>
+      <c r="BJ24" s="3"/>
+      <c r="BK24" s="3"/>
+      <c r="BL24" s="3"/>
+      <c r="BM24" s="3"/>
+      <c r="BN24" s="3"/>
+      <c r="BO24" s="3"/>
+      <c r="BP24" s="3"/>
+      <c r="BQ24" s="3"/>
+      <c r="BR24" s="3"/>
+      <c r="BS24" s="3"/>
+      <c r="BT24" s="3"/>
+      <c r="BU24" s="3"/>
+      <c r="BV24" s="3"/>
+      <c r="BW24" s="3"/>
+      <c r="BX24" s="3"/>
+      <c r="BY24" s="3"/>
+      <c r="BZ24" s="3"/>
+      <c r="CA24" s="3"/>
+      <c r="CB24" s="3"/>
+      <c r="CC24" s="3"/>
+      <c r="CD24" s="3"/>
+      <c r="CE24" s="3"/>
+      <c r="CF24" s="3"/>
+      <c r="CG24" s="3"/>
     </row>
-    <row r="25">
-      <c r="A25" s="19">
+    <row r="25" ht="19.5" customHeight="1">
+      <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="24">
+      <c r="C25" s="19">
         <v>1</v>
       </c>
-      <c r="D25" s="25">
+      <c r="D25" s="20">
         <v>2</v>
       </c>
-      <c r="E25" s="17">
+      <c r="E25" s="16">
         <v>3</v>
       </c>
-      <c r="F25" s="24">
+      <c r="F25" s="19">
         <v>4</v>
       </c>
-      <c r="G25" s="23">
+      <c r="G25" s="18">
         <v>5</v>
       </c>
-      <c r="H25" s="22">
+      <c r="H25" s="3">
         <v>6</v>
       </c>
-      <c r="I25" s="23">
+      <c r="I25" s="18">
         <v>7</v>
       </c>
-      <c r="J25" s="16">
+      <c r="J25" s="15">
         <v>8</v>
       </c>
-      <c r="K25" s="22">
+      <c r="K25" s="3">
         <v>9</v>
       </c>
-      <c r="L25" s="22">
+      <c r="L25" s="3">
         <v>10</v>
       </c>
-      <c r="M25" s="23">
+      <c r="M25" s="18">
         <v>11</v>
       </c>
-      <c r="N25" s="17">
+      <c r="N25" s="16">
         <v>12</v>
       </c>
-      <c r="O25" s="22">
+      <c r="O25" s="3">
         <v>13</v>
       </c>
-      <c r="P25" s="25">
+      <c r="P25" s="20">
         <v>14</v>
       </c>
-      <c r="Q25" s="22">
+      <c r="Q25" s="3">
         <v>15</v>
       </c>
-      <c r="R25" s="23">
+      <c r="R25" s="18">
         <v>16</v>
       </c>
-      <c r="S25" s="17">
+      <c r="S25" s="16">
         <v>17</v>
       </c>
-      <c r="T25" s="24">
+      <c r="T25" s="19">
         <v>18</v>
       </c>
-      <c r="U25" s="22">
+      <c r="U25" s="3">
         <v>19</v>
       </c>
-      <c r="V25" s="16">
+      <c r="V25" s="15">
         <v>20</v>
       </c>
-      <c r="W25" s="22">
+      <c r="W25" s="3">
         <v>21</v>
       </c>
-      <c r="X25" s="24">
+      <c r="X25" s="19">
         <v>22</v>
       </c>
-      <c r="Y25" s="23">
+      <c r="Y25" s="18">
         <v>23</v>
       </c>
-      <c r="Z25" s="24">
+      <c r="Z25" s="19">
         <v>24</v>
       </c>
-      <c r="AA25" s="24">
+      <c r="AA25" s="19">
         <v>25</v>
       </c>
-      <c r="AB25" s="22">
+      <c r="AB25" s="3">
         <v>26</v>
       </c>
-      <c r="AC25" s="22">
+      <c r="AC25" s="3">
         <v>27</v>
       </c>
-      <c r="AD25" s="24">
+      <c r="AD25" s="19">
         <v>28</v>
       </c>
-      <c r="AE25" s="17">
+      <c r="AE25" s="16">
         <v>29</v>
       </c>
-      <c r="AF25" s="23">
+      <c r="AF25" s="18">
         <v>30</v>
       </c>
-      <c r="AG25" s="22">
+      <c r="AG25" s="3">
         <v>31</v>
       </c>
-      <c r="AH25" s="24">
+      <c r="AH25" s="19">
         <v>32</v>
       </c>
-      <c r="AI25" s="24">
+      <c r="AI25" s="19">
         <v>33</v>
       </c>
-      <c r="AJ25" s="24">
+      <c r="AJ25" s="19">
         <v>34</v>
       </c>
-      <c r="AK25" s="24">
+      <c r="AK25" s="19">
         <v>35</v>
       </c>
-      <c r="AL25" s="16">
+      <c r="AL25" s="15">
         <v>36</v>
       </c>
-      <c r="AM25" s="17">
+      <c r="AM25" s="16">
         <v>37</v>
       </c>
-      <c r="AN25" s="17">
+      <c r="AN25" s="16">
         <v>38</v>
       </c>
-      <c r="AO25" s="22">
+      <c r="AO25" s="3">
         <v>39</v>
       </c>
-      <c r="AP25" s="24">
+      <c r="AP25" s="19">
         <v>40</v>
       </c>
-      <c r="AQ25" s="16">
+      <c r="AQ25" s="15">
         <v>41</v>
       </c>
-      <c r="AR25" s="16">
+      <c r="AR25" s="15">
         <v>42</v>
       </c>
-      <c r="AS25" s="14"/>
-      <c r="AT25" s="14"/>
-      <c r="AU25" s="14"/>
-      <c r="AV25" s="14"/>
-      <c r="AW25" s="14"/>
-      <c r="AX25" s="14"/>
-      <c r="AY25" s="14"/>
-      <c r="AZ25" s="14"/>
-      <c r="BA25" s="14"/>
-      <c r="BB25" s="14"/>
-      <c r="BC25" s="14"/>
-      <c r="BD25" s="14"/>
-      <c r="BE25" s="14"/>
-      <c r="BF25" s="14"/>
-      <c r="BG25" s="14"/>
-      <c r="BH25" s="14"/>
-      <c r="BI25" s="14"/>
-      <c r="BJ25" s="14"/>
-      <c r="BK25" s="14"/>
-      <c r="BL25" s="14"/>
-      <c r="BM25" s="14"/>
-      <c r="BN25" s="14"/>
-      <c r="BO25" s="14"/>
-      <c r="BP25" s="1"/>
-      <c r="BQ25" s="1"/>
-      <c r="BR25" s="1"/>
-      <c r="BS25" s="1"/>
-      <c r="BT25" s="1"/>
-      <c r="BU25" s="1"/>
-      <c r="BV25" s="1"/>
-      <c r="BW25" s="1"/>
-      <c r="BX25" s="1"/>
-      <c r="BY25" s="1"/>
-      <c r="BZ25" s="1"/>
-      <c r="CA25" s="1"/>
-      <c r="CB25" s="1"/>
-      <c r="CC25" s="1"/>
-      <c r="CD25" s="1"/>
-      <c r="CE25" s="1"/>
-      <c r="CF25" s="1"/>
-      <c r="CG25" s="1"/>
+      <c r="AS25" s="3"/>
+      <c r="AT25" s="3"/>
+      <c r="AU25" s="3"/>
+      <c r="AV25" s="3"/>
+      <c r="AW25" s="3"/>
+      <c r="AX25" s="3"/>
+      <c r="AY25" s="3"/>
+      <c r="AZ25" s="3"/>
+      <c r="BA25" s="3"/>
+      <c r="BB25" s="3"/>
+      <c r="BC25" s="3"/>
+      <c r="BD25" s="3"/>
+      <c r="BE25" s="3"/>
+      <c r="BF25" s="3"/>
+      <c r="BG25" s="3"/>
+      <c r="BH25" s="3"/>
+      <c r="BI25" s="3"/>
+      <c r="BJ25" s="3"/>
+      <c r="BK25" s="3"/>
+      <c r="BL25" s="3"/>
+      <c r="BM25" s="3"/>
+      <c r="BN25" s="3"/>
+      <c r="BO25" s="3"/>
+      <c r="BP25" s="3"/>
+      <c r="BQ25" s="3"/>
+      <c r="BR25" s="3"/>
+      <c r="BS25" s="3"/>
+      <c r="BT25" s="3"/>
+      <c r="BU25" s="3"/>
+      <c r="BV25" s="3"/>
+      <c r="BW25" s="3"/>
+      <c r="BX25" s="3"/>
+      <c r="BY25" s="3"/>
+      <c r="BZ25" s="3"/>
+      <c r="CA25" s="3"/>
+      <c r="CB25" s="3"/>
+      <c r="CC25" s="3"/>
+      <c r="CD25" s="3"/>
+      <c r="CE25" s="3"/>
+      <c r="CF25" s="3"/>
+      <c r="CG25" s="3"/>
     </row>
-    <row r="26">
-      <c r="A26" s="19">
+    <row r="26" ht="19.5" customHeight="1">
+      <c r="A26" s="3">
         <v>25</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="24">
+      <c r="C26" s="19">
         <v>1</v>
       </c>
-      <c r="D26" s="25">
+      <c r="D26" s="20">
         <v>2</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="3">
         <v>3</v>
       </c>
-      <c r="F26" s="24">
+      <c r="F26" s="19">
         <v>4</v>
       </c>
-      <c r="G26" s="16">
+      <c r="G26" s="15">
         <v>5</v>
       </c>
-      <c r="H26" s="26">
+      <c r="H26" s="5">
         <v>6</v>
       </c>
-      <c r="I26" s="24">
+      <c r="I26" s="19">
         <v>7</v>
       </c>
-      <c r="J26" s="26">
+      <c r="J26" s="5">
         <v>8</v>
       </c>
-      <c r="K26" s="17">
+      <c r="K26" s="16">
         <v>9</v>
       </c>
-      <c r="L26" s="24">
+      <c r="L26" s="19">
         <v>10</v>
       </c>
-      <c r="M26" s="26">
+      <c r="M26" s="5">
         <v>11</v>
       </c>
-      <c r="N26" s="24">
+      <c r="N26" s="19">
         <v>12</v>
       </c>
-      <c r="O26" s="16">
+      <c r="O26" s="15">
         <v>13</v>
       </c>
-      <c r="P26" s="17">
+      <c r="P26" s="16">
         <v>14</v>
       </c>
-      <c r="Q26" s="17">
+      <c r="Q26" s="16">
         <v>15</v>
       </c>
-      <c r="R26" s="26">
+      <c r="R26" s="5">
         <v>16</v>
       </c>
-      <c r="S26" s="26">
+      <c r="S26" s="5">
         <v>17</v>
       </c>
-      <c r="T26" s="23">
+      <c r="T26" s="18">
         <v>18</v>
       </c>
-      <c r="U26" s="17">
+      <c r="U26" s="16">
         <v>19</v>
       </c>
-      <c r="V26" s="26">
+      <c r="V26" s="5">
         <v>20</v>
       </c>
-      <c r="W26" s="26">
+      <c r="W26" s="5">
         <v>21</v>
       </c>
-      <c r="X26" s="26">
+      <c r="X26" s="5">
         <v>22</v>
       </c>
-      <c r="Y26" s="23">
+      <c r="Y26" s="18">
         <v>23</v>
       </c>
-      <c r="Z26" s="16">
+      <c r="Z26" s="15">
         <v>24</v>
       </c>
-      <c r="AA26" s="17">
+      <c r="AA26" s="16">
         <v>25</v>
       </c>
-      <c r="AB26" s="17">
+      <c r="AB26" s="16">
         <v>26</v>
       </c>
-      <c r="AC26" s="17">
+      <c r="AC26" s="16">
         <v>27</v>
       </c>
-      <c r="AD26" s="17">
+      <c r="AD26" s="16">
         <v>28</v>
       </c>
-      <c r="AE26" s="26">
+      <c r="AE26" s="5">
         <v>29</v>
       </c>
-      <c r="AF26" s="26">
+      <c r="AF26" s="5">
         <v>30</v>
       </c>
-      <c r="AG26" s="17">
+      <c r="AG26" s="16">
         <v>31</v>
       </c>
-      <c r="AH26" s="17">
+      <c r="AH26" s="16">
         <v>32</v>
       </c>
-      <c r="AI26" s="17">
+      <c r="AI26" s="16">
         <v>33</v>
       </c>
-      <c r="AJ26" s="17">
+      <c r="AJ26" s="16">
         <v>34</v>
       </c>
-      <c r="AK26" s="17">
+      <c r="AK26" s="16">
         <v>35</v>
       </c>
-      <c r="AL26" s="17">
+      <c r="AL26" s="16">
         <v>36</v>
       </c>
-      <c r="AM26" s="17">
+      <c r="AM26" s="16">
         <v>37</v>
       </c>
-      <c r="AN26" s="17">
+      <c r="AN26" s="16">
         <v>38</v>
       </c>
-      <c r="AO26" s="8">
+      <c r="AO26" s="9">
         <v>39</v>
       </c>
-      <c r="AP26" s="8">
+      <c r="AP26" s="9">
         <v>40</v>
       </c>
-      <c r="AQ26" s="8">
+      <c r="AQ26" s="9">
         <v>41</v>
       </c>
-      <c r="AR26" s="8">
+      <c r="AR26" s="9">
         <v>42</v>
       </c>
-      <c r="AS26" s="16">
+      <c r="AS26" s="15">
         <v>43</v>
       </c>
-      <c r="AT26" s="16">
+      <c r="AT26" s="15">
         <v>44</v>
       </c>
-      <c r="AU26" s="6">
+      <c r="AU26" s="7">
         <v>45</v>
       </c>
-      <c r="AV26" s="6">
+      <c r="AV26" s="7">
         <v>46</v>
       </c>
-      <c r="AW26" s="14"/>
-      <c r="AX26" s="14"/>
-      <c r="AY26" s="14"/>
-      <c r="AZ26" s="14"/>
-      <c r="BA26" s="14"/>
-      <c r="BB26" s="14"/>
-      <c r="BC26" s="14"/>
-      <c r="BD26" s="14"/>
-      <c r="BE26" s="14"/>
-      <c r="BF26" s="14"/>
-      <c r="BG26" s="14"/>
-      <c r="BH26" s="14"/>
-      <c r="BI26" s="14"/>
-      <c r="BJ26" s="14"/>
-      <c r="BK26" s="14"/>
-      <c r="BL26" s="14"/>
-      <c r="BM26" s="14"/>
-      <c r="BN26" s="14"/>
-      <c r="BO26" s="14"/>
-      <c r="BP26" s="1"/>
-      <c r="BQ26" s="1"/>
-      <c r="BR26" s="1"/>
-      <c r="BS26" s="1"/>
-      <c r="BT26" s="1"/>
-      <c r="BU26" s="1"/>
-      <c r="BV26" s="1"/>
-      <c r="BW26" s="1"/>
-      <c r="BX26" s="1"/>
-      <c r="BY26" s="1"/>
-      <c r="BZ26" s="1"/>
-      <c r="CA26" s="1"/>
-      <c r="CB26" s="1"/>
-      <c r="CC26" s="1"/>
-      <c r="CD26" s="1"/>
-      <c r="CE26" s="1"/>
-      <c r="CF26" s="1"/>
-      <c r="CG26" s="1"/>
+      <c r="AW26" s="3"/>
+      <c r="AX26" s="3"/>
+      <c r="AY26" s="3"/>
+      <c r="AZ26" s="3"/>
+      <c r="BA26" s="3"/>
+      <c r="BB26" s="3"/>
+      <c r="BC26" s="3"/>
+      <c r="BD26" s="3"/>
+      <c r="BE26" s="3"/>
+      <c r="BF26" s="3"/>
+      <c r="BG26" s="3"/>
+      <c r="BH26" s="3"/>
+      <c r="BI26" s="3"/>
+      <c r="BJ26" s="3"/>
+      <c r="BK26" s="3"/>
+      <c r="BL26" s="3"/>
+      <c r="BM26" s="3"/>
+      <c r="BN26" s="3"/>
+      <c r="BO26" s="3"/>
+      <c r="BP26" s="3"/>
+      <c r="BQ26" s="3"/>
+      <c r="BR26" s="3"/>
+      <c r="BS26" s="3"/>
+      <c r="BT26" s="3"/>
+      <c r="BU26" s="3"/>
+      <c r="BV26" s="3"/>
+      <c r="BW26" s="3"/>
+      <c r="BX26" s="3"/>
+      <c r="BY26" s="3"/>
+      <c r="BZ26" s="3"/>
+      <c r="CA26" s="3"/>
+      <c r="CB26" s="3"/>
+      <c r="CC26" s="3"/>
+      <c r="CD26" s="3"/>
+      <c r="CE26" s="3"/>
+      <c r="CF26" s="3"/>
+      <c r="CG26" s="3"/>
     </row>
-    <row r="28">
-      <c r="B28" s="27" t="s">
+    <row r="27" ht="19.5" customHeight="1">
+      <c r="A27" s="1"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
+      <c r="AA27" s="1"/>
+      <c r="AB27" s="1"/>
+      <c r="AC27" s="1"/>
+      <c r="AD27" s="1"/>
+      <c r="AE27" s="1"/>
+      <c r="AF27" s="1"/>
+      <c r="AG27" s="1"/>
+      <c r="AH27" s="1"/>
+      <c r="AI27" s="1"/>
+      <c r="AJ27" s="1"/>
+      <c r="AK27" s="1"/>
+      <c r="AL27" s="1"/>
+      <c r="AM27" s="1"/>
+      <c r="AN27" s="1"/>
+      <c r="AO27" s="1"/>
+      <c r="AP27" s="1"/>
+      <c r="AQ27" s="1"/>
+      <c r="AR27" s="1"/>
+      <c r="AS27" s="1"/>
+      <c r="AT27" s="1"/>
+      <c r="AU27" s="1"/>
+      <c r="AV27" s="1"/>
+      <c r="AW27" s="1"/>
+      <c r="AX27" s="1"/>
+      <c r="AY27" s="1"/>
+      <c r="AZ27" s="1"/>
+      <c r="BA27" s="1"/>
+      <c r="BB27" s="1"/>
+      <c r="BC27" s="1"/>
+      <c r="BD27" s="1"/>
+      <c r="BE27" s="1"/>
+      <c r="BF27" s="1"/>
+      <c r="BG27" s="1"/>
+      <c r="BH27" s="1"/>
+      <c r="BI27" s="1"/>
+      <c r="BJ27" s="1"/>
+      <c r="BK27" s="1"/>
+      <c r="BL27" s="1"/>
+      <c r="BM27" s="1"/>
+      <c r="BN27" s="1"/>
+      <c r="BO27" s="1"/>
+      <c r="BP27" s="1"/>
+      <c r="BQ27" s="1"/>
+      <c r="BR27" s="1"/>
+      <c r="BS27" s="1"/>
+      <c r="BT27" s="1"/>
+      <c r="BU27" s="1"/>
+      <c r="BV27" s="1"/>
+      <c r="BW27" s="1"/>
+      <c r="BX27" s="1"/>
+      <c r="BY27" s="1"/>
+      <c r="BZ27" s="1"/>
+      <c r="CA27" s="1"/>
+      <c r="CB27" s="1"/>
+      <c r="CC27" s="1"/>
+      <c r="CD27" s="1"/>
+      <c r="CE27" s="1"/>
+      <c r="CF27" s="1"/>
+      <c r="CG27" s="1"/>
+    </row>
+    <row r="28" ht="19.5" customHeight="1">
+      <c r="A28" s="1"/>
+      <c r="B28" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="15"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1"/>
+      <c r="AA28" s="1"/>
+      <c r="AB28" s="1"/>
+      <c r="AC28" s="1"/>
+      <c r="AD28" s="1"/>
+      <c r="AE28" s="1"/>
+      <c r="AF28" s="1"/>
+      <c r="AG28" s="1"/>
+      <c r="AH28" s="1"/>
+      <c r="AI28" s="1"/>
+      <c r="AJ28" s="1"/>
+      <c r="AK28" s="1"/>
+      <c r="AL28" s="1"/>
+      <c r="AM28" s="1"/>
+      <c r="AN28" s="1"/>
+      <c r="AO28" s="1"/>
+      <c r="AP28" s="1"/>
+      <c r="AQ28" s="1"/>
+      <c r="AR28" s="1"/>
+      <c r="AS28" s="1"/>
+      <c r="AT28" s="1"/>
+      <c r="AU28" s="1"/>
+      <c r="AV28" s="1"/>
+      <c r="AW28" s="1"/>
+      <c r="AX28" s="1"/>
+      <c r="AY28" s="1"/>
+      <c r="AZ28" s="1"/>
+      <c r="BA28" s="1"/>
+      <c r="BB28" s="1"/>
+      <c r="BC28" s="1"/>
+      <c r="BD28" s="1"/>
+      <c r="BE28" s="1"/>
+      <c r="BF28" s="1"/>
+      <c r="BG28" s="1"/>
+      <c r="BH28" s="1"/>
+      <c r="BI28" s="1"/>
+      <c r="BJ28" s="1"/>
+      <c r="BK28" s="1"/>
+      <c r="BL28" s="1"/>
+      <c r="BM28" s="1"/>
+      <c r="BN28" s="1"/>
+      <c r="BO28" s="1"/>
+      <c r="BP28" s="1"/>
+      <c r="BQ28" s="1"/>
+      <c r="BR28" s="1"/>
+      <c r="BS28" s="1"/>
+      <c r="BT28" s="1"/>
+      <c r="BU28" s="1"/>
+      <c r="BV28" s="1"/>
+      <c r="BW28" s="1"/>
+      <c r="BX28" s="1"/>
+      <c r="BY28" s="1"/>
+      <c r="BZ28" s="1"/>
+      <c r="CA28" s="1"/>
+      <c r="CB28" s="1"/>
+      <c r="CC28" s="1"/>
+      <c r="CD28" s="1"/>
+      <c r="CE28" s="1"/>
+      <c r="CF28" s="1"/>
+      <c r="CG28" s="1"/>
     </row>
-    <row r="29">
-      <c r="A29" s="28"/>
-      <c r="B29" s="27" t="s">
+    <row r="29" ht="19.5" customHeight="1">
+      <c r="A29" s="22"/>
+      <c r="B29" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="29"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1"/>
+      <c r="AA29" s="1"/>
+      <c r="AB29" s="1"/>
+      <c r="AC29" s="1"/>
+      <c r="AD29" s="1"/>
+      <c r="AE29" s="1"/>
+      <c r="AF29" s="1"/>
+      <c r="AG29" s="1"/>
+      <c r="AH29" s="1"/>
+      <c r="AI29" s="1"/>
+      <c r="AJ29" s="1"/>
+      <c r="AK29" s="1"/>
+      <c r="AL29" s="1"/>
+      <c r="AM29" s="1"/>
+      <c r="AN29" s="1"/>
+      <c r="AO29" s="1"/>
+      <c r="AP29" s="1"/>
+      <c r="AQ29" s="1"/>
+      <c r="AR29" s="1"/>
+      <c r="AS29" s="1"/>
+      <c r="AT29" s="1"/>
+      <c r="AU29" s="1"/>
+      <c r="AV29" s="1"/>
+      <c r="AW29" s="1"/>
+      <c r="AX29" s="1"/>
+      <c r="AY29" s="1"/>
+      <c r="AZ29" s="1"/>
+      <c r="BA29" s="1"/>
+      <c r="BB29" s="1"/>
+      <c r="BC29" s="1"/>
+      <c r="BD29" s="1"/>
+      <c r="BE29" s="1"/>
+      <c r="BF29" s="1"/>
+      <c r="BG29" s="1"/>
+      <c r="BH29" s="1"/>
+      <c r="BI29" s="1"/>
+      <c r="BJ29" s="1"/>
+      <c r="BK29" s="1"/>
+      <c r="BL29" s="1"/>
+      <c r="BM29" s="1"/>
+      <c r="BN29" s="1"/>
+      <c r="BO29" s="1"/>
+      <c r="BP29" s="1"/>
+      <c r="BQ29" s="1"/>
+      <c r="BR29" s="1"/>
+      <c r="BS29" s="1"/>
+      <c r="BT29" s="1"/>
+      <c r="BU29" s="1"/>
+      <c r="BV29" s="1"/>
+      <c r="BW29" s="1"/>
+      <c r="BX29" s="1"/>
+      <c r="BY29" s="1"/>
+      <c r="BZ29" s="1"/>
+      <c r="CA29" s="1"/>
+      <c r="CB29" s="1"/>
+      <c r="CC29" s="1"/>
+      <c r="CD29" s="1"/>
+      <c r="CE29" s="1"/>
+      <c r="CF29" s="1"/>
+      <c r="CG29" s="1"/>
     </row>
-    <row r="30">
-      <c r="A30" s="30"/>
-      <c r="B30" s="31" t="s">
+    <row r="30" ht="19.5" customHeight="1">
+      <c r="A30" s="24"/>
+      <c r="B30" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D30" s="15"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="1"/>
+      <c r="AA30" s="1"/>
+      <c r="AB30" s="1"/>
+      <c r="AC30" s="1"/>
+      <c r="AD30" s="1"/>
+      <c r="AE30" s="1"/>
+      <c r="AF30" s="1"/>
+      <c r="AG30" s="1"/>
+      <c r="AH30" s="1"/>
+      <c r="AI30" s="1"/>
+      <c r="AJ30" s="1"/>
+      <c r="AK30" s="1"/>
+      <c r="AL30" s="1"/>
+      <c r="AM30" s="1"/>
+      <c r="AN30" s="1"/>
+      <c r="AO30" s="1"/>
+      <c r="AP30" s="1"/>
+      <c r="AQ30" s="1"/>
+      <c r="AR30" s="1"/>
+      <c r="AS30" s="1"/>
+      <c r="AT30" s="1"/>
+      <c r="AU30" s="1"/>
+      <c r="AV30" s="1"/>
+      <c r="AW30" s="1"/>
+      <c r="AX30" s="1"/>
+      <c r="AY30" s="1"/>
+      <c r="AZ30" s="1"/>
+      <c r="BA30" s="1"/>
+      <c r="BB30" s="1"/>
+      <c r="BC30" s="1"/>
+      <c r="BD30" s="1"/>
+      <c r="BE30" s="1"/>
+      <c r="BF30" s="1"/>
+      <c r="BG30" s="1"/>
+      <c r="BH30" s="1"/>
+      <c r="BI30" s="1"/>
+      <c r="BJ30" s="1"/>
+      <c r="BK30" s="1"/>
+      <c r="BL30" s="1"/>
+      <c r="BM30" s="1"/>
+      <c r="BN30" s="1"/>
+      <c r="BO30" s="1"/>
+      <c r="BP30" s="1"/>
+      <c r="BQ30" s="1"/>
+      <c r="BR30" s="1"/>
+      <c r="BS30" s="1"/>
+      <c r="BT30" s="1"/>
+      <c r="BU30" s="1"/>
+      <c r="BV30" s="1"/>
+      <c r="BW30" s="1"/>
+      <c r="BX30" s="1"/>
+      <c r="BY30" s="1"/>
+      <c r="BZ30" s="1"/>
+      <c r="CA30" s="1"/>
+      <c r="CB30" s="1"/>
+      <c r="CC30" s="1"/>
+      <c r="CD30" s="1"/>
+      <c r="CE30" s="1"/>
+      <c r="CF30" s="1"/>
+      <c r="CG30" s="1"/>
     </row>
-    <row r="31">
-      <c r="A31" s="32"/>
-      <c r="B31" s="33" t="s">
+    <row r="31" ht="19.5" customHeight="1">
+      <c r="A31" s="26"/>
+      <c r="B31" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D31" s="15"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1"/>
+      <c r="AA31" s="1"/>
+      <c r="AB31" s="1"/>
+      <c r="AC31" s="1"/>
+      <c r="AD31" s="1"/>
+      <c r="AE31" s="1"/>
+      <c r="AF31" s="1"/>
+      <c r="AG31" s="1"/>
+      <c r="AH31" s="1"/>
+      <c r="AI31" s="1"/>
+      <c r="AJ31" s="1"/>
+      <c r="AK31" s="1"/>
+      <c r="AL31" s="1"/>
+      <c r="AM31" s="1"/>
+      <c r="AN31" s="1"/>
+      <c r="AO31" s="1"/>
+      <c r="AP31" s="1"/>
+      <c r="AQ31" s="1"/>
+      <c r="AR31" s="1"/>
+      <c r="AS31" s="1"/>
+      <c r="AT31" s="1"/>
+      <c r="AU31" s="1"/>
+      <c r="AV31" s="1"/>
+      <c r="AW31" s="1"/>
+      <c r="AX31" s="1"/>
+      <c r="AY31" s="1"/>
+      <c r="AZ31" s="1"/>
+      <c r="BA31" s="1"/>
+      <c r="BB31" s="1"/>
+      <c r="BC31" s="1"/>
+      <c r="BD31" s="1"/>
+      <c r="BE31" s="1"/>
+      <c r="BF31" s="1"/>
+      <c r="BG31" s="1"/>
+      <c r="BH31" s="1"/>
+      <c r="BI31" s="1"/>
+      <c r="BJ31" s="1"/>
+      <c r="BK31" s="1"/>
+      <c r="BL31" s="1"/>
+      <c r="BM31" s="1"/>
+      <c r="BN31" s="1"/>
+      <c r="BO31" s="1"/>
+      <c r="BP31" s="1"/>
+      <c r="BQ31" s="1"/>
+      <c r="BR31" s="1"/>
+      <c r="BS31" s="1"/>
+      <c r="BT31" s="1"/>
+      <c r="BU31" s="1"/>
+      <c r="BV31" s="1"/>
+      <c r="BW31" s="1"/>
+      <c r="BX31" s="1"/>
+      <c r="BY31" s="1"/>
+      <c r="BZ31" s="1"/>
+      <c r="CA31" s="1"/>
+      <c r="CB31" s="1"/>
+      <c r="CC31" s="1"/>
+      <c r="CD31" s="1"/>
+      <c r="CE31" s="1"/>
+      <c r="CF31" s="1"/>
+      <c r="CG31" s="1"/>
     </row>
-    <row r="32">
-      <c r="A32" s="34"/>
-      <c r="B32" s="27" t="s">
+    <row r="32" ht="19.5" customHeight="1">
+      <c r="A32" s="27"/>
+      <c r="B32" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="D32" s="15"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="1"/>
+      <c r="Z32" s="1"/>
+      <c r="AA32" s="1"/>
+      <c r="AB32" s="1"/>
+      <c r="AC32" s="1"/>
+      <c r="AD32" s="1"/>
+      <c r="AE32" s="1"/>
+      <c r="AF32" s="1"/>
+      <c r="AG32" s="1"/>
+      <c r="AH32" s="1"/>
+      <c r="AI32" s="1"/>
+      <c r="AJ32" s="1"/>
+      <c r="AK32" s="1"/>
+      <c r="AL32" s="1"/>
+      <c r="AM32" s="1"/>
+      <c r="AN32" s="1"/>
+      <c r="AO32" s="1"/>
+      <c r="AP32" s="1"/>
+      <c r="AQ32" s="1"/>
+      <c r="AR32" s="1"/>
+      <c r="AS32" s="1"/>
+      <c r="AT32" s="1"/>
+      <c r="AU32" s="1"/>
+      <c r="AV32" s="1"/>
+      <c r="AW32" s="1"/>
+      <c r="AX32" s="1"/>
+      <c r="AY32" s="1"/>
+      <c r="AZ32" s="1"/>
+      <c r="BA32" s="1"/>
+      <c r="BB32" s="1"/>
+      <c r="BC32" s="1"/>
+      <c r="BD32" s="1"/>
+      <c r="BE32" s="1"/>
+      <c r="BF32" s="1"/>
+      <c r="BG32" s="1"/>
+      <c r="BH32" s="1"/>
+      <c r="BI32" s="1"/>
+      <c r="BJ32" s="1"/>
+      <c r="BK32" s="1"/>
+      <c r="BL32" s="1"/>
+      <c r="BM32" s="1"/>
+      <c r="BN32" s="1"/>
+      <c r="BO32" s="1"/>
+      <c r="BP32" s="1"/>
+      <c r="BQ32" s="1"/>
+      <c r="BR32" s="1"/>
+      <c r="BS32" s="1"/>
+      <c r="BT32" s="1"/>
+      <c r="BU32" s="1"/>
+      <c r="BV32" s="1"/>
+      <c r="BW32" s="1"/>
+      <c r="BX32" s="1"/>
+      <c r="BY32" s="1"/>
+      <c r="BZ32" s="1"/>
+      <c r="CA32" s="1"/>
+      <c r="CB32" s="1"/>
+      <c r="CC32" s="1"/>
+      <c r="CD32" s="1"/>
+      <c r="CE32" s="1"/>
+      <c r="CF32" s="1"/>
+      <c r="CG32" s="1"/>
     </row>
-    <row r="33">
-      <c r="A33" s="35"/>
-      <c r="B33" s="27" t="s">
+    <row r="33" ht="19.5" customHeight="1">
+      <c r="A33" s="28"/>
+      <c r="B33" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="D33" s="15"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1"/>
+      <c r="Z33" s="1"/>
+      <c r="AA33" s="1"/>
+      <c r="AB33" s="1"/>
+      <c r="AC33" s="1"/>
+      <c r="AD33" s="1"/>
+      <c r="AE33" s="1"/>
+      <c r="AF33" s="1"/>
+      <c r="AG33" s="1"/>
+      <c r="AH33" s="1"/>
+      <c r="AI33" s="1"/>
+      <c r="AJ33" s="1"/>
+      <c r="AK33" s="1"/>
+      <c r="AL33" s="1"/>
+      <c r="AM33" s="1"/>
+      <c r="AN33" s="1"/>
+      <c r="AO33" s="1"/>
+      <c r="AP33" s="1"/>
+      <c r="AQ33" s="1"/>
+      <c r="AR33" s="1"/>
+      <c r="AS33" s="1"/>
+      <c r="AT33" s="1"/>
+      <c r="AU33" s="1"/>
+      <c r="AV33" s="1"/>
+      <c r="AW33" s="1"/>
+      <c r="AX33" s="1"/>
+      <c r="AY33" s="1"/>
+      <c r="AZ33" s="1"/>
+      <c r="BA33" s="1"/>
+      <c r="BB33" s="1"/>
+      <c r="BC33" s="1"/>
+      <c r="BD33" s="1"/>
+      <c r="BE33" s="1"/>
+      <c r="BF33" s="1"/>
+      <c r="BG33" s="1"/>
+      <c r="BH33" s="1"/>
+      <c r="BI33" s="1"/>
+      <c r="BJ33" s="1"/>
+      <c r="BK33" s="1"/>
+      <c r="BL33" s="1"/>
+      <c r="BM33" s="1"/>
+      <c r="BN33" s="1"/>
+      <c r="BO33" s="1"/>
+      <c r="BP33" s="1"/>
+      <c r="BQ33" s="1"/>
+      <c r="BR33" s="1"/>
+      <c r="BS33" s="1"/>
+      <c r="BT33" s="1"/>
+      <c r="BU33" s="1"/>
+      <c r="BV33" s="1"/>
+      <c r="BW33" s="1"/>
+      <c r="BX33" s="1"/>
+      <c r="BY33" s="1"/>
+      <c r="BZ33" s="1"/>
+      <c r="CA33" s="1"/>
+      <c r="CB33" s="1"/>
+      <c r="CC33" s="1"/>
+      <c r="CD33" s="1"/>
+      <c r="CE33" s="1"/>
+      <c r="CF33" s="1"/>
+      <c r="CG33" s="1"/>
     </row>
-    <row r="34">
-      <c r="A34" s="36"/>
-      <c r="B34" s="27" t="s">
+    <row r="34" ht="19.5" customHeight="1">
+      <c r="A34" s="29"/>
+      <c r="B34" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="D34" s="15"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1"/>
+      <c r="Z34" s="1"/>
+      <c r="AA34" s="1"/>
+      <c r="AB34" s="1"/>
+      <c r="AC34" s="1"/>
+      <c r="AD34" s="1"/>
+      <c r="AE34" s="1"/>
+      <c r="AF34" s="1"/>
+      <c r="AG34" s="1"/>
+      <c r="AH34" s="1"/>
+      <c r="AI34" s="1"/>
+      <c r="AJ34" s="1"/>
+      <c r="AK34" s="1"/>
+      <c r="AL34" s="1"/>
+      <c r="AM34" s="1"/>
+      <c r="AN34" s="1"/>
+      <c r="AO34" s="1"/>
+      <c r="AP34" s="1"/>
+      <c r="AQ34" s="1"/>
+      <c r="AR34" s="1"/>
+      <c r="AS34" s="1"/>
+      <c r="AT34" s="1"/>
+      <c r="AU34" s="1"/>
+      <c r="AV34" s="1"/>
+      <c r="AW34" s="1"/>
+      <c r="AX34" s="1"/>
+      <c r="AY34" s="1"/>
+      <c r="AZ34" s="1"/>
+      <c r="BA34" s="1"/>
+      <c r="BB34" s="1"/>
+      <c r="BC34" s="1"/>
+      <c r="BD34" s="1"/>
+      <c r="BE34" s="1"/>
+      <c r="BF34" s="1"/>
+      <c r="BG34" s="1"/>
+      <c r="BH34" s="1"/>
+      <c r="BI34" s="1"/>
+      <c r="BJ34" s="1"/>
+      <c r="BK34" s="1"/>
+      <c r="BL34" s="1"/>
+      <c r="BM34" s="1"/>
+      <c r="BN34" s="1"/>
+      <c r="BO34" s="1"/>
+      <c r="BP34" s="1"/>
+      <c r="BQ34" s="1"/>
+      <c r="BR34" s="1"/>
+      <c r="BS34" s="1"/>
+      <c r="BT34" s="1"/>
+      <c r="BU34" s="1"/>
+      <c r="BV34" s="1"/>
+      <c r="BW34" s="1"/>
+      <c r="BX34" s="1"/>
+      <c r="BY34" s="1"/>
+      <c r="BZ34" s="1"/>
+      <c r="CA34" s="1"/>
+      <c r="CB34" s="1"/>
+      <c r="CC34" s="1"/>
+      <c r="CD34" s="1"/>
+      <c r="CE34" s="1"/>
+      <c r="CF34" s="1"/>
+      <c r="CG34" s="1"/>
     </row>
-    <row r="35">
-      <c r="A35" s="9"/>
-      <c r="B35" s="27" t="s">
+    <row r="35" ht="19.5" customHeight="1">
+      <c r="A35" s="10"/>
+      <c r="B35" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="D35" s="29"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="1"/>
+      <c r="Z35" s="1"/>
+      <c r="AA35" s="1"/>
+      <c r="AB35" s="1"/>
+      <c r="AC35" s="1"/>
+      <c r="AD35" s="1"/>
+      <c r="AE35" s="1"/>
+      <c r="AF35" s="1"/>
+      <c r="AG35" s="1"/>
+      <c r="AH35" s="1"/>
+      <c r="AI35" s="1"/>
+      <c r="AJ35" s="1"/>
+      <c r="AK35" s="1"/>
+      <c r="AL35" s="1"/>
+      <c r="AM35" s="1"/>
+      <c r="AN35" s="1"/>
+      <c r="AO35" s="1"/>
+      <c r="AP35" s="1"/>
+      <c r="AQ35" s="1"/>
+      <c r="AR35" s="1"/>
+      <c r="AS35" s="1"/>
+      <c r="AT35" s="1"/>
+      <c r="AU35" s="1"/>
+      <c r="AV35" s="1"/>
+      <c r="AW35" s="1"/>
+      <c r="AX35" s="1"/>
+      <c r="AY35" s="1"/>
+      <c r="AZ35" s="1"/>
+      <c r="BA35" s="1"/>
+      <c r="BB35" s="1"/>
+      <c r="BC35" s="1"/>
+      <c r="BD35" s="1"/>
+      <c r="BE35" s="1"/>
+      <c r="BF35" s="1"/>
+      <c r="BG35" s="1"/>
+      <c r="BH35" s="1"/>
+      <c r="BI35" s="1"/>
+      <c r="BJ35" s="1"/>
+      <c r="BK35" s="1"/>
+      <c r="BL35" s="1"/>
+      <c r="BM35" s="1"/>
+      <c r="BN35" s="1"/>
+      <c r="BO35" s="1"/>
+      <c r="BP35" s="1"/>
+      <c r="BQ35" s="1"/>
+      <c r="BR35" s="1"/>
+      <c r="BS35" s="1"/>
+      <c r="BT35" s="1"/>
+      <c r="BU35" s="1"/>
+      <c r="BV35" s="1"/>
+      <c r="BW35" s="1"/>
+      <c r="BX35" s="1"/>
+      <c r="BY35" s="1"/>
+      <c r="BZ35" s="1"/>
+      <c r="CA35" s="1"/>
+      <c r="CB35" s="1"/>
+      <c r="CC35" s="1"/>
+      <c r="CD35" s="1"/>
+      <c r="CE35" s="1"/>
+      <c r="CF35" s="1"/>
+      <c r="CG35" s="1"/>
     </row>
-    <row r="36">
-      <c r="C36" s="27"/>
-      <c r="D36" s="37"/>
+    <row r="36" ht="19.5" customHeight="1">
+      <c r="A36" s="1"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1"/>
+      <c r="Z36" s="1"/>
+      <c r="AA36" s="1"/>
+      <c r="AB36" s="1"/>
+      <c r="AC36" s="1"/>
+      <c r="AD36" s="1"/>
+      <c r="AE36" s="1"/>
+      <c r="AF36" s="1"/>
+      <c r="AG36" s="1"/>
+      <c r="AH36" s="1"/>
+      <c r="AI36" s="1"/>
+      <c r="AJ36" s="1"/>
+      <c r="AK36" s="1"/>
+      <c r="AL36" s="1"/>
+      <c r="AM36" s="1"/>
+      <c r="AN36" s="1"/>
+      <c r="AO36" s="1"/>
+      <c r="AP36" s="1"/>
+      <c r="AQ36" s="1"/>
+      <c r="AR36" s="1"/>
+      <c r="AS36" s="1"/>
+      <c r="AT36" s="1"/>
+      <c r="AU36" s="1"/>
+      <c r="AV36" s="1"/>
+      <c r="AW36" s="1"/>
+      <c r="AX36" s="1"/>
+      <c r="AY36" s="1"/>
+      <c r="AZ36" s="1"/>
+      <c r="BA36" s="1"/>
+      <c r="BB36" s="1"/>
+      <c r="BC36" s="1"/>
+      <c r="BD36" s="1"/>
+      <c r="BE36" s="1"/>
+      <c r="BF36" s="1"/>
+      <c r="BG36" s="1"/>
+      <c r="BH36" s="1"/>
+      <c r="BI36" s="1"/>
+      <c r="BJ36" s="1"/>
+      <c r="BK36" s="1"/>
+      <c r="BL36" s="1"/>
+      <c r="BM36" s="1"/>
+      <c r="BN36" s="1"/>
+      <c r="BO36" s="1"/>
+      <c r="BP36" s="1"/>
+      <c r="BQ36" s="1"/>
+      <c r="BR36" s="1"/>
+      <c r="BS36" s="1"/>
+      <c r="BT36" s="1"/>
+      <c r="BU36" s="1"/>
+      <c r="BV36" s="1"/>
+      <c r="BW36" s="1"/>
+      <c r="BX36" s="1"/>
+      <c r="BY36" s="1"/>
+      <c r="BZ36" s="1"/>
+      <c r="CA36" s="1"/>
+      <c r="CB36" s="1"/>
+      <c r="CC36" s="1"/>
+      <c r="CD36" s="1"/>
+      <c r="CE36" s="1"/>
+      <c r="CF36" s="1"/>
+      <c r="CG36" s="1"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="37" ht="19.5" customHeight="1">
+      <c r="A37" s="1"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+      <c r="X37" s="1"/>
+      <c r="Y37" s="1"/>
+      <c r="Z37" s="1"/>
+      <c r="AA37" s="1"/>
+      <c r="AB37" s="1"/>
+      <c r="AC37" s="1"/>
+      <c r="AD37" s="1"/>
+      <c r="AE37" s="1"/>
+      <c r="AF37" s="1"/>
+      <c r="AG37" s="1"/>
+      <c r="AH37" s="1"/>
+      <c r="AI37" s="1"/>
+      <c r="AJ37" s="1"/>
+      <c r="AK37" s="1"/>
+      <c r="AL37" s="1"/>
+      <c r="AM37" s="1"/>
+      <c r="AN37" s="1"/>
+      <c r="AO37" s="1"/>
+      <c r="AP37" s="1"/>
+      <c r="AQ37" s="1"/>
+      <c r="AR37" s="1"/>
+      <c r="AS37" s="1"/>
+      <c r="AT37" s="1"/>
+      <c r="AU37" s="1"/>
+      <c r="AV37" s="1"/>
+      <c r="AW37" s="1"/>
+      <c r="AX37" s="1"/>
+      <c r="AY37" s="1"/>
+      <c r="AZ37" s="1"/>
+      <c r="BA37" s="1"/>
+      <c r="BB37" s="1"/>
+      <c r="BC37" s="1"/>
+      <c r="BD37" s="1"/>
+      <c r="BE37" s="1"/>
+      <c r="BF37" s="1"/>
+      <c r="BG37" s="1"/>
+      <c r="BH37" s="1"/>
+      <c r="BI37" s="1"/>
+      <c r="BJ37" s="1"/>
+      <c r="BK37" s="1"/>
+      <c r="BL37" s="1"/>
+      <c r="BM37" s="1"/>
+      <c r="BN37" s="1"/>
+      <c r="BO37" s="1"/>
+      <c r="BP37" s="1"/>
+      <c r="BQ37" s="1"/>
+      <c r="BR37" s="1"/>
+      <c r="BS37" s="1"/>
+      <c r="BT37" s="1"/>
+      <c r="BU37" s="1"/>
+      <c r="BV37" s="1"/>
+      <c r="BW37" s="1"/>
+      <c r="BX37" s="1"/>
+      <c r="BY37" s="1"/>
+      <c r="BZ37" s="1"/>
+      <c r="CA37" s="1"/>
+      <c r="CB37" s="1"/>
+      <c r="CC37" s="1"/>
+      <c r="CD37" s="1"/>
+      <c r="CE37" s="1"/>
+      <c r="CF37" s="1"/>
+      <c r="CG37" s="1"/>
+    </row>
   </sheetData>
-  <printOptions headings="0" gridLines="1" horizontalCentered="1"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="3" scale="100" fitToWidth="1" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="atEnd" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/data/episodes/season_numbering.xlsx
+++ b/data/episodes/season_numbering.xlsx
@@ -339,124 +339,128 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -712,5063 +716,5063 @@
   <dimension ref="A1:CG37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AA7" activeCellId="0" sqref="AA7"/>
+      <selection pane="topLeft" activeCell="AF11" activeCellId="0" sqref="AF11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.25" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="25.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="68" min="3" style="1" width="2.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="85" min="69" style="1" width="3.15"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="n">
+      <c r="C1" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="n">
+      <c r="D1" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="n">
+      <c r="E1" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="n">
+      <c r="F1" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="n">
+      <c r="G1" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="n">
+      <c r="H1" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="I1" s="4" t="n">
+      <c r="I1" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="J1" s="4" t="n">
+      <c r="J1" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="K1" s="4" t="n">
+      <c r="K1" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="L1" s="4" t="n">
+      <c r="L1" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="M1" s="4" t="n">
+      <c r="M1" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="N1" s="4" t="n">
+      <c r="N1" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="O1" s="4" t="n">
+      <c r="O1" s="5" t="n">
         <v>13</v>
       </c>
-      <c r="P1" s="4" t="n">
+      <c r="P1" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="Q1" s="4" t="n">
+      <c r="Q1" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="R1" s="4" t="n">
+      <c r="R1" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="S1" s="4" t="n">
+      <c r="S1" s="5" t="n">
         <v>17</v>
       </c>
-      <c r="T1" s="4" t="n">
+      <c r="T1" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="U1" s="4" t="n">
+      <c r="U1" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="V1" s="4" t="n">
+      <c r="V1" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="W1" s="4" t="n">
+      <c r="W1" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="X1" s="4" t="n">
+      <c r="X1" s="5" t="n">
         <v>22</v>
       </c>
-      <c r="Y1" s="4" t="n">
+      <c r="Y1" s="5" t="n">
         <v>23</v>
       </c>
-      <c r="Z1" s="4" t="n">
+      <c r="Z1" s="5" t="n">
         <v>24</v>
       </c>
-      <c r="AA1" s="4" t="n">
+      <c r="AA1" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="AB1" s="4" t="n">
+      <c r="AB1" s="5" t="n">
         <v>26</v>
       </c>
-      <c r="AC1" s="4" t="n">
+      <c r="AC1" s="5" t="n">
         <v>27</v>
       </c>
-      <c r="AD1" s="4" t="n">
+      <c r="AD1" s="5" t="n">
         <v>28</v>
       </c>
-      <c r="AE1" s="4" t="n">
+      <c r="AE1" s="5" t="n">
         <v>29</v>
       </c>
-      <c r="AF1" s="4" t="n">
+      <c r="AF1" s="5" t="n">
         <v>30</v>
       </c>
-      <c r="AG1" s="4" t="n">
+      <c r="AG1" s="5" t="n">
         <v>31</v>
       </c>
-      <c r="AH1" s="4" t="n">
+      <c r="AH1" s="5" t="n">
         <v>32</v>
       </c>
-      <c r="AI1" s="4" t="n">
+      <c r="AI1" s="5" t="n">
         <v>33</v>
       </c>
-      <c r="AJ1" s="4" t="n">
+      <c r="AJ1" s="5" t="n">
         <v>34</v>
       </c>
-      <c r="AK1" s="4" t="n">
+      <c r="AK1" s="5" t="n">
         <v>35</v>
       </c>
-      <c r="AL1" s="4" t="n">
+      <c r="AL1" s="5" t="n">
         <v>36</v>
       </c>
-      <c r="AM1" s="4" t="n">
+      <c r="AM1" s="5" t="n">
         <v>37</v>
       </c>
-      <c r="AN1" s="4" t="n">
+      <c r="AN1" s="5" t="n">
         <v>38</v>
       </c>
-      <c r="AO1" s="4" t="n">
+      <c r="AO1" s="5" t="n">
         <v>39</v>
       </c>
-      <c r="AP1" s="4" t="n">
+      <c r="AP1" s="5" t="n">
         <v>40</v>
       </c>
-      <c r="AQ1" s="4" t="n">
+      <c r="AQ1" s="5" t="n">
         <v>41</v>
       </c>
-      <c r="AR1" s="4" t="n">
+      <c r="AR1" s="5" t="n">
         <v>42</v>
       </c>
-      <c r="AS1" s="4" t="n">
+      <c r="AS1" s="5" t="n">
         <v>43</v>
       </c>
-      <c r="AT1" s="4" t="n">
+      <c r="AT1" s="5" t="n">
         <v>44</v>
       </c>
-      <c r="AU1" s="4" t="n">
+      <c r="AU1" s="5" t="n">
         <v>45</v>
       </c>
-      <c r="AV1" s="4" t="n">
+      <c r="AV1" s="5" t="n">
         <v>46</v>
       </c>
-      <c r="AW1" s="4" t="n">
+      <c r="AW1" s="5" t="n">
         <v>47</v>
       </c>
-      <c r="AX1" s="4" t="n">
+      <c r="AX1" s="5" t="n">
         <v>48</v>
       </c>
-      <c r="AY1" s="4" t="n">
+      <c r="AY1" s="5" t="n">
         <v>49</v>
       </c>
-      <c r="AZ1" s="4" t="n">
+      <c r="AZ1" s="5" t="n">
         <v>50</v>
       </c>
-      <c r="BA1" s="4" t="n">
+      <c r="BA1" s="5" t="n">
         <v>51</v>
       </c>
-      <c r="BB1" s="4" t="n">
+      <c r="BB1" s="5" t="n">
         <v>52</v>
       </c>
-      <c r="BC1" s="4" t="n">
+      <c r="BC1" s="5" t="n">
         <v>53</v>
       </c>
-      <c r="BD1" s="4" t="n">
+      <c r="BD1" s="5" t="n">
         <v>54</v>
       </c>
-      <c r="BE1" s="4" t="n">
+      <c r="BE1" s="5" t="n">
         <v>55</v>
       </c>
-      <c r="BF1" s="4" t="n">
+      <c r="BF1" s="5" t="n">
         <v>56</v>
       </c>
-      <c r="BG1" s="4" t="n">
+      <c r="BG1" s="5" t="n">
         <v>57</v>
       </c>
-      <c r="BH1" s="4" t="n">
+      <c r="BH1" s="5" t="n">
         <v>58</v>
       </c>
-      <c r="BI1" s="4" t="n">
+      <c r="BI1" s="5" t="n">
         <v>59</v>
       </c>
-      <c r="BJ1" s="4" t="n">
+      <c r="BJ1" s="5" t="n">
         <v>60</v>
       </c>
-      <c r="BK1" s="4" t="n">
+      <c r="BK1" s="5" t="n">
         <v>61</v>
       </c>
-      <c r="BL1" s="4" t="n">
+      <c r="BL1" s="5" t="n">
         <v>62</v>
       </c>
-      <c r="BM1" s="4" t="n">
+      <c r="BM1" s="5" t="n">
         <v>63</v>
       </c>
-      <c r="BN1" s="4" t="n">
+      <c r="BN1" s="5" t="n">
         <v>64</v>
       </c>
-      <c r="BO1" s="4" t="n">
+      <c r="BO1" s="5" t="n">
         <v>65</v>
       </c>
-      <c r="BP1" s="2"/>
-      <c r="BQ1" s="2"/>
-      <c r="BR1" s="2"/>
-      <c r="BS1" s="2"/>
-      <c r="BT1" s="2"/>
-      <c r="BU1" s="2"/>
-      <c r="BV1" s="2"/>
-      <c r="BW1" s="2"/>
-      <c r="BX1" s="2"/>
-      <c r="BY1" s="2"/>
-      <c r="BZ1" s="2"/>
-      <c r="CA1" s="2"/>
-      <c r="CB1" s="2"/>
-      <c r="CC1" s="2"/>
-      <c r="CD1" s="2"/>
-      <c r="CE1" s="2"/>
-      <c r="CF1" s="2"/>
-      <c r="CG1" s="2"/>
+      <c r="BP1" s="3"/>
+      <c r="BQ1" s="3"/>
+      <c r="BR1" s="3"/>
+      <c r="BS1" s="3"/>
+      <c r="BT1" s="3"/>
+      <c r="BU1" s="3"/>
+      <c r="BV1" s="3"/>
+      <c r="BW1" s="3"/>
+      <c r="BX1" s="3"/>
+      <c r="BY1" s="3"/>
+      <c r="BZ1" s="3"/>
+      <c r="CA1" s="3"/>
+      <c r="CB1" s="3"/>
+      <c r="CC1" s="3"/>
+      <c r="CD1" s="3"/>
+      <c r="CE1" s="3"/>
+      <c r="CF1" s="3"/>
+      <c r="CG1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="n">
+      <c r="C2" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="6" t="n">
+      <c r="D2" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="E2" s="5" t="n">
+      <c r="E2" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="F2" s="5" t="n">
+      <c r="F2" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="G2" s="6" t="n">
+      <c r="G2" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="H2" s="7" t="n">
+      <c r="H2" s="8" t="n">
         <v>6</v>
       </c>
-      <c r="I2" s="8" t="n">
+      <c r="I2" s="9" t="n">
         <v>7</v>
       </c>
-      <c r="J2" s="2" t="n">
+      <c r="J2" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="K2" s="2" t="n">
+      <c r="K2" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="L2" s="5" t="n">
+      <c r="L2" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="M2" s="5" t="n">
+      <c r="M2" s="6" t="n">
         <v>11</v>
       </c>
-      <c r="N2" s="5" t="n">
+      <c r="N2" s="6" t="n">
         <v>12</v>
       </c>
-      <c r="O2" s="5" t="n">
+      <c r="O2" s="6" t="n">
         <v>13</v>
       </c>
-      <c r="P2" s="8" t="n">
+      <c r="P2" s="9" t="n">
         <v>14</v>
       </c>
-      <c r="Q2" s="2" t="n">
+      <c r="Q2" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="R2" s="2" t="n">
+      <c r="R2" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="S2" s="2" t="n">
+      <c r="S2" s="3" t="n">
         <v>17</v>
       </c>
-      <c r="T2" s="2" t="n">
+      <c r="T2" s="3" t="n">
         <v>18</v>
       </c>
-      <c r="U2" s="7" t="n">
+      <c r="U2" s="8" t="n">
         <v>19</v>
       </c>
-      <c r="V2" s="2" t="n">
+      <c r="V2" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="W2" s="6" t="n">
+      <c r="W2" s="7" t="n">
         <v>21</v>
       </c>
-      <c r="X2" s="2" t="n">
+      <c r="X2" s="3" t="n">
         <v>22</v>
       </c>
-      <c r="Y2" s="2" t="n">
+      <c r="Y2" s="3" t="n">
         <v>23</v>
       </c>
-      <c r="Z2" s="8" t="n">
+      <c r="Z2" s="9" t="n">
         <v>24</v>
       </c>
-      <c r="AA2" s="5" t="n">
+      <c r="AA2" s="6" t="n">
         <v>25</v>
       </c>
-      <c r="AB2" s="8" t="n">
+      <c r="AB2" s="9" t="n">
         <v>26</v>
       </c>
-      <c r="AC2" s="7" t="n">
+      <c r="AC2" s="8" t="n">
         <v>27</v>
       </c>
-      <c r="AD2" s="7" t="n">
+      <c r="AD2" s="8" t="n">
         <v>28</v>
       </c>
-      <c r="AE2" s="2" t="n">
+      <c r="AE2" s="3" t="n">
         <v>29</v>
       </c>
-      <c r="AF2" s="5" t="n">
+      <c r="AF2" s="6" t="n">
         <v>30</v>
       </c>
-      <c r="AG2" s="2" t="n">
+      <c r="AG2" s="3" t="n">
         <v>31</v>
       </c>
-      <c r="AH2" s="8" t="n">
+      <c r="AH2" s="9" t="n">
         <v>32</v>
       </c>
-      <c r="AI2" s="2" t="n">
+      <c r="AI2" s="3" t="n">
         <v>33</v>
       </c>
-      <c r="AJ2" s="2" t="n">
+      <c r="AJ2" s="3" t="n">
         <v>34</v>
       </c>
-      <c r="AK2" s="2" t="n">
+      <c r="AK2" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="AL2" s="2" t="n">
+      <c r="AL2" s="3" t="n">
         <v>36</v>
       </c>
-      <c r="AM2" s="2" t="n">
+      <c r="AM2" s="3" t="n">
         <v>37</v>
       </c>
-      <c r="AN2" s="2" t="n">
+      <c r="AN2" s="3" t="n">
         <v>38</v>
       </c>
-      <c r="AO2" s="2" t="n">
+      <c r="AO2" s="3" t="n">
         <v>39</v>
       </c>
-      <c r="AP2" s="2" t="n">
+      <c r="AP2" s="3" t="n">
         <v>40</v>
       </c>
-      <c r="AQ2" s="2" t="n">
+      <c r="AQ2" s="3" t="n">
         <v>41</v>
       </c>
-      <c r="AR2" s="2" t="n">
+      <c r="AR2" s="3" t="n">
         <v>42</v>
       </c>
-      <c r="AS2" s="5" t="n">
+      <c r="AS2" s="6" t="n">
         <v>43</v>
       </c>
-      <c r="AT2" s="2" t="n">
+      <c r="AT2" s="3" t="n">
         <v>44</v>
       </c>
-      <c r="AU2" s="2" t="n">
+      <c r="AU2" s="3" t="n">
         <v>45</v>
       </c>
-      <c r="AV2" s="5" t="n">
+      <c r="AV2" s="6" t="n">
         <v>46</v>
       </c>
-      <c r="AW2" s="2" t="n">
+      <c r="AW2" s="3" t="n">
         <v>47</v>
       </c>
-      <c r="AX2" s="2" t="n">
+      <c r="AX2" s="3" t="n">
         <v>48</v>
       </c>
-      <c r="AY2" s="2" t="n">
+      <c r="AY2" s="3" t="n">
         <v>49</v>
       </c>
-      <c r="AZ2" s="7" t="n">
+      <c r="AZ2" s="8" t="n">
         <v>50</v>
       </c>
-      <c r="BA2" s="2" t="n">
+      <c r="BA2" s="3" t="n">
         <v>51</v>
       </c>
-      <c r="BB2" s="2" t="n">
+      <c r="BB2" s="3" t="n">
         <v>52</v>
       </c>
-      <c r="BC2" s="2" t="n">
+      <c r="BC2" s="3" t="n">
         <v>53</v>
       </c>
-      <c r="BD2" s="2" t="n">
+      <c r="BD2" s="3" t="n">
         <v>54</v>
       </c>
-      <c r="BE2" s="2" t="n">
+      <c r="BE2" s="3" t="n">
         <v>55</v>
       </c>
-      <c r="BF2" s="2" t="n">
+      <c r="BF2" s="3" t="n">
         <v>56</v>
       </c>
-      <c r="BG2" s="2" t="n">
+      <c r="BG2" s="3" t="n">
         <v>57</v>
       </c>
-      <c r="BH2" s="8" t="n">
+      <c r="BH2" s="9" t="n">
         <v>58</v>
       </c>
-      <c r="BI2" s="8" t="n">
+      <c r="BI2" s="9" t="n">
         <v>59</v>
       </c>
-      <c r="BJ2" s="2" t="n">
+      <c r="BJ2" s="3" t="n">
         <v>60</v>
       </c>
-      <c r="BK2" s="2" t="n">
+      <c r="BK2" s="3" t="n">
         <v>61</v>
       </c>
-      <c r="BL2" s="2" t="n">
+      <c r="BL2" s="3" t="n">
         <v>62</v>
       </c>
-      <c r="BM2" s="8" t="n">
+      <c r="BM2" s="9" t="n">
         <v>63</v>
       </c>
-      <c r="BN2" s="2" t="n">
+      <c r="BN2" s="3" t="n">
         <v>64</v>
       </c>
-      <c r="BO2" s="2" t="n">
+      <c r="BO2" s="3" t="n">
         <v>65</v>
       </c>
-      <c r="BP2" s="2" t="n">
+      <c r="BP2" s="3" t="n">
         <v>66</v>
       </c>
-      <c r="BQ2" s="2" t="n">
+      <c r="BQ2" s="3" t="n">
         <v>67</v>
       </c>
-      <c r="BR2" s="2" t="n">
+      <c r="BR2" s="3" t="n">
         <v>68</v>
       </c>
-      <c r="BS2" s="2" t="n">
+      <c r="BS2" s="3" t="n">
         <v>69</v>
       </c>
-      <c r="BT2" s="9" t="n">
+      <c r="BT2" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="BU2" s="2" t="n">
+      <c r="BU2" s="3" t="n">
         <v>70</v>
       </c>
-      <c r="BV2" s="2" t="n">
+      <c r="BV2" s="3" t="n">
         <v>71</v>
       </c>
-      <c r="BW2" s="10" t="n">
+      <c r="BW2" s="11" t="n">
         <v>72</v>
       </c>
-      <c r="BX2" s="10" t="n">
+      <c r="BX2" s="11" t="n">
         <v>73</v>
       </c>
-      <c r="BY2" s="10" t="n">
+      <c r="BY2" s="11" t="n">
         <v>74</v>
       </c>
-      <c r="BZ2" s="10" t="n">
+      <c r="BZ2" s="11" t="n">
         <v>75</v>
       </c>
-      <c r="CA2" s="11" t="n">
+      <c r="CA2" s="12" t="n">
         <v>76</v>
       </c>
-      <c r="CB2" s="5" t="n">
+      <c r="CB2" s="6" t="n">
         <v>77</v>
       </c>
-      <c r="CC2" s="8" t="n">
+      <c r="CC2" s="9" t="n">
         <v>78</v>
       </c>
-      <c r="CD2" s="8" t="n">
+      <c r="CD2" s="9" t="n">
         <v>79</v>
       </c>
-      <c r="CE2" s="8" t="n">
+      <c r="CE2" s="9" t="n">
         <v>80</v>
       </c>
-      <c r="CF2" s="8" t="n">
+      <c r="CF2" s="9" t="n">
         <v>81</v>
       </c>
-      <c r="CG2" s="8" t="n">
+      <c r="CG2" s="9" t="n">
         <v>82</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="5" t="n">
+      <c r="C3" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="n">
+      <c r="D3" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="E3" s="11" t="n">
+      <c r="E3" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="F3" s="5" t="n">
+      <c r="F3" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="G3" s="8" t="n">
+      <c r="G3" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="H3" s="2" t="n">
+      <c r="H3" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="I3" s="2" t="n">
+      <c r="I3" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="J3" s="2" t="n">
+      <c r="J3" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="K3" s="2" t="n">
+      <c r="K3" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="L3" s="2" t="n">
+      <c r="L3" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="M3" s="2" t="n">
+      <c r="M3" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="N3" s="2" t="n">
+      <c r="N3" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="O3" s="8" t="n">
+      <c r="O3" s="9" t="n">
         <v>13</v>
       </c>
-      <c r="P3" s="5" t="n">
+      <c r="P3" s="6" t="n">
         <v>14</v>
       </c>
-      <c r="Q3" s="2" t="n">
+      <c r="Q3" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="R3" s="2" t="n">
+      <c r="R3" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="S3" s="7" t="n">
+      <c r="S3" s="8" t="n">
         <v>17</v>
       </c>
-      <c r="T3" s="2" t="n">
+      <c r="T3" s="3" t="n">
         <v>18</v>
       </c>
-      <c r="U3" s="2" t="n">
+      <c r="U3" s="3" t="n">
         <v>19</v>
       </c>
-      <c r="V3" s="2" t="n">
+      <c r="V3" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="W3" s="2" t="n">
+      <c r="W3" s="3" t="n">
         <v>21</v>
       </c>
-      <c r="X3" s="2" t="n">
+      <c r="X3" s="3" t="n">
         <v>22</v>
       </c>
-      <c r="Y3" s="8" t="n">
+      <c r="Y3" s="9" t="n">
         <v>23</v>
       </c>
-      <c r="Z3" s="2" t="n">
+      <c r="Z3" s="3" t="n">
         <v>24</v>
       </c>
-      <c r="AA3" s="11" t="n">
+      <c r="AA3" s="12" t="n">
         <v>25</v>
       </c>
-      <c r="AB3" s="12" t="n">
+      <c r="AB3" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="AC3" s="2" t="n">
+      <c r="AC3" s="3" t="n">
         <v>26</v>
       </c>
-      <c r="AD3" s="2" t="n">
+      <c r="AD3" s="3" t="n">
         <v>27</v>
       </c>
-      <c r="AE3" s="8" t="n">
+      <c r="AE3" s="9" t="n">
         <v>28</v>
       </c>
-      <c r="AF3" s="2" t="n">
+      <c r="AF3" s="3" t="n">
         <v>29</v>
       </c>
-      <c r="AG3" s="7" t="n">
+      <c r="AG3" s="8" t="n">
         <v>30</v>
       </c>
-      <c r="AH3" s="8" t="n">
+      <c r="AH3" s="9" t="n">
         <v>31</v>
       </c>
-      <c r="AI3" s="8" t="n">
+      <c r="AI3" s="9" t="n">
         <v>32</v>
       </c>
-      <c r="AJ3" s="8" t="n">
+      <c r="AJ3" s="9" t="n">
         <v>33</v>
       </c>
-      <c r="AK3" s="2" t="n">
+      <c r="AK3" s="3" t="n">
         <v>34</v>
       </c>
-      <c r="AL3" s="6" t="n">
+      <c r="AL3" s="7" t="n">
         <v>35</v>
       </c>
-      <c r="AM3" s="11" t="n">
+      <c r="AM3" s="12" t="n">
         <v>36</v>
       </c>
-      <c r="AN3" s="2"/>
-      <c r="AO3" s="2"/>
-      <c r="AP3" s="2"/>
-      <c r="AQ3" s="2"/>
-      <c r="AR3" s="2"/>
-      <c r="AS3" s="2"/>
-      <c r="AT3" s="2"/>
-      <c r="AU3" s="2"/>
-      <c r="AV3" s="2"/>
-      <c r="AW3" s="2"/>
-      <c r="AX3" s="2"/>
-      <c r="AY3" s="2"/>
-      <c r="AZ3" s="2"/>
-      <c r="BA3" s="2"/>
-      <c r="BB3" s="2"/>
-      <c r="BC3" s="2"/>
-      <c r="BD3" s="2"/>
-      <c r="BE3" s="2"/>
-      <c r="BF3" s="2"/>
-      <c r="BG3" s="2"/>
-      <c r="BH3" s="2"/>
-      <c r="BI3" s="2"/>
-      <c r="BJ3" s="2"/>
-      <c r="BK3" s="2"/>
-      <c r="BL3" s="2"/>
-      <c r="BM3" s="2"/>
-      <c r="BN3" s="2"/>
-      <c r="BO3" s="2"/>
-      <c r="BP3" s="2"/>
-      <c r="BQ3" s="2"/>
-      <c r="BR3" s="2"/>
-      <c r="BS3" s="2"/>
-      <c r="BT3" s="2"/>
-      <c r="BU3" s="2"/>
-      <c r="BV3" s="2"/>
-      <c r="BW3" s="2"/>
-      <c r="BX3" s="2"/>
-      <c r="BY3" s="2"/>
-      <c r="BZ3" s="2"/>
-      <c r="CA3" s="2"/>
-      <c r="CB3" s="2"/>
-      <c r="CC3" s="2"/>
-      <c r="CD3" s="2"/>
-      <c r="CE3" s="2"/>
-      <c r="CF3" s="2"/>
-      <c r="CG3" s="2"/>
+      <c r="AN3" s="3"/>
+      <c r="AO3" s="3"/>
+      <c r="AP3" s="3"/>
+      <c r="AQ3" s="3"/>
+      <c r="AR3" s="3"/>
+      <c r="AS3" s="3"/>
+      <c r="AT3" s="3"/>
+      <c r="AU3" s="3"/>
+      <c r="AV3" s="3"/>
+      <c r="AW3" s="3"/>
+      <c r="AX3" s="3"/>
+      <c r="AY3" s="3"/>
+      <c r="AZ3" s="3"/>
+      <c r="BA3" s="3"/>
+      <c r="BB3" s="3"/>
+      <c r="BC3" s="3"/>
+      <c r="BD3" s="3"/>
+      <c r="BE3" s="3"/>
+      <c r="BF3" s="3"/>
+      <c r="BG3" s="3"/>
+      <c r="BH3" s="3"/>
+      <c r="BI3" s="3"/>
+      <c r="BJ3" s="3"/>
+      <c r="BK3" s="3"/>
+      <c r="BL3" s="3"/>
+      <c r="BM3" s="3"/>
+      <c r="BN3" s="3"/>
+      <c r="BO3" s="3"/>
+      <c r="BP3" s="3"/>
+      <c r="BQ3" s="3"/>
+      <c r="BR3" s="3"/>
+      <c r="BS3" s="3"/>
+      <c r="BT3" s="3"/>
+      <c r="BU3" s="3"/>
+      <c r="BV3" s="3"/>
+      <c r="BW3" s="3"/>
+      <c r="BX3" s="3"/>
+      <c r="BY3" s="3"/>
+      <c r="BZ3" s="3"/>
+      <c r="CA3" s="3"/>
+      <c r="CB3" s="3"/>
+      <c r="CC3" s="3"/>
+      <c r="CD3" s="3"/>
+      <c r="CE3" s="3"/>
+      <c r="CF3" s="3"/>
+      <c r="CG3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="11" t="n">
+      <c r="C4" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="D4" s="11" t="n">
+      <c r="D4" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="E4" s="5" t="n">
+      <c r="E4" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="F4" s="2" t="n">
+      <c r="F4" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="G4" s="2" t="n">
+      <c r="G4" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="H4" s="2" t="n">
+      <c r="H4" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="I4" s="2" t="n">
+      <c r="I4" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="J4" s="2" t="n">
+      <c r="J4" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="K4" s="2" t="n">
+      <c r="K4" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="L4" s="5" t="n">
+      <c r="L4" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="M4" s="2" t="n">
+      <c r="M4" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="N4" s="2" t="n">
+      <c r="N4" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="O4" s="2" t="n">
+      <c r="O4" s="3" t="n">
         <v>13</v>
       </c>
-      <c r="P4" s="2" t="n">
+      <c r="P4" s="3" t="n">
         <v>14</v>
       </c>
-      <c r="Q4" s="8" t="n">
+      <c r="Q4" s="9" t="n">
         <v>15</v>
       </c>
-      <c r="R4" s="2" t="n">
+      <c r="R4" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="S4" s="2" t="n">
+      <c r="S4" s="3" t="n">
         <v>17</v>
       </c>
-      <c r="T4" s="11" t="n">
+      <c r="T4" s="12" t="n">
         <v>18</v>
       </c>
-      <c r="U4" s="2" t="n">
+      <c r="U4" s="3" t="n">
         <v>19</v>
       </c>
-      <c r="V4" s="2" t="n">
+      <c r="V4" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="W4" s="2" t="n">
+      <c r="W4" s="3" t="n">
         <v>21</v>
       </c>
-      <c r="X4" s="2" t="n">
+      <c r="X4" s="3" t="n">
         <v>22</v>
       </c>
-      <c r="Y4" s="2" t="n">
+      <c r="Y4" s="3" t="n">
         <v>23</v>
       </c>
-      <c r="Z4" s="2" t="n">
+      <c r="Z4" s="3" t="n">
         <v>24</v>
       </c>
-      <c r="AA4" s="5" t="n">
+      <c r="AA4" s="6" t="n">
         <v>25</v>
       </c>
-      <c r="AB4" s="2" t="n">
+      <c r="AB4" s="3" t="n">
         <v>26</v>
       </c>
-      <c r="AC4" s="7" t="n">
+      <c r="AC4" s="8" t="n">
         <v>27</v>
       </c>
-      <c r="AD4" s="8" t="n">
+      <c r="AD4" s="9" t="n">
         <v>28</v>
       </c>
-      <c r="AE4" s="2" t="n">
+      <c r="AE4" s="3" t="n">
         <v>29</v>
       </c>
-      <c r="AF4" s="2" t="n">
+      <c r="AF4" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="AG4" s="11" t="n">
+      <c r="AG4" s="12" t="n">
         <v>31</v>
       </c>
-      <c r="AH4" s="2" t="n">
+      <c r="AH4" s="3" t="n">
         <v>32</v>
       </c>
-      <c r="AI4" s="2" t="n">
+      <c r="AI4" s="3" t="n">
         <v>33</v>
       </c>
-      <c r="AJ4" s="2" t="n">
+      <c r="AJ4" s="3" t="n">
         <v>34</v>
       </c>
-      <c r="AK4" s="5" t="n">
+      <c r="AK4" s="6" t="n">
         <v>35</v>
       </c>
-      <c r="AL4" s="2" t="n">
+      <c r="AL4" s="3" t="n">
         <v>36</v>
       </c>
-      <c r="AM4" s="2" t="n">
+      <c r="AM4" s="3" t="n">
         <v>37</v>
       </c>
-      <c r="AN4" s="5" t="n">
+      <c r="AN4" s="6" t="n">
         <v>38</v>
       </c>
-      <c r="AO4" s="9" t="n">
+      <c r="AO4" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="AP4" s="2" t="n">
+      <c r="AP4" s="3" t="n">
         <v>39</v>
       </c>
-      <c r="AQ4" s="2" t="n">
+      <c r="AQ4" s="3" t="n">
         <v>40</v>
       </c>
-      <c r="AR4" s="2" t="n">
+      <c r="AR4" s="3" t="n">
         <v>41</v>
       </c>
-      <c r="AS4" s="2"/>
-      <c r="AT4" s="2"/>
-      <c r="AU4" s="2"/>
-      <c r="AV4" s="2"/>
-      <c r="AW4" s="2"/>
-      <c r="AX4" s="2"/>
-      <c r="AY4" s="2"/>
-      <c r="AZ4" s="2"/>
-      <c r="BA4" s="2"/>
-      <c r="BB4" s="2"/>
-      <c r="BC4" s="2"/>
-      <c r="BD4" s="2"/>
-      <c r="BE4" s="2"/>
-      <c r="BF4" s="2"/>
-      <c r="BG4" s="2"/>
-      <c r="BH4" s="2"/>
-      <c r="BI4" s="2"/>
-      <c r="BJ4" s="2"/>
-      <c r="BK4" s="2"/>
-      <c r="BL4" s="2"/>
-      <c r="BM4" s="2"/>
-      <c r="BN4" s="2"/>
-      <c r="BO4" s="2"/>
-      <c r="BP4" s="2"/>
-      <c r="BQ4" s="2"/>
-      <c r="BR4" s="2"/>
-      <c r="BS4" s="2"/>
-      <c r="BT4" s="2"/>
-      <c r="BU4" s="2"/>
-      <c r="BV4" s="2"/>
-      <c r="BW4" s="2"/>
-      <c r="BX4" s="2"/>
-      <c r="BY4" s="2"/>
-      <c r="BZ4" s="2"/>
-      <c r="CA4" s="2"/>
-      <c r="CB4" s="2"/>
-      <c r="CC4" s="2"/>
-      <c r="CD4" s="2"/>
-      <c r="CE4" s="2"/>
-      <c r="CF4" s="2"/>
-      <c r="CG4" s="2"/>
+      <c r="AS4" s="3"/>
+      <c r="AT4" s="3"/>
+      <c r="AU4" s="3"/>
+      <c r="AV4" s="3"/>
+      <c r="AW4" s="3"/>
+      <c r="AX4" s="3"/>
+      <c r="AY4" s="3"/>
+      <c r="AZ4" s="3"/>
+      <c r="BA4" s="3"/>
+      <c r="BB4" s="3"/>
+      <c r="BC4" s="3"/>
+      <c r="BD4" s="3"/>
+      <c r="BE4" s="3"/>
+      <c r="BF4" s="3"/>
+      <c r="BG4" s="3"/>
+      <c r="BH4" s="3"/>
+      <c r="BI4" s="3"/>
+      <c r="BJ4" s="3"/>
+      <c r="BK4" s="3"/>
+      <c r="BL4" s="3"/>
+      <c r="BM4" s="3"/>
+      <c r="BN4" s="3"/>
+      <c r="BO4" s="3"/>
+      <c r="BP4" s="3"/>
+      <c r="BQ4" s="3"/>
+      <c r="BR4" s="3"/>
+      <c r="BS4" s="3"/>
+      <c r="BT4" s="3"/>
+      <c r="BU4" s="3"/>
+      <c r="BV4" s="3"/>
+      <c r="BW4" s="3"/>
+      <c r="BX4" s="3"/>
+      <c r="BY4" s="3"/>
+      <c r="BZ4" s="3"/>
+      <c r="CA4" s="3"/>
+      <c r="CB4" s="3"/>
+      <c r="CC4" s="3"/>
+      <c r="CD4" s="3"/>
+      <c r="CE4" s="3"/>
+      <c r="CF4" s="3"/>
+      <c r="CG4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="8" t="n">
+      <c r="C5" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D5" s="8" t="n">
+      <c r="D5" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="E5" s="2" t="n">
+      <c r="E5" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="F5" s="7" t="n">
+      <c r="F5" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="G5" s="2" t="n">
+      <c r="G5" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="H5" s="2" t="n">
+      <c r="H5" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="I5" s="2" t="n">
+      <c r="I5" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="J5" s="7" t="n">
+      <c r="J5" s="8" t="n">
         <v>8</v>
       </c>
-      <c r="K5" s="2" t="n">
+      <c r="K5" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="L5" s="2" t="n">
+      <c r="L5" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="M5" s="2" t="n">
+      <c r="M5" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="N5" s="11" t="n">
+      <c r="N5" s="12" t="n">
         <v>12</v>
       </c>
-      <c r="O5" s="2" t="n">
+      <c r="O5" s="3" t="n">
         <v>13</v>
       </c>
-      <c r="P5" s="2" t="n">
+      <c r="P5" s="3" t="n">
         <v>14</v>
       </c>
-      <c r="Q5" s="2" t="n">
+      <c r="Q5" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="R5" s="2" t="n">
+      <c r="R5" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="S5" s="2" t="n">
+      <c r="S5" s="3" t="n">
         <v>17</v>
       </c>
-      <c r="T5" s="2" t="n">
+      <c r="T5" s="3" t="n">
         <v>18</v>
       </c>
-      <c r="U5" s="2" t="n">
+      <c r="U5" s="3" t="n">
         <v>19</v>
       </c>
-      <c r="V5" s="2" t="n">
+      <c r="V5" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="W5" s="2" t="n">
+      <c r="W5" s="3" t="n">
         <v>21</v>
       </c>
-      <c r="X5" s="2" t="n">
+      <c r="X5" s="3" t="n">
         <v>22</v>
       </c>
-      <c r="Y5" s="2" t="n">
+      <c r="Y5" s="3" t="n">
         <v>23</v>
       </c>
-      <c r="Z5" s="2" t="n">
+      <c r="Z5" s="3" t="n">
         <v>24</v>
       </c>
-      <c r="AA5" s="8" t="n">
+      <c r="AA5" s="9" t="n">
         <v>25</v>
       </c>
-      <c r="AB5" s="2" t="n">
+      <c r="AB5" s="3" t="n">
         <v>26</v>
       </c>
-      <c r="AC5" s="2" t="n">
+      <c r="AC5" s="3" t="n">
         <v>27</v>
       </c>
-      <c r="AD5" s="2" t="n">
+      <c r="AD5" s="3" t="n">
         <v>28</v>
       </c>
-      <c r="AE5" s="2" t="n">
+      <c r="AE5" s="3" t="n">
         <v>29</v>
       </c>
-      <c r="AF5" s="2" t="n">
+      <c r="AF5" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="AG5" s="2" t="n">
+      <c r="AG5" s="3" t="n">
         <v>31</v>
       </c>
-      <c r="AH5" s="2" t="n">
+      <c r="AH5" s="3" t="n">
         <v>32</v>
       </c>
-      <c r="AI5" s="2" t="n">
+      <c r="AI5" s="3" t="n">
         <v>33</v>
       </c>
-      <c r="AJ5" s="2" t="n">
+      <c r="AJ5" s="3" t="n">
         <v>34</v>
       </c>
-      <c r="AK5" s="2" t="n">
+      <c r="AK5" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="AL5" s="2" t="n">
+      <c r="AL5" s="3" t="n">
         <v>36</v>
       </c>
-      <c r="AM5" s="2" t="n">
+      <c r="AM5" s="3" t="n">
         <v>37</v>
       </c>
-      <c r="AN5" s="2" t="n">
+      <c r="AN5" s="3" t="n">
         <v>38</v>
       </c>
-      <c r="AO5" s="7" t="n">
+      <c r="AO5" s="8" t="n">
         <v>39</v>
       </c>
-      <c r="AP5" s="2" t="n">
+      <c r="AP5" s="3" t="n">
         <v>40</v>
       </c>
-      <c r="AQ5" s="2" t="n">
+      <c r="AQ5" s="3" t="n">
         <v>41</v>
       </c>
-      <c r="AR5" s="5" t="n">
+      <c r="AR5" s="6" t="n">
         <v>42</v>
       </c>
-      <c r="AS5" s="2" t="n">
+      <c r="AS5" s="3" t="n">
         <v>43</v>
       </c>
-      <c r="AT5" s="2" t="n">
+      <c r="AT5" s="3" t="n">
         <v>44</v>
       </c>
-      <c r="AU5" s="2" t="n">
+      <c r="AU5" s="3" t="n">
         <v>45</v>
       </c>
-      <c r="AV5" s="2" t="n">
+      <c r="AV5" s="3" t="n">
         <v>46</v>
       </c>
-      <c r="AW5" s="2" t="n">
+      <c r="AW5" s="3" t="n">
         <v>47</v>
       </c>
-      <c r="AX5" s="2" t="n">
+      <c r="AX5" s="3" t="n">
         <v>48</v>
       </c>
-      <c r="AY5" s="9" t="n">
+      <c r="AY5" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="AZ5" s="2" t="n">
+      <c r="AZ5" s="3" t="n">
         <v>49</v>
       </c>
-      <c r="BA5" s="2" t="n">
+      <c r="BA5" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="BB5" s="8" t="n">
+      <c r="BB5" s="9" t="n">
         <v>51</v>
       </c>
-      <c r="BC5" s="8" t="n">
+      <c r="BC5" s="9" t="n">
         <v>52</v>
       </c>
-      <c r="BD5" s="2"/>
-      <c r="BE5" s="2"/>
-      <c r="BF5" s="2"/>
-      <c r="BG5" s="2"/>
-      <c r="BH5" s="2"/>
-      <c r="BI5" s="2"/>
-      <c r="BJ5" s="2"/>
-      <c r="BK5" s="2"/>
-      <c r="BL5" s="2"/>
-      <c r="BM5" s="2"/>
-      <c r="BN5" s="2"/>
-      <c r="BO5" s="2"/>
-      <c r="BP5" s="2"/>
-      <c r="BQ5" s="2"/>
-      <c r="BR5" s="2"/>
-      <c r="BS5" s="2"/>
-      <c r="BT5" s="2"/>
-      <c r="BU5" s="2"/>
-      <c r="BV5" s="2"/>
-      <c r="BW5" s="2"/>
-      <c r="BX5" s="2"/>
-      <c r="BY5" s="2"/>
-      <c r="BZ5" s="2"/>
-      <c r="CA5" s="2"/>
-      <c r="CB5" s="2"/>
-      <c r="CC5" s="2"/>
-      <c r="CD5" s="2"/>
-      <c r="CE5" s="2"/>
-      <c r="CF5" s="2"/>
-      <c r="CG5" s="2"/>
+      <c r="BD5" s="3"/>
+      <c r="BE5" s="3"/>
+      <c r="BF5" s="3"/>
+      <c r="BG5" s="3"/>
+      <c r="BH5" s="3"/>
+      <c r="BI5" s="3"/>
+      <c r="BJ5" s="3"/>
+      <c r="BK5" s="3"/>
+      <c r="BL5" s="3"/>
+      <c r="BM5" s="3"/>
+      <c r="BN5" s="3"/>
+      <c r="BO5" s="3"/>
+      <c r="BP5" s="3"/>
+      <c r="BQ5" s="3"/>
+      <c r="BR5" s="3"/>
+      <c r="BS5" s="3"/>
+      <c r="BT5" s="3"/>
+      <c r="BU5" s="3"/>
+      <c r="BV5" s="3"/>
+      <c r="BW5" s="3"/>
+      <c r="BX5" s="3"/>
+      <c r="BY5" s="3"/>
+      <c r="BZ5" s="3"/>
+      <c r="CA5" s="3"/>
+      <c r="CB5" s="3"/>
+      <c r="CC5" s="3"/>
+      <c r="CD5" s="3"/>
+      <c r="CE5" s="3"/>
+      <c r="CF5" s="3"/>
+      <c r="CG5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="11" t="n">
+      <c r="C6" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="D6" s="2" t="n">
+      <c r="D6" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="E6" s="2" t="n">
+      <c r="E6" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="F6" s="7" t="n">
+      <c r="F6" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="G6" s="2" t="n">
+      <c r="G6" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="H6" s="8" t="n">
+      <c r="H6" s="9" t="n">
         <v>6</v>
       </c>
-      <c r="I6" s="8" t="n">
+      <c r="I6" s="9" t="n">
         <v>7</v>
       </c>
-      <c r="J6" s="8" t="n">
+      <c r="J6" s="9" t="n">
         <v>8</v>
       </c>
-      <c r="K6" s="11" t="n">
+      <c r="K6" s="12" t="n">
         <v>9</v>
       </c>
-      <c r="L6" s="2" t="n">
+      <c r="L6" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="M6" s="2" t="n">
+      <c r="M6" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="N6" s="2" t="n">
+      <c r="N6" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="O6" s="2" t="n">
+      <c r="O6" s="3" t="n">
         <v>13</v>
       </c>
-      <c r="P6" s="8" t="n">
+      <c r="P6" s="9" t="n">
         <v>14</v>
       </c>
-      <c r="Q6" s="8" t="n">
+      <c r="Q6" s="9" t="n">
         <v>15</v>
       </c>
-      <c r="R6" s="2" t="n">
+      <c r="R6" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="S6" s="11" t="n">
+      <c r="S6" s="12" t="n">
         <v>17</v>
       </c>
-      <c r="T6" s="2" t="n">
+      <c r="T6" s="3" t="n">
         <v>18</v>
       </c>
-      <c r="U6" s="5" t="n">
+      <c r="U6" s="6" t="n">
         <v>19</v>
       </c>
-      <c r="V6" s="2" t="n">
+      <c r="V6" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="W6" s="5" t="n">
+      <c r="W6" s="6" t="n">
         <v>21</v>
       </c>
-      <c r="X6" s="2" t="n">
+      <c r="X6" s="3" t="n">
         <v>22</v>
       </c>
-      <c r="Y6" s="2" t="n">
+      <c r="Y6" s="3" t="n">
         <v>23</v>
       </c>
-      <c r="Z6" s="2" t="n">
+      <c r="Z6" s="3" t="n">
         <v>24</v>
       </c>
-      <c r="AA6" s="2" t="n">
+      <c r="AA6" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="AB6" s="11" t="n">
+      <c r="AB6" s="12" t="n">
         <v>26</v>
       </c>
-      <c r="AC6" s="11" t="n">
+      <c r="AC6" s="12" t="n">
         <v>27</v>
       </c>
-      <c r="AD6" s="2" t="n">
+      <c r="AD6" s="3" t="n">
         <v>28</v>
       </c>
-      <c r="AE6" s="8" t="n">
+      <c r="AE6" s="9" t="n">
         <v>29</v>
       </c>
-      <c r="AF6" s="2" t="n">
+      <c r="AF6" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="AG6" s="2" t="n">
+      <c r="AG6" s="3" t="n">
         <v>31</v>
       </c>
-      <c r="AH6" s="2" t="n">
+      <c r="AH6" s="3" t="n">
         <v>32</v>
       </c>
-      <c r="AI6" s="2" t="n">
+      <c r="AI6" s="3" t="n">
         <v>33</v>
       </c>
-      <c r="AJ6" s="2" t="n">
+      <c r="AJ6" s="3" t="n">
         <v>34</v>
       </c>
-      <c r="AK6" s="2" t="n">
+      <c r="AK6" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="AL6" s="2" t="n">
+      <c r="AL6" s="3" t="n">
         <v>36</v>
       </c>
-      <c r="AM6" s="2" t="n">
+      <c r="AM6" s="3" t="n">
         <v>37</v>
       </c>
-      <c r="AN6" s="7" t="n">
+      <c r="AN6" s="8" t="n">
         <v>38</v>
       </c>
-      <c r="AO6" s="2" t="n">
+      <c r="AO6" s="3" t="n">
         <v>39</v>
       </c>
-      <c r="AP6" s="2" t="n">
+      <c r="AP6" s="3" t="n">
         <v>40</v>
       </c>
-      <c r="AQ6" s="2" t="n">
+      <c r="AQ6" s="3" t="n">
         <v>41</v>
       </c>
-      <c r="AR6" s="2" t="n">
+      <c r="AR6" s="3" t="n">
         <v>42</v>
       </c>
-      <c r="AS6" s="8" t="n">
+      <c r="AS6" s="9" t="n">
         <v>43</v>
       </c>
-      <c r="AT6" s="5" t="n">
+      <c r="AT6" s="6" t="n">
         <v>44</v>
       </c>
-      <c r="AU6" s="8" t="n">
+      <c r="AU6" s="9" t="n">
         <v>45</v>
       </c>
-      <c r="AV6" s="8" t="n">
+      <c r="AV6" s="9" t="n">
         <v>46</v>
       </c>
-      <c r="AW6" s="8" t="n">
+      <c r="AW6" s="9" t="n">
         <v>47</v>
       </c>
-      <c r="AX6" s="9" t="n">
+      <c r="AX6" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="AY6" s="2" t="n">
+      <c r="AY6" s="3" t="n">
         <v>48</v>
       </c>
-      <c r="AZ6" s="5" t="n">
+      <c r="AZ6" s="6" t="n">
         <v>49</v>
       </c>
-      <c r="BA6" s="7" t="n">
+      <c r="BA6" s="8" t="n">
         <v>50</v>
       </c>
-      <c r="BB6" s="2" t="n">
+      <c r="BB6" s="3" t="n">
         <v>51</v>
       </c>
-      <c r="BC6" s="2" t="n">
+      <c r="BC6" s="3" t="n">
         <v>52</v>
       </c>
-      <c r="BD6" s="2" t="n">
+      <c r="BD6" s="3" t="n">
         <v>53</v>
       </c>
-      <c r="BE6" s="2" t="n">
+      <c r="BE6" s="3" t="n">
         <v>54</v>
       </c>
-      <c r="BF6" s="2" t="n">
+      <c r="BF6" s="3" t="n">
         <v>55</v>
       </c>
-      <c r="BG6" s="2" t="n">
+      <c r="BG6" s="3" t="n">
         <v>56</v>
       </c>
-      <c r="BH6" s="8" t="n">
+      <c r="BH6" s="9" t="n">
         <v>57</v>
       </c>
-      <c r="BI6" s="8" t="n">
+      <c r="BI6" s="9" t="n">
         <v>58</v>
       </c>
-      <c r="BJ6" s="8" t="n">
+      <c r="BJ6" s="9" t="n">
         <v>59</v>
       </c>
-      <c r="BK6" s="8" t="n">
+      <c r="BK6" s="9" t="n">
         <v>60</v>
       </c>
-      <c r="BL6" s="8" t="n">
+      <c r="BL6" s="9" t="n">
         <v>61</v>
       </c>
-      <c r="BM6" s="8" t="n">
+      <c r="BM6" s="9" t="n">
         <v>62</v>
       </c>
-      <c r="BN6" s="8" t="n">
+      <c r="BN6" s="9" t="n">
         <v>63</v>
       </c>
-      <c r="BO6" s="6" t="n">
+      <c r="BO6" s="7" t="n">
         <v>64</v>
       </c>
-      <c r="BP6" s="11" t="n">
+      <c r="BP6" s="12" t="n">
         <v>65</v>
       </c>
-      <c r="BQ6" s="2"/>
-      <c r="BR6" s="2"/>
-      <c r="BS6" s="2"/>
-      <c r="BT6" s="13"/>
-      <c r="BU6" s="2"/>
-      <c r="BV6" s="2"/>
-      <c r="BW6" s="2"/>
-      <c r="BX6" s="2"/>
-      <c r="BY6" s="2"/>
-      <c r="BZ6" s="2"/>
-      <c r="CA6" s="2"/>
-      <c r="CB6" s="2"/>
-      <c r="CC6" s="2"/>
-      <c r="CD6" s="2"/>
-      <c r="CE6" s="2"/>
-      <c r="CF6" s="2"/>
-      <c r="CG6" s="2"/>
+      <c r="BQ6" s="3"/>
+      <c r="BR6" s="3"/>
+      <c r="BS6" s="3"/>
+      <c r="BT6" s="14"/>
+      <c r="BU6" s="3"/>
+      <c r="BV6" s="3"/>
+      <c r="BW6" s="3"/>
+      <c r="BX6" s="3"/>
+      <c r="BY6" s="3"/>
+      <c r="BZ6" s="3"/>
+      <c r="CA6" s="3"/>
+      <c r="CB6" s="3"/>
+      <c r="CC6" s="3"/>
+      <c r="CD6" s="3"/>
+      <c r="CE6" s="3"/>
+      <c r="CF6" s="3"/>
+      <c r="CG6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="6" t="n">
+      <c r="C7" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="D7" s="11" t="n">
+      <c r="D7" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="E7" s="6" t="n">
+      <c r="E7" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="F7" s="6" t="n">
+      <c r="F7" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="G7" s="2" t="n">
+      <c r="G7" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="H7" s="2" t="n">
+      <c r="H7" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="I7" s="5" t="n">
+      <c r="I7" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="J7" s="2" t="n">
+      <c r="J7" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="K7" s="2" t="n">
+      <c r="K7" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="L7" s="2" t="n">
+      <c r="L7" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="M7" s="2" t="n">
+      <c r="M7" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="N7" s="7" t="n">
+      <c r="N7" s="8" t="n">
         <v>12</v>
       </c>
-      <c r="O7" s="11" t="n">
+      <c r="O7" s="12" t="n">
         <v>13</v>
       </c>
-      <c r="P7" s="7" t="n">
+      <c r="P7" s="8" t="n">
         <v>14</v>
       </c>
-      <c r="Q7" s="8" t="n">
+      <c r="Q7" s="9" t="n">
         <v>15</v>
       </c>
-      <c r="R7" s="8" t="n">
+      <c r="R7" s="9" t="n">
         <v>16</v>
       </c>
-      <c r="S7" s="2" t="n">
+      <c r="S7" s="3" t="n">
         <v>17</v>
       </c>
-      <c r="T7" s="2" t="n">
+      <c r="T7" s="3" t="n">
         <v>18</v>
       </c>
-      <c r="U7" s="2" t="n">
+      <c r="U7" s="3" t="n">
         <v>19</v>
       </c>
-      <c r="V7" s="8" t="n">
+      <c r="V7" s="9" t="n">
         <v>20</v>
       </c>
-      <c r="W7" s="2" t="n">
+      <c r="W7" s="3" t="n">
         <v>21</v>
       </c>
-      <c r="X7" s="2" t="n">
+      <c r="X7" s="3" t="n">
         <v>22</v>
       </c>
-      <c r="Y7" s="5" t="n">
+      <c r="Y7" s="6" t="n">
         <v>23</v>
       </c>
-      <c r="Z7" s="7" t="n">
+      <c r="Z7" s="8" t="n">
         <v>24</v>
       </c>
-      <c r="AA7" s="7" t="n">
+      <c r="AA7" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="AB7" s="2" t="n">
+      <c r="AB7" s="3" t="n">
         <v>26</v>
       </c>
-      <c r="AC7" s="2" t="n">
+      <c r="AC7" s="3" t="n">
         <v>27</v>
       </c>
-      <c r="AD7" s="2" t="n">
+      <c r="AD7" s="8" t="n">
         <v>28</v>
       </c>
-      <c r="AE7" s="2" t="n">
+      <c r="AE7" s="3" t="n">
         <v>29</v>
       </c>
-      <c r="AF7" s="2" t="n">
+      <c r="AF7" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="AG7" s="8" t="n">
+      <c r="AG7" s="9" t="n">
         <v>31</v>
       </c>
-      <c r="AH7" s="2" t="n">
+      <c r="AH7" s="3" t="n">
         <v>32</v>
       </c>
-      <c r="AI7" s="2" t="n">
+      <c r="AI7" s="3" t="n">
         <v>33</v>
       </c>
-      <c r="AJ7" s="2" t="n">
+      <c r="AJ7" s="3" t="n">
         <v>34</v>
       </c>
-      <c r="AK7" s="9" t="n">
+      <c r="AK7" s="10" t="n">
         <v>6</v>
       </c>
-      <c r="AL7" s="2" t="n">
+      <c r="AL7" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="AM7" s="2" t="n">
+      <c r="AM7" s="3" t="n">
         <v>36</v>
       </c>
-      <c r="AN7" s="2" t="n">
+      <c r="AN7" s="3" t="n">
         <v>37</v>
       </c>
-      <c r="AO7" s="2" t="n">
+      <c r="AO7" s="3" t="n">
         <v>38</v>
       </c>
-      <c r="AP7" s="2" t="n">
+      <c r="AP7" s="3" t="n">
         <v>39</v>
       </c>
-      <c r="AQ7" s="8" t="n">
+      <c r="AQ7" s="9" t="n">
         <v>40</v>
       </c>
-      <c r="AR7" s="2"/>
-      <c r="AS7" s="2"/>
-      <c r="AT7" s="2"/>
-      <c r="AU7" s="2"/>
-      <c r="AV7" s="2"/>
-      <c r="AW7" s="2"/>
-      <c r="AX7" s="2"/>
-      <c r="AY7" s="2"/>
-      <c r="AZ7" s="2"/>
-      <c r="BA7" s="2"/>
-      <c r="BB7" s="2"/>
-      <c r="BC7" s="2"/>
-      <c r="BD7" s="2"/>
-      <c r="BE7" s="2"/>
-      <c r="BF7" s="2"/>
-      <c r="BG7" s="2"/>
-      <c r="BH7" s="2"/>
-      <c r="BI7" s="2"/>
-      <c r="BJ7" s="2"/>
-      <c r="BK7" s="2"/>
-      <c r="BL7" s="2"/>
-      <c r="BM7" s="2"/>
-      <c r="BN7" s="2"/>
-      <c r="BO7" s="2"/>
-      <c r="BP7" s="2"/>
-      <c r="BQ7" s="2"/>
-      <c r="BR7" s="2"/>
-      <c r="BS7" s="2"/>
-      <c r="BT7" s="2"/>
-      <c r="BU7" s="2"/>
-      <c r="BV7" s="2"/>
-      <c r="BW7" s="2"/>
-      <c r="BX7" s="2"/>
-      <c r="BY7" s="2"/>
-      <c r="BZ7" s="2"/>
-      <c r="CA7" s="2"/>
-      <c r="CB7" s="2"/>
-      <c r="CC7" s="2"/>
-      <c r="CD7" s="2"/>
-      <c r="CE7" s="2"/>
-      <c r="CF7" s="2"/>
-      <c r="CG7" s="2"/>
+      <c r="AR7" s="3"/>
+      <c r="AS7" s="3"/>
+      <c r="AT7" s="3"/>
+      <c r="AU7" s="3"/>
+      <c r="AV7" s="3"/>
+      <c r="AW7" s="3"/>
+      <c r="AX7" s="3"/>
+      <c r="AY7" s="3"/>
+      <c r="AZ7" s="3"/>
+      <c r="BA7" s="3"/>
+      <c r="BB7" s="3"/>
+      <c r="BC7" s="3"/>
+      <c r="BD7" s="3"/>
+      <c r="BE7" s="3"/>
+      <c r="BF7" s="3"/>
+      <c r="BG7" s="3"/>
+      <c r="BH7" s="3"/>
+      <c r="BI7" s="3"/>
+      <c r="BJ7" s="3"/>
+      <c r="BK7" s="3"/>
+      <c r="BL7" s="3"/>
+      <c r="BM7" s="3"/>
+      <c r="BN7" s="3"/>
+      <c r="BO7" s="3"/>
+      <c r="BP7" s="3"/>
+      <c r="BQ7" s="3"/>
+      <c r="BR7" s="3"/>
+      <c r="BS7" s="3"/>
+      <c r="BT7" s="3"/>
+      <c r="BU7" s="3"/>
+      <c r="BV7" s="3"/>
+      <c r="BW7" s="3"/>
+      <c r="BX7" s="3"/>
+      <c r="BY7" s="3"/>
+      <c r="BZ7" s="3"/>
+      <c r="CA7" s="3"/>
+      <c r="CB7" s="3"/>
+      <c r="CC7" s="3"/>
+      <c r="CD7" s="3"/>
+      <c r="CE7" s="3"/>
+      <c r="CF7" s="3"/>
+      <c r="CG7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="2" t="n">
+      <c r="C8" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="D8" s="2" t="n">
+      <c r="D8" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="E8" s="2" t="n">
+      <c r="E8" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="F8" s="2" t="n">
+      <c r="F8" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="G8" s="7" t="n">
+      <c r="G8" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="H8" s="2" t="n">
+      <c r="H8" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="I8" s="7" t="n">
+      <c r="I8" s="8" t="n">
         <v>7</v>
       </c>
-      <c r="J8" s="2" t="n">
+      <c r="J8" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="K8" s="2" t="n">
+      <c r="K8" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="L8" s="8" t="n">
+      <c r="L8" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="M8" s="8" t="n">
+      <c r="M8" s="9" t="n">
         <v>11</v>
       </c>
-      <c r="N8" s="2" t="n">
+      <c r="N8" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="O8" s="2" t="n">
+      <c r="O8" s="3" t="n">
         <v>13</v>
       </c>
-      <c r="P8" s="2" t="n">
+      <c r="P8" s="3" t="n">
         <v>14</v>
       </c>
-      <c r="Q8" s="8" t="n">
+      <c r="Q8" s="9" t="n">
         <v>15</v>
       </c>
-      <c r="R8" s="8" t="n">
+      <c r="R8" s="9" t="n">
         <v>16</v>
       </c>
-      <c r="S8" s="2" t="n">
+      <c r="S8" s="3" t="n">
         <v>17</v>
       </c>
-      <c r="T8" s="5" t="n">
+      <c r="T8" s="6" t="n">
         <v>18</v>
       </c>
-      <c r="U8" s="8" t="n">
+      <c r="U8" s="9" t="n">
         <v>19</v>
       </c>
-      <c r="V8" s="2" t="n">
+      <c r="V8" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="W8" s="8" t="n">
+      <c r="W8" s="9" t="n">
         <v>21</v>
       </c>
-      <c r="X8" s="8" t="n">
+      <c r="X8" s="9" t="n">
         <v>22</v>
       </c>
-      <c r="Y8" s="7" t="n">
+      <c r="Y8" s="8" t="n">
         <v>23</v>
       </c>
-      <c r="Z8" s="2" t="n">
+      <c r="Z8" s="3" t="n">
         <v>24</v>
       </c>
-      <c r="AA8" s="2" t="n">
+      <c r="AA8" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="AB8" s="5" t="n">
+      <c r="AB8" s="6" t="n">
         <v>26</v>
       </c>
-      <c r="AC8" s="2" t="n">
+      <c r="AC8" s="3" t="n">
         <v>27</v>
       </c>
-      <c r="AD8" s="8" t="n">
+      <c r="AD8" s="9" t="n">
         <v>28</v>
       </c>
-      <c r="AE8" s="2" t="n">
+      <c r="AE8" s="3" t="n">
         <v>29</v>
       </c>
-      <c r="AF8" s="8" t="n">
+      <c r="AF8" s="9" t="n">
         <v>30</v>
       </c>
-      <c r="AG8" s="2" t="n">
+      <c r="AG8" s="3" t="n">
         <v>31</v>
       </c>
-      <c r="AH8" s="2" t="n">
+      <c r="AH8" s="3" t="n">
         <v>32</v>
       </c>
-      <c r="AI8" s="7" t="n">
+      <c r="AI8" s="8" t="n">
         <v>33</v>
       </c>
-      <c r="AJ8" s="2" t="n">
+      <c r="AJ8" s="3" t="n">
         <v>34</v>
       </c>
-      <c r="AK8" s="2" t="n">
+      <c r="AK8" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="AL8" s="2" t="n">
+      <c r="AL8" s="3" t="n">
         <v>36</v>
       </c>
-      <c r="AM8" s="8" t="n">
+      <c r="AM8" s="9" t="n">
         <v>37</v>
       </c>
-      <c r="AN8" s="8" t="n">
+      <c r="AN8" s="9" t="n">
         <v>38</v>
       </c>
-      <c r="AO8" s="2" t="n">
+      <c r="AO8" s="3" t="n">
         <v>39</v>
       </c>
-      <c r="AP8" s="5" t="n">
+      <c r="AP8" s="6" t="n">
         <v>40</v>
       </c>
-      <c r="AQ8" s="2" t="n">
+      <c r="AQ8" s="3" t="n">
         <v>41</v>
       </c>
-      <c r="AR8" s="7" t="n">
+      <c r="AR8" s="8" t="n">
         <v>42</v>
       </c>
-      <c r="AS8" s="2" t="n">
+      <c r="AS8" s="3" t="n">
         <v>43</v>
       </c>
-      <c r="AT8" s="2" t="n">
+      <c r="AT8" s="3" t="n">
         <v>44</v>
       </c>
-      <c r="AU8" s="8" t="n">
+      <c r="AU8" s="9" t="n">
         <v>45</v>
       </c>
-      <c r="AV8" s="9" t="n">
+      <c r="AV8" s="10" t="n">
         <v>7</v>
       </c>
-      <c r="AW8" s="2" t="n">
+      <c r="AW8" s="3" t="n">
         <v>46</v>
       </c>
-      <c r="AX8" s="2" t="n">
+      <c r="AX8" s="3" t="n">
         <v>47</v>
       </c>
-      <c r="AY8" s="2" t="n">
+      <c r="AY8" s="3" t="n">
         <v>48</v>
       </c>
-      <c r="AZ8" s="2" t="n">
+      <c r="AZ8" s="3" t="n">
         <v>49</v>
       </c>
-      <c r="BA8" s="2" t="n">
+      <c r="BA8" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="BB8" s="8" t="n">
+      <c r="BB8" s="9" t="n">
         <v>51</v>
       </c>
-      <c r="BC8" s="2" t="n">
+      <c r="BC8" s="3" t="n">
         <v>52</v>
       </c>
-      <c r="BD8" s="2"/>
-      <c r="BE8" s="2"/>
-      <c r="BF8" s="2"/>
-      <c r="BG8" s="2"/>
-      <c r="BH8" s="2"/>
-      <c r="BI8" s="2"/>
-      <c r="BJ8" s="2"/>
-      <c r="BK8" s="2"/>
-      <c r="BL8" s="2"/>
-      <c r="BM8" s="2"/>
-      <c r="BN8" s="2"/>
-      <c r="BO8" s="2"/>
-      <c r="BP8" s="2"/>
-      <c r="BQ8" s="2"/>
-      <c r="BR8" s="2"/>
-      <c r="BS8" s="2"/>
-      <c r="BT8" s="2"/>
-      <c r="BU8" s="2"/>
-      <c r="BV8" s="2"/>
-      <c r="BW8" s="2"/>
-      <c r="BX8" s="2"/>
-      <c r="BY8" s="2"/>
-      <c r="BZ8" s="2"/>
-      <c r="CA8" s="2"/>
-      <c r="CB8" s="2"/>
-      <c r="CC8" s="2"/>
-      <c r="CD8" s="2"/>
-      <c r="CE8" s="2"/>
-      <c r="CF8" s="2"/>
-      <c r="CG8" s="2"/>
+      <c r="BD8" s="3"/>
+      <c r="BE8" s="3"/>
+      <c r="BF8" s="3"/>
+      <c r="BG8" s="3"/>
+      <c r="BH8" s="3"/>
+      <c r="BI8" s="3"/>
+      <c r="BJ8" s="3"/>
+      <c r="BK8" s="3"/>
+      <c r="BL8" s="3"/>
+      <c r="BM8" s="3"/>
+      <c r="BN8" s="3"/>
+      <c r="BO8" s="3"/>
+      <c r="BP8" s="3"/>
+      <c r="BQ8" s="3"/>
+      <c r="BR8" s="3"/>
+      <c r="BS8" s="3"/>
+      <c r="BT8" s="3"/>
+      <c r="BU8" s="3"/>
+      <c r="BV8" s="3"/>
+      <c r="BW8" s="3"/>
+      <c r="BX8" s="3"/>
+      <c r="BY8" s="3"/>
+      <c r="BZ8" s="3"/>
+      <c r="CA8" s="3"/>
+      <c r="CB8" s="3"/>
+      <c r="CC8" s="3"/>
+      <c r="CD8" s="3"/>
+      <c r="CE8" s="3"/>
+      <c r="CF8" s="3"/>
+      <c r="CG8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="2" t="n">
+      <c r="C9" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="D9" s="2" t="n">
+      <c r="D9" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="E9" s="2" t="n">
+      <c r="E9" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="F9" s="2" t="n">
+      <c r="F9" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="G9" s="2" t="n">
+      <c r="G9" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="H9" s="2" t="n">
+      <c r="H9" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="I9" s="2" t="n">
+      <c r="I9" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="J9" s="8" t="n">
+      <c r="J9" s="9" t="n">
         <v>8</v>
       </c>
-      <c r="K9" s="2" t="n">
+      <c r="K9" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="L9" s="2" t="n">
+      <c r="L9" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="M9" s="8" t="n">
+      <c r="M9" s="9" t="n">
         <v>11</v>
       </c>
-      <c r="N9" s="2" t="n">
+      <c r="N9" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="O9" s="7" t="n">
+      <c r="O9" s="8" t="n">
         <v>13</v>
       </c>
-      <c r="P9" s="2" t="n">
+      <c r="P9" s="3" t="n">
         <v>14</v>
       </c>
-      <c r="Q9" s="2" t="n">
+      <c r="Q9" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="R9" s="5" t="n">
+      <c r="R9" s="6" t="n">
         <v>16</v>
       </c>
-      <c r="S9" s="2" t="n">
+      <c r="S9" s="3" t="n">
         <v>17</v>
       </c>
-      <c r="T9" s="8" t="n">
+      <c r="T9" s="9" t="n">
         <v>18</v>
       </c>
-      <c r="U9" s="8" t="n">
+      <c r="U9" s="9" t="n">
         <v>19</v>
       </c>
-      <c r="V9" s="2" t="n">
+      <c r="V9" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="W9" s="2" t="n">
+      <c r="W9" s="3" t="n">
         <v>21</v>
       </c>
-      <c r="X9" s="2" t="n">
+      <c r="X9" s="3" t="n">
         <v>22</v>
       </c>
-      <c r="Y9" s="8" t="n">
+      <c r="Y9" s="9" t="n">
         <v>23</v>
       </c>
-      <c r="Z9" s="8" t="n">
+      <c r="Z9" s="9" t="n">
         <v>24</v>
       </c>
-      <c r="AA9" s="7" t="n">
+      <c r="AA9" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="AB9" s="2" t="n">
+      <c r="AB9" s="3" t="n">
         <v>26</v>
       </c>
-      <c r="AC9" s="2" t="n">
+      <c r="AC9" s="3" t="n">
         <v>27</v>
       </c>
-      <c r="AD9" s="8" t="n">
+      <c r="AD9" s="9" t="n">
         <v>28</v>
       </c>
-      <c r="AE9" s="2" t="n">
+      <c r="AE9" s="3" t="n">
         <v>29</v>
       </c>
-      <c r="AF9" s="2" t="n">
+      <c r="AF9" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="AG9" s="5" t="n">
+      <c r="AG9" s="6" t="n">
         <v>31</v>
       </c>
-      <c r="AH9" s="2" t="n">
+      <c r="AH9" s="3" t="n">
         <v>32</v>
       </c>
-      <c r="AI9" s="11" t="n">
+      <c r="AI9" s="12" t="n">
         <v>33</v>
       </c>
-      <c r="AJ9" s="8" t="n">
+      <c r="AJ9" s="9" t="n">
         <v>34</v>
       </c>
-      <c r="AK9" s="8" t="n">
+      <c r="AK9" s="9" t="n">
         <v>35</v>
       </c>
-      <c r="AL9" s="8" t="n">
+      <c r="AL9" s="9" t="n">
         <v>36</v>
       </c>
-      <c r="AM9" s="8" t="n">
+      <c r="AM9" s="9" t="n">
         <v>37</v>
       </c>
-      <c r="AN9" s="8" t="n">
+      <c r="AN9" s="9" t="n">
         <v>38</v>
       </c>
-      <c r="AO9" s="8" t="n">
+      <c r="AO9" s="9" t="n">
         <v>39</v>
       </c>
-      <c r="AP9" s="6" t="n">
+      <c r="AP9" s="7" t="n">
         <v>40</v>
       </c>
-      <c r="AQ9" s="11" t="n">
+      <c r="AQ9" s="12" t="n">
         <v>41</v>
       </c>
-      <c r="AR9" s="2" t="n">
+      <c r="AR9" s="3" t="n">
         <v>42</v>
       </c>
-      <c r="AS9" s="8" t="n">
+      <c r="AS9" s="9" t="n">
         <v>43</v>
       </c>
-      <c r="AT9" s="8" t="n">
+      <c r="AT9" s="9" t="n">
         <v>44</v>
       </c>
-      <c r="AU9" s="9" t="n">
+      <c r="AU9" s="10" t="n">
         <v>8</v>
       </c>
-      <c r="AV9" s="14" t="n">
+      <c r="AV9" s="15" t="n">
         <v>45</v>
       </c>
-      <c r="AW9" s="2" t="n">
+      <c r="AW9" s="3" t="n">
         <v>46</v>
       </c>
-      <c r="AX9" s="2" t="n">
+      <c r="AX9" s="3" t="n">
         <v>47</v>
       </c>
-      <c r="AY9" s="2" t="n">
+      <c r="AY9" s="3" t="n">
         <v>48</v>
       </c>
-      <c r="AZ9" s="2" t="n">
+      <c r="AZ9" s="3" t="n">
         <v>49</v>
       </c>
-      <c r="BA9" s="2" t="n">
+      <c r="BA9" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="BB9" s="8" t="n">
+      <c r="BB9" s="9" t="n">
         <v>51</v>
       </c>
-      <c r="BC9" s="8" t="n">
+      <c r="BC9" s="9" t="n">
         <v>52</v>
       </c>
-      <c r="BD9" s="2" t="n">
+      <c r="BD9" s="3" t="n">
         <v>53</v>
       </c>
-      <c r="BE9" s="2"/>
-      <c r="BF9" s="2"/>
-      <c r="BG9" s="2"/>
-      <c r="BH9" s="2"/>
-      <c r="BI9" s="2"/>
-      <c r="BJ9" s="2"/>
-      <c r="BK9" s="2"/>
-      <c r="BL9" s="2"/>
-      <c r="BM9" s="2"/>
-      <c r="BN9" s="2"/>
-      <c r="BO9" s="2"/>
-      <c r="BP9" s="2"/>
-      <c r="BQ9" s="2"/>
-      <c r="BR9" s="2"/>
-      <c r="BS9" s="2"/>
-      <c r="BT9" s="2"/>
-      <c r="BU9" s="2"/>
-      <c r="BV9" s="2"/>
-      <c r="BW9" s="2"/>
-      <c r="BX9" s="2"/>
-      <c r="BY9" s="2"/>
-      <c r="BZ9" s="2"/>
-      <c r="CA9" s="2"/>
-      <c r="CB9" s="2"/>
-      <c r="CC9" s="2"/>
-      <c r="CD9" s="2"/>
-      <c r="CE9" s="2"/>
-      <c r="CF9" s="2"/>
-      <c r="CG9" s="2"/>
+      <c r="BE9" s="3"/>
+      <c r="BF9" s="3"/>
+      <c r="BG9" s="3"/>
+      <c r="BH9" s="3"/>
+      <c r="BI9" s="3"/>
+      <c r="BJ9" s="3"/>
+      <c r="BK9" s="3"/>
+      <c r="BL9" s="3"/>
+      <c r="BM9" s="3"/>
+      <c r="BN9" s="3"/>
+      <c r="BO9" s="3"/>
+      <c r="BP9" s="3"/>
+      <c r="BQ9" s="3"/>
+      <c r="BR9" s="3"/>
+      <c r="BS9" s="3"/>
+      <c r="BT9" s="3"/>
+      <c r="BU9" s="3"/>
+      <c r="BV9" s="3"/>
+      <c r="BW9" s="3"/>
+      <c r="BX9" s="3"/>
+      <c r="BY9" s="3"/>
+      <c r="BZ9" s="3"/>
+      <c r="CA9" s="3"/>
+      <c r="CB9" s="3"/>
+      <c r="CC9" s="3"/>
+      <c r="CD9" s="3"/>
+      <c r="CE9" s="3"/>
+      <c r="CF9" s="3"/>
+      <c r="CG9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="2" t="n">
+      <c r="C10" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="D10" s="7" t="n">
+      <c r="D10" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="E10" s="7" t="n">
+      <c r="E10" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="F10" s="15" t="n">
+      <c r="F10" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="G10" s="2" t="n">
+      <c r="G10" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="H10" s="8" t="n">
+      <c r="H10" s="9" t="n">
         <v>6</v>
       </c>
-      <c r="I10" s="2" t="n">
+      <c r="I10" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="J10" s="8" t="n">
+      <c r="J10" s="9" t="n">
         <v>8</v>
       </c>
-      <c r="K10" s="5" t="n">
+      <c r="K10" s="6" t="n">
         <v>9</v>
       </c>
-      <c r="L10" s="7" t="n">
+      <c r="L10" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="M10" s="8" t="n">
+      <c r="M10" s="9" t="n">
         <v>11</v>
       </c>
-      <c r="N10" s="2" t="n">
+      <c r="N10" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="O10" s="2" t="n">
+      <c r="O10" s="3" t="n">
         <v>13</v>
       </c>
-      <c r="P10" s="5" t="n">
+      <c r="P10" s="6" t="n">
         <v>14</v>
       </c>
-      <c r="Q10" s="2" t="n">
+      <c r="Q10" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="R10" s="5" t="n">
+      <c r="R10" s="6" t="n">
         <v>16</v>
       </c>
-      <c r="S10" s="8" t="n">
+      <c r="S10" s="9" t="n">
         <v>17</v>
       </c>
-      <c r="T10" s="2" t="n">
+      <c r="T10" s="3" t="n">
         <v>18</v>
       </c>
-      <c r="U10" s="2" t="n">
+      <c r="U10" s="3" t="n">
         <v>19</v>
       </c>
-      <c r="V10" s="2" t="n">
+      <c r="V10" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="W10" s="2" t="n">
+      <c r="W10" s="3" t="n">
         <v>21</v>
       </c>
-      <c r="X10" s="8" t="n">
+      <c r="X10" s="9" t="n">
         <v>22</v>
       </c>
-      <c r="Y10" s="8" t="n">
+      <c r="Y10" s="9" t="n">
         <v>23</v>
       </c>
-      <c r="Z10" s="11" t="n">
+      <c r="Z10" s="12" t="n">
         <v>24</v>
       </c>
-      <c r="AA10" s="11" t="n">
+      <c r="AA10" s="12" t="n">
         <v>25</v>
       </c>
-      <c r="AB10" s="2" t="n">
+      <c r="AB10" s="3" t="n">
         <v>26</v>
       </c>
-      <c r="AC10" s="2" t="n">
+      <c r="AC10" s="3" t="n">
         <v>27</v>
       </c>
-      <c r="AD10" s="2" t="n">
+      <c r="AD10" s="3" t="n">
         <v>28</v>
       </c>
-      <c r="AE10" s="8" t="n">
+      <c r="AE10" s="9" t="n">
         <v>29</v>
       </c>
-      <c r="AF10" s="8" t="n">
+      <c r="AF10" s="9" t="n">
         <v>30</v>
       </c>
-      <c r="AG10" s="2" t="n">
+      <c r="AG10" s="3" t="n">
         <v>31</v>
       </c>
-      <c r="AH10" s="8" t="n">
+      <c r="AH10" s="9" t="n">
         <v>32</v>
       </c>
-      <c r="AI10" s="2" t="n">
+      <c r="AI10" s="3" t="n">
         <v>33</v>
       </c>
-      <c r="AJ10" s="2" t="n">
+      <c r="AJ10" s="3" t="n">
         <v>34</v>
       </c>
-      <c r="AK10" s="8" t="n">
+      <c r="AK10" s="9" t="n">
         <v>35</v>
       </c>
-      <c r="AL10" s="8" t="n">
+      <c r="AL10" s="9" t="n">
         <v>36</v>
       </c>
-      <c r="AM10" s="8" t="n">
+      <c r="AM10" s="9" t="n">
         <v>37</v>
       </c>
-      <c r="AN10" s="2" t="n">
+      <c r="AN10" s="3" t="n">
         <v>38</v>
       </c>
-      <c r="AO10" s="9" t="n">
+      <c r="AO10" s="10" t="n">
         <v>9</v>
       </c>
-      <c r="AP10" s="2" t="n">
+      <c r="AP10" s="3" t="n">
         <v>39</v>
       </c>
-      <c r="AQ10" s="2" t="n">
+      <c r="AQ10" s="3" t="n">
         <v>40</v>
       </c>
-      <c r="AR10" s="8" t="n">
+      <c r="AR10" s="9" t="n">
         <v>41</v>
       </c>
-      <c r="AS10" s="8" t="n">
+      <c r="AS10" s="9" t="n">
         <v>42</v>
       </c>
-      <c r="AT10" s="8" t="n">
+      <c r="AT10" s="9" t="n">
         <v>43</v>
       </c>
-      <c r="AU10" s="8" t="n">
+      <c r="AU10" s="9" t="n">
         <v>44</v>
       </c>
-      <c r="AV10" s="8" t="n">
+      <c r="AV10" s="9" t="n">
         <v>45</v>
       </c>
-      <c r="AW10" s="7" t="n">
+      <c r="AW10" s="8" t="n">
         <v>46</v>
       </c>
-      <c r="AX10" s="6" t="n">
+      <c r="AX10" s="7" t="n">
         <v>47</v>
       </c>
-      <c r="AY10" s="2"/>
-      <c r="AZ10" s="2"/>
-      <c r="BA10" s="2"/>
-      <c r="BB10" s="2"/>
-      <c r="BC10" s="2"/>
-      <c r="BD10" s="2"/>
-      <c r="BE10" s="2"/>
-      <c r="BF10" s="2"/>
-      <c r="BG10" s="2"/>
-      <c r="BH10" s="2"/>
-      <c r="BI10" s="2"/>
-      <c r="BJ10" s="2"/>
-      <c r="BK10" s="2"/>
-      <c r="BL10" s="2"/>
-      <c r="BM10" s="2"/>
-      <c r="BN10" s="2"/>
-      <c r="BO10" s="2"/>
-      <c r="BP10" s="2"/>
-      <c r="BQ10" s="2"/>
-      <c r="BR10" s="2"/>
-      <c r="BS10" s="2"/>
-      <c r="BT10" s="2"/>
-      <c r="BU10" s="2"/>
-      <c r="BV10" s="2"/>
-      <c r="BW10" s="2"/>
-      <c r="BX10" s="2"/>
-      <c r="BY10" s="2"/>
-      <c r="BZ10" s="2"/>
-      <c r="CA10" s="2"/>
-      <c r="CB10" s="2"/>
-      <c r="CC10" s="2"/>
-      <c r="CD10" s="2"/>
-      <c r="CE10" s="2"/>
-      <c r="CF10" s="2"/>
-      <c r="CG10" s="2"/>
+      <c r="AY10" s="3"/>
+      <c r="AZ10" s="3"/>
+      <c r="BA10" s="3"/>
+      <c r="BB10" s="3"/>
+      <c r="BC10" s="3"/>
+      <c r="BD10" s="3"/>
+      <c r="BE10" s="3"/>
+      <c r="BF10" s="3"/>
+      <c r="BG10" s="3"/>
+      <c r="BH10" s="3"/>
+      <c r="BI10" s="3"/>
+      <c r="BJ10" s="3"/>
+      <c r="BK10" s="3"/>
+      <c r="BL10" s="3"/>
+      <c r="BM10" s="3"/>
+      <c r="BN10" s="3"/>
+      <c r="BO10" s="3"/>
+      <c r="BP10" s="3"/>
+      <c r="BQ10" s="3"/>
+      <c r="BR10" s="3"/>
+      <c r="BS10" s="3"/>
+      <c r="BT10" s="3"/>
+      <c r="BU10" s="3"/>
+      <c r="BV10" s="3"/>
+      <c r="BW10" s="3"/>
+      <c r="BX10" s="3"/>
+      <c r="BY10" s="3"/>
+      <c r="BZ10" s="3"/>
+      <c r="CA10" s="3"/>
+      <c r="CB10" s="3"/>
+      <c r="CC10" s="3"/>
+      <c r="CD10" s="3"/>
+      <c r="CE10" s="3"/>
+      <c r="CF10" s="3"/>
+      <c r="CG10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="6" t="n">
+      <c r="C11" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="D11" s="5" t="n">
+      <c r="D11" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="E11" s="6" t="n">
+      <c r="E11" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="F11" s="2" t="n">
+      <c r="F11" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="G11" s="5" t="n">
+      <c r="G11" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="H11" s="7" t="n">
+      <c r="H11" s="8" t="n">
         <v>6</v>
       </c>
-      <c r="I11" s="2" t="n">
+      <c r="I11" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="J11" s="7" t="n">
+      <c r="J11" s="8" t="n">
         <v>8</v>
       </c>
-      <c r="K11" s="7" t="n">
+      <c r="K11" s="8" t="n">
         <v>9</v>
       </c>
-      <c r="L11" s="2" t="n">
+      <c r="L11" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="M11" s="2" t="n">
+      <c r="M11" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="N11" s="2" t="n">
+      <c r="N11" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="O11" s="5" t="n">
+      <c r="O11" s="6" t="n">
         <v>13</v>
       </c>
-      <c r="P11" s="7" t="n">
+      <c r="P11" s="8" t="n">
         <v>14</v>
       </c>
-      <c r="Q11" s="11" t="n">
+      <c r="Q11" s="12" t="n">
         <v>15</v>
       </c>
-      <c r="R11" s="8" t="n">
+      <c r="R11" s="9" t="n">
         <v>16</v>
       </c>
-      <c r="S11" s="7" t="n">
+      <c r="S11" s="8" t="n">
         <v>17</v>
       </c>
-      <c r="T11" s="8" t="n">
+      <c r="T11" s="9" t="n">
         <v>18</v>
       </c>
-      <c r="U11" s="7" t="n">
+      <c r="U11" s="8" t="n">
         <v>19</v>
       </c>
-      <c r="V11" s="2" t="n">
+      <c r="V11" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="W11" s="2" t="n">
+      <c r="W11" s="3" t="n">
         <v>21</v>
       </c>
-      <c r="X11" s="2" t="n">
+      <c r="X11" s="3" t="n">
         <v>22</v>
       </c>
-      <c r="Y11" s="2" t="n">
+      <c r="Y11" s="3" t="n">
         <v>23</v>
       </c>
-      <c r="Z11" s="2" t="n">
+      <c r="Z11" s="3" t="n">
         <v>24</v>
       </c>
-      <c r="AA11" s="2" t="n">
+      <c r="AA11" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="AB11" s="2" t="n">
+      <c r="AB11" s="3" t="n">
         <v>26</v>
       </c>
-      <c r="AC11" s="8" t="n">
+      <c r="AC11" s="9" t="n">
         <v>27</v>
       </c>
-      <c r="AD11" s="2" t="n">
+      <c r="AD11" s="3" t="n">
         <v>28</v>
       </c>
-      <c r="AE11" s="2" t="n">
+      <c r="AE11" s="3" t="n">
         <v>29</v>
       </c>
-      <c r="AF11" s="2" t="n">
+      <c r="AF11" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="AG11" s="11" t="n">
+      <c r="AG11" s="12" t="n">
         <v>31</v>
       </c>
-      <c r="AH11" s="2" t="n">
+      <c r="AH11" s="3" t="n">
         <v>32</v>
       </c>
-      <c r="AI11" s="2" t="n">
+      <c r="AI11" s="3" t="n">
         <v>33</v>
       </c>
-      <c r="AJ11" s="7" t="n">
+      <c r="AJ11" s="8" t="n">
         <v>34</v>
       </c>
-      <c r="AK11" s="2" t="n">
+      <c r="AK11" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="AL11" s="11" t="n">
+      <c r="AL11" s="12" t="n">
         <v>36</v>
       </c>
-      <c r="AM11" s="8" t="n">
+      <c r="AM11" s="9" t="n">
         <v>37</v>
       </c>
-      <c r="AN11" s="7" t="n">
+      <c r="AN11" s="8" t="n">
         <v>38</v>
       </c>
-      <c r="AO11" s="2" t="n">
+      <c r="AO11" s="3" t="n">
         <v>39</v>
       </c>
-      <c r="AP11" s="9" t="n">
+      <c r="AP11" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="AQ11" s="11" t="n">
+      <c r="AQ11" s="12" t="n">
         <v>40</v>
       </c>
-      <c r="AR11" s="2" t="n">
+      <c r="AR11" s="3" t="n">
         <v>41</v>
       </c>
-      <c r="AS11" s="2" t="n">
+      <c r="AS11" s="3" t="n">
         <v>42</v>
       </c>
-      <c r="AT11" s="2" t="n">
+      <c r="AT11" s="3" t="n">
         <v>43</v>
       </c>
-      <c r="AU11" s="2" t="n">
+      <c r="AU11" s="3" t="n">
         <v>44</v>
       </c>
-      <c r="AV11" s="2" t="n">
+      <c r="AV11" s="3" t="n">
         <v>45</v>
       </c>
-      <c r="AW11" s="2" t="n">
+      <c r="AW11" s="3" t="n">
         <v>46</v>
       </c>
-      <c r="AX11" s="2" t="n">
+      <c r="AX11" s="3" t="n">
         <v>47</v>
       </c>
-      <c r="AY11" s="2" t="n">
+      <c r="AY11" s="3" t="n">
         <v>48</v>
       </c>
-      <c r="AZ11" s="8" t="n">
+      <c r="AZ11" s="9" t="n">
         <v>49</v>
       </c>
-      <c r="BA11" s="8" t="n">
+      <c r="BA11" s="9" t="n">
         <v>50</v>
       </c>
-      <c r="BB11" s="11" t="n">
+      <c r="BB11" s="12" t="n">
         <v>51</v>
       </c>
-      <c r="BC11" s="5" t="n">
+      <c r="BC11" s="6" t="n">
         <v>52</v>
       </c>
-      <c r="BD11" s="2"/>
-      <c r="BE11" s="2"/>
-      <c r="BF11" s="2"/>
-      <c r="BG11" s="2"/>
-      <c r="BH11" s="2"/>
-      <c r="BI11" s="2"/>
-      <c r="BJ11" s="2"/>
-      <c r="BK11" s="2"/>
-      <c r="BL11" s="2"/>
-      <c r="BM11" s="2"/>
-      <c r="BN11" s="2"/>
-      <c r="BO11" s="2"/>
-      <c r="BP11" s="2"/>
-      <c r="BQ11" s="2"/>
-      <c r="BR11" s="2"/>
-      <c r="BS11" s="2"/>
-      <c r="BT11" s="2"/>
-      <c r="BU11" s="2"/>
-      <c r="BV11" s="2"/>
-      <c r="BW11" s="2"/>
-      <c r="BX11" s="2"/>
-      <c r="BY11" s="2"/>
-      <c r="BZ11" s="2"/>
-      <c r="CA11" s="2"/>
-      <c r="CB11" s="2"/>
-      <c r="CC11" s="2"/>
-      <c r="CD11" s="2"/>
-      <c r="CE11" s="2"/>
-      <c r="CF11" s="2"/>
-      <c r="CG11" s="2"/>
+      <c r="BD11" s="3"/>
+      <c r="BE11" s="3"/>
+      <c r="BF11" s="3"/>
+      <c r="BG11" s="3"/>
+      <c r="BH11" s="3"/>
+      <c r="BI11" s="3"/>
+      <c r="BJ11" s="3"/>
+      <c r="BK11" s="3"/>
+      <c r="BL11" s="3"/>
+      <c r="BM11" s="3"/>
+      <c r="BN11" s="3"/>
+      <c r="BO11" s="3"/>
+      <c r="BP11" s="3"/>
+      <c r="BQ11" s="3"/>
+      <c r="BR11" s="3"/>
+      <c r="BS11" s="3"/>
+      <c r="BT11" s="3"/>
+      <c r="BU11" s="3"/>
+      <c r="BV11" s="3"/>
+      <c r="BW11" s="3"/>
+      <c r="BX11" s="3"/>
+      <c r="BY11" s="3"/>
+      <c r="BZ11" s="3"/>
+      <c r="CA11" s="3"/>
+      <c r="CB11" s="3"/>
+      <c r="CC11" s="3"/>
+      <c r="CD11" s="3"/>
+      <c r="CE11" s="3"/>
+      <c r="CF11" s="3"/>
+      <c r="CG11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="2" t="n">
+      <c r="C12" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="D12" s="11" t="n">
+      <c r="D12" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="E12" s="5" t="n">
+      <c r="E12" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="F12" s="2" t="n">
+      <c r="F12" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="G12" s="2" t="n">
+      <c r="G12" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="H12" s="2" t="n">
+      <c r="H12" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="I12" s="2" t="n">
+      <c r="I12" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="J12" s="7" t="n">
+      <c r="J12" s="8" t="n">
         <v>8</v>
       </c>
-      <c r="K12" s="8" t="n">
+      <c r="K12" s="9" t="n">
         <v>9</v>
       </c>
-      <c r="L12" s="2" t="n">
+      <c r="L12" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="M12" s="2" t="n">
+      <c r="M12" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="N12" s="5" t="n">
+      <c r="N12" s="6" t="n">
         <v>12</v>
       </c>
-      <c r="O12" s="2" t="n">
+      <c r="O12" s="3" t="n">
         <v>13</v>
       </c>
-      <c r="P12" s="2" t="n">
+      <c r="P12" s="3" t="n">
         <v>14</v>
       </c>
-      <c r="Q12" s="8" t="n">
+      <c r="Q12" s="9" t="n">
         <v>15</v>
       </c>
-      <c r="R12" s="8" t="n">
+      <c r="R12" s="9" t="n">
         <v>16</v>
       </c>
-      <c r="S12" s="2" t="n">
+      <c r="S12" s="3" t="n">
         <v>17</v>
       </c>
-      <c r="T12" s="2" t="n">
+      <c r="T12" s="3" t="n">
         <v>18</v>
       </c>
-      <c r="U12" s="2" t="n">
+      <c r="U12" s="3" t="n">
         <v>19</v>
       </c>
-      <c r="V12" s="2" t="n">
+      <c r="V12" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="W12" s="11" t="n">
+      <c r="W12" s="12" t="n">
         <v>21</v>
       </c>
-      <c r="X12" s="11" t="n">
+      <c r="X12" s="12" t="n">
         <v>22</v>
       </c>
-      <c r="Y12" s="2" t="n">
+      <c r="Y12" s="3" t="n">
         <v>23</v>
       </c>
-      <c r="Z12" s="6" t="n">
+      <c r="Z12" s="7" t="n">
         <v>24</v>
       </c>
-      <c r="AA12" s="7" t="n">
+      <c r="AA12" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="AB12" s="7" t="n">
+      <c r="AB12" s="8" t="n">
         <v>26</v>
       </c>
-      <c r="AC12" s="8" t="n">
+      <c r="AC12" s="9" t="n">
         <v>27</v>
       </c>
-      <c r="AD12" s="7" t="n">
+      <c r="AD12" s="8" t="n">
         <v>28</v>
       </c>
-      <c r="AE12" s="11" t="n">
+      <c r="AE12" s="12" t="n">
         <v>29</v>
       </c>
-      <c r="AF12" s="2" t="n">
+      <c r="AF12" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="AG12" s="8" t="n">
+      <c r="AG12" s="9" t="n">
         <v>31</v>
       </c>
-      <c r="AH12" s="7" t="n">
+      <c r="AH12" s="8" t="n">
         <v>32</v>
       </c>
-      <c r="AI12" s="5" t="n">
+      <c r="AI12" s="6" t="n">
         <v>33</v>
       </c>
-      <c r="AJ12" s="2" t="n">
+      <c r="AJ12" s="3" t="n">
         <v>34</v>
       </c>
-      <c r="AK12" s="9" t="n">
+      <c r="AK12" s="10" t="n">
         <v>11</v>
       </c>
-      <c r="AL12" s="2" t="n">
+      <c r="AL12" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="AM12" s="2" t="n">
+      <c r="AM12" s="3" t="n">
         <v>36</v>
       </c>
-      <c r="AN12" s="2" t="n">
+      <c r="AN12" s="3" t="n">
         <v>37</v>
       </c>
-      <c r="AO12" s="2" t="n">
+      <c r="AO12" s="3" t="n">
         <v>38</v>
       </c>
-      <c r="AP12" s="2" t="n">
+      <c r="AP12" s="3" t="n">
         <v>39</v>
       </c>
-      <c r="AQ12" s="2" t="n">
+      <c r="AQ12" s="3" t="n">
         <v>40</v>
       </c>
-      <c r="AR12" s="8" t="n">
+      <c r="AR12" s="9" t="n">
         <v>41</v>
       </c>
-      <c r="AS12" s="2" t="n">
+      <c r="AS12" s="3" t="n">
         <v>42</v>
       </c>
-      <c r="AT12" s="8" t="n">
+      <c r="AT12" s="9" t="n">
         <v>43</v>
       </c>
-      <c r="AU12" s="2" t="n">
+      <c r="AU12" s="3" t="n">
         <v>44</v>
       </c>
-      <c r="AV12" s="2" t="n">
+      <c r="AV12" s="3" t="n">
         <v>45</v>
       </c>
-      <c r="AW12" s="2" t="n">
+      <c r="AW12" s="3" t="n">
         <v>46</v>
       </c>
-      <c r="AX12" s="2" t="n">
+      <c r="AX12" s="3" t="n">
         <v>47</v>
       </c>
-      <c r="AY12" s="5" t="n">
+      <c r="AY12" s="6" t="n">
         <v>48</v>
       </c>
-      <c r="AZ12" s="11" t="n">
+      <c r="AZ12" s="12" t="n">
         <v>49</v>
       </c>
-      <c r="BA12" s="8" t="n">
+      <c r="BA12" s="9" t="n">
         <v>50</v>
       </c>
-      <c r="BB12" s="2" t="n">
+      <c r="BB12" s="3" t="n">
         <v>51</v>
       </c>
-      <c r="BC12" s="7" t="n">
+      <c r="BC12" s="8" t="n">
         <v>52</v>
       </c>
-      <c r="BD12" s="2"/>
-      <c r="BE12" s="2"/>
-      <c r="BF12" s="2"/>
-      <c r="BG12" s="2"/>
-      <c r="BH12" s="2"/>
-      <c r="BI12" s="2"/>
-      <c r="BJ12" s="2"/>
-      <c r="BK12" s="2"/>
-      <c r="BL12" s="2"/>
-      <c r="BM12" s="2"/>
-      <c r="BN12" s="2"/>
-      <c r="BO12" s="2"/>
-      <c r="BP12" s="2"/>
-      <c r="BQ12" s="2"/>
-      <c r="BR12" s="2"/>
-      <c r="BS12" s="2"/>
-      <c r="BT12" s="2"/>
-      <c r="BU12" s="2"/>
-      <c r="BV12" s="2"/>
-      <c r="BW12" s="2"/>
-      <c r="BX12" s="2"/>
-      <c r="BY12" s="2"/>
-      <c r="BZ12" s="2"/>
-      <c r="CA12" s="2"/>
-      <c r="CB12" s="2"/>
-      <c r="CC12" s="2"/>
-      <c r="CD12" s="2"/>
-      <c r="CE12" s="2"/>
-      <c r="CF12" s="2"/>
-      <c r="CG12" s="2"/>
+      <c r="BD12" s="3"/>
+      <c r="BE12" s="3"/>
+      <c r="BF12" s="3"/>
+      <c r="BG12" s="3"/>
+      <c r="BH12" s="3"/>
+      <c r="BI12" s="3"/>
+      <c r="BJ12" s="3"/>
+      <c r="BK12" s="3"/>
+      <c r="BL12" s="3"/>
+      <c r="BM12" s="3"/>
+      <c r="BN12" s="3"/>
+      <c r="BO12" s="3"/>
+      <c r="BP12" s="3"/>
+      <c r="BQ12" s="3"/>
+      <c r="BR12" s="3"/>
+      <c r="BS12" s="3"/>
+      <c r="BT12" s="3"/>
+      <c r="BU12" s="3"/>
+      <c r="BV12" s="3"/>
+      <c r="BW12" s="3"/>
+      <c r="BX12" s="3"/>
+      <c r="BY12" s="3"/>
+      <c r="BZ12" s="3"/>
+      <c r="CA12" s="3"/>
+      <c r="CB12" s="3"/>
+      <c r="CC12" s="3"/>
+      <c r="CD12" s="3"/>
+      <c r="CE12" s="3"/>
+      <c r="CF12" s="3"/>
+      <c r="CG12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="2" t="n">
+      <c r="C13" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="D13" s="7" t="n">
+      <c r="D13" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="E13" s="2" t="n">
+      <c r="E13" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="F13" s="8" t="n">
+      <c r="F13" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="G13" s="2" t="n">
+      <c r="G13" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="H13" s="2" t="n">
+      <c r="H13" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="I13" s="11" t="n">
+      <c r="I13" s="12" t="n">
         <v>7</v>
       </c>
-      <c r="J13" s="11" t="n">
+      <c r="J13" s="12" t="n">
         <v>8</v>
       </c>
-      <c r="K13" s="2" t="n">
+      <c r="K13" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="L13" s="8" t="n">
+      <c r="L13" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="M13" s="2" t="n">
+      <c r="M13" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="N13" s="2" t="n">
+      <c r="N13" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="O13" s="2" t="n">
+      <c r="O13" s="3" t="n">
         <v>13</v>
       </c>
-      <c r="P13" s="5" t="n">
+      <c r="P13" s="6" t="n">
         <v>14</v>
       </c>
-      <c r="Q13" s="2" t="n">
+      <c r="Q13" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="R13" s="2" t="n">
+      <c r="R13" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="S13" s="2" t="n">
+      <c r="S13" s="3" t="n">
         <v>17</v>
       </c>
-      <c r="T13" s="11" t="n">
+      <c r="T13" s="12" t="n">
         <v>18</v>
       </c>
-      <c r="U13" s="8" t="n">
+      <c r="U13" s="9" t="n">
         <v>19</v>
       </c>
-      <c r="V13" s="11" t="n">
+      <c r="V13" s="12" t="n">
         <v>20</v>
       </c>
-      <c r="W13" s="2" t="n">
+      <c r="W13" s="3" t="n">
         <v>21</v>
       </c>
-      <c r="X13" s="2" t="n">
+      <c r="X13" s="3" t="n">
         <v>22</v>
       </c>
-      <c r="Y13" s="8" t="n">
+      <c r="Y13" s="9" t="n">
         <v>23</v>
       </c>
-      <c r="Z13" s="8" t="n">
+      <c r="Z13" s="9" t="n">
         <v>24</v>
       </c>
-      <c r="AA13" s="2" t="n">
+      <c r="AA13" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="AB13" s="2" t="n">
+      <c r="AB13" s="3" t="n">
         <v>26</v>
       </c>
-      <c r="AC13" s="2" t="n">
+      <c r="AC13" s="3" t="n">
         <v>27</v>
       </c>
-      <c r="AD13" s="5" t="n">
+      <c r="AD13" s="6" t="n">
         <v>28</v>
       </c>
-      <c r="AE13" s="2" t="n">
+      <c r="AE13" s="3" t="n">
         <v>29</v>
       </c>
-      <c r="AF13" s="2" t="n">
+      <c r="AF13" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="AG13" s="2" t="n">
+      <c r="AG13" s="3" t="n">
         <v>31</v>
       </c>
-      <c r="AH13" s="9" t="n">
+      <c r="AH13" s="10" t="n">
         <v>12</v>
       </c>
-      <c r="AI13" s="2" t="n">
+      <c r="AI13" s="3" t="n">
         <v>32</v>
       </c>
-      <c r="AJ13" s="2" t="n">
+      <c r="AJ13" s="3" t="n">
         <v>33</v>
       </c>
-      <c r="AK13" s="2" t="n">
+      <c r="AK13" s="3" t="n">
         <v>34</v>
       </c>
-      <c r="AL13" s="2" t="n">
+      <c r="AL13" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="AM13" s="11" t="n">
+      <c r="AM13" s="12" t="n">
         <v>36</v>
       </c>
-      <c r="AN13" s="2" t="n">
+      <c r="AN13" s="3" t="n">
         <v>37</v>
       </c>
-      <c r="AO13" s="2" t="n">
+      <c r="AO13" s="3" t="n">
         <v>38</v>
       </c>
-      <c r="AP13" s="7" t="n">
+      <c r="AP13" s="8" t="n">
         <v>39</v>
       </c>
-      <c r="AQ13" s="2" t="n">
+      <c r="AQ13" s="3" t="n">
         <v>40</v>
       </c>
-      <c r="AR13" s="2" t="n">
+      <c r="AR13" s="3" t="n">
         <v>41</v>
       </c>
-      <c r="AS13" s="7" t="n">
+      <c r="AS13" s="8" t="n">
         <v>42</v>
       </c>
-      <c r="AT13" s="6" t="n">
+      <c r="AT13" s="7" t="n">
         <v>43</v>
       </c>
-      <c r="AU13" s="2" t="n">
+      <c r="AU13" s="3" t="n">
         <v>44</v>
       </c>
-      <c r="AV13" s="2" t="n">
+      <c r="AV13" s="3" t="n">
         <v>45</v>
       </c>
-      <c r="AW13" s="11" t="n">
+      <c r="AW13" s="12" t="n">
         <v>46</v>
       </c>
-      <c r="AX13" s="11" t="n">
+      <c r="AX13" s="12" t="n">
         <v>47</v>
       </c>
-      <c r="AY13" s="11" t="n">
+      <c r="AY13" s="12" t="n">
         <v>48</v>
       </c>
-      <c r="AZ13" s="2" t="n">
+      <c r="AZ13" s="3" t="n">
         <v>49</v>
       </c>
-      <c r="BA13" s="11" t="n">
+      <c r="BA13" s="12" t="n">
         <v>50</v>
       </c>
-      <c r="BB13" s="8" t="n">
+      <c r="BB13" s="9" t="n">
         <v>51</v>
       </c>
-      <c r="BC13" s="2" t="n">
+      <c r="BC13" s="3" t="n">
         <v>52</v>
       </c>
-      <c r="BD13" s="5" t="n">
+      <c r="BD13" s="6" t="n">
         <v>53</v>
       </c>
-      <c r="BE13" s="2"/>
-      <c r="BF13" s="2"/>
-      <c r="BG13" s="2"/>
-      <c r="BH13" s="2"/>
-      <c r="BI13" s="2"/>
-      <c r="BJ13" s="2"/>
-      <c r="BK13" s="2"/>
-      <c r="BL13" s="2"/>
-      <c r="BM13" s="2"/>
-      <c r="BN13" s="2"/>
-      <c r="BO13" s="2"/>
-      <c r="BP13" s="2"/>
-      <c r="BQ13" s="2"/>
-      <c r="BR13" s="2"/>
-      <c r="BS13" s="2"/>
-      <c r="BT13" s="2"/>
-      <c r="BU13" s="2"/>
-      <c r="BV13" s="2"/>
-      <c r="BW13" s="2"/>
-      <c r="BX13" s="2"/>
-      <c r="BY13" s="2"/>
-      <c r="BZ13" s="2"/>
-      <c r="CA13" s="2"/>
-      <c r="CB13" s="2"/>
-      <c r="CC13" s="2"/>
-      <c r="CD13" s="2"/>
-      <c r="CE13" s="2"/>
-      <c r="CF13" s="2"/>
-      <c r="CG13" s="2"/>
+      <c r="BE13" s="3"/>
+      <c r="BF13" s="3"/>
+      <c r="BG13" s="3"/>
+      <c r="BH13" s="3"/>
+      <c r="BI13" s="3"/>
+      <c r="BJ13" s="3"/>
+      <c r="BK13" s="3"/>
+      <c r="BL13" s="3"/>
+      <c r="BM13" s="3"/>
+      <c r="BN13" s="3"/>
+      <c r="BO13" s="3"/>
+      <c r="BP13" s="3"/>
+      <c r="BQ13" s="3"/>
+      <c r="BR13" s="3"/>
+      <c r="BS13" s="3"/>
+      <c r="BT13" s="3"/>
+      <c r="BU13" s="3"/>
+      <c r="BV13" s="3"/>
+      <c r="BW13" s="3"/>
+      <c r="BX13" s="3"/>
+      <c r="BY13" s="3"/>
+      <c r="BZ13" s="3"/>
+      <c r="CA13" s="3"/>
+      <c r="CB13" s="3"/>
+      <c r="CC13" s="3"/>
+      <c r="CD13" s="3"/>
+      <c r="CE13" s="3"/>
+      <c r="CF13" s="3"/>
+      <c r="CG13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="n">
+      <c r="A14" s="3" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="2" t="n">
+      <c r="C14" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="D14" s="2" t="n">
+      <c r="D14" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="E14" s="2" t="n">
+      <c r="E14" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="F14" s="8" t="n">
+      <c r="F14" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="G14" s="8" t="n">
+      <c r="G14" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="H14" s="5" t="n">
+      <c r="H14" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="I14" s="2" t="n">
+      <c r="I14" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="J14" s="2" t="n">
+      <c r="J14" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="K14" s="5" t="n">
+      <c r="K14" s="6" t="n">
         <v>9</v>
       </c>
-      <c r="L14" s="8" t="n">
+      <c r="L14" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="M14" s="2" t="n">
+      <c r="M14" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="N14" s="2" t="n">
+      <c r="N14" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="O14" s="2" t="n">
+      <c r="O14" s="3" t="n">
         <v>13</v>
       </c>
-      <c r="P14" s="8" t="n">
+      <c r="P14" s="9" t="n">
         <v>14</v>
       </c>
-      <c r="Q14" s="2" t="n">
+      <c r="Q14" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="R14" s="2" t="n">
+      <c r="R14" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="S14" s="8" t="n">
+      <c r="S14" s="9" t="n">
         <v>17</v>
       </c>
-      <c r="T14" s="8" t="n">
+      <c r="T14" s="9" t="n">
         <v>18</v>
       </c>
-      <c r="U14" s="8" t="n">
+      <c r="U14" s="9" t="n">
         <v>19</v>
       </c>
-      <c r="V14" s="8" t="n">
+      <c r="V14" s="9" t="n">
         <v>20</v>
       </c>
-      <c r="W14" s="2" t="n">
+      <c r="W14" s="3" t="n">
         <v>21</v>
       </c>
-      <c r="X14" s="9" t="n">
+      <c r="X14" s="10" t="n">
         <v>13</v>
       </c>
-      <c r="Y14" s="8" t="n">
+      <c r="Y14" s="9" t="n">
         <v>22</v>
       </c>
-      <c r="Z14" s="2" t="n">
+      <c r="Z14" s="3" t="n">
         <v>23</v>
       </c>
-      <c r="AA14" s="2" t="n">
+      <c r="AA14" s="3" t="n">
         <v>24</v>
       </c>
-      <c r="AB14" s="8" t="n">
+      <c r="AB14" s="9" t="n">
         <v>25</v>
       </c>
-      <c r="AC14" s="8" t="n">
+      <c r="AC14" s="9" t="n">
         <v>26</v>
       </c>
-      <c r="AD14" s="8" t="n">
+      <c r="AD14" s="9" t="n">
         <v>27</v>
       </c>
-      <c r="AE14" s="8" t="n">
+      <c r="AE14" s="9" t="n">
         <v>28</v>
       </c>
-      <c r="AF14" s="8" t="n">
+      <c r="AF14" s="9" t="n">
         <v>29</v>
       </c>
-      <c r="AG14" s="8" t="n">
+      <c r="AG14" s="9" t="n">
         <v>30</v>
       </c>
-      <c r="AH14" s="8" t="n">
+      <c r="AH14" s="9" t="n">
         <v>31</v>
       </c>
-      <c r="AI14" s="8" t="n">
+      <c r="AI14" s="9" t="n">
         <v>32</v>
       </c>
-      <c r="AJ14" s="7" t="n">
+      <c r="AJ14" s="8" t="n">
         <v>33</v>
       </c>
-      <c r="AK14" s="6" t="n">
+      <c r="AK14" s="7" t="n">
         <v>34</v>
       </c>
-      <c r="AL14" s="2"/>
-      <c r="AM14" s="2"/>
-      <c r="AN14" s="2"/>
-      <c r="AO14" s="2"/>
-      <c r="AP14" s="2"/>
-      <c r="AQ14" s="2"/>
-      <c r="AR14" s="2"/>
-      <c r="AS14" s="2"/>
-      <c r="AT14" s="2"/>
-      <c r="AU14" s="2"/>
-      <c r="AV14" s="2"/>
-      <c r="AW14" s="2"/>
-      <c r="AX14" s="2"/>
-      <c r="AY14" s="2"/>
-      <c r="AZ14" s="2"/>
-      <c r="BA14" s="2"/>
-      <c r="BB14" s="2"/>
-      <c r="BC14" s="2"/>
-      <c r="BD14" s="2"/>
-      <c r="BE14" s="2"/>
-      <c r="BF14" s="2"/>
-      <c r="BG14" s="2"/>
-      <c r="BH14" s="2"/>
-      <c r="BI14" s="2"/>
-      <c r="BJ14" s="2"/>
-      <c r="BK14" s="2"/>
-      <c r="BL14" s="2"/>
-      <c r="BM14" s="2"/>
-      <c r="BN14" s="2"/>
-      <c r="BO14" s="2"/>
-      <c r="BP14" s="2"/>
-      <c r="BQ14" s="2"/>
-      <c r="BR14" s="2"/>
-      <c r="BS14" s="2"/>
-      <c r="BT14" s="2"/>
-      <c r="BU14" s="2"/>
-      <c r="BV14" s="2"/>
-      <c r="BW14" s="2"/>
-      <c r="BX14" s="2"/>
-      <c r="BY14" s="2"/>
-      <c r="BZ14" s="2"/>
-      <c r="CA14" s="2"/>
-      <c r="CB14" s="2"/>
-      <c r="CC14" s="2"/>
-      <c r="CD14" s="2"/>
-      <c r="CE14" s="2"/>
-      <c r="CF14" s="2"/>
-      <c r="CG14" s="2"/>
+      <c r="AL14" s="3"/>
+      <c r="AM14" s="3"/>
+      <c r="AN14" s="3"/>
+      <c r="AO14" s="3"/>
+      <c r="AP14" s="3"/>
+      <c r="AQ14" s="3"/>
+      <c r="AR14" s="3"/>
+      <c r="AS14" s="3"/>
+      <c r="AT14" s="3"/>
+      <c r="AU14" s="3"/>
+      <c r="AV14" s="3"/>
+      <c r="AW14" s="3"/>
+      <c r="AX14" s="3"/>
+      <c r="AY14" s="3"/>
+      <c r="AZ14" s="3"/>
+      <c r="BA14" s="3"/>
+      <c r="BB14" s="3"/>
+      <c r="BC14" s="3"/>
+      <c r="BD14" s="3"/>
+      <c r="BE14" s="3"/>
+      <c r="BF14" s="3"/>
+      <c r="BG14" s="3"/>
+      <c r="BH14" s="3"/>
+      <c r="BI14" s="3"/>
+      <c r="BJ14" s="3"/>
+      <c r="BK14" s="3"/>
+      <c r="BL14" s="3"/>
+      <c r="BM14" s="3"/>
+      <c r="BN14" s="3"/>
+      <c r="BO14" s="3"/>
+      <c r="BP14" s="3"/>
+      <c r="BQ14" s="3"/>
+      <c r="BR14" s="3"/>
+      <c r="BS14" s="3"/>
+      <c r="BT14" s="3"/>
+      <c r="BU14" s="3"/>
+      <c r="BV14" s="3"/>
+      <c r="BW14" s="3"/>
+      <c r="BX14" s="3"/>
+      <c r="BY14" s="3"/>
+      <c r="BZ14" s="3"/>
+      <c r="CA14" s="3"/>
+      <c r="CB14" s="3"/>
+      <c r="CC14" s="3"/>
+      <c r="CD14" s="3"/>
+      <c r="CE14" s="3"/>
+      <c r="CF14" s="3"/>
+      <c r="CG14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="n">
+      <c r="A15" s="3" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="11" t="n">
+      <c r="C15" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="D15" s="6" t="n">
+      <c r="D15" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="E15" s="5" t="n">
+      <c r="E15" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="F15" s="5" t="n">
+      <c r="F15" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="G15" s="8" t="n">
+      <c r="G15" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="H15" s="6" t="n">
+      <c r="H15" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="I15" s="5" t="n">
+      <c r="I15" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="J15" s="2" t="n">
+      <c r="J15" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="K15" s="2" t="n">
+      <c r="K15" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="L15" s="11" t="n">
+      <c r="L15" s="12" t="n">
         <v>10</v>
       </c>
-      <c r="M15" s="7" t="n">
+      <c r="M15" s="8" t="n">
         <v>11</v>
       </c>
-      <c r="N15" s="11" t="n">
+      <c r="N15" s="12" t="n">
         <v>12</v>
       </c>
-      <c r="O15" s="7" t="n">
+      <c r="O15" s="8" t="n">
         <v>13</v>
       </c>
-      <c r="P15" s="2" t="n">
+      <c r="P15" s="3" t="n">
         <v>14</v>
       </c>
-      <c r="Q15" s="8" t="n">
+      <c r="Q15" s="9" t="n">
         <v>15</v>
       </c>
-      <c r="R15" s="8" t="n">
+      <c r="R15" s="9" t="n">
         <v>16</v>
       </c>
-      <c r="S15" s="5" t="n">
+      <c r="S15" s="6" t="n">
         <v>17</v>
       </c>
-      <c r="T15" s="5" t="n">
+      <c r="T15" s="6" t="n">
         <v>18</v>
       </c>
-      <c r="U15" s="2" t="n">
+      <c r="U15" s="3" t="n">
         <v>19</v>
       </c>
-      <c r="V15" s="2" t="n">
+      <c r="V15" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="W15" s="2" t="n">
+      <c r="W15" s="3" t="n">
         <v>21</v>
       </c>
-      <c r="X15" s="5" t="n">
+      <c r="X15" s="6" t="n">
         <v>22</v>
       </c>
-      <c r="Y15" s="8" t="n">
+      <c r="Y15" s="9" t="n">
         <v>23</v>
       </c>
-      <c r="Z15" s="7" t="n">
+      <c r="Z15" s="8" t="n">
         <v>24</v>
       </c>
-      <c r="AA15" s="2" t="n">
+      <c r="AA15" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="AB15" s="2" t="n">
+      <c r="AB15" s="3" t="n">
         <v>26</v>
       </c>
-      <c r="AC15" s="2" t="n">
+      <c r="AC15" s="3" t="n">
         <v>27</v>
       </c>
-      <c r="AD15" s="2" t="n">
+      <c r="AD15" s="3" t="n">
         <v>28</v>
       </c>
-      <c r="AE15" s="2" t="n">
+      <c r="AE15" s="3" t="n">
         <v>29</v>
       </c>
-      <c r="AF15" s="2" t="n">
+      <c r="AF15" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="AG15" s="11" t="n">
+      <c r="AG15" s="12" t="n">
         <v>31</v>
       </c>
-      <c r="AH15" s="5" t="n">
+      <c r="AH15" s="6" t="n">
         <v>32</v>
       </c>
-      <c r="AI15" s="2" t="n">
+      <c r="AI15" s="3" t="n">
         <v>33</v>
       </c>
-      <c r="AJ15" s="5" t="n">
+      <c r="AJ15" s="6" t="n">
         <v>34</v>
       </c>
-      <c r="AK15" s="2" t="n">
+      <c r="AK15" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="AL15" s="2" t="n">
+      <c r="AL15" s="3" t="n">
         <v>36</v>
       </c>
-      <c r="AM15" s="2" t="n">
+      <c r="AM15" s="3" t="n">
         <v>37</v>
       </c>
-      <c r="AN15" s="2" t="n">
+      <c r="AN15" s="3" t="n">
         <v>38</v>
       </c>
-      <c r="AO15" s="2" t="n">
+      <c r="AO15" s="3" t="n">
         <v>39</v>
       </c>
-      <c r="AP15" s="12" t="n">
+      <c r="AP15" s="13" t="n">
         <v>14</v>
       </c>
-      <c r="AQ15" s="2" t="n">
+      <c r="AQ15" s="3" t="n">
         <v>40</v>
       </c>
-      <c r="AR15" s="2" t="n">
+      <c r="AR15" s="3" t="n">
         <v>41</v>
       </c>
-      <c r="AS15" s="2" t="n">
+      <c r="AS15" s="3" t="n">
         <v>42</v>
       </c>
-      <c r="AT15" s="6" t="n">
+      <c r="AT15" s="7" t="n">
         <v>43</v>
       </c>
-      <c r="AU15" s="2" t="n">
+      <c r="AU15" s="3" t="n">
         <v>44</v>
       </c>
-      <c r="AV15" s="2" t="n">
+      <c r="AV15" s="3" t="n">
         <v>45</v>
       </c>
-      <c r="AW15" s="2" t="n">
+      <c r="AW15" s="3" t="n">
         <v>46</v>
       </c>
-      <c r="AX15" s="6" t="n">
+      <c r="AX15" s="7" t="n">
         <v>47</v>
       </c>
-      <c r="AY15" s="2" t="n">
+      <c r="AY15" s="3" t="n">
         <v>48</v>
       </c>
-      <c r="AZ15" s="2"/>
-      <c r="BA15" s="2"/>
-      <c r="BB15" s="2"/>
-      <c r="BC15" s="2"/>
-      <c r="BD15" s="2"/>
-      <c r="BE15" s="2"/>
-      <c r="BF15" s="2"/>
-      <c r="BG15" s="2"/>
-      <c r="BH15" s="2"/>
-      <c r="BI15" s="2"/>
-      <c r="BJ15" s="2"/>
-      <c r="BK15" s="2"/>
-      <c r="BL15" s="2"/>
-      <c r="BM15" s="2"/>
-      <c r="BN15" s="2"/>
-      <c r="BO15" s="2"/>
-      <c r="BP15" s="2"/>
-      <c r="BQ15" s="2"/>
-      <c r="BR15" s="2"/>
-      <c r="BS15" s="2"/>
-      <c r="BT15" s="2"/>
-      <c r="BU15" s="2"/>
-      <c r="BV15" s="2"/>
-      <c r="BW15" s="2"/>
-      <c r="BX15" s="2"/>
-      <c r="BY15" s="2"/>
-      <c r="BZ15" s="2"/>
-      <c r="CA15" s="2"/>
-      <c r="CB15" s="2"/>
-      <c r="CC15" s="2"/>
-      <c r="CD15" s="2"/>
-      <c r="CE15" s="2"/>
-      <c r="CF15" s="2"/>
-      <c r="CG15" s="2"/>
+      <c r="AZ15" s="3"/>
+      <c r="BA15" s="3"/>
+      <c r="BB15" s="3"/>
+      <c r="BC15" s="3"/>
+      <c r="BD15" s="3"/>
+      <c r="BE15" s="3"/>
+      <c r="BF15" s="3"/>
+      <c r="BG15" s="3"/>
+      <c r="BH15" s="3"/>
+      <c r="BI15" s="3"/>
+      <c r="BJ15" s="3"/>
+      <c r="BK15" s="3"/>
+      <c r="BL15" s="3"/>
+      <c r="BM15" s="3"/>
+      <c r="BN15" s="3"/>
+      <c r="BO15" s="3"/>
+      <c r="BP15" s="3"/>
+      <c r="BQ15" s="3"/>
+      <c r="BR15" s="3"/>
+      <c r="BS15" s="3"/>
+      <c r="BT15" s="3"/>
+      <c r="BU15" s="3"/>
+      <c r="BV15" s="3"/>
+      <c r="BW15" s="3"/>
+      <c r="BX15" s="3"/>
+      <c r="BY15" s="3"/>
+      <c r="BZ15" s="3"/>
+      <c r="CA15" s="3"/>
+      <c r="CB15" s="3"/>
+      <c r="CC15" s="3"/>
+      <c r="CD15" s="3"/>
+      <c r="CE15" s="3"/>
+      <c r="CF15" s="3"/>
+      <c r="CG15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="n">
+      <c r="A16" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="2" t="n">
+      <c r="C16" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="D16" s="8" t="n">
+      <c r="D16" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="E16" s="2" t="n">
+      <c r="E16" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="F16" s="2" t="n">
+      <c r="F16" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="G16" s="2" t="n">
+      <c r="G16" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="H16" s="2" t="n">
+      <c r="H16" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="I16" s="2" t="n">
+      <c r="I16" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="J16" s="2" t="n">
+      <c r="J16" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="K16" s="2" t="n">
+      <c r="K16" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="L16" s="2" t="n">
+      <c r="L16" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="M16" s="2" t="n">
+      <c r="M16" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="N16" s="2" t="n">
+      <c r="N16" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="O16" s="5" t="n">
+      <c r="O16" s="6" t="n">
         <v>13</v>
       </c>
-      <c r="P16" s="7" t="n">
+      <c r="P16" s="8" t="n">
         <v>14</v>
       </c>
-      <c r="Q16" s="7" t="n">
+      <c r="Q16" s="8" t="n">
         <v>15</v>
       </c>
-      <c r="R16" s="2" t="n">
+      <c r="R16" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="S16" s="5" t="n">
+      <c r="S16" s="6" t="n">
         <v>17</v>
       </c>
-      <c r="T16" s="2" t="n">
+      <c r="T16" s="3" t="n">
         <v>18</v>
       </c>
-      <c r="U16" s="8" t="n">
+      <c r="U16" s="9" t="n">
         <v>19</v>
       </c>
-      <c r="V16" s="5" t="n">
+      <c r="V16" s="6" t="n">
         <v>20</v>
       </c>
-      <c r="W16" s="2" t="n">
+      <c r="W16" s="3" t="n">
         <v>21</v>
       </c>
-      <c r="X16" s="2" t="n">
+      <c r="X16" s="3" t="n">
         <v>22</v>
       </c>
-      <c r="Y16" s="2" t="n">
+      <c r="Y16" s="3" t="n">
         <v>23</v>
       </c>
-      <c r="Z16" s="2" t="n">
+      <c r="Z16" s="3" t="n">
         <v>24</v>
       </c>
-      <c r="AA16" s="2" t="n">
+      <c r="AA16" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="AB16" s="5" t="n">
+      <c r="AB16" s="6" t="n">
         <v>26</v>
       </c>
-      <c r="AC16" s="2" t="n">
+      <c r="AC16" s="3" t="n">
         <v>27</v>
       </c>
-      <c r="AD16" s="2" t="n">
+      <c r="AD16" s="3" t="n">
         <v>28</v>
       </c>
-      <c r="AE16" s="5" t="n">
+      <c r="AE16" s="6" t="n">
         <v>29</v>
       </c>
-      <c r="AF16" s="2" t="n">
+      <c r="AF16" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="AG16" s="8" t="n">
+      <c r="AG16" s="9" t="n">
         <v>31</v>
       </c>
-      <c r="AH16" s="2" t="n">
+      <c r="AH16" s="3" t="n">
         <v>32</v>
       </c>
-      <c r="AI16" s="2" t="n">
+      <c r="AI16" s="3" t="n">
         <v>33</v>
       </c>
-      <c r="AJ16" s="2" t="n">
+      <c r="AJ16" s="3" t="n">
         <v>34</v>
       </c>
-      <c r="AK16" s="8" t="n">
+      <c r="AK16" s="9" t="n">
         <v>35</v>
       </c>
-      <c r="AL16" s="8" t="n">
+      <c r="AL16" s="9" t="n">
         <v>36</v>
       </c>
-      <c r="AM16" s="2" t="n">
+      <c r="AM16" s="3" t="n">
         <v>37</v>
       </c>
-      <c r="AN16" s="6" t="n">
+      <c r="AN16" s="7" t="n">
         <v>38</v>
       </c>
-      <c r="AO16" s="2" t="n">
+      <c r="AO16" s="3" t="n">
         <v>39</v>
       </c>
-      <c r="AP16" s="2" t="n">
+      <c r="AP16" s="3" t="n">
         <v>40</v>
       </c>
-      <c r="AQ16" s="7" t="n">
+      <c r="AQ16" s="8" t="n">
         <v>41</v>
       </c>
-      <c r="AR16" s="8" t="n">
+      <c r="AR16" s="9" t="n">
         <v>42</v>
       </c>
-      <c r="AS16" s="8" t="n">
+      <c r="AS16" s="9" t="n">
         <v>43</v>
       </c>
-      <c r="AT16" s="8" t="n">
+      <c r="AT16" s="9" t="n">
         <v>44</v>
       </c>
-      <c r="AU16" s="8" t="n">
+      <c r="AU16" s="9" t="n">
         <v>45</v>
       </c>
-      <c r="AV16" s="6" t="n">
+      <c r="AV16" s="7" t="n">
         <v>46</v>
       </c>
-      <c r="AW16" s="2" t="n">
+      <c r="AW16" s="3" t="n">
         <v>47</v>
       </c>
-      <c r="AX16" s="11" t="n">
+      <c r="AX16" s="12" t="n">
         <v>48</v>
       </c>
-      <c r="AY16" s="11" t="n">
+      <c r="AY16" s="12" t="n">
         <v>49</v>
       </c>
-      <c r="AZ16" s="12" t="n">
+      <c r="AZ16" s="13" t="n">
         <v>15</v>
       </c>
-      <c r="BB16" s="2"/>
-      <c r="BC16" s="2"/>
-      <c r="BD16" s="2"/>
-      <c r="BE16" s="2"/>
-      <c r="BF16" s="2"/>
-      <c r="BG16" s="2"/>
-      <c r="BH16" s="2"/>
-      <c r="BI16" s="2"/>
-      <c r="BJ16" s="2"/>
-      <c r="BK16" s="2"/>
-      <c r="BL16" s="2"/>
-      <c r="BM16" s="2"/>
-      <c r="BN16" s="2"/>
-      <c r="BO16" s="2"/>
-      <c r="BP16" s="2"/>
-      <c r="BQ16" s="2"/>
-      <c r="BR16" s="2"/>
-      <c r="BS16" s="2"/>
-      <c r="BT16" s="2"/>
-      <c r="BU16" s="2"/>
-      <c r="BV16" s="2"/>
-      <c r="BW16" s="2"/>
-      <c r="BX16" s="2"/>
-      <c r="BY16" s="2"/>
-      <c r="BZ16" s="2"/>
-      <c r="CA16" s="2"/>
-      <c r="CB16" s="2"/>
-      <c r="CC16" s="2"/>
-      <c r="CD16" s="2"/>
-      <c r="CE16" s="2"/>
-      <c r="CF16" s="2"/>
-      <c r="CG16" s="2"/>
+      <c r="BB16" s="3"/>
+      <c r="BC16" s="3"/>
+      <c r="BD16" s="3"/>
+      <c r="BE16" s="3"/>
+      <c r="BF16" s="3"/>
+      <c r="BG16" s="3"/>
+      <c r="BH16" s="3"/>
+      <c r="BI16" s="3"/>
+      <c r="BJ16" s="3"/>
+      <c r="BK16" s="3"/>
+      <c r="BL16" s="3"/>
+      <c r="BM16" s="3"/>
+      <c r="BN16" s="3"/>
+      <c r="BO16" s="3"/>
+      <c r="BP16" s="3"/>
+      <c r="BQ16" s="3"/>
+      <c r="BR16" s="3"/>
+      <c r="BS16" s="3"/>
+      <c r="BT16" s="3"/>
+      <c r="BU16" s="3"/>
+      <c r="BV16" s="3"/>
+      <c r="BW16" s="3"/>
+      <c r="BX16" s="3"/>
+      <c r="BY16" s="3"/>
+      <c r="BZ16" s="3"/>
+      <c r="CA16" s="3"/>
+      <c r="CB16" s="3"/>
+      <c r="CC16" s="3"/>
+      <c r="CD16" s="3"/>
+      <c r="CE16" s="3"/>
+      <c r="CF16" s="3"/>
+      <c r="CG16" s="3"/>
     </row>
     <row r="17" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="n">
+      <c r="A17" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="2" t="n">
+      <c r="C17" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="D17" s="2" t="n">
+      <c r="D17" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="E17" s="2" t="n">
+      <c r="E17" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="F17" s="8" t="n">
+      <c r="F17" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="G17" s="2" t="n">
+      <c r="G17" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="H17" s="8" t="n">
+      <c r="H17" s="9" t="n">
         <v>6</v>
       </c>
-      <c r="I17" s="8" t="n">
+      <c r="I17" s="9" t="n">
         <v>7</v>
       </c>
-      <c r="J17" s="8" t="n">
+      <c r="J17" s="9" t="n">
         <v>8</v>
       </c>
-      <c r="K17" s="8" t="n">
+      <c r="K17" s="9" t="n">
         <v>9</v>
       </c>
-      <c r="L17" s="8" t="n">
+      <c r="L17" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="M17" s="8" t="n">
+      <c r="M17" s="9" t="n">
         <v>11</v>
       </c>
-      <c r="N17" s="11" t="n">
+      <c r="N17" s="12" t="n">
         <v>12</v>
       </c>
-      <c r="O17" s="11" t="n">
+      <c r="O17" s="12" t="n">
         <v>13</v>
       </c>
-      <c r="P17" s="8" t="n">
+      <c r="P17" s="9" t="n">
         <v>14</v>
       </c>
-      <c r="Q17" s="2" t="n">
+      <c r="Q17" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="R17" s="2" t="n">
+      <c r="R17" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="S17" s="6" t="n">
+      <c r="S17" s="7" t="n">
         <v>17</v>
       </c>
-      <c r="T17" s="2" t="n">
+      <c r="T17" s="3" t="n">
         <v>18</v>
       </c>
-      <c r="U17" s="5" t="n">
+      <c r="U17" s="6" t="n">
         <v>19</v>
       </c>
-      <c r="V17" s="11" t="n">
+      <c r="V17" s="12" t="n">
         <v>20</v>
       </c>
-      <c r="W17" s="11" t="n">
+      <c r="W17" s="12" t="n">
         <v>21</v>
       </c>
-      <c r="X17" s="11" t="n">
+      <c r="X17" s="12" t="n">
         <v>22</v>
       </c>
-      <c r="Y17" s="11" t="n">
+      <c r="Y17" s="12" t="n">
         <v>23</v>
       </c>
-      <c r="Z17" s="11" t="n">
+      <c r="Z17" s="12" t="n">
         <v>24</v>
       </c>
-      <c r="AA17" s="11" t="n">
+      <c r="AA17" s="12" t="n">
         <v>25</v>
       </c>
-      <c r="AB17" s="11" t="n">
+      <c r="AB17" s="12" t="n">
         <v>26</v>
       </c>
-      <c r="AC17" s="2" t="n">
+      <c r="AC17" s="3" t="n">
         <v>27</v>
       </c>
-      <c r="AD17" s="10" t="n">
+      <c r="AD17" s="11" t="n">
         <v>28</v>
       </c>
-      <c r="AE17" s="2" t="n">
+      <c r="AE17" s="3" t="n">
         <v>29</v>
       </c>
-      <c r="AF17" s="2" t="n">
+      <c r="AF17" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="AG17" s="7" t="n">
+      <c r="AG17" s="8" t="n">
         <v>31</v>
       </c>
-      <c r="AH17" s="2" t="n">
+      <c r="AH17" s="3" t="n">
         <v>32</v>
       </c>
-      <c r="AI17" s="2" t="n">
+      <c r="AI17" s="3" t="n">
         <v>33</v>
       </c>
-      <c r="AJ17" s="2" t="n">
+      <c r="AJ17" s="3" t="n">
         <v>34</v>
       </c>
-      <c r="AK17" s="2" t="n">
+      <c r="AK17" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="AL17" s="2" t="n">
+      <c r="AL17" s="3" t="n">
         <v>36</v>
       </c>
-      <c r="AM17" s="9" t="n">
+      <c r="AM17" s="10" t="n">
         <v>16</v>
       </c>
-      <c r="AN17" s="6" t="n">
+      <c r="AN17" s="7" t="n">
         <v>37</v>
       </c>
-      <c r="AO17" s="2" t="n">
+      <c r="AO17" s="3" t="n">
         <v>38</v>
       </c>
-      <c r="AP17" s="2" t="n">
+      <c r="AP17" s="3" t="n">
         <v>39</v>
       </c>
-      <c r="AQ17" s="2" t="n">
+      <c r="AQ17" s="3" t="n">
         <v>40</v>
       </c>
-      <c r="AR17" s="2" t="n">
+      <c r="AR17" s="3" t="n">
         <v>41</v>
       </c>
-      <c r="AS17" s="2" t="n">
+      <c r="AS17" s="3" t="n">
         <v>42</v>
       </c>
-      <c r="AT17" s="2" t="n">
+      <c r="AT17" s="3" t="n">
         <v>43</v>
       </c>
-      <c r="AU17" s="6" t="n">
+      <c r="AU17" s="7" t="n">
         <v>44</v>
       </c>
-      <c r="AV17" s="11" t="n">
+      <c r="AV17" s="12" t="n">
         <v>45</v>
       </c>
-      <c r="AW17" s="2"/>
-      <c r="AX17" s="2"/>
-      <c r="AY17" s="2"/>
-      <c r="AZ17" s="2"/>
-      <c r="BA17" s="2"/>
-      <c r="BB17" s="2"/>
-      <c r="BC17" s="2"/>
-      <c r="BD17" s="2"/>
-      <c r="BE17" s="2"/>
-      <c r="BF17" s="2"/>
-      <c r="BG17" s="2"/>
-      <c r="BH17" s="2"/>
-      <c r="BI17" s="2"/>
-      <c r="BJ17" s="2"/>
-      <c r="BK17" s="2"/>
-      <c r="BL17" s="2"/>
-      <c r="BM17" s="2"/>
-      <c r="BN17" s="2"/>
-      <c r="BO17" s="2"/>
-      <c r="BP17" s="2"/>
-      <c r="BQ17" s="2"/>
-      <c r="BR17" s="2"/>
-      <c r="BS17" s="2"/>
-      <c r="BT17" s="2"/>
-      <c r="BU17" s="2"/>
-      <c r="BV17" s="2"/>
-      <c r="BW17" s="2"/>
-      <c r="BX17" s="2"/>
-      <c r="BY17" s="2"/>
-      <c r="BZ17" s="2"/>
-      <c r="CA17" s="2"/>
-      <c r="CB17" s="2"/>
-      <c r="CC17" s="2"/>
-      <c r="CD17" s="2"/>
-      <c r="CE17" s="2"/>
-      <c r="CF17" s="2"/>
-      <c r="CG17" s="2"/>
+      <c r="AW17" s="3"/>
+      <c r="AX17" s="3"/>
+      <c r="AY17" s="3"/>
+      <c r="AZ17" s="3"/>
+      <c r="BA17" s="3"/>
+      <c r="BB17" s="3"/>
+      <c r="BC17" s="3"/>
+      <c r="BD17" s="3"/>
+      <c r="BE17" s="3"/>
+      <c r="BF17" s="3"/>
+      <c r="BG17" s="3"/>
+      <c r="BH17" s="3"/>
+      <c r="BI17" s="3"/>
+      <c r="BJ17" s="3"/>
+      <c r="BK17" s="3"/>
+      <c r="BL17" s="3"/>
+      <c r="BM17" s="3"/>
+      <c r="BN17" s="3"/>
+      <c r="BO17" s="3"/>
+      <c r="BP17" s="3"/>
+      <c r="BQ17" s="3"/>
+      <c r="BR17" s="3"/>
+      <c r="BS17" s="3"/>
+      <c r="BT17" s="3"/>
+      <c r="BU17" s="3"/>
+      <c r="BV17" s="3"/>
+      <c r="BW17" s="3"/>
+      <c r="BX17" s="3"/>
+      <c r="BY17" s="3"/>
+      <c r="BZ17" s="3"/>
+      <c r="CA17" s="3"/>
+      <c r="CB17" s="3"/>
+      <c r="CC17" s="3"/>
+      <c r="CD17" s="3"/>
+      <c r="CE17" s="3"/>
+      <c r="CF17" s="3"/>
+      <c r="CG17" s="3"/>
     </row>
     <row r="18" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="n">
+      <c r="A18" s="3" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="6" t="n">
+      <c r="C18" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="D18" s="5" t="n">
+      <c r="D18" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="E18" s="5" t="n">
+      <c r="E18" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="F18" s="7" t="n">
+      <c r="F18" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="G18" s="8" t="n">
+      <c r="G18" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="H18" s="8" t="n">
+      <c r="H18" s="9" t="n">
         <v>6</v>
       </c>
-      <c r="I18" s="6" t="n">
+      <c r="I18" s="7" t="n">
         <v>7</v>
       </c>
-      <c r="J18" s="2" t="n">
+      <c r="J18" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="K18" s="2" t="n">
+      <c r="K18" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="L18" s="7" t="n">
+      <c r="L18" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="M18" s="7" t="n">
+      <c r="M18" s="8" t="n">
         <v>11</v>
       </c>
-      <c r="N18" s="2" t="n">
+      <c r="N18" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="O18" s="2" t="n">
+      <c r="O18" s="3" t="n">
         <v>13</v>
       </c>
-      <c r="P18" s="2" t="n">
+      <c r="P18" s="3" t="n">
         <v>14</v>
       </c>
-      <c r="Q18" s="2" t="n">
+      <c r="Q18" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="R18" s="2" t="n">
+      <c r="R18" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="S18" s="2" t="n">
+      <c r="S18" s="3" t="n">
         <v>17</v>
       </c>
-      <c r="T18" s="2" t="n">
+      <c r="T18" s="3" t="n">
         <v>18</v>
       </c>
-      <c r="U18" s="2" t="n">
+      <c r="U18" s="3" t="n">
         <v>19</v>
       </c>
-      <c r="V18" s="8" t="n">
+      <c r="V18" s="9" t="n">
         <v>20</v>
       </c>
-      <c r="W18" s="2" t="n">
+      <c r="W18" s="3" t="n">
         <v>21</v>
       </c>
-      <c r="X18" s="2" t="n">
+      <c r="X18" s="3" t="n">
         <v>22</v>
       </c>
-      <c r="Y18" s="2" t="n">
+      <c r="Y18" s="3" t="n">
         <v>23</v>
       </c>
-      <c r="Z18" s="8" t="n">
+      <c r="Z18" s="9" t="n">
         <v>24</v>
       </c>
-      <c r="AA18" s="2" t="n">
+      <c r="AA18" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="AB18" s="2" t="n">
+      <c r="AB18" s="3" t="n">
         <v>26</v>
       </c>
-      <c r="AC18" s="11" t="n">
+      <c r="AC18" s="12" t="n">
         <v>27</v>
       </c>
-      <c r="AD18" s="2" t="n">
+      <c r="AD18" s="3" t="n">
         <v>28</v>
       </c>
-      <c r="AE18" s="11" t="n">
+      <c r="AE18" s="12" t="n">
         <v>29</v>
       </c>
-      <c r="AF18" s="11" t="n">
+      <c r="AF18" s="12" t="n">
         <v>30</v>
       </c>
-      <c r="AG18" s="11" t="n">
+      <c r="AG18" s="12" t="n">
         <v>31</v>
       </c>
-      <c r="AH18" s="2" t="n">
+      <c r="AH18" s="3" t="n">
         <v>32</v>
       </c>
-      <c r="AI18" s="11" t="n">
+      <c r="AI18" s="12" t="n">
         <v>33</v>
       </c>
-      <c r="AJ18" s="6" t="n">
+      <c r="AJ18" s="7" t="n">
         <v>34</v>
       </c>
-      <c r="AK18" s="5" t="n">
+      <c r="AK18" s="6" t="n">
         <v>35</v>
       </c>
-      <c r="AL18" s="2" t="n">
+      <c r="AL18" s="3" t="n">
         <v>36</v>
       </c>
-      <c r="AM18" s="2" t="n">
+      <c r="AM18" s="3" t="n">
         <v>37</v>
       </c>
-      <c r="AN18" s="12" t="n">
+      <c r="AN18" s="13" t="n">
         <v>17</v>
       </c>
-      <c r="AO18" s="2" t="n">
+      <c r="AO18" s="3" t="n">
         <v>38</v>
       </c>
-      <c r="AP18" s="2" t="n">
+      <c r="AP18" s="3" t="n">
         <v>39</v>
       </c>
-      <c r="AQ18" s="2" t="n">
+      <c r="AQ18" s="3" t="n">
         <v>40</v>
       </c>
-      <c r="AR18" s="2" t="n">
+      <c r="AR18" s="3" t="n">
         <v>41</v>
       </c>
-      <c r="AS18" s="2" t="n">
+      <c r="AS18" s="3" t="n">
         <v>42</v>
       </c>
-      <c r="AT18" s="8" t="n">
+      <c r="AT18" s="9" t="n">
         <v>43</v>
       </c>
-      <c r="AU18" s="2" t="n">
+      <c r="AU18" s="3" t="n">
         <v>44</v>
       </c>
-      <c r="AV18" s="2" t="n">
+      <c r="AV18" s="3" t="n">
         <v>45</v>
       </c>
-      <c r="AW18" s="2" t="n">
+      <c r="AW18" s="3" t="n">
         <v>46</v>
       </c>
-      <c r="AX18" s="7" t="n">
+      <c r="AX18" s="8" t="n">
         <v>47</v>
       </c>
-      <c r="AY18" s="2" t="n">
+      <c r="AY18" s="3" t="n">
         <v>48</v>
       </c>
-      <c r="AZ18" s="2"/>
-      <c r="BA18" s="2"/>
-      <c r="BB18" s="2"/>
-      <c r="BC18" s="2"/>
-      <c r="BD18" s="2"/>
-      <c r="BE18" s="2"/>
-      <c r="BF18" s="2"/>
-      <c r="BG18" s="2"/>
-      <c r="BH18" s="2"/>
-      <c r="BI18" s="2"/>
-      <c r="BJ18" s="2"/>
-      <c r="BK18" s="2"/>
-      <c r="BL18" s="2"/>
-      <c r="BM18" s="2"/>
-      <c r="BN18" s="2"/>
-      <c r="BO18" s="2"/>
-      <c r="BP18" s="2"/>
-      <c r="BQ18" s="2"/>
-      <c r="BR18" s="2"/>
-      <c r="BS18" s="2"/>
-      <c r="BT18" s="2"/>
-      <c r="BU18" s="2"/>
-      <c r="BV18" s="2"/>
-      <c r="BW18" s="2"/>
-      <c r="BX18" s="2"/>
-      <c r="BY18" s="2"/>
-      <c r="BZ18" s="2"/>
-      <c r="CA18" s="2"/>
-      <c r="CB18" s="2"/>
-      <c r="CC18" s="2"/>
-      <c r="CD18" s="2"/>
-      <c r="CE18" s="2"/>
-      <c r="CF18" s="2"/>
-      <c r="CG18" s="2"/>
+      <c r="AZ18" s="3"/>
+      <c r="BA18" s="3"/>
+      <c r="BB18" s="3"/>
+      <c r="BC18" s="3"/>
+      <c r="BD18" s="3"/>
+      <c r="BE18" s="3"/>
+      <c r="BF18" s="3"/>
+      <c r="BG18" s="3"/>
+      <c r="BH18" s="3"/>
+      <c r="BI18" s="3"/>
+      <c r="BJ18" s="3"/>
+      <c r="BK18" s="3"/>
+      <c r="BL18" s="3"/>
+      <c r="BM18" s="3"/>
+      <c r="BN18" s="3"/>
+      <c r="BO18" s="3"/>
+      <c r="BP18" s="3"/>
+      <c r="BQ18" s="3"/>
+      <c r="BR18" s="3"/>
+      <c r="BS18" s="3"/>
+      <c r="BT18" s="3"/>
+      <c r="BU18" s="3"/>
+      <c r="BV18" s="3"/>
+      <c r="BW18" s="3"/>
+      <c r="BX18" s="3"/>
+      <c r="BY18" s="3"/>
+      <c r="BZ18" s="3"/>
+      <c r="CA18" s="3"/>
+      <c r="CB18" s="3"/>
+      <c r="CC18" s="3"/>
+      <c r="CD18" s="3"/>
+      <c r="CE18" s="3"/>
+      <c r="CF18" s="3"/>
+      <c r="CG18" s="3"/>
     </row>
     <row r="19" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="n">
+      <c r="A19" s="3" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="2" t="n">
+      <c r="C19" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="D19" s="2" t="n">
+      <c r="D19" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="E19" s="2" t="n">
+      <c r="E19" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="F19" s="5" t="n">
+      <c r="F19" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="G19" s="2" t="n">
+      <c r="G19" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="H19" s="2" t="n">
+      <c r="H19" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="I19" s="5" t="n">
+      <c r="I19" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="J19" s="2" t="n">
+      <c r="J19" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="K19" s="2" t="n">
+      <c r="K19" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="L19" s="8" t="n">
+      <c r="L19" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="M19" s="2" t="n">
+      <c r="M19" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="N19" s="2" t="n">
+      <c r="N19" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="O19" s="5" t="n">
+      <c r="O19" s="6" t="n">
         <v>13</v>
       </c>
-      <c r="P19" s="7" t="n">
+      <c r="P19" s="8" t="n">
         <v>14</v>
       </c>
-      <c r="Q19" s="2" t="n">
+      <c r="Q19" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="R19" s="7" t="n">
+      <c r="R19" s="8" t="n">
         <v>16</v>
       </c>
-      <c r="S19" s="5" t="n">
+      <c r="S19" s="6" t="n">
         <v>17</v>
       </c>
-      <c r="T19" s="2" t="n">
+      <c r="T19" s="3" t="n">
         <v>18</v>
       </c>
-      <c r="U19" s="8" t="n">
+      <c r="U19" s="9" t="n">
         <v>19</v>
       </c>
-      <c r="V19" s="2" t="n">
+      <c r="V19" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="W19" s="2" t="n">
+      <c r="W19" s="3" t="n">
         <v>21</v>
       </c>
-      <c r="X19" s="11" t="n">
+      <c r="X19" s="12" t="n">
         <v>22</v>
       </c>
-      <c r="Y19" s="2" t="n">
+      <c r="Y19" s="3" t="n">
         <v>23</v>
       </c>
-      <c r="Z19" s="2" t="n">
+      <c r="Z19" s="3" t="n">
         <v>24</v>
       </c>
-      <c r="AA19" s="2" t="n">
+      <c r="AA19" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="AB19" s="8" t="n">
+      <c r="AB19" s="9" t="n">
         <v>26</v>
       </c>
-      <c r="AC19" s="7" t="n">
+      <c r="AC19" s="8" t="n">
         <v>27</v>
       </c>
-      <c r="AD19" s="5" t="n">
+      <c r="AD19" s="6" t="n">
         <v>28</v>
       </c>
-      <c r="AE19" s="2" t="n">
+      <c r="AE19" s="3" t="n">
         <v>29</v>
       </c>
-      <c r="AF19" s="2" t="n">
+      <c r="AF19" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="AG19" s="2" t="n">
+      <c r="AG19" s="3" t="n">
         <v>31</v>
       </c>
-      <c r="AH19" s="8" t="n">
+      <c r="AH19" s="9" t="n">
         <v>32</v>
       </c>
-      <c r="AI19" s="2" t="n">
+      <c r="AI19" s="3" t="n">
         <v>33</v>
       </c>
-      <c r="AJ19" s="7" t="n">
+      <c r="AJ19" s="8" t="n">
         <v>34</v>
       </c>
-      <c r="AK19" s="12" t="n">
+      <c r="AK19" s="13" t="n">
         <v>18</v>
       </c>
-      <c r="AL19" s="2" t="n">
+      <c r="AL19" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="AM19" s="2" t="n">
+      <c r="AM19" s="3" t="n">
         <v>36</v>
       </c>
-      <c r="AN19" s="2" t="n">
+      <c r="AN19" s="3" t="n">
         <v>37</v>
       </c>
-      <c r="AO19" s="5" t="n">
+      <c r="AO19" s="6" t="n">
         <v>38</v>
       </c>
-      <c r="AP19" s="2" t="n">
+      <c r="AP19" s="3" t="n">
         <v>39</v>
       </c>
-      <c r="AQ19" s="2" t="n">
+      <c r="AQ19" s="3" t="n">
         <v>40</v>
       </c>
-      <c r="AR19" s="7" t="n">
+      <c r="AR19" s="8" t="n">
         <v>41</v>
       </c>
-      <c r="AS19" s="2" t="n">
+      <c r="AS19" s="3" t="n">
         <v>42</v>
       </c>
-      <c r="AT19" s="8" t="n">
+      <c r="AT19" s="9" t="n">
         <v>43</v>
       </c>
-      <c r="AU19" s="2" t="n">
+      <c r="AU19" s="3" t="n">
         <v>44</v>
       </c>
-      <c r="AV19" s="8" t="n">
+      <c r="AV19" s="9" t="n">
         <v>45</v>
       </c>
-      <c r="AW19" s="2"/>
-      <c r="AX19" s="2"/>
-      <c r="AY19" s="2"/>
-      <c r="AZ19" s="2"/>
-      <c r="BA19" s="2"/>
-      <c r="BB19" s="2"/>
-      <c r="BC19" s="2"/>
-      <c r="BD19" s="2"/>
-      <c r="BE19" s="2"/>
-      <c r="BF19" s="2"/>
-      <c r="BG19" s="2"/>
-      <c r="BH19" s="2"/>
-      <c r="BI19" s="2"/>
-      <c r="BJ19" s="2"/>
-      <c r="BK19" s="2"/>
-      <c r="BL19" s="2"/>
-      <c r="BM19" s="2"/>
-      <c r="BN19" s="2"/>
-      <c r="BO19" s="2"/>
-      <c r="BP19" s="2"/>
-      <c r="BQ19" s="2"/>
-      <c r="BR19" s="2"/>
-      <c r="BS19" s="2"/>
-      <c r="BT19" s="2"/>
-      <c r="BU19" s="2"/>
-      <c r="BV19" s="2"/>
-      <c r="BW19" s="2"/>
-      <c r="BX19" s="2"/>
-      <c r="BY19" s="2"/>
-      <c r="BZ19" s="2"/>
-      <c r="CA19" s="2"/>
-      <c r="CB19" s="2"/>
-      <c r="CC19" s="2"/>
-      <c r="CD19" s="2"/>
-      <c r="CE19" s="2"/>
-      <c r="CF19" s="2"/>
-      <c r="CG19" s="2"/>
+      <c r="AW19" s="3"/>
+      <c r="AX19" s="3"/>
+      <c r="AY19" s="3"/>
+      <c r="AZ19" s="3"/>
+      <c r="BA19" s="3"/>
+      <c r="BB19" s="3"/>
+      <c r="BC19" s="3"/>
+      <c r="BD19" s="3"/>
+      <c r="BE19" s="3"/>
+      <c r="BF19" s="3"/>
+      <c r="BG19" s="3"/>
+      <c r="BH19" s="3"/>
+      <c r="BI19" s="3"/>
+      <c r="BJ19" s="3"/>
+      <c r="BK19" s="3"/>
+      <c r="BL19" s="3"/>
+      <c r="BM19" s="3"/>
+      <c r="BN19" s="3"/>
+      <c r="BO19" s="3"/>
+      <c r="BP19" s="3"/>
+      <c r="BQ19" s="3"/>
+      <c r="BR19" s="3"/>
+      <c r="BS19" s="3"/>
+      <c r="BT19" s="3"/>
+      <c r="BU19" s="3"/>
+      <c r="BV19" s="3"/>
+      <c r="BW19" s="3"/>
+      <c r="BX19" s="3"/>
+      <c r="BY19" s="3"/>
+      <c r="BZ19" s="3"/>
+      <c r="CA19" s="3"/>
+      <c r="CB19" s="3"/>
+      <c r="CC19" s="3"/>
+      <c r="CD19" s="3"/>
+      <c r="CE19" s="3"/>
+      <c r="CF19" s="3"/>
+      <c r="CG19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="n">
+      <c r="A20" s="3" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="11" t="n">
+      <c r="C20" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="D20" s="11" t="n">
+      <c r="D20" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="E20" s="2" t="n">
+      <c r="E20" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="F20" s="2" t="n">
+      <c r="F20" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="G20" s="2" t="n">
+      <c r="G20" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="H20" s="2" t="n">
+      <c r="H20" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="I20" s="5" t="n">
+      <c r="I20" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="J20" s="8" t="n">
+      <c r="J20" s="9" t="n">
         <v>8</v>
       </c>
-      <c r="K20" s="2" t="n">
+      <c r="K20" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="L20" s="2" t="n">
+      <c r="L20" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="M20" s="2" t="n">
+      <c r="M20" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="N20" s="7" t="n">
+      <c r="N20" s="8" t="n">
         <v>12</v>
       </c>
-      <c r="O20" s="11" t="n">
+      <c r="O20" s="12" t="n">
         <v>13</v>
       </c>
-      <c r="P20" s="2" t="n">
+      <c r="P20" s="3" t="n">
         <v>14</v>
       </c>
-      <c r="Q20" s="2" t="n">
+      <c r="Q20" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="R20" s="8" t="n">
+      <c r="R20" s="9" t="n">
         <v>16</v>
       </c>
-      <c r="S20" s="5" t="n">
+      <c r="S20" s="6" t="n">
         <v>17</v>
       </c>
-      <c r="T20" s="2" t="n">
+      <c r="T20" s="3" t="n">
         <v>18</v>
       </c>
-      <c r="U20" s="8" t="n">
+      <c r="U20" s="9" t="n">
         <v>19</v>
       </c>
-      <c r="V20" s="8" t="n">
+      <c r="V20" s="9" t="n">
         <v>20</v>
       </c>
-      <c r="W20" s="2" t="n">
+      <c r="W20" s="3" t="n">
         <v>21</v>
       </c>
-      <c r="X20" s="2" t="n">
+      <c r="X20" s="3" t="n">
         <v>22</v>
       </c>
-      <c r="Y20" s="2" t="n">
+      <c r="Y20" s="3" t="n">
         <v>23</v>
       </c>
-      <c r="Z20" s="2" t="n">
+      <c r="Z20" s="3" t="n">
         <v>24</v>
       </c>
-      <c r="AA20" s="11" t="n">
+      <c r="AA20" s="12" t="n">
         <v>25</v>
       </c>
-      <c r="AB20" s="2" t="n">
+      <c r="AB20" s="3" t="n">
         <v>26</v>
       </c>
-      <c r="AC20" s="8" t="n">
+      <c r="AC20" s="9" t="n">
         <v>27</v>
       </c>
-      <c r="AD20" s="2" t="n">
+      <c r="AD20" s="3" t="n">
         <v>28</v>
       </c>
-      <c r="AE20" s="8" t="n">
+      <c r="AE20" s="9" t="n">
         <v>29</v>
       </c>
-      <c r="AF20" s="8" t="n">
+      <c r="AF20" s="9" t="n">
         <v>30</v>
       </c>
-      <c r="AG20" s="2" t="n">
+      <c r="AG20" s="3" t="n">
         <v>31</v>
       </c>
-      <c r="AH20" s="8" t="n">
+      <c r="AH20" s="9" t="n">
         <v>32</v>
       </c>
-      <c r="AI20" s="8" t="n">
+      <c r="AI20" s="9" t="n">
         <v>33</v>
       </c>
-      <c r="AJ20" s="8" t="n">
+      <c r="AJ20" s="9" t="n">
         <v>34</v>
       </c>
-      <c r="AK20" s="8" t="n">
+      <c r="AK20" s="9" t="n">
         <v>35</v>
       </c>
-      <c r="AL20" s="8" t="n">
+      <c r="AL20" s="9" t="n">
         <v>36</v>
       </c>
-      <c r="AM20" s="8" t="n">
+      <c r="AM20" s="9" t="n">
         <v>37</v>
       </c>
-      <c r="AN20" s="8" t="n">
+      <c r="AN20" s="9" t="n">
         <v>38</v>
       </c>
-      <c r="AO20" s="11" t="n">
+      <c r="AO20" s="12" t="n">
         <v>39</v>
       </c>
-      <c r="AP20" s="11" t="n">
+      <c r="AP20" s="12" t="n">
         <v>40</v>
       </c>
-      <c r="AQ20" s="11" t="n">
+      <c r="AQ20" s="12" t="n">
         <v>41</v>
       </c>
-      <c r="AR20" s="11" t="n">
+      <c r="AR20" s="12" t="n">
         <v>42</v>
       </c>
-      <c r="AS20" s="11" t="n">
+      <c r="AS20" s="12" t="n">
         <v>43</v>
       </c>
-      <c r="AT20" s="2" t="n">
+      <c r="AT20" s="3" t="n">
         <v>44</v>
       </c>
-      <c r="AU20" s="2" t="n">
+      <c r="AU20" s="3" t="n">
         <v>45</v>
       </c>
-      <c r="AV20" s="11" t="n">
+      <c r="AV20" s="12" t="n">
         <v>46</v>
       </c>
-      <c r="AW20" s="6" t="n">
+      <c r="AW20" s="7" t="n">
         <v>47</v>
       </c>
-      <c r="AX20" s="12" t="n">
+      <c r="AX20" s="13" t="n">
         <v>19</v>
       </c>
-      <c r="AY20" s="2"/>
-      <c r="AZ20" s="2"/>
-      <c r="BA20" s="2"/>
-      <c r="BB20" s="2"/>
-      <c r="BC20" s="2"/>
-      <c r="BD20" s="2"/>
-      <c r="BE20" s="2"/>
-      <c r="BF20" s="2"/>
-      <c r="BG20" s="2"/>
-      <c r="BH20" s="2"/>
-      <c r="BI20" s="2"/>
-      <c r="BJ20" s="2"/>
-      <c r="BK20" s="2"/>
-      <c r="BL20" s="2"/>
-      <c r="BM20" s="2"/>
-      <c r="BN20" s="2"/>
-      <c r="BO20" s="2"/>
-      <c r="BP20" s="2"/>
-      <c r="BQ20" s="2"/>
-      <c r="BR20" s="2"/>
-      <c r="BS20" s="2"/>
-      <c r="BT20" s="2"/>
-      <c r="BU20" s="2"/>
-      <c r="BV20" s="2"/>
-      <c r="BW20" s="2"/>
-      <c r="BX20" s="2"/>
-      <c r="BY20" s="2"/>
-      <c r="BZ20" s="2"/>
-      <c r="CA20" s="2"/>
-      <c r="CB20" s="2"/>
-      <c r="CC20" s="2"/>
-      <c r="CD20" s="2"/>
-      <c r="CE20" s="2"/>
-      <c r="CF20" s="2"/>
-      <c r="CG20" s="2"/>
+      <c r="AY20" s="3"/>
+      <c r="AZ20" s="3"/>
+      <c r="BA20" s="3"/>
+      <c r="BB20" s="3"/>
+      <c r="BC20" s="3"/>
+      <c r="BD20" s="3"/>
+      <c r="BE20" s="3"/>
+      <c r="BF20" s="3"/>
+      <c r="BG20" s="3"/>
+      <c r="BH20" s="3"/>
+      <c r="BI20" s="3"/>
+      <c r="BJ20" s="3"/>
+      <c r="BK20" s="3"/>
+      <c r="BL20" s="3"/>
+      <c r="BM20" s="3"/>
+      <c r="BN20" s="3"/>
+      <c r="BO20" s="3"/>
+      <c r="BP20" s="3"/>
+      <c r="BQ20" s="3"/>
+      <c r="BR20" s="3"/>
+      <c r="BS20" s="3"/>
+      <c r="BT20" s="3"/>
+      <c r="BU20" s="3"/>
+      <c r="BV20" s="3"/>
+      <c r="BW20" s="3"/>
+      <c r="BX20" s="3"/>
+      <c r="BY20" s="3"/>
+      <c r="BZ20" s="3"/>
+      <c r="CA20" s="3"/>
+      <c r="CB20" s="3"/>
+      <c r="CC20" s="3"/>
+      <c r="CD20" s="3"/>
+      <c r="CE20" s="3"/>
+      <c r="CF20" s="3"/>
+      <c r="CG20" s="3"/>
     </row>
     <row r="21" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="n">
+      <c r="A21" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="11" t="n">
+      <c r="C21" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="D21" s="11" t="n">
+      <c r="D21" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="E21" s="11" t="n">
+      <c r="E21" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="F21" s="5" t="n">
+      <c r="F21" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="G21" s="2" t="n">
+      <c r="G21" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="H21" s="2" t="n">
+      <c r="H21" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="I21" s="2" t="n">
+      <c r="I21" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="J21" s="2" t="n">
+      <c r="J21" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="K21" s="8" t="n">
+      <c r="K21" s="9" t="n">
         <v>9</v>
       </c>
-      <c r="L21" s="8" t="n">
+      <c r="L21" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="M21" s="2" t="n">
+      <c r="M21" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="N21" s="7" t="n">
+      <c r="N21" s="8" t="n">
         <v>12</v>
       </c>
-      <c r="O21" s="7" t="n">
+      <c r="O21" s="8" t="n">
         <v>13</v>
       </c>
-      <c r="P21" s="7" t="n">
+      <c r="P21" s="8" t="n">
         <v>14</v>
       </c>
-      <c r="Q21" s="5" t="n">
+      <c r="Q21" s="6" t="n">
         <v>15</v>
       </c>
-      <c r="R21" s="2" t="n">
+      <c r="R21" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="S21" s="2" t="n">
+      <c r="S21" s="3" t="n">
         <v>17</v>
       </c>
-      <c r="T21" s="7" t="n">
+      <c r="T21" s="8" t="n">
         <v>18</v>
       </c>
-      <c r="U21" s="2" t="n">
+      <c r="U21" s="3" t="n">
         <v>19</v>
       </c>
-      <c r="V21" s="2" t="n">
+      <c r="V21" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="W21" s="5" t="n">
+      <c r="W21" s="6" t="n">
         <v>21</v>
       </c>
-      <c r="X21" s="2" t="n">
+      <c r="X21" s="3" t="n">
         <v>22</v>
       </c>
-      <c r="Y21" s="2" t="n">
+      <c r="Y21" s="3" t="n">
         <v>23</v>
       </c>
-      <c r="Z21" s="2" t="n">
+      <c r="Z21" s="3" t="n">
         <v>24</v>
       </c>
-      <c r="AA21" s="2" t="n">
+      <c r="AA21" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="AB21" s="7" t="n">
+      <c r="AB21" s="8" t="n">
         <v>26</v>
       </c>
-      <c r="AC21" s="2" t="n">
+      <c r="AC21" s="3" t="n">
         <v>27</v>
       </c>
-      <c r="AD21" s="2" t="n">
+      <c r="AD21" s="3" t="n">
         <v>28</v>
       </c>
-      <c r="AE21" s="2" t="n">
+      <c r="AE21" s="3" t="n">
         <v>29</v>
       </c>
-      <c r="AF21" s="2" t="n">
+      <c r="AF21" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="AG21" s="2" t="n">
+      <c r="AG21" s="3" t="n">
         <v>31</v>
       </c>
-      <c r="AH21" s="2" t="n">
+      <c r="AH21" s="3" t="n">
         <v>32</v>
       </c>
-      <c r="AI21" s="8" t="n">
+      <c r="AI21" s="9" t="n">
         <v>33</v>
       </c>
-      <c r="AJ21" s="7" t="n">
+      <c r="AJ21" s="8" t="n">
         <v>34</v>
       </c>
-      <c r="AK21" s="8" t="n">
+      <c r="AK21" s="9" t="n">
         <v>35</v>
       </c>
-      <c r="AL21" s="8" t="n">
+      <c r="AL21" s="9" t="n">
         <v>36</v>
       </c>
-      <c r="AM21" s="5" t="n">
+      <c r="AM21" s="6" t="n">
         <v>37</v>
       </c>
-      <c r="AN21" s="2" t="n">
+      <c r="AN21" s="3" t="n">
         <v>38</v>
       </c>
-      <c r="AO21" s="2" t="n">
+      <c r="AO21" s="3" t="n">
         <v>39</v>
       </c>
-      <c r="AP21" s="2" t="n">
+      <c r="AP21" s="3" t="n">
         <v>40</v>
       </c>
-      <c r="AQ21" s="2" t="n">
+      <c r="AQ21" s="3" t="n">
         <v>41</v>
       </c>
-      <c r="AR21" s="11" t="n">
+      <c r="AR21" s="12" t="n">
         <v>42</v>
       </c>
-      <c r="AS21" s="8" t="n">
+      <c r="AS21" s="9" t="n">
         <v>43</v>
       </c>
-      <c r="AT21" s="12" t="n">
+      <c r="AT21" s="13" t="n">
         <v>20</v>
       </c>
-      <c r="AU21" s="2"/>
-      <c r="AV21" s="2"/>
-      <c r="AW21" s="2"/>
-      <c r="AX21" s="2"/>
-      <c r="AY21" s="2"/>
-      <c r="AZ21" s="2"/>
-      <c r="BA21" s="2"/>
-      <c r="BB21" s="2"/>
-      <c r="BC21" s="2"/>
-      <c r="BD21" s="2"/>
-      <c r="BE21" s="2"/>
-      <c r="BF21" s="2"/>
-      <c r="BG21" s="2"/>
-      <c r="BH21" s="2"/>
-      <c r="BI21" s="2"/>
-      <c r="BJ21" s="2"/>
-      <c r="BK21" s="2"/>
-      <c r="BL21" s="2"/>
-      <c r="BM21" s="2"/>
-      <c r="BN21" s="2"/>
-      <c r="BO21" s="2"/>
-      <c r="BP21" s="2"/>
-      <c r="BQ21" s="2"/>
-      <c r="BR21" s="2"/>
-      <c r="BS21" s="2"/>
-      <c r="BT21" s="2"/>
-      <c r="BU21" s="2"/>
-      <c r="BV21" s="2"/>
-      <c r="BW21" s="2"/>
-      <c r="BX21" s="2"/>
-      <c r="BY21" s="2"/>
-      <c r="BZ21" s="2"/>
-      <c r="CA21" s="2"/>
-      <c r="CB21" s="2"/>
-      <c r="CC21" s="2"/>
-      <c r="CD21" s="2"/>
-      <c r="CE21" s="2"/>
-      <c r="CF21" s="2"/>
-      <c r="CG21" s="2"/>
+      <c r="AU21" s="3"/>
+      <c r="AV21" s="3"/>
+      <c r="AW21" s="3"/>
+      <c r="AX21" s="3"/>
+      <c r="AY21" s="3"/>
+      <c r="AZ21" s="3"/>
+      <c r="BA21" s="3"/>
+      <c r="BB21" s="3"/>
+      <c r="BC21" s="3"/>
+      <c r="BD21" s="3"/>
+      <c r="BE21" s="3"/>
+      <c r="BF21" s="3"/>
+      <c r="BG21" s="3"/>
+      <c r="BH21" s="3"/>
+      <c r="BI21" s="3"/>
+      <c r="BJ21" s="3"/>
+      <c r="BK21" s="3"/>
+      <c r="BL21" s="3"/>
+      <c r="BM21" s="3"/>
+      <c r="BN21" s="3"/>
+      <c r="BO21" s="3"/>
+      <c r="BP21" s="3"/>
+      <c r="BQ21" s="3"/>
+      <c r="BR21" s="3"/>
+      <c r="BS21" s="3"/>
+      <c r="BT21" s="3"/>
+      <c r="BU21" s="3"/>
+      <c r="BV21" s="3"/>
+      <c r="BW21" s="3"/>
+      <c r="BX21" s="3"/>
+      <c r="BY21" s="3"/>
+      <c r="BZ21" s="3"/>
+      <c r="CA21" s="3"/>
+      <c r="CB21" s="3"/>
+      <c r="CC21" s="3"/>
+      <c r="CD21" s="3"/>
+      <c r="CE21" s="3"/>
+      <c r="CF21" s="3"/>
+      <c r="CG21" s="3"/>
     </row>
     <row r="22" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="n">
+      <c r="A22" s="3" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="11" t="n">
+      <c r="C22" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="D22" s="2" t="n">
+      <c r="D22" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="E22" s="2" t="n">
+      <c r="E22" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="F22" s="11" t="n">
+      <c r="F22" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="G22" s="2" t="n">
+      <c r="G22" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="H22" s="7" t="n">
+      <c r="H22" s="8" t="n">
         <v>6</v>
       </c>
-      <c r="I22" s="5" t="n">
+      <c r="I22" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="J22" s="2" t="n">
+      <c r="J22" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="K22" s="5" t="n">
+      <c r="K22" s="6" t="n">
         <v>9</v>
       </c>
-      <c r="L22" s="2" t="n">
+      <c r="L22" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="M22" s="2" t="n">
+      <c r="M22" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="N22" s="11" t="n">
+      <c r="N22" s="12" t="n">
         <v>12</v>
       </c>
-      <c r="O22" s="2" t="n">
+      <c r="O22" s="3" t="n">
         <v>13</v>
       </c>
-      <c r="P22" s="2" t="n">
+      <c r="P22" s="3" t="n">
         <v>14</v>
       </c>
-      <c r="Q22" s="2" t="n">
+      <c r="Q22" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="R22" s="2" t="n">
+      <c r="R22" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="S22" s="7" t="n">
+      <c r="S22" s="8" t="n">
         <v>17</v>
       </c>
-      <c r="T22" s="2" t="n">
+      <c r="T22" s="3" t="n">
         <v>18</v>
       </c>
-      <c r="U22" s="2" t="n">
+      <c r="U22" s="3" t="n">
         <v>19</v>
       </c>
-      <c r="V22" s="5" t="n">
+      <c r="V22" s="6" t="n">
         <v>20</v>
       </c>
-      <c r="W22" s="2" t="n">
+      <c r="W22" s="3" t="n">
         <v>21</v>
       </c>
-      <c r="X22" s="2" t="n">
+      <c r="X22" s="3" t="n">
         <v>22</v>
       </c>
-      <c r="Y22" s="2" t="n">
+      <c r="Y22" s="3" t="n">
         <v>23</v>
       </c>
-      <c r="Z22" s="2" t="n">
+      <c r="Z22" s="3" t="n">
         <v>24</v>
       </c>
-      <c r="AA22" s="2" t="n">
+      <c r="AA22" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="AB22" s="2" t="n">
+      <c r="AB22" s="3" t="n">
         <v>26</v>
       </c>
-      <c r="AC22" s="2" t="n">
+      <c r="AC22" s="3" t="n">
         <v>27</v>
       </c>
-      <c r="AD22" s="2" t="n">
+      <c r="AD22" s="3" t="n">
         <v>28</v>
       </c>
-      <c r="AE22" s="2" t="n">
+      <c r="AE22" s="3" t="n">
         <v>29</v>
       </c>
-      <c r="AF22" s="2" t="n">
+      <c r="AF22" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="AG22" s="8" t="n">
+      <c r="AG22" s="9" t="n">
         <v>31</v>
       </c>
-      <c r="AH22" s="2" t="n">
+      <c r="AH22" s="3" t="n">
         <v>32</v>
       </c>
-      <c r="AI22" s="2" t="n">
+      <c r="AI22" s="3" t="n">
         <v>33</v>
       </c>
-      <c r="AJ22" s="8" t="n">
+      <c r="AJ22" s="9" t="n">
         <v>34</v>
       </c>
-      <c r="AK22" s="2" t="n">
+      <c r="AK22" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="AL22" s="2" t="n">
+      <c r="AL22" s="3" t="n">
         <v>36</v>
       </c>
-      <c r="AM22" s="2" t="n">
+      <c r="AM22" s="3" t="n">
         <v>37</v>
       </c>
-      <c r="AN22" s="2" t="n">
+      <c r="AN22" s="3" t="n">
         <v>38</v>
       </c>
-      <c r="AO22" s="7" t="n">
+      <c r="AO22" s="8" t="n">
         <v>39</v>
       </c>
-      <c r="AP22" s="2" t="n">
+      <c r="AP22" s="3" t="n">
         <v>40</v>
       </c>
-      <c r="AQ22" s="2" t="n">
+      <c r="AQ22" s="3" t="n">
         <v>41</v>
       </c>
-      <c r="AR22" s="2" t="n">
+      <c r="AR22" s="3" t="n">
         <v>42</v>
       </c>
-      <c r="AS22" s="2" t="n">
+      <c r="AS22" s="3" t="n">
         <v>43</v>
       </c>
-      <c r="AT22" s="2" t="n">
+      <c r="AT22" s="3" t="n">
         <v>44</v>
       </c>
-      <c r="AU22" s="2" t="n">
+      <c r="AU22" s="3" t="n">
         <v>45</v>
       </c>
-      <c r="AV22" s="2" t="n">
+      <c r="AV22" s="3" t="n">
         <v>46</v>
       </c>
-      <c r="AW22" s="11" t="n">
+      <c r="AW22" s="12" t="n">
         <v>47</v>
       </c>
-      <c r="AX22" s="2" t="n">
+      <c r="AX22" s="3" t="n">
         <v>48</v>
       </c>
-      <c r="AY22" s="2" t="n">
+      <c r="AY22" s="3" t="n">
         <v>49</v>
       </c>
-      <c r="AZ22" s="2"/>
-      <c r="BA22" s="2"/>
-      <c r="BB22" s="2"/>
-      <c r="BC22" s="2"/>
-      <c r="BD22" s="2"/>
-      <c r="BE22" s="2"/>
-      <c r="BF22" s="2"/>
-      <c r="BG22" s="2"/>
-      <c r="BH22" s="2"/>
-      <c r="BI22" s="2"/>
-      <c r="BJ22" s="2"/>
-      <c r="BK22" s="2"/>
-      <c r="BL22" s="2"/>
-      <c r="BM22" s="2"/>
-      <c r="BN22" s="2"/>
-      <c r="BO22" s="2"/>
-      <c r="BP22" s="2"/>
-      <c r="BQ22" s="2"/>
-      <c r="BR22" s="2"/>
-      <c r="BS22" s="2"/>
-      <c r="BT22" s="2"/>
-      <c r="BU22" s="2"/>
-      <c r="BV22" s="2"/>
-      <c r="BW22" s="2"/>
-      <c r="BX22" s="2"/>
-      <c r="BY22" s="2"/>
-      <c r="BZ22" s="2"/>
-      <c r="CA22" s="2"/>
-      <c r="CB22" s="2"/>
-      <c r="CC22" s="2"/>
-      <c r="CD22" s="2"/>
-      <c r="CE22" s="2"/>
-      <c r="CF22" s="2"/>
-      <c r="CG22" s="2"/>
+      <c r="AZ22" s="3"/>
+      <c r="BA22" s="3"/>
+      <c r="BB22" s="3"/>
+      <c r="BC22" s="3"/>
+      <c r="BD22" s="3"/>
+      <c r="BE22" s="3"/>
+      <c r="BF22" s="3"/>
+      <c r="BG22" s="3"/>
+      <c r="BH22" s="3"/>
+      <c r="BI22" s="3"/>
+      <c r="BJ22" s="3"/>
+      <c r="BK22" s="3"/>
+      <c r="BL22" s="3"/>
+      <c r="BM22" s="3"/>
+      <c r="BN22" s="3"/>
+      <c r="BO22" s="3"/>
+      <c r="BP22" s="3"/>
+      <c r="BQ22" s="3"/>
+      <c r="BR22" s="3"/>
+      <c r="BS22" s="3"/>
+      <c r="BT22" s="3"/>
+      <c r="BU22" s="3"/>
+      <c r="BV22" s="3"/>
+      <c r="BW22" s="3"/>
+      <c r="BX22" s="3"/>
+      <c r="BY22" s="3"/>
+      <c r="BZ22" s="3"/>
+      <c r="CA22" s="3"/>
+      <c r="CB22" s="3"/>
+      <c r="CC22" s="3"/>
+      <c r="CD22" s="3"/>
+      <c r="CE22" s="3"/>
+      <c r="CF22" s="3"/>
+      <c r="CG22" s="3"/>
     </row>
     <row r="23" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="n">
+      <c r="A23" s="3" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="2" t="n">
+      <c r="C23" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="D23" s="2" t="n">
+      <c r="D23" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="E23" s="2" t="n">
+      <c r="E23" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="F23" s="2" t="n">
+      <c r="F23" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="G23" s="2" t="n">
+      <c r="G23" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="H23" s="2" t="n">
+      <c r="H23" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="I23" s="7" t="n">
+      <c r="I23" s="8" t="n">
         <v>7</v>
       </c>
-      <c r="J23" s="2" t="n">
+      <c r="J23" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="K23" s="2" t="n">
+      <c r="K23" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="L23" s="6" t="n">
+      <c r="L23" s="7" t="n">
         <v>10</v>
       </c>
-      <c r="M23" s="6" t="n">
+      <c r="M23" s="7" t="n">
         <v>11</v>
       </c>
-      <c r="N23" s="2" t="n">
+      <c r="N23" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="O23" s="2" t="n">
+      <c r="O23" s="3" t="n">
         <v>13</v>
       </c>
-      <c r="P23" s="11" t="n">
+      <c r="P23" s="12" t="n">
         <v>14</v>
       </c>
-      <c r="Q23" s="2" t="n">
+      <c r="Q23" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="R23" s="11" t="n">
+      <c r="R23" s="12" t="n">
         <v>16</v>
       </c>
-      <c r="S23" s="8" t="n">
+      <c r="S23" s="9" t="n">
         <v>17</v>
       </c>
-      <c r="T23" s="2" t="n">
+      <c r="T23" s="3" t="n">
         <v>18</v>
       </c>
-      <c r="U23" s="2" t="n">
+      <c r="U23" s="3" t="n">
         <v>19</v>
       </c>
-      <c r="V23" s="5" t="n">
+      <c r="V23" s="6" t="n">
         <v>20</v>
       </c>
-      <c r="W23" s="2" t="n">
+      <c r="W23" s="3" t="n">
         <v>21</v>
       </c>
-      <c r="X23" s="2" t="n">
+      <c r="X23" s="3" t="n">
         <v>22</v>
       </c>
-      <c r="Y23" s="2" t="n">
+      <c r="Y23" s="3" t="n">
         <v>23</v>
       </c>
-      <c r="Z23" s="2" t="n">
+      <c r="Z23" s="3" t="n">
         <v>24</v>
       </c>
-      <c r="AA23" s="2" t="n">
+      <c r="AA23" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="AB23" s="2" t="n">
+      <c r="AB23" s="3" t="n">
         <v>26</v>
       </c>
-      <c r="AC23" s="2" t="n">
+      <c r="AC23" s="3" t="n">
         <v>27</v>
       </c>
-      <c r="AD23" s="7" t="n">
+      <c r="AD23" s="8" t="n">
         <v>28</v>
       </c>
-      <c r="AE23" s="2" t="n">
+      <c r="AE23" s="3" t="n">
         <v>29</v>
       </c>
-      <c r="AF23" s="2" t="n">
+      <c r="AF23" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="AG23" s="2" t="n">
+      <c r="AG23" s="3" t="n">
         <v>31</v>
       </c>
-      <c r="AH23" s="2" t="n">
+      <c r="AH23" s="3" t="n">
         <v>32</v>
       </c>
-      <c r="AI23" s="2" t="n">
+      <c r="AI23" s="3" t="n">
         <v>33</v>
       </c>
-      <c r="AJ23" s="2" t="n">
+      <c r="AJ23" s="3" t="n">
         <v>34</v>
       </c>
-      <c r="AK23" s="7" t="n">
+      <c r="AK23" s="8" t="n">
         <v>35</v>
       </c>
-      <c r="AL23" s="8" t="n">
+      <c r="AL23" s="9" t="n">
         <v>36</v>
       </c>
-      <c r="AM23" s="8" t="n">
+      <c r="AM23" s="9" t="n">
         <v>37</v>
       </c>
-      <c r="AN23" s="8" t="n">
+      <c r="AN23" s="9" t="n">
         <v>38</v>
       </c>
-      <c r="AO23" s="8" t="n">
+      <c r="AO23" s="9" t="n">
         <v>39</v>
       </c>
-      <c r="AP23" s="8" t="n">
+      <c r="AP23" s="9" t="n">
         <v>40</v>
       </c>
-      <c r="AQ23" s="8" t="n">
+      <c r="AQ23" s="9" t="n">
         <v>41</v>
       </c>
-      <c r="AR23" s="8" t="n">
+      <c r="AR23" s="9" t="n">
         <v>42</v>
       </c>
-      <c r="AS23" s="8" t="n">
+      <c r="AS23" s="9" t="n">
         <v>43</v>
       </c>
-      <c r="AT23" s="8" t="n">
+      <c r="AT23" s="9" t="n">
         <v>44</v>
       </c>
-      <c r="AU23" s="8" t="n">
+      <c r="AU23" s="9" t="n">
         <v>45</v>
       </c>
-      <c r="AV23" s="8" t="n">
+      <c r="AV23" s="9" t="n">
         <v>46</v>
       </c>
-      <c r="AW23" s="8" t="n">
+      <c r="AW23" s="9" t="n">
         <v>47</v>
       </c>
-      <c r="AX23" s="5" t="n">
+      <c r="AX23" s="6" t="n">
         <v>48</v>
       </c>
-      <c r="AY23" s="8" t="n">
+      <c r="AY23" s="9" t="n">
         <v>49</v>
       </c>
-      <c r="AZ23" s="8" t="n">
+      <c r="AZ23" s="9" t="n">
         <v>50</v>
       </c>
-      <c r="BA23" s="8" t="n">
+      <c r="BA23" s="9" t="n">
         <v>51</v>
       </c>
-      <c r="BB23" s="8" t="n">
+      <c r="BB23" s="9" t="n">
         <v>52</v>
       </c>
-      <c r="BC23" s="14" t="n">
+      <c r="BC23" s="15" t="n">
         <v>53</v>
       </c>
-      <c r="BD23" s="6" t="n">
+      <c r="BD23" s="7" t="n">
         <v>54</v>
       </c>
-      <c r="BE23" s="12" t="n">
+      <c r="BE23" s="13" t="n">
         <v>21</v>
       </c>
-      <c r="BF23" s="12" t="n">
+      <c r="BF23" s="13" t="n">
         <v>22</v>
       </c>
-      <c r="BG23" s="2"/>
-      <c r="BH23" s="2"/>
-      <c r="BI23" s="2"/>
-      <c r="BJ23" s="2"/>
-      <c r="BK23" s="2"/>
-      <c r="BL23" s="2"/>
-      <c r="BM23" s="2"/>
-      <c r="BN23" s="2"/>
-      <c r="BO23" s="2"/>
-      <c r="BP23" s="2"/>
-      <c r="BQ23" s="2"/>
-      <c r="BR23" s="2"/>
-      <c r="BS23" s="2"/>
-      <c r="BT23" s="2"/>
-      <c r="BU23" s="2"/>
-      <c r="BV23" s="2"/>
-      <c r="BW23" s="2"/>
-      <c r="BX23" s="2"/>
-      <c r="BY23" s="2"/>
-      <c r="BZ23" s="2"/>
-      <c r="CA23" s="2"/>
-      <c r="CB23" s="2"/>
-      <c r="CC23" s="2"/>
-      <c r="CD23" s="2"/>
-      <c r="CE23" s="2"/>
-      <c r="CF23" s="2"/>
-      <c r="CG23" s="2"/>
+      <c r="BG23" s="3"/>
+      <c r="BH23" s="3"/>
+      <c r="BI23" s="3"/>
+      <c r="BJ23" s="3"/>
+      <c r="BK23" s="3"/>
+      <c r="BL23" s="3"/>
+      <c r="BM23" s="3"/>
+      <c r="BN23" s="3"/>
+      <c r="BO23" s="3"/>
+      <c r="BP23" s="3"/>
+      <c r="BQ23" s="3"/>
+      <c r="BR23" s="3"/>
+      <c r="BS23" s="3"/>
+      <c r="BT23" s="3"/>
+      <c r="BU23" s="3"/>
+      <c r="BV23" s="3"/>
+      <c r="BW23" s="3"/>
+      <c r="BX23" s="3"/>
+      <c r="BY23" s="3"/>
+      <c r="BZ23" s="3"/>
+      <c r="CA23" s="3"/>
+      <c r="CB23" s="3"/>
+      <c r="CC23" s="3"/>
+      <c r="CD23" s="3"/>
+      <c r="CE23" s="3"/>
+      <c r="CF23" s="3"/>
+      <c r="CG23" s="3"/>
     </row>
     <row r="24" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="n">
+      <c r="A24" s="3" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="14" t="n">
+      <c r="C24" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="D24" s="16" t="n">
+      <c r="D24" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="E24" s="2" t="n">
+      <c r="E24" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="F24" s="14" t="n">
+      <c r="F24" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="G24" s="17" t="n">
+      <c r="G24" s="18" t="n">
         <v>5</v>
       </c>
-      <c r="H24" s="18" t="n">
+      <c r="H24" s="19" t="n">
         <v>6</v>
       </c>
-      <c r="I24" s="15" t="n">
+      <c r="I24" s="16" t="n">
         <v>7</v>
       </c>
-      <c r="J24" s="18" t="n">
+      <c r="J24" s="19" t="n">
         <v>8</v>
       </c>
-      <c r="K24" s="18" t="n">
+      <c r="K24" s="19" t="n">
         <v>9</v>
       </c>
-      <c r="L24" s="19" t="n">
+      <c r="L24" s="20" t="n">
         <v>10</v>
       </c>
-      <c r="M24" s="18" t="n">
+      <c r="M24" s="19" t="n">
         <v>11</v>
       </c>
-      <c r="N24" s="14" t="n">
+      <c r="N24" s="15" t="n">
         <v>12</v>
       </c>
-      <c r="O24" s="14" t="n">
+      <c r="O24" s="15" t="n">
         <v>13</v>
       </c>
-      <c r="P24" s="17" t="n">
+      <c r="P24" s="18" t="n">
         <v>14</v>
       </c>
-      <c r="Q24" s="18" t="n">
+      <c r="Q24" s="19" t="n">
         <v>15</v>
       </c>
-      <c r="R24" s="19" t="n">
+      <c r="R24" s="20" t="n">
         <v>16</v>
       </c>
-      <c r="S24" s="17" t="n">
+      <c r="S24" s="18" t="n">
         <v>17</v>
       </c>
-      <c r="T24" s="15" t="n">
+      <c r="T24" s="16" t="n">
         <v>18</v>
       </c>
-      <c r="U24" s="18" t="n">
+      <c r="U24" s="19" t="n">
         <v>19</v>
       </c>
-      <c r="V24" s="15" t="n">
+      <c r="V24" s="16" t="n">
         <v>20</v>
       </c>
-      <c r="W24" s="19" t="n">
+      <c r="W24" s="20" t="n">
         <v>21</v>
       </c>
-      <c r="X24" s="2" t="n">
+      <c r="X24" s="3" t="n">
         <v>22</v>
       </c>
-      <c r="Y24" s="18" t="n">
+      <c r="Y24" s="19" t="n">
         <v>23</v>
       </c>
-      <c r="Z24" s="18" t="n">
+      <c r="Z24" s="19" t="n">
         <v>24</v>
       </c>
-      <c r="AA24" s="15" t="n">
+      <c r="AA24" s="16" t="n">
         <v>25</v>
       </c>
-      <c r="AB24" s="2" t="n">
+      <c r="AB24" s="3" t="n">
         <v>26</v>
       </c>
-      <c r="AC24" s="19" t="n">
+      <c r="AC24" s="20" t="n">
         <v>27</v>
       </c>
-      <c r="AD24" s="17" t="n">
+      <c r="AD24" s="18" t="n">
         <v>28</v>
       </c>
-      <c r="AE24" s="2" t="n">
+      <c r="AE24" s="3" t="n">
         <v>29</v>
       </c>
-      <c r="AF24" s="15" t="n">
+      <c r="AF24" s="16" t="n">
         <v>30</v>
       </c>
-      <c r="AG24" s="18" t="n">
+      <c r="AG24" s="19" t="n">
         <v>31</v>
       </c>
-      <c r="AH24" s="18" t="n">
+      <c r="AH24" s="19" t="n">
         <v>32</v>
       </c>
-      <c r="AI24" s="15" t="n">
+      <c r="AI24" s="16" t="n">
         <v>33</v>
       </c>
-      <c r="AJ24" s="15" t="n">
+      <c r="AJ24" s="16" t="n">
         <v>34</v>
       </c>
-      <c r="AK24" s="17" t="n">
+      <c r="AK24" s="18" t="n">
         <v>35</v>
       </c>
-      <c r="AL24" s="15" t="n">
+      <c r="AL24" s="16" t="n">
         <v>36</v>
       </c>
-      <c r="AM24" s="14" t="n">
+      <c r="AM24" s="15" t="n">
         <v>37</v>
       </c>
-      <c r="AN24" s="17" t="n">
+      <c r="AN24" s="18" t="n">
         <v>38</v>
       </c>
-      <c r="AO24" s="15" t="n">
+      <c r="AO24" s="16" t="n">
         <v>39</v>
       </c>
-      <c r="AP24" s="2" t="n">
+      <c r="AP24" s="3" t="n">
         <v>40</v>
       </c>
-      <c r="AQ24" s="2" t="n">
+      <c r="AQ24" s="3" t="n">
         <v>41</v>
       </c>
-      <c r="AR24" s="14" t="n">
+      <c r="AR24" s="15" t="n">
         <v>42</v>
       </c>
-      <c r="AS24" s="14" t="n">
+      <c r="AS24" s="15" t="n">
         <v>43</v>
       </c>
-      <c r="AT24" s="14" t="n">
+      <c r="AT24" s="15" t="n">
         <v>44</v>
       </c>
-      <c r="AU24" s="14" t="n">
+      <c r="AU24" s="15" t="n">
         <v>45</v>
       </c>
-      <c r="AV24" s="14" t="n">
+      <c r="AV24" s="15" t="n">
         <v>46</v>
       </c>
-      <c r="AW24" s="18" t="n">
+      <c r="AW24" s="19" t="n">
         <v>47</v>
       </c>
-      <c r="AX24" s="2" t="n">
+      <c r="AX24" s="3" t="n">
         <v>48</v>
       </c>
-      <c r="AY24" s="12" t="n">
+      <c r="AY24" s="13" t="n">
         <v>23</v>
       </c>
-      <c r="AZ24" s="2"/>
-      <c r="BA24" s="2"/>
-      <c r="BB24" s="2"/>
-      <c r="BC24" s="2"/>
-      <c r="BD24" s="2"/>
-      <c r="BE24" s="2"/>
-      <c r="BF24" s="2"/>
-      <c r="BG24" s="2"/>
-      <c r="BH24" s="2"/>
-      <c r="BI24" s="2"/>
-      <c r="BJ24" s="2"/>
-      <c r="BK24" s="2"/>
-      <c r="BL24" s="2"/>
-      <c r="BM24" s="2"/>
-      <c r="BN24" s="2"/>
-      <c r="BO24" s="2"/>
-      <c r="BP24" s="2"/>
-      <c r="BQ24" s="2"/>
-      <c r="BR24" s="2"/>
-      <c r="BS24" s="2"/>
-      <c r="BT24" s="2"/>
-      <c r="BU24" s="2"/>
-      <c r="BV24" s="2"/>
-      <c r="BW24" s="2"/>
-      <c r="BX24" s="2"/>
-      <c r="BY24" s="2"/>
-      <c r="BZ24" s="2"/>
-      <c r="CA24" s="2"/>
-      <c r="CB24" s="2"/>
-      <c r="CC24" s="2"/>
-      <c r="CD24" s="2"/>
-      <c r="CE24" s="2"/>
-      <c r="CF24" s="2"/>
-      <c r="CG24" s="2"/>
+      <c r="AZ24" s="3"/>
+      <c r="BA24" s="3"/>
+      <c r="BB24" s="3"/>
+      <c r="BC24" s="3"/>
+      <c r="BD24" s="3"/>
+      <c r="BE24" s="3"/>
+      <c r="BF24" s="3"/>
+      <c r="BG24" s="3"/>
+      <c r="BH24" s="3"/>
+      <c r="BI24" s="3"/>
+      <c r="BJ24" s="3"/>
+      <c r="BK24" s="3"/>
+      <c r="BL24" s="3"/>
+      <c r="BM24" s="3"/>
+      <c r="BN24" s="3"/>
+      <c r="BO24" s="3"/>
+      <c r="BP24" s="3"/>
+      <c r="BQ24" s="3"/>
+      <c r="BR24" s="3"/>
+      <c r="BS24" s="3"/>
+      <c r="BT24" s="3"/>
+      <c r="BU24" s="3"/>
+      <c r="BV24" s="3"/>
+      <c r="BW24" s="3"/>
+      <c r="BX24" s="3"/>
+      <c r="BY24" s="3"/>
+      <c r="BZ24" s="3"/>
+      <c r="CA24" s="3"/>
+      <c r="CB24" s="3"/>
+      <c r="CC24" s="3"/>
+      <c r="CD24" s="3"/>
+      <c r="CE24" s="3"/>
+      <c r="CF24" s="3"/>
+      <c r="CG24" s="3"/>
     </row>
     <row r="25" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="n">
+      <c r="A25" s="3" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="18" t="n">
+      <c r="C25" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="D25" s="19" t="n">
+      <c r="D25" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="E25" s="15" t="n">
+      <c r="E25" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="F25" s="18" t="n">
+      <c r="F25" s="19" t="n">
         <v>4</v>
       </c>
-      <c r="G25" s="17" t="n">
+      <c r="G25" s="18" t="n">
         <v>5</v>
       </c>
-      <c r="H25" s="2" t="n">
+      <c r="H25" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="I25" s="17" t="n">
+      <c r="I25" s="18" t="n">
         <v>7</v>
       </c>
-      <c r="J25" s="14" t="n">
+      <c r="J25" s="15" t="n">
         <v>8</v>
       </c>
-      <c r="K25" s="2" t="n">
+      <c r="K25" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="L25" s="2" t="n">
+      <c r="L25" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="M25" s="17" t="n">
+      <c r="M25" s="18" t="n">
         <v>11</v>
       </c>
-      <c r="N25" s="15" t="n">
+      <c r="N25" s="16" t="n">
         <v>12</v>
       </c>
-      <c r="O25" s="2" t="n">
+      <c r="O25" s="3" t="n">
         <v>13</v>
       </c>
-      <c r="P25" s="19" t="n">
+      <c r="P25" s="20" t="n">
         <v>14</v>
       </c>
-      <c r="Q25" s="2" t="n">
+      <c r="Q25" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="R25" s="17" t="n">
+      <c r="R25" s="18" t="n">
         <v>16</v>
       </c>
-      <c r="S25" s="15" t="n">
+      <c r="S25" s="16" t="n">
         <v>17</v>
       </c>
-      <c r="T25" s="18" t="n">
+      <c r="T25" s="19" t="n">
         <v>18</v>
       </c>
-      <c r="U25" s="2" t="n">
+      <c r="U25" s="3" t="n">
         <v>19</v>
       </c>
-      <c r="V25" s="14" t="n">
+      <c r="V25" s="15" t="n">
         <v>20</v>
       </c>
-      <c r="W25" s="2" t="n">
+      <c r="W25" s="3" t="n">
         <v>21</v>
       </c>
-      <c r="X25" s="18" t="n">
+      <c r="X25" s="19" t="n">
         <v>22</v>
       </c>
-      <c r="Y25" s="17" t="n">
+      <c r="Y25" s="18" t="n">
         <v>23</v>
       </c>
-      <c r="Z25" s="18" t="n">
+      <c r="Z25" s="19" t="n">
         <v>24</v>
       </c>
-      <c r="AA25" s="18" t="n">
+      <c r="AA25" s="19" t="n">
         <v>25</v>
       </c>
-      <c r="AB25" s="2" t="n">
+      <c r="AB25" s="3" t="n">
         <v>26</v>
       </c>
-      <c r="AC25" s="2" t="n">
+      <c r="AC25" s="3" t="n">
         <v>27</v>
       </c>
-      <c r="AD25" s="18" t="n">
+      <c r="AD25" s="19" t="n">
         <v>28</v>
       </c>
-      <c r="AE25" s="15" t="n">
+      <c r="AE25" s="16" t="n">
         <v>29</v>
       </c>
-      <c r="AF25" s="17" t="n">
+      <c r="AF25" s="18" t="n">
         <v>30</v>
       </c>
-      <c r="AG25" s="2" t="n">
+      <c r="AG25" s="3" t="n">
         <v>31</v>
       </c>
-      <c r="AH25" s="18" t="n">
+      <c r="AH25" s="19" t="n">
         <v>32</v>
       </c>
-      <c r="AI25" s="18" t="n">
+      <c r="AI25" s="19" t="n">
         <v>33</v>
       </c>
-      <c r="AJ25" s="18" t="n">
+      <c r="AJ25" s="19" t="n">
         <v>34</v>
       </c>
-      <c r="AK25" s="18" t="n">
+      <c r="AK25" s="19" t="n">
         <v>35</v>
       </c>
-      <c r="AL25" s="14" t="n">
+      <c r="AL25" s="15" t="n">
         <v>36</v>
       </c>
-      <c r="AM25" s="15" t="n">
+      <c r="AM25" s="16" t="n">
         <v>37</v>
       </c>
-      <c r="AN25" s="15" t="n">
+      <c r="AN25" s="16" t="n">
         <v>38</v>
       </c>
-      <c r="AO25" s="2" t="n">
+      <c r="AO25" s="3" t="n">
         <v>39</v>
       </c>
-      <c r="AP25" s="18" t="n">
+      <c r="AP25" s="19" t="n">
         <v>40</v>
       </c>
-      <c r="AQ25" s="14" t="n">
+      <c r="AQ25" s="15" t="n">
         <v>41</v>
       </c>
-      <c r="AR25" s="14" t="n">
+      <c r="AR25" s="15" t="n">
         <v>42</v>
       </c>
-      <c r="AS25" s="2"/>
-      <c r="AT25" s="2"/>
-      <c r="AU25" s="2"/>
-      <c r="AV25" s="2"/>
-      <c r="AW25" s="2"/>
-      <c r="AX25" s="2"/>
-      <c r="AY25" s="2"/>
-      <c r="AZ25" s="2"/>
-      <c r="BA25" s="2"/>
-      <c r="BB25" s="2"/>
-      <c r="BC25" s="2"/>
-      <c r="BD25" s="2"/>
-      <c r="BE25" s="2"/>
-      <c r="BF25" s="2"/>
-      <c r="BG25" s="2"/>
-      <c r="BH25" s="2"/>
-      <c r="BI25" s="2"/>
-      <c r="BJ25" s="2"/>
-      <c r="BK25" s="2"/>
-      <c r="BL25" s="2"/>
-      <c r="BM25" s="2"/>
-      <c r="BN25" s="2"/>
-      <c r="BO25" s="2"/>
-      <c r="BP25" s="2"/>
-      <c r="BQ25" s="2"/>
-      <c r="BR25" s="2"/>
-      <c r="BS25" s="2"/>
-      <c r="BT25" s="2"/>
-      <c r="BU25" s="2"/>
-      <c r="BV25" s="2"/>
-      <c r="BW25" s="2"/>
-      <c r="BX25" s="2"/>
-      <c r="BY25" s="2"/>
-      <c r="BZ25" s="2"/>
-      <c r="CA25" s="2"/>
-      <c r="CB25" s="2"/>
-      <c r="CC25" s="2"/>
-      <c r="CD25" s="2"/>
-      <c r="CE25" s="2"/>
-      <c r="CF25" s="2"/>
-      <c r="CG25" s="2"/>
+      <c r="AS25" s="3"/>
+      <c r="AT25" s="3"/>
+      <c r="AU25" s="3"/>
+      <c r="AV25" s="3"/>
+      <c r="AW25" s="3"/>
+      <c r="AX25" s="3"/>
+      <c r="AY25" s="3"/>
+      <c r="AZ25" s="3"/>
+      <c r="BA25" s="3"/>
+      <c r="BB25" s="3"/>
+      <c r="BC25" s="3"/>
+      <c r="BD25" s="3"/>
+      <c r="BE25" s="3"/>
+      <c r="BF25" s="3"/>
+      <c r="BG25" s="3"/>
+      <c r="BH25" s="3"/>
+      <c r="BI25" s="3"/>
+      <c r="BJ25" s="3"/>
+      <c r="BK25" s="3"/>
+      <c r="BL25" s="3"/>
+      <c r="BM25" s="3"/>
+      <c r="BN25" s="3"/>
+      <c r="BO25" s="3"/>
+      <c r="BP25" s="3"/>
+      <c r="BQ25" s="3"/>
+      <c r="BR25" s="3"/>
+      <c r="BS25" s="3"/>
+      <c r="BT25" s="3"/>
+      <c r="BU25" s="3"/>
+      <c r="BV25" s="3"/>
+      <c r="BW25" s="3"/>
+      <c r="BX25" s="3"/>
+      <c r="BY25" s="3"/>
+      <c r="BZ25" s="3"/>
+      <c r="CA25" s="3"/>
+      <c r="CB25" s="3"/>
+      <c r="CC25" s="3"/>
+      <c r="CD25" s="3"/>
+      <c r="CE25" s="3"/>
+      <c r="CF25" s="3"/>
+      <c r="CG25" s="3"/>
     </row>
     <row r="26" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="n">
+      <c r="A26" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="18" t="n">
+      <c r="C26" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="D26" s="19" t="n">
+      <c r="D26" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="E26" s="2" t="n">
+      <c r="E26" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="F26" s="18" t="n">
+      <c r="F26" s="19" t="n">
         <v>4</v>
       </c>
-      <c r="G26" s="14" t="n">
+      <c r="G26" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="H26" s="4" t="n">
+      <c r="H26" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="I26" s="18" t="n">
+      <c r="I26" s="19" t="n">
         <v>7</v>
       </c>
-      <c r="J26" s="4" t="n">
+      <c r="J26" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="K26" s="15" t="n">
+      <c r="K26" s="16" t="n">
         <v>9</v>
       </c>
-      <c r="L26" s="18" t="n">
+      <c r="L26" s="19" t="n">
         <v>10</v>
       </c>
-      <c r="M26" s="4" t="n">
+      <c r="M26" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="N26" s="18" t="n">
+      <c r="N26" s="19" t="n">
         <v>12</v>
       </c>
-      <c r="O26" s="14" t="n">
+      <c r="O26" s="15" t="n">
         <v>13</v>
       </c>
-      <c r="P26" s="15" t="n">
+      <c r="P26" s="16" t="n">
         <v>14</v>
       </c>
-      <c r="Q26" s="15" t="n">
+      <c r="Q26" s="16" t="n">
         <v>15</v>
       </c>
-      <c r="R26" s="4" t="n">
+      <c r="R26" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="S26" s="4" t="n">
+      <c r="S26" s="5" t="n">
         <v>17</v>
       </c>
-      <c r="T26" s="17" t="n">
+      <c r="T26" s="18" t="n">
         <v>18</v>
       </c>
-      <c r="U26" s="15" t="n">
+      <c r="U26" s="16" t="n">
         <v>19</v>
       </c>
-      <c r="V26" s="4" t="n">
+      <c r="V26" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="W26" s="4" t="n">
+      <c r="W26" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="X26" s="4" t="n">
+      <c r="X26" s="5" t="n">
         <v>22</v>
       </c>
-      <c r="Y26" s="17" t="n">
+      <c r="Y26" s="18" t="n">
         <v>23</v>
       </c>
-      <c r="Z26" s="14" t="n">
+      <c r="Z26" s="15" t="n">
         <v>24</v>
       </c>
-      <c r="AA26" s="15" t="n">
+      <c r="AA26" s="16" t="n">
         <v>25</v>
       </c>
-      <c r="AB26" s="15" t="n">
+      <c r="AB26" s="16" t="n">
         <v>26</v>
       </c>
-      <c r="AC26" s="15" t="n">
+      <c r="AC26" s="16" t="n">
         <v>27</v>
       </c>
-      <c r="AD26" s="15" t="n">
+      <c r="AD26" s="16" t="n">
         <v>28</v>
       </c>
-      <c r="AE26" s="4" t="n">
+      <c r="AE26" s="5" t="n">
         <v>29</v>
       </c>
-      <c r="AF26" s="4" t="n">
+      <c r="AF26" s="5" t="n">
         <v>30</v>
       </c>
-      <c r="AG26" s="15" t="n">
+      <c r="AG26" s="16" t="n">
         <v>31</v>
       </c>
-      <c r="AH26" s="15" t="n">
+      <c r="AH26" s="16" t="n">
         <v>32</v>
       </c>
-      <c r="AI26" s="15" t="n">
+      <c r="AI26" s="16" t="n">
         <v>33</v>
       </c>
-      <c r="AJ26" s="15" t="n">
+      <c r="AJ26" s="16" t="n">
         <v>34</v>
       </c>
-      <c r="AK26" s="15" t="n">
+      <c r="AK26" s="16" t="n">
         <v>35</v>
       </c>
-      <c r="AL26" s="15" t="n">
+      <c r="AL26" s="16" t="n">
         <v>36</v>
       </c>
-      <c r="AM26" s="15" t="n">
+      <c r="AM26" s="16" t="n">
         <v>37</v>
       </c>
-      <c r="AN26" s="15" t="n">
+      <c r="AN26" s="16" t="n">
         <v>38</v>
       </c>
-      <c r="AO26" s="8" t="n">
+      <c r="AO26" s="9" t="n">
         <v>39</v>
       </c>
-      <c r="AP26" s="8" t="n">
+      <c r="AP26" s="9" t="n">
         <v>40</v>
       </c>
-      <c r="AQ26" s="8" t="n">
+      <c r="AQ26" s="9" t="n">
         <v>41</v>
       </c>
-      <c r="AR26" s="8" t="n">
+      <c r="AR26" s="9" t="n">
         <v>42</v>
       </c>
-      <c r="AS26" s="14" t="n">
+      <c r="AS26" s="15" t="n">
         <v>43</v>
       </c>
-      <c r="AT26" s="14" t="n">
+      <c r="AT26" s="15" t="n">
         <v>44</v>
       </c>
-      <c r="AU26" s="6" t="n">
+      <c r="AU26" s="7" t="n">
         <v>45</v>
       </c>
-      <c r="AV26" s="6" t="n">
+      <c r="AV26" s="7" t="n">
         <v>46</v>
       </c>
-      <c r="AW26" s="2"/>
-      <c r="AX26" s="2"/>
-      <c r="AY26" s="2"/>
-      <c r="AZ26" s="2"/>
-      <c r="BA26" s="2"/>
-      <c r="BB26" s="2"/>
-      <c r="BC26" s="2"/>
-      <c r="BD26" s="2"/>
-      <c r="BE26" s="2"/>
-      <c r="BF26" s="2"/>
-      <c r="BG26" s="2"/>
-      <c r="BH26" s="2"/>
-      <c r="BI26" s="2"/>
-      <c r="BJ26" s="2"/>
-      <c r="BK26" s="2"/>
-      <c r="BL26" s="2"/>
-      <c r="BM26" s="2"/>
-      <c r="BN26" s="2"/>
-      <c r="BO26" s="2"/>
-      <c r="BP26" s="2"/>
-      <c r="BQ26" s="2"/>
-      <c r="BR26" s="2"/>
-      <c r="BS26" s="2"/>
-      <c r="BT26" s="2"/>
-      <c r="BU26" s="2"/>
-      <c r="BV26" s="2"/>
-      <c r="BW26" s="2"/>
-      <c r="BX26" s="2"/>
-      <c r="BY26" s="2"/>
-      <c r="BZ26" s="2"/>
-      <c r="CA26" s="2"/>
-      <c r="CB26" s="2"/>
-      <c r="CC26" s="2"/>
-      <c r="CD26" s="2"/>
-      <c r="CE26" s="2"/>
-      <c r="CF26" s="2"/>
-      <c r="CG26" s="2"/>
+      <c r="AW26" s="3"/>
+      <c r="AX26" s="3"/>
+      <c r="AY26" s="3"/>
+      <c r="AZ26" s="3"/>
+      <c r="BA26" s="3"/>
+      <c r="BB26" s="3"/>
+      <c r="BC26" s="3"/>
+      <c r="BD26" s="3"/>
+      <c r="BE26" s="3"/>
+      <c r="BF26" s="3"/>
+      <c r="BG26" s="3"/>
+      <c r="BH26" s="3"/>
+      <c r="BI26" s="3"/>
+      <c r="BJ26" s="3"/>
+      <c r="BK26" s="3"/>
+      <c r="BL26" s="3"/>
+      <c r="BM26" s="3"/>
+      <c r="BN26" s="3"/>
+      <c r="BO26" s="3"/>
+      <c r="BP26" s="3"/>
+      <c r="BQ26" s="3"/>
+      <c r="BR26" s="3"/>
+      <c r="BS26" s="3"/>
+      <c r="BT26" s="3"/>
+      <c r="BU26" s="3"/>
+      <c r="BV26" s="3"/>
+      <c r="BW26" s="3"/>
+      <c r="BX26" s="3"/>
+      <c r="BY26" s="3"/>
+      <c r="BZ26" s="3"/>
+      <c r="CA26" s="3"/>
+      <c r="CB26" s="3"/>
+      <c r="CC26" s="3"/>
+      <c r="CD26" s="3"/>
+      <c r="CE26" s="3"/>
+      <c r="CF26" s="3"/>
+      <c r="CG26" s="3"/>
     </row>
     <row r="27" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="28" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="13"/>
+      <c r="D28" s="14"/>
     </row>
     <row r="29" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="21"/>
-      <c r="B29" s="20" t="s">
+      <c r="A29" s="22"/>
+      <c r="B29" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="22"/>
+      <c r="D29" s="23"/>
     </row>
     <row r="30" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="23"/>
-      <c r="B30" s="24" t="s">
+      <c r="A30" s="24"/>
+      <c r="B30" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D30" s="13"/>
+      <c r="D30" s="14"/>
     </row>
     <row r="31" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="25"/>
-      <c r="B31" s="20" t="s">
+      <c r="A31" s="26"/>
+      <c r="B31" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D31" s="13"/>
+      <c r="D31" s="14"/>
     </row>
     <row r="32" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="26"/>
-      <c r="B32" s="20" t="s">
+      <c r="A32" s="27"/>
+      <c r="B32" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="D32" s="13"/>
+      <c r="D32" s="14"/>
     </row>
     <row r="33" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="27"/>
-      <c r="B33" s="20" t="s">
+      <c r="A33" s="28"/>
+      <c r="B33" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="D33" s="13"/>
+      <c r="D33" s="14"/>
     </row>
     <row r="34" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="28"/>
-      <c r="B34" s="20" t="s">
+      <c r="A34" s="29"/>
+      <c r="B34" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="D34" s="13"/>
+      <c r="D34" s="14"/>
     </row>
     <row r="35" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="9"/>
-      <c r="B35" s="20" t="s">
+      <c r="A35" s="10"/>
+      <c r="B35" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="D35" s="22"/>
+      <c r="D35" s="23"/>
     </row>
     <row r="36" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C36" s="29"/>
-      <c r="D36" s="13"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="14"/>
     </row>
     <row r="37" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
